--- a/excel/buff.xlsx
+++ b/excel/buff.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>number</t>
   </si>
@@ -96,6 +96,38 @@
   </si>
   <si>
     <t>逆气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_liuxue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_du</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次步进造成&lt;#x&gt;伤害,回合开始时移除改buff。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束造成&lt;#x&gt;伤害,回合结束时,减少一层。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,34 +453,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>50001</v>
       </c>
@@ -456,7 +507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>50002</v>
       </c>
@@ -464,15 +515,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>50003</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>50004</v>
       </c>
@@ -480,7 +537,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>50005</v>
       </c>
@@ -488,7 +545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>50006</v>
       </c>
@@ -496,7 +553,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>50007</v>
       </c>
@@ -504,7 +561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>50008</v>
       </c>
@@ -512,7 +569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>50009</v>
       </c>
@@ -520,7 +577,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>50010</v>
       </c>
@@ -528,15 +585,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>50011</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>50012</v>
       </c>
@@ -544,7 +607,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>50013</v>
       </c>
@@ -552,7 +615,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>50014</v>
       </c>

--- a/excel/buff.xlsx
+++ b/excel/buff.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2D6DBB-89CA-419E-AC7B-0A702E977144}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>number</t>
   </si>
@@ -128,13 +129,28 @@
   </si>
   <si>
     <t>回合结束造成&lt;#x&gt;伤害,回合结束时,减少一层。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF0707</t>
+  </si>
+  <si>
+    <t>CF0707</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -452,20 +468,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="25.5" customWidth="1"/>
+    <col min="2" max="3" width="25.44140625" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -481,8 +498,11 @@
       <c r="E1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -498,24 +518,33 @@
       <c r="E2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>50001</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>50002</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>50003</v>
       </c>
@@ -528,64 +557,88 @@
       <c r="D5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>50004</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>50005</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>50006</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>50007</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>50008</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>50009</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>50010</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>50011</v>
       </c>
@@ -598,100 +651,115 @@
       <c r="D13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>50012</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>50013</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>50014</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>50015</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>50016</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>50017</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>50018</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>50019</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>50020</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>50021</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>50022</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>50023</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>50024</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>50025</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>50026</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>50027</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>50028</v>
       </c>

--- a/excel/buff.xlsx
+++ b/excel/buff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2D6DBB-89CA-419E-AC7B-0A702E977144}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D12ABBB-7968-469A-ADA9-E31211391852}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>number</t>
   </si>
@@ -135,15 +135,27 @@
     <t>CF0707</t>
   </si>
   <si>
-    <t>CF0707</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>color</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物无法行动,人物每次步进减少一层。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_dianxue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>86C115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2E5AD7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,12 +484,13 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="25.44140625" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
+    <col min="3" max="3" width="37.5546875" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
   </cols>
@@ -499,7 +512,7 @@
         <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -519,7 +532,7 @@
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -529,8 +542,14 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -652,7 +671,7 @@
         <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">

--- a/excel/buff.xlsx
+++ b/excel/buff.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D12ABBB-7968-469A-ADA9-E31211391852}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
   <si>
     <t>number</t>
   </si>
@@ -156,13 +155,56 @@
   </si>
   <si>
     <t>2E5AD7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪千叠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用大浪千叠伤害增加&lt;#x&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藏剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌buff，伤害增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_dalangqiandie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_jiu</t>
+  </si>
+  <si>
+    <t>醉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概率暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概率丢失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_zui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_cangjian</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -480,22 +522,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.44140625" customWidth="1"/>
-    <col min="3" max="3" width="37.5546875" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="37.5" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -515,7 +557,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -535,7 +577,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>50001</v>
       </c>
@@ -552,7 +594,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>50002</v>
       </c>
@@ -563,7 +605,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>50003</v>
       </c>
@@ -580,7 +622,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>50004</v>
       </c>
@@ -591,7 +633,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>50005</v>
       </c>
@@ -602,7 +644,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>50006</v>
       </c>
@@ -613,7 +655,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>50007</v>
       </c>
@@ -624,18 +666,24 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>50008</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
       <c r="F10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>50009</v>
       </c>
@@ -646,7 +694,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>50010</v>
       </c>
@@ -657,7 +705,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>50011</v>
       </c>
@@ -674,7 +722,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>50012</v>
       </c>
@@ -685,7 +733,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>50013</v>
       </c>
@@ -696,7 +744,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>50014</v>
       </c>
@@ -707,7 +755,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>50015</v>
       </c>
@@ -718,67 +766,103 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>50016</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>50017</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>50018</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>50019</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>50020</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>50021</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>50022</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>50023</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>50024</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>50025</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>50026</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>50027</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>50028</v>
       </c>

--- a/excel/buff.xlsx
+++ b/excel/buff.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F05B7A4-22E8-4737-BF31-EFD466070083}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -204,7 +205,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -522,22 +523,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="37.5" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
+    <col min="3" max="3" width="37.44140625" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -557,7 +558,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -577,7 +578,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>50001</v>
       </c>
@@ -594,7 +595,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>50002</v>
       </c>
@@ -605,7 +606,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>50003</v>
       </c>
@@ -622,7 +623,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>50004</v>
       </c>
@@ -633,7 +634,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>50005</v>
       </c>
@@ -644,7 +645,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>50006</v>
       </c>
@@ -655,7 +656,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>50007</v>
       </c>
@@ -666,7 +667,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>50008</v>
       </c>
@@ -683,7 +684,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>50009</v>
       </c>
@@ -694,7 +695,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>50010</v>
       </c>
@@ -705,7 +706,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>50011</v>
       </c>
@@ -722,7 +723,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>50012</v>
       </c>
@@ -733,7 +734,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>50013</v>
       </c>
@@ -744,7 +745,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>50014</v>
       </c>
@@ -755,7 +756,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>50015</v>
       </c>
@@ -766,7 +767,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>50016</v>
       </c>
@@ -783,7 +784,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>50017</v>
       </c>
@@ -800,7 +801,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>50018</v>
       </c>
@@ -817,52 +818,52 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>50019</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>50020</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>50021</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>50022</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>50023</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>50024</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>50025</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>50026</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>50027</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>50028</v>
       </c>

--- a/excel/buff.xlsx
+++ b/excel/buff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F05B7A4-22E8-4737-BF31-EFD466070083}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DED59B6-BFE0-48C8-8D9F-23A94F19E4A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -159,10 +159,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>浪千叠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>使用大浪千叠伤害增加&lt;#x&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -171,10 +167,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>卡牌buff，伤害增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>buff_dalangqiandie</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,6 +191,14 @@
   </si>
   <si>
     <t>buff_cangjian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大浪千叠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在本局游戏中,本卡牌每使用一次,伤害增加&lt;#x&gt;.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,7 +527,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -675,10 +675,10 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
         <v>27</v>
@@ -772,13 +772,13 @@
         <v>50016</v>
       </c>
       <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
         <v>34</v>
       </c>
-      <c r="C18" t="s">
-        <v>35</v>
-      </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F18" t="s">
         <v>27</v>
@@ -789,13 +789,13 @@
         <v>50017</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s">
         <v>27</v>
@@ -806,13 +806,13 @@
         <v>50018</v>
       </c>
       <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
         <v>40</v>
       </c>
-      <c r="C20" t="s">
-        <v>42</v>
-      </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s">
         <v>27</v>

--- a/excel/buff.xlsx
+++ b/excel/buff.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DED59B6-BFE0-48C8-8D9F-23A94F19E4A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
   <si>
     <t>number</t>
   </si>
@@ -64,10 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金刚护体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>灵罡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,124 +83,200 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>逆气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_liuxue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_du</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次步进造成&lt;#x&gt;伤害,回合开始时移除改buff。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束造成&lt;#x&gt;伤害,回合结束时,减少一层。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF0707</t>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物无法行动,人物每次步进减少一层。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_dianxue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>86C115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2E5AD7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用大浪千叠伤害增加&lt;#x&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藏剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_dalangqiandie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_jiu</t>
+  </si>
+  <si>
+    <t>醉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概率暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概率丢失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_zui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_cangjian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大浪千叠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在本局游戏中,本卡牌每使用一次,伤害增加&lt;#x&gt;.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑气纵横</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>剑意</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>剑气纵横</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逆气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_liuxue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_du</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次步进造成&lt;#x&gt;伤害,回合开始时移除改buff。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合结束造成&lt;#x&gt;伤害,回合结束时,减少一层。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CF0707</t>
-  </si>
-  <si>
-    <t>color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人物无法行动,人物每次步进减少一层。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_dianxue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>86C115</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2E5AD7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用大浪千叠伤害增加&lt;#x&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>藏剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_dalangqiandie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_jiu</t>
-  </si>
-  <si>
-    <t>醉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>概率暴击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>概率丢失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_zui</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_cangjian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大浪千叠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在本局游戏中,本卡牌每使用一次,伤害增加&lt;#x&gt;.</t>
+    <t>无极剑意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的所有剑气改为对所有地方单位造成伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_jianyi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束时,随机对一名敌方单位造成&lt;#x&gt;点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的所有剑意改为对所有敌方单位造成伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_jianqi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当你使用一张剑法牌,对随机敌方单位造成&lt;#x&gt;点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑气四溢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的剑气额外触发一次伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_hanleng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_ranshao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌造成的伤害减少25%,回合结束时，减少一层。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没打出一张卡牌,对侠客造成&lt;#x&gt;点伤害，并且减少一层。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_huichun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金刚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束恢复&lt;#x&gt;点生命值,并减少一层。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合给与自己&lt;#x&gt;层护盾,并减少一层。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_jingang</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -523,22 +594,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.44140625" customWidth="1"/>
-    <col min="3" max="3" width="37.44140625" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="46.875" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -546,19 +617,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -566,19 +637,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
       <c r="F2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>50001</v>
       </c>
@@ -586,16 +657,16 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>50002</v>
       </c>
@@ -603,10 +674,10 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>50003</v>
       </c>
@@ -614,49 +685,61 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>50004</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
       <c r="F6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>50005</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>59</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" t="s">
+        <v>62</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>50006</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>50007</v>
       </c>
@@ -664,10 +747,10 @@
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>50008</v>
       </c>
@@ -675,195 +758,240 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>50009</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>50010</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>50011</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>50012</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>50013</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>50014</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>50015</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>50016</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>50017</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>50018</v>
       </c>
       <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s">
         <v>38</v>
       </c>
-      <c r="C20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" t="s">
-        <v>41</v>
-      </c>
       <c r="F20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>50019</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>50020</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>50021</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>50022</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>50023</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>50024</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>50025</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>50026</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>50027</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>50028</v>
       </c>

--- a/excel/buff.xlsx
+++ b/excel/buff.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE7E92B-32FC-4AA8-93D5-CC4942BA7B4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -276,7 +277,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -594,22 +595,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="46.875" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -629,7 +630,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -649,7 +650,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>50001</v>
       </c>
@@ -666,7 +667,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>50002</v>
       </c>
@@ -677,7 +678,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>50003</v>
       </c>
@@ -694,7 +695,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>50004</v>
       </c>
@@ -711,7 +712,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>50005</v>
       </c>
@@ -728,7 +729,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>50006</v>
       </c>
@@ -739,7 +740,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>50007</v>
       </c>
@@ -750,7 +751,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>50008</v>
       </c>
@@ -767,7 +768,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>50009</v>
       </c>
@@ -784,7 +785,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>50010</v>
       </c>
@@ -801,7 +802,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>50011</v>
       </c>
@@ -818,7 +819,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>50012</v>
       </c>
@@ -829,7 +830,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>50013</v>
       </c>
@@ -846,7 +847,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>50014</v>
       </c>
@@ -860,7 +861,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>50015</v>
       </c>
@@ -871,7 +872,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>50016</v>
       </c>
@@ -888,7 +889,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>50017</v>
       </c>
@@ -905,7 +906,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>50018</v>
       </c>
@@ -922,7 +923,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>50019</v>
       </c>
@@ -939,7 +940,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>50020</v>
       </c>
@@ -950,7 +951,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>50021</v>
       </c>
@@ -961,37 +962,37 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>50022</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>50023</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>50024</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>50025</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>50026</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>50027</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>50028</v>
       </c>

--- a/excel/buff.xlsx
+++ b/excel/buff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE7E92B-32FC-4AA8-93D5-CC4942BA7B4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184990F1-0524-48A3-869B-8B3E2489D1B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="66">
   <si>
     <t>number</t>
   </si>
@@ -250,10 +250,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>没打出一张卡牌,对侠客造成&lt;#x&gt;点伤害，并且减少一层。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>buff_huichun</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -266,11 +262,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>回合给与自己&lt;#x&gt;层护盾,并减少一层。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>buff_jingang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每打出一张卡牌,对侠客造成&lt;#x&gt;点伤害，并且减少一层。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束给与自己&lt;#x&gt;层护盾,并减少一层。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_xixue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一层数提供10%的吸血,会在回合结束得时候移除。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -599,13 +611,13 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25.44140625" customWidth="1"/>
-    <col min="3" max="3" width="46.88671875" customWidth="1"/>
+    <col min="3" max="3" width="66.77734375" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
   </cols>
@@ -703,10 +715,10 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
@@ -717,13 +729,13 @@
         <v>50005</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
@@ -793,7 +805,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s">
         <v>55</v>
@@ -950,6 +962,9 @@
       <c r="C22" t="s">
         <v>48</v>
       </c>
+      <c r="F22" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -961,25 +976,49 @@
       <c r="C23" t="s">
         <v>53</v>
       </c>
+      <c r="F23" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>50022</v>
       </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>50023</v>
       </c>
+      <c r="F25" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>50024</v>
       </c>
+      <c r="F26" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>50025</v>
+      </c>
+      <c r="F27" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">

--- a/excel/buff.xlsx
+++ b/excel/buff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184990F1-0524-48A3-869B-8B3E2489D1B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63B0C05-41C8-496D-91B5-3476B1A9B1FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="96">
   <si>
     <t>number</t>
   </si>
@@ -283,6 +283,126 @@
   </si>
   <si>
     <t>每一层数提供10%的吸血,会在回合结束得时候移除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拳掌提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拳掌削弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一层会提供一点侠客拳掌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一层会降低一点侠客拳掌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_quanzhang_ts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_quanzhang_xj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑法提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑法削弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内功提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内功削弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗器提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗器削弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一层会提供一点侠客剑法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一层会降低一点侠客剑法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一层会提供一点侠客内功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一层会降低一点侠客内功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一层会提供一点侠客暗器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一层会降低一点侠客暗器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一层会降低10点侠客轻功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一层会提供10点侠客轻功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凌波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_jianfa_ts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_jianfa_xj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_neigong_ts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_neigong_xj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_anqi_ts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_anqi_xj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_speed_ts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_speed_xj</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -608,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1001,6 +1121,15 @@
       <c r="A25">
         <v>50023</v>
       </c>
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>70</v>
+      </c>
       <c r="F25" t="s">
         <v>24</v>
       </c>
@@ -1009,6 +1138,15 @@
       <c r="A26">
         <v>50024</v>
       </c>
+      <c r="B26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" t="s">
+        <v>71</v>
+      </c>
       <c r="F26" t="s">
         <v>24</v>
       </c>
@@ -1017,6 +1155,15 @@
       <c r="A27">
         <v>50025</v>
       </c>
+      <c r="B27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" t="s">
+        <v>88</v>
+      </c>
       <c r="F27" t="s">
         <v>24</v>
       </c>
@@ -1025,14 +1172,128 @@
       <c r="A28">
         <v>50026</v>
       </c>
+      <c r="B28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>50027</v>
       </c>
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
+        <v>50028</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>50028</v>
+      </c>
+      <c r="B31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>50028</v>
+      </c>
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>50028</v>
+      </c>
+      <c r="B33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" t="s">
+        <v>94</v>
+      </c>
+      <c r="F33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>50028</v>
+      </c>
+      <c r="B34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" t="s">
+        <v>95</v>
+      </c>
+      <c r="F34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>50028</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>50028</v>
       </c>
     </row>

--- a/excel/buff.xlsx
+++ b/excel/buff.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63B0C05-41C8-496D-91B5-3476B1A9B1FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="106">
   <si>
     <t>number</t>
   </si>
@@ -254,10 +253,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金刚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>回合结束恢复&lt;#x&gt;点生命值,并减少一层。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -290,10 +285,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>拳掌削弱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>每一层会提供一点侠客拳掌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -314,18 +305,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>剑法削弱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>内功提升</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>内功削弱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>暗器提升</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -403,13 +386,69 @@
   </si>
   <si>
     <t>buff_speed_xj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脱臼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每打出一张拳法/剑法卡牌,对侠客造成&lt;#x&gt;点伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每打出一张内功/心法卡牌,对侠客造成&lt;#x&gt;点伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_tuojiu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_niqi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破拳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护体真气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体用双休</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本回合中下&lt;#x&gt;张内功牌会释放2次。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本回合中下&lt;#x&gt;张拳掌/剑法牌会释放2次。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_double_nei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_double_quanjian</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -727,22 +766,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.44140625" customWidth="1"/>
-    <col min="3" max="3" width="66.77734375" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="66.75" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -762,7 +802,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -782,7 +822,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>50001</v>
       </c>
@@ -799,7 +839,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>50002</v>
       </c>
@@ -810,7 +850,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>50003</v>
       </c>
@@ -827,7 +867,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>50004</v>
       </c>
@@ -835,7 +875,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
         <v>57</v>
@@ -844,24 +884,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>50005</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>50006</v>
       </c>
@@ -872,18 +912,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>50007</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" t="s">
+        <v>105</v>
+      </c>
       <c r="F9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>50008</v>
       </c>
@@ -900,7 +946,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>50009</v>
       </c>
@@ -917,7 +963,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>50010</v>
       </c>
@@ -925,7 +971,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
         <v>55</v>
@@ -934,7 +980,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>50011</v>
       </c>
@@ -951,7 +997,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>50012</v>
       </c>
@@ -962,7 +1008,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>50013</v>
       </c>
@@ -979,7 +1025,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>50014</v>
       </c>
@@ -993,18 +1039,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>50015</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
+      <c r="C17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" t="s">
+        <v>96</v>
+      </c>
       <c r="F17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>50016</v>
       </c>
@@ -1021,7 +1073,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>50017</v>
       </c>
@@ -1038,7 +1090,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>50018</v>
       </c>
@@ -1055,7 +1107,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>50019</v>
       </c>
@@ -1072,7 +1124,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>50020</v>
       </c>
@@ -1086,7 +1138,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>50021</v>
       </c>
@@ -1100,201 +1152,297 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>50022</v>
       </c>
       <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" t="s">
         <v>63</v>
       </c>
-      <c r="C24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" t="s">
-        <v>64</v>
-      </c>
       <c r="F24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>50023</v>
       </c>
       <c r="B25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" t="s">
         <v>66</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>68</v>
       </c>
-      <c r="D25" t="s">
-        <v>70</v>
-      </c>
       <c r="F25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>50024</v>
       </c>
       <c r="B26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" t="s">
         <v>67</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>69</v>
       </c>
-      <c r="D26" t="s">
-        <v>71</v>
-      </c>
       <c r="F26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>50025</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>50026</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D28" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F28" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>50027</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>50029</v>
+      </c>
+      <c r="B30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>50030</v>
+      </c>
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" t="s">
+        <v>88</v>
+      </c>
+      <c r="F31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>50031</v>
+      </c>
+      <c r="B32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>50032</v>
+      </c>
+      <c r="B33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>50033</v>
+      </c>
+      <c r="B34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" t="s">
         <v>80</v>
       </c>
-      <c r="D29" t="s">
-        <v>90</v>
-      </c>
-      <c r="F29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>50028</v>
-      </c>
-      <c r="B30" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" t="s">
-        <v>81</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="D34" t="s">
         <v>91</v>
       </c>
-      <c r="F30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>50028</v>
-      </c>
-      <c r="B31" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" t="s">
-        <v>82</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="F34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>50034</v>
+      </c>
+      <c r="B35" t="s">
         <v>92</v>
       </c>
-      <c r="F31" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>50028</v>
-      </c>
-      <c r="B32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" t="s">
-        <v>83</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="C35" t="s">
         <v>93</v>
       </c>
-      <c r="F32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>50028</v>
-      </c>
-      <c r="B33" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33" t="s">
-        <v>85</v>
-      </c>
-      <c r="D33" t="s">
-        <v>94</v>
-      </c>
-      <c r="F33" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>50028</v>
-      </c>
-      <c r="B34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="D35" t="s">
         <v>95</v>
       </c>
-      <c r="F34" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>50028</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>50028</v>
+        <v>50035</v>
+      </c>
+      <c r="B36" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>50036</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>50037</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>50038</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>50039</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>50040</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>50041</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>50042</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>50043</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>50044</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>50045</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>50046</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>50047</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>50048</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>50049</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50050</v>
       </c>
     </row>
   </sheetData>

--- a/excel/buff.xlsx
+++ b/excel/buff.xlsx
@@ -437,11 +437,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>buff_double_quanjian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>buff_double_nei</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_double_quanjian</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -769,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -923,7 +923,7 @@
         <v>103</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
@@ -1367,7 +1367,7 @@
         <v>102</v>
       </c>
       <c r="D36" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">

--- a/excel/buff.xlsx
+++ b/excel/buff.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="114">
   <si>
     <t>number</t>
   </si>
@@ -443,6 +443,36 @@
   <si>
     <t>buff_double_nei</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_fanzhen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反震</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对卡牌伤害的使用者造成&lt;#x&gt;点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移星换斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将以自己为目标的卡牌复制放入自己的抽牌堆中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_yixinghuandou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF0708</t>
+  </si>
+  <si>
+    <t>CF0709</t>
   </si>
 </sst>
 </file>
@@ -769,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1369,20 +1399,50 @@
       <c r="D36" t="s">
         <v>105</v>
       </c>
+      <c r="F36" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>50036</v>
       </c>
+      <c r="B37" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" t="s">
+        <v>106</v>
+      </c>
+      <c r="F37" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>50037</v>
       </c>
+      <c r="B38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" t="s">
+        <v>111</v>
+      </c>
+      <c r="F38" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>50038</v>
+      </c>
+      <c r="F39" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">

--- a/excel/buff.xlsx
+++ b/excel/buff.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B864C496-501C-4F0C-BAB0-C233A17C72CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -393,14 +394,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每打出一张拳法/剑法卡牌,对侠客造成&lt;#x&gt;点伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每打出一张内功/心法卡牌,对侠客造成&lt;#x&gt;点伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>buff_tuojiu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -442,13 +435,21 @@
   </si>
   <si>
     <t>buff_double_nei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每打出一张拳法/剑法卡牌,对自身造成&lt;#x&gt;点伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每打出一张内功/心法卡牌,对自身造成&lt;#x&gt;点伤害。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -766,23 +767,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="66.75" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
+    <col min="3" max="3" width="66.77734375" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -802,7 +803,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -822,7 +823,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>50001</v>
       </c>
@@ -839,7 +840,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>50002</v>
       </c>
@@ -850,7 +851,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>50003</v>
       </c>
@@ -867,7 +868,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>50004</v>
       </c>
@@ -884,12 +885,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>50005</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s">
         <v>61</v>
@@ -901,7 +902,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>50006</v>
       </c>
@@ -912,7 +913,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>50007</v>
       </c>
@@ -920,16 +921,16 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>50008</v>
       </c>
@@ -946,7 +947,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>50009</v>
       </c>
@@ -963,7 +964,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>50010</v>
       </c>
@@ -980,7 +981,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>50011</v>
       </c>
@@ -997,7 +998,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>50012</v>
       </c>
@@ -1008,7 +1009,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>50013</v>
       </c>
@@ -1025,7 +1026,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>50014</v>
       </c>
@@ -1039,7 +1040,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>50015</v>
       </c>
@@ -1047,16 +1048,16 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" t="s">
         <v>94</v>
       </c>
-      <c r="D17" t="s">
-        <v>96</v>
-      </c>
       <c r="F17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>50016</v>
       </c>
@@ -1073,7 +1074,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>50017</v>
       </c>
@@ -1090,7 +1091,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>50018</v>
       </c>
@@ -1107,7 +1108,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>50019</v>
       </c>
@@ -1124,7 +1125,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>50020</v>
       </c>
@@ -1138,7 +1139,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>50021</v>
       </c>
@@ -1152,7 +1153,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>50022</v>
       </c>
@@ -1169,7 +1170,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>50023</v>
       </c>
@@ -1186,12 +1187,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>50024</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C26" t="s">
         <v>67</v>
@@ -1203,7 +1204,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>50025</v>
       </c>
@@ -1220,12 +1221,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>50026</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C28" t="s">
         <v>75</v>
@@ -1237,7 +1238,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>50027</v>
       </c>
@@ -1254,12 +1255,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>50029</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C30" t="s">
         <v>77</v>
@@ -1271,7 +1272,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>50030</v>
       </c>
@@ -1288,7 +1289,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>50031</v>
       </c>
@@ -1305,7 +1306,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>50032</v>
       </c>
@@ -1322,7 +1323,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>50033</v>
       </c>
@@ -1339,7 +1340,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>50034</v>
       </c>
@@ -1347,100 +1348,100 @@
         <v>92</v>
       </c>
       <c r="C35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" t="s">
         <v>93</v>
       </c>
-      <c r="D35" t="s">
-        <v>95</v>
-      </c>
       <c r="F35" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>50035</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C36" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D36" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>50036</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>50037</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>50038</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>50039</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>50040</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>50041</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>50042</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>50043</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>50044</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>50045</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>50046</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>50047</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>50048</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>50049</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50050</v>
       </c>

--- a/excel/buff.xlsx
+++ b/excel/buff.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B864C496-501C-4F0C-BAB0-C233A17C72CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="114">
   <si>
     <t>number</t>
   </si>
@@ -394,6 +393,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>每打出一张拳法/剑法卡牌,对侠客造成&lt;#x&gt;点伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每打出一张内功/心法卡牌,对侠客造成&lt;#x&gt;点伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>buff_tuojiu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -438,18 +445,40 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每打出一张拳法/剑法卡牌,对自身造成&lt;#x&gt;点伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每打出一张内功/心法卡牌,对自身造成&lt;#x&gt;点伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>buff_fanzhen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反震</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对卡牌伤害的使用者造成&lt;#x&gt;点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移星换斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将以自己为目标的卡牌复制放入自己的抽牌堆中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_yixinghuandou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF0708</t>
+  </si>
+  <si>
+    <t>CF0709</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -767,23 +796,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" customWidth="1"/>
-    <col min="3" max="3" width="66.77734375" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="66.75" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -803,7 +832,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -823,7 +852,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>50001</v>
       </c>
@@ -840,7 +869,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>50002</v>
       </c>
@@ -851,7 +880,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>50003</v>
       </c>
@@ -868,7 +897,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>50004</v>
       </c>
@@ -885,12 +914,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>50005</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
         <v>61</v>
@@ -902,7 +931,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>50006</v>
       </c>
@@ -913,7 +942,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>50007</v>
       </c>
@@ -921,16 +950,16 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>50008</v>
       </c>
@@ -947,7 +976,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>50009</v>
       </c>
@@ -964,7 +993,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>50010</v>
       </c>
@@ -981,7 +1010,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>50011</v>
       </c>
@@ -998,7 +1027,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>50012</v>
       </c>
@@ -1009,7 +1038,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>50013</v>
       </c>
@@ -1026,7 +1055,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>50014</v>
       </c>
@@ -1040,7 +1069,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>50015</v>
       </c>
@@ -1048,16 +1077,16 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>50016</v>
       </c>
@@ -1074,7 +1103,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>50017</v>
       </c>
@@ -1091,7 +1120,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>50018</v>
       </c>
@@ -1108,7 +1137,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>50019</v>
       </c>
@@ -1125,7 +1154,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>50020</v>
       </c>
@@ -1139,7 +1168,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>50021</v>
       </c>
@@ -1153,7 +1182,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>50022</v>
       </c>
@@ -1170,7 +1199,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>50023</v>
       </c>
@@ -1187,12 +1216,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>50024</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C26" t="s">
         <v>67</v>
@@ -1204,7 +1233,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>50025</v>
       </c>
@@ -1221,12 +1250,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>50026</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
         <v>75</v>
@@ -1238,7 +1267,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>50027</v>
       </c>
@@ -1255,12 +1284,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>50029</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C30" t="s">
         <v>77</v>
@@ -1272,7 +1301,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>50030</v>
       </c>
@@ -1289,7 +1318,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>50031</v>
       </c>
@@ -1306,7 +1335,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>50032</v>
       </c>
@@ -1323,7 +1352,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>50033</v>
       </c>
@@ -1340,7 +1369,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>50034</v>
       </c>
@@ -1348,100 +1377,130 @@
         <v>92</v>
       </c>
       <c r="C35" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D35" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F35" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>50035</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C36" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D36" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="F36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>50036</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" t="s">
+        <v>106</v>
+      </c>
+      <c r="F37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>50037</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" t="s">
+        <v>111</v>
+      </c>
+      <c r="F38" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>50038</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>50039</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>50040</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>50041</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>50042</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>50043</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>50044</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>50045</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>50046</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>50047</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>50048</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>50049</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50050</v>
       </c>

--- a/excel/buff.xlsx
+++ b/excel/buff.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="126">
   <si>
     <t>number</t>
   </si>
@@ -473,6 +473,53 @@
   </si>
   <si>
     <t>CF0709</t>
+  </si>
+  <si>
+    <t>无酒不欢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始时,自身获得3层酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_wujiubuhuan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柔劲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_roujin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF0710</t>
+  </si>
+  <si>
+    <t>buff_pozhan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破绽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到的伤害减免25%,回合开始时减少一层。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到的伤害增加25%,每次作为卡牌目标时减少一层。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被卡牌攻击,只会受到1点伤害,每触发一次,减少一层。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_linggang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -799,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -938,6 +985,12 @@
       <c r="B8" t="s">
         <v>10</v>
       </c>
+      <c r="C8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" t="s">
+        <v>125</v>
+      </c>
       <c r="F8" t="s">
         <v>24</v>
       </c>
@@ -1441,6 +1494,15 @@
       <c r="A39">
         <v>50038</v>
       </c>
+      <c r="B39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" t="s">
+        <v>116</v>
+      </c>
       <c r="F39" t="s">
         <v>113</v>
       </c>
@@ -1449,10 +1511,34 @@
       <c r="A40">
         <v>50039</v>
       </c>
+      <c r="B40" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" t="s">
+        <v>122</v>
+      </c>
+      <c r="D40" t="s">
+        <v>118</v>
+      </c>
+      <c r="F40" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>50040</v>
+      </c>
+      <c r="B41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41" t="s">
+        <v>120</v>
+      </c>
+      <c r="F41" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">

--- a/excel/buff.xlsx
+++ b/excel/buff.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="141">
   <si>
     <t>number</t>
   </si>
@@ -519,6 +519,66 @@
   </si>
   <si>
     <t>buff_linggang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>致盲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_zhimang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通臂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌使用距离减少&lt;#x&gt;,回合结束时移除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拳掌卡牌使用增加减少1,持续&lt;#x&gt;回合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_tongbi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先发制人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始获得3次步进。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_xianfazhiren</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_bizhong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击不会被闪避,每使用一张卡牌,失去一层。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击必定暴击,每使用一张卡牌,失去一层。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_duanyu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -846,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1545,48 +1605,117 @@
       <c r="A42">
         <v>50041</v>
       </c>
+      <c r="B42" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" t="s">
+        <v>127</v>
+      </c>
+      <c r="F42" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>50042</v>
       </c>
+      <c r="B43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43" t="s">
+        <v>131</v>
+      </c>
+      <c r="F43" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>50043</v>
       </c>
+      <c r="B44" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44" t="s">
+        <v>133</v>
+      </c>
+      <c r="D44" t="s">
+        <v>134</v>
+      </c>
+      <c r="F44" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>50044</v>
       </c>
+      <c r="B45" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" t="s">
+        <v>138</v>
+      </c>
+      <c r="D45" t="s">
+        <v>136</v>
+      </c>
+      <c r="F45" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>50045</v>
       </c>
+      <c r="B46" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" t="s">
+        <v>140</v>
+      </c>
+      <c r="F46" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>50046</v>
       </c>
+      <c r="F47" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>50047</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>50048</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>50049</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50050</v>
       </c>

--- a/excel/buff.xlsx
+++ b/excel/buff.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB527818-87BD-458E-A9EA-E761D409CE01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="143">
   <si>
     <t>number</t>
   </si>
@@ -36,49 +37,433 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>点穴</t>
+  </si>
+  <si>
+    <t>人物无法行动,人物每次步进减少一层。</t>
+  </si>
+  <si>
+    <t>buff_dianxue</t>
+  </si>
+  <si>
+    <t>2E5AD7</t>
+  </si>
+  <si>
+    <t>眩晕</t>
+  </si>
+  <si>
+    <t>无法使用拳法,剑法卡牌。回合结束时移除。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
+    <t>buff_xuanyun</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>desc</t>
+    <t>CF0707</t>
+  </si>
+  <si>
+    <t>流血</t>
+  </si>
+  <si>
+    <t>每次步进造成&lt;#x&gt;伤害,回合开始时移除改buff。</t>
+  </si>
+  <si>
+    <t>buff_liuxue</t>
+  </si>
+  <si>
+    <t>回春</t>
+  </si>
+  <si>
+    <t>回合结束恢复&lt;#x&gt;点生命值,并减少一层。</t>
+  </si>
+  <si>
+    <t>buff_huichun</t>
+  </si>
+  <si>
+    <t>护体真气</t>
+  </si>
+  <si>
+    <t>回合结束给与自己&lt;#x&gt;层护盾,并减少一层。</t>
+  </si>
+  <si>
+    <t>buff_jingang</t>
+  </si>
+  <si>
+    <t>灵罡</t>
+  </si>
+  <si>
+    <t>被卡牌攻击,只会受到1点伤害,每触发一次,减少一层。</t>
+  </si>
+  <si>
+    <t>buff_linggang</t>
+  </si>
+  <si>
+    <t>互博</t>
+  </si>
+  <si>
+    <t>本回合中下&lt;#x&gt;张拳掌/剑法牌会释放2次。</t>
+  </si>
+  <si>
+    <t>buff_double_quanjian</t>
+  </si>
+  <si>
+    <t>酒</t>
+  </si>
+  <si>
+    <t>概率暴击</t>
+  </si>
+  <si>
+    <t>buff_jiu</t>
+  </si>
+  <si>
+    <t>寒冷</t>
+  </si>
+  <si>
+    <t>卡牌造成的伤害减少25%,回合结束时，减少一层。</t>
+  </si>
+  <si>
+    <t>buff_hanleng</t>
+  </si>
+  <si>
+    <t>燃烧</t>
+  </si>
+  <si>
+    <t>每打出一张卡牌,对侠客造成&lt;#x&gt;点伤害，并且减少一层。</t>
+  </si>
+  <si>
+    <t>buff_ranshao</t>
+  </si>
+  <si>
+    <t>毒</t>
+  </si>
+  <si>
+    <t>回合结束造成&lt;#x&gt;伤害,回合结束时,减少一层。</t>
+  </si>
+  <si>
+    <t>buff_du</t>
+  </si>
+  <si>
+    <t>86C115</t>
+  </si>
+  <si>
+    <t>固守</t>
+  </si>
+  <si>
+    <t>无法被击退,眩晕。回合开始时移除。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>icon</t>
+    <t>buff_gushou</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青钢剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹操得配剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>剑气</t>
+  </si>
+  <si>
+    <t>每当你使用一张剑法牌,对随机敌方单位造成&lt;#x&gt;点伤害</t>
+  </si>
+  <si>
+    <t>buff_jianqi</t>
+  </si>
+  <si>
+    <t>剑气纵横</t>
+  </si>
+  <si>
+    <t>你的所有剑气改为对所有地方单位造成伤害。</t>
+  </si>
+  <si>
+    <t>逆气</t>
+  </si>
+  <si>
+    <t>每打出一张内功/心法卡牌,对侠客造成&lt;#x&gt;点伤害。</t>
+  </si>
+  <si>
+    <t>buff_niqi</t>
+  </si>
+  <si>
+    <t>大浪千叠</t>
+  </si>
+  <si>
+    <t>使用大浪千叠伤害增加&lt;#x&gt;</t>
+  </si>
+  <si>
+    <t>buff_dalangqiandie</t>
+  </si>
+  <si>
+    <t>藏剑</t>
+  </si>
+  <si>
+    <t>在本局游戏中,本卡牌每使用一次,伤害增加&lt;#x&gt;.</t>
+  </si>
+  <si>
+    <t>buff_cangjian</t>
+  </si>
+  <si>
+    <t>醉</t>
+  </si>
+  <si>
+    <t>概率丢失</t>
+  </si>
+  <si>
+    <t>buff_zui</t>
+  </si>
+  <si>
+    <t>剑意</t>
+  </si>
+  <si>
+    <t>回合结束时,随机对一名敌方单位造成&lt;#x&gt;点伤害</t>
+  </si>
+  <si>
+    <t>buff_jianyi</t>
+  </si>
+  <si>
+    <t>无极剑意</t>
+  </si>
+  <si>
+    <t>你的所有剑意改为对所有敌方单位造成伤害。</t>
+  </si>
+  <si>
+    <t>剑气四溢</t>
+  </si>
+  <si>
+    <t>你的剑气额外触发一次伤害</t>
+  </si>
+  <si>
+    <t>吸血</t>
+  </si>
+  <si>
+    <t>每一层数提供10%的吸血,会在回合结束得时候移除。</t>
+  </si>
+  <si>
+    <t>buff_xixue</t>
+  </si>
+  <si>
+    <t>拳掌提升</t>
+  </si>
+  <si>
+    <t>每一层会提供一点侠客拳掌</t>
+  </si>
+  <si>
+    <t>buff_quanzhang_ts</t>
+  </si>
+  <si>
+    <t>破拳</t>
+  </si>
+  <si>
+    <t>每一层会降低一点侠客拳掌</t>
+  </si>
+  <si>
+    <t>buff_quanzhang_xj</t>
+  </si>
+  <si>
+    <t>剑法提升</t>
+  </si>
+  <si>
+    <t>每一层会提供一点侠客剑法</t>
+  </si>
+  <si>
+    <t>buff_jianfa_ts</t>
+  </si>
+  <si>
+    <t>破剑</t>
+  </si>
+  <si>
+    <t>每一层会降低一点侠客剑法</t>
+  </si>
+  <si>
+    <t>buff_jianfa_xj</t>
+  </si>
+  <si>
+    <t>内功提升</t>
+  </si>
+  <si>
+    <t>每一层会提供一点侠客内功</t>
+  </si>
+  <si>
+    <t>buff_neigong_ts</t>
+  </si>
+  <si>
+    <t>破气</t>
+  </si>
+  <si>
+    <t>每一层会降低一点侠客内功</t>
+  </si>
+  <si>
+    <t>buff_neigong_xj</t>
+  </si>
+  <si>
+    <t>暗器提升</t>
+  </si>
+  <si>
+    <t>每一层会提供一点侠客暗器</t>
+  </si>
+  <si>
+    <t>buff_anqi_ts</t>
+  </si>
+  <si>
+    <t>暗器削弱</t>
+  </si>
+  <si>
+    <t>每一层会降低一点侠客暗器</t>
+  </si>
+  <si>
+    <t>buff_anqi_xj</t>
+  </si>
+  <si>
+    <t>凌波</t>
+  </si>
+  <si>
+    <t>每一层会提供10点侠客轻功</t>
+  </si>
+  <si>
+    <t>buff_speed_ts</t>
+  </si>
+  <si>
+    <t>缓慢</t>
+  </si>
+  <si>
+    <t>每一层会降低10点侠客轻功</t>
+  </si>
+  <si>
+    <t>buff_speed_xj</t>
+  </si>
+  <si>
+    <t>脱臼</t>
+  </si>
+  <si>
+    <t>每打出一张拳法/剑法卡牌,对侠客造成&lt;#x&gt;点伤害。</t>
+  </si>
+  <si>
+    <t>buff_tuojiu</t>
+  </si>
+  <si>
+    <t>体用双休</t>
+  </si>
+  <si>
+    <t>本回合中下&lt;#x&gt;张内功牌会释放2次。</t>
+  </si>
+  <si>
+    <t>buff_double_nei</t>
+  </si>
+  <si>
+    <t>反震</t>
+  </si>
+  <si>
+    <t>对卡牌伤害的使用者造成&lt;#x&gt;点伤害</t>
+  </si>
+  <si>
+    <t>buff_fanzhen</t>
+  </si>
+  <si>
+    <t>移星换斗</t>
+  </si>
+  <si>
+    <t>将以自己为目标的卡牌复制放入自己的抽牌堆中</t>
+  </si>
+  <si>
+    <t>buff_yixinghuandou</t>
+  </si>
+  <si>
+    <t>CF0708</t>
+  </si>
+  <si>
+    <t>无酒不欢</t>
+  </si>
+  <si>
+    <t>战斗开始时,自身获得3层酒</t>
+  </si>
+  <si>
+    <t>gift_wujiubuhuan</t>
+  </si>
+  <si>
+    <t>CF0709</t>
+  </si>
+  <si>
+    <t>柔劲</t>
+  </si>
+  <si>
+    <t>受到的伤害减免25%,回合开始时减少一层。</t>
+  </si>
+  <si>
+    <t>buff_roujin</t>
+  </si>
+  <si>
+    <t>CF0710</t>
+  </si>
+  <si>
+    <t>破绽</t>
+  </si>
+  <si>
+    <t>受到的伤害增加25%,每次作为卡牌目标时减少一层。</t>
+  </si>
+  <si>
+    <t>buff_pozhan</t>
+  </si>
+  <si>
+    <t>致盲</t>
+  </si>
+  <si>
+    <t>卡牌使用距离减少&lt;#x&gt;,回合结束时移除。</t>
+  </si>
+  <si>
+    <t>buff_zhimang</t>
+  </si>
+  <si>
+    <t>通臂</t>
+  </si>
+  <si>
+    <t>拳掌卡牌使用增加减少1,持续&lt;#x&gt;回合。</t>
+  </si>
+  <si>
+    <t>buff_tongbi</t>
+  </si>
+  <si>
+    <t>先发制人</t>
+  </si>
+  <si>
+    <t>战斗开始获得3次步进。</t>
+  </si>
+  <si>
+    <t>gift_xianfazhiren</t>
+  </si>
+  <si>
+    <t>必中</t>
+  </si>
+  <si>
+    <t>攻击不会被闪避,每使用一张卡牌,失去一层。</t>
+  </si>
+  <si>
+    <t>buff_bizhong</t>
+  </si>
+  <si>
+    <t>断玉</t>
+  </si>
+  <si>
+    <t>攻击必定暴击,每使用一张卡牌,失去一层。</t>
+  </si>
+  <si>
+    <t>buff_duanyu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -396,23 +781,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection sqref="A1:F51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="66.75" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
+    <col min="3" max="3" width="66.77734375" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -420,19 +805,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -440,33 +825,789 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
       <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>50001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>50002</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>60001</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>50003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>50004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>50005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>50006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>50007</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>50008</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>50009</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>50010</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>50011</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>50012</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>50013</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>50014</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>50015</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>50016</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>50017</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>50018</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>50019</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>50020</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>50021</v>
+      </c>
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>50022</v>
+      </c>
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>50023</v>
+      </c>
+      <c r="B25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>50024</v>
+      </c>
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>50025</v>
+      </c>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>50026</v>
+      </c>
+      <c r="B28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>50027</v>
+      </c>
+      <c r="B29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>50029</v>
+      </c>
+      <c r="B30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>50030</v>
+      </c>
+      <c r="B31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>50031</v>
+      </c>
+      <c r="B32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>50032</v>
+      </c>
+      <c r="B33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>50033</v>
+      </c>
+      <c r="B34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>50034</v>
+      </c>
+      <c r="B35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>50035</v>
+      </c>
+      <c r="B36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" t="s">
+        <v>109</v>
+      </c>
+      <c r="F36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>50036</v>
+      </c>
+      <c r="B37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" t="s">
+        <v>112</v>
+      </c>
+      <c r="F37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>50037</v>
+      </c>
+      <c r="B38" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" t="s">
+        <v>115</v>
+      </c>
+      <c r="F38" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>50038</v>
+      </c>
+      <c r="B39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" t="s">
+        <v>119</v>
+      </c>
+      <c r="F39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>50039</v>
+      </c>
+      <c r="B40" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" t="s">
+        <v>122</v>
+      </c>
+      <c r="D40" t="s">
+        <v>123</v>
+      </c>
+      <c r="F40" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>50040</v>
+      </c>
+      <c r="B41" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D41" t="s">
+        <v>127</v>
+      </c>
+      <c r="F41" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>50041</v>
+      </c>
+      <c r="B42" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" t="s">
+        <v>130</v>
+      </c>
+      <c r="F42" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>50042</v>
+      </c>
+      <c r="B43" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" t="s">
+        <v>132</v>
+      </c>
+      <c r="D43" t="s">
+        <v>133</v>
+      </c>
+      <c r="F43" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>50043</v>
+      </c>
+      <c r="B44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" t="s">
+        <v>136</v>
+      </c>
+      <c r="F44" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>50044</v>
+      </c>
+      <c r="B45" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" t="s">
+        <v>138</v>
+      </c>
+      <c r="D45" t="s">
+        <v>139</v>
+      </c>
+      <c r="F45" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>50045</v>
+      </c>
+      <c r="B46" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" t="s">
+        <v>141</v>
+      </c>
+      <c r="D46" t="s">
+        <v>142</v>
+      </c>
+      <c r="F46" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>50046</v>
+      </c>
+      <c r="F47" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>50047</v>
+      </c>
+      <c r="F48" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>50048</v>
+      </c>
+      <c r="F49" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>50049</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>50050</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/excel/buff.xlsx
+++ b/excel/buff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB527818-87BD-458E-A9EA-E761D409CE01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4059B40E-4EA4-4E8A-8465-06031974DBE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="155">
   <si>
     <t>number</t>
   </si>
@@ -164,10 +164,6 @@
     <t>固守</t>
   </si>
   <si>
-    <t>无法被击退,眩晕。回合开始时移除。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>buff_gushou</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -325,139 +321,194 @@
     <t>buff_anqi_xj</t>
   </si>
   <si>
+    <t>每一层会提供10点侠客轻功</t>
+  </si>
+  <si>
+    <t>buff_speed_ts</t>
+  </si>
+  <si>
+    <t>缓慢</t>
+  </si>
+  <si>
+    <t>每一层会降低10点侠客轻功</t>
+  </si>
+  <si>
+    <t>buff_speed_xj</t>
+  </si>
+  <si>
+    <t>脱臼</t>
+  </si>
+  <si>
+    <t>每打出一张拳法/剑法卡牌,对侠客造成&lt;#x&gt;点伤害。</t>
+  </si>
+  <si>
+    <t>buff_tuojiu</t>
+  </si>
+  <si>
+    <t>体用双休</t>
+  </si>
+  <si>
+    <t>本回合中下&lt;#x&gt;张内功牌会释放2次。</t>
+  </si>
+  <si>
+    <t>buff_double_nei</t>
+  </si>
+  <si>
+    <t>反震</t>
+  </si>
+  <si>
+    <t>对卡牌伤害的使用者造成&lt;#x&gt;点伤害</t>
+  </si>
+  <si>
+    <t>buff_fanzhen</t>
+  </si>
+  <si>
+    <t>移星换斗</t>
+  </si>
+  <si>
+    <t>将以自己为目标的卡牌复制放入自己的抽牌堆中</t>
+  </si>
+  <si>
+    <t>buff_yixinghuandou</t>
+  </si>
+  <si>
+    <t>CF0708</t>
+  </si>
+  <si>
+    <t>无酒不欢</t>
+  </si>
+  <si>
+    <t>战斗开始时,自身获得3层酒</t>
+  </si>
+  <si>
+    <t>gift_wujiubuhuan</t>
+  </si>
+  <si>
+    <t>CF0709</t>
+  </si>
+  <si>
+    <t>柔劲</t>
+  </si>
+  <si>
+    <t>受到的伤害减免25%,回合开始时减少一层。</t>
+  </si>
+  <si>
+    <t>buff_roujin</t>
+  </si>
+  <si>
+    <t>CF0710</t>
+  </si>
+  <si>
+    <t>破绽</t>
+  </si>
+  <si>
+    <t>buff_pozhan</t>
+  </si>
+  <si>
+    <t>致盲</t>
+  </si>
+  <si>
+    <t>卡牌使用距离减少&lt;#x&gt;,回合结束时移除。</t>
+  </si>
+  <si>
+    <t>buff_zhimang</t>
+  </si>
+  <si>
+    <t>通臂</t>
+  </si>
+  <si>
+    <t>buff_tongbi</t>
+  </si>
+  <si>
+    <t>先发制人</t>
+  </si>
+  <si>
+    <t>战斗开始获得3次步进。</t>
+  </si>
+  <si>
+    <t>gift_xianfazhiren</t>
+  </si>
+  <si>
+    <t>必中</t>
+  </si>
+  <si>
+    <t>攻击不会被闪避,每使用一张卡牌,失去一层。</t>
+  </si>
+  <si>
+    <t>buff_bizhong</t>
+  </si>
+  <si>
+    <t>断玉</t>
+  </si>
+  <si>
+    <t>攻击必定暴击,每使用一张卡牌,失去一层。</t>
+  </si>
+  <si>
+    <t>buff_duanyu</t>
+  </si>
+  <si>
+    <t>僵直</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法使用剑法牌。回合结束时移除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_jiangzhi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法被击退,眩晕,僵直。回合开始时移除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以牙还牙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始时，自身获得3层反震</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_yiyahuanya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>凌波</t>
-  </si>
-  <si>
-    <t>每一层会提供10点侠客轻功</t>
-  </si>
-  <si>
-    <t>buff_speed_ts</t>
-  </si>
-  <si>
-    <t>缓慢</t>
-  </si>
-  <si>
-    <t>每一层会降低10点侠客轻功</t>
-  </si>
-  <si>
-    <t>buff_speed_xj</t>
-  </si>
-  <si>
-    <t>脱臼</t>
-  </si>
-  <si>
-    <t>每打出一张拳法/剑法卡牌,对侠客造成&lt;#x&gt;点伤害。</t>
-  </si>
-  <si>
-    <t>buff_tuojiu</t>
-  </si>
-  <si>
-    <t>体用双休</t>
-  </si>
-  <si>
-    <t>本回合中下&lt;#x&gt;张内功牌会释放2次。</t>
-  </si>
-  <si>
-    <t>buff_double_nei</t>
-  </si>
-  <si>
-    <t>反震</t>
-  </si>
-  <si>
-    <t>对卡牌伤害的使用者造成&lt;#x&gt;点伤害</t>
-  </si>
-  <si>
-    <t>buff_fanzhen</t>
-  </si>
-  <si>
-    <t>移星换斗</t>
-  </si>
-  <si>
-    <t>将以自己为目标的卡牌复制放入自己的抽牌堆中</t>
-  </si>
-  <si>
-    <t>buff_yixinghuandou</t>
-  </si>
-  <si>
-    <t>CF0708</t>
-  </si>
-  <si>
-    <t>无酒不欢</t>
-  </si>
-  <si>
-    <t>战斗开始时,自身获得3层酒</t>
-  </si>
-  <si>
-    <t>gift_wujiubuhuan</t>
-  </si>
-  <si>
-    <t>CF0709</t>
-  </si>
-  <si>
-    <t>柔劲</t>
-  </si>
-  <si>
-    <t>受到的伤害减免25%,回合开始时减少一层。</t>
-  </si>
-  <si>
-    <t>buff_roujin</t>
-  </si>
-  <si>
-    <t>CF0710</t>
-  </si>
-  <si>
-    <t>破绽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_lingbo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>受到的伤害增加25%,每次作为卡牌目标时减少一层。</t>
-  </si>
-  <si>
-    <t>buff_pozhan</t>
-  </si>
-  <si>
-    <t>致盲</t>
-  </si>
-  <si>
-    <t>卡牌使用距离减少&lt;#x&gt;,回合结束时移除。</t>
-  </si>
-  <si>
-    <t>buff_zhimang</t>
-  </si>
-  <si>
-    <t>通臂</t>
-  </si>
-  <si>
-    <t>拳掌卡牌使用增加减少1,持续&lt;#x&gt;回合。</t>
-  </si>
-  <si>
-    <t>buff_tongbi</t>
-  </si>
-  <si>
-    <t>先发制人</t>
-  </si>
-  <si>
-    <t>战斗开始获得3次步进。</t>
-  </si>
-  <si>
-    <t>gift_xianfazhiren</t>
-  </si>
-  <si>
-    <t>必中</t>
-  </si>
-  <si>
-    <t>攻击不会被闪避,每使用一张卡牌,失去一层。</t>
-  </si>
-  <si>
-    <t>buff_bizhong</t>
-  </si>
-  <si>
-    <t>断玉</t>
-  </si>
-  <si>
-    <t>攻击必定暴击,每使用一张卡牌,失去一层。</t>
-  </si>
-  <si>
-    <t>buff_duanyu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避提升100%,每次作为卡牌目标时减少一层,回合开始时移除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拳掌卡牌使用距离增加减少1,持续&lt;#x&gt;回合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬气功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始时获得30点护盾。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_yingqigong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -782,10 +833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F51"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1032,10 +1083,10 @@
         <v>44</v>
       </c>
       <c r="C14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" t="s">
         <v>45</v>
-      </c>
-      <c r="D14" t="s">
-        <v>46</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
@@ -1046,13 +1097,13 @@
         <v>50013</v>
       </c>
       <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
         <v>47</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>48</v>
-      </c>
-      <c r="D15" t="s">
-        <v>49</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -1063,10 +1114,10 @@
         <v>50014</v>
       </c>
       <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
         <v>50</v>
-      </c>
-      <c r="C16" t="s">
-        <v>51</v>
       </c>
       <c r="F16" t="s">
         <v>15</v>
@@ -1077,13 +1128,13 @@
         <v>50015</v>
       </c>
       <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
         <v>52</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>53</v>
-      </c>
-      <c r="D17" t="s">
-        <v>54</v>
       </c>
       <c r="F17" t="s">
         <v>15</v>
@@ -1094,13 +1145,13 @@
         <v>50016</v>
       </c>
       <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
         <v>55</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>56</v>
-      </c>
-      <c r="D18" t="s">
-        <v>57</v>
       </c>
       <c r="F18" t="s">
         <v>15</v>
@@ -1111,13 +1162,13 @@
         <v>50017</v>
       </c>
       <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
         <v>58</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>59</v>
-      </c>
-      <c r="D19" t="s">
-        <v>60</v>
       </c>
       <c r="F19" t="s">
         <v>15</v>
@@ -1128,13 +1179,13 @@
         <v>50018</v>
       </c>
       <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
         <v>61</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>62</v>
-      </c>
-      <c r="D20" t="s">
-        <v>63</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
@@ -1145,13 +1196,13 @@
         <v>50019</v>
       </c>
       <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
         <v>64</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>65</v>
-      </c>
-      <c r="D21" t="s">
-        <v>66</v>
       </c>
       <c r="F21" t="s">
         <v>15</v>
@@ -1162,10 +1213,10 @@
         <v>50020</v>
       </c>
       <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
         <v>67</v>
-      </c>
-      <c r="C22" t="s">
-        <v>68</v>
       </c>
       <c r="F22" t="s">
         <v>15</v>
@@ -1176,10 +1227,10 @@
         <v>50021</v>
       </c>
       <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
         <v>69</v>
-      </c>
-      <c r="C23" t="s">
-        <v>70</v>
       </c>
       <c r="F23" t="s">
         <v>15</v>
@@ -1190,13 +1241,13 @@
         <v>50022</v>
       </c>
       <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
         <v>71</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>72</v>
-      </c>
-      <c r="D24" t="s">
-        <v>73</v>
       </c>
       <c r="F24" t="s">
         <v>15</v>
@@ -1207,13 +1258,13 @@
         <v>50023</v>
       </c>
       <c r="B25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" t="s">
         <v>74</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>75</v>
-      </c>
-      <c r="D25" t="s">
-        <v>76</v>
       </c>
       <c r="F25" t="s">
         <v>15</v>
@@ -1224,13 +1275,13 @@
         <v>50024</v>
       </c>
       <c r="B26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" t="s">
         <v>77</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>78</v>
-      </c>
-      <c r="D26" t="s">
-        <v>79</v>
       </c>
       <c r="F26" t="s">
         <v>15</v>
@@ -1241,13 +1292,13 @@
         <v>50025</v>
       </c>
       <c r="B27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" t="s">
         <v>80</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>81</v>
-      </c>
-      <c r="D27" t="s">
-        <v>82</v>
       </c>
       <c r="F27" t="s">
         <v>15</v>
@@ -1258,13 +1309,13 @@
         <v>50026</v>
       </c>
       <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" t="s">
         <v>83</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>84</v>
-      </c>
-      <c r="D28" t="s">
-        <v>85</v>
       </c>
       <c r="F28" t="s">
         <v>15</v>
@@ -1275,13 +1326,13 @@
         <v>50027</v>
       </c>
       <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" t="s">
         <v>86</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>87</v>
-      </c>
-      <c r="D29" t="s">
-        <v>88</v>
       </c>
       <c r="F29" t="s">
         <v>15</v>
@@ -1292,13 +1343,13 @@
         <v>50029</v>
       </c>
       <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" t="s">
         <v>89</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>90</v>
-      </c>
-      <c r="D30" t="s">
-        <v>91</v>
       </c>
       <c r="F30" t="s">
         <v>15</v>
@@ -1309,13 +1360,13 @@
         <v>50030</v>
       </c>
       <c r="B31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" t="s">
         <v>92</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>93</v>
-      </c>
-      <c r="D31" t="s">
-        <v>94</v>
       </c>
       <c r="F31" t="s">
         <v>15</v>
@@ -1326,13 +1377,13 @@
         <v>50031</v>
       </c>
       <c r="B32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" t="s">
         <v>95</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>96</v>
-      </c>
-      <c r="D32" t="s">
-        <v>97</v>
       </c>
       <c r="F32" t="s">
         <v>15</v>
@@ -1343,13 +1394,13 @@
         <v>50032</v>
       </c>
       <c r="B33" t="s">
+        <v>146</v>
+      </c>
+      <c r="C33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" t="s">
         <v>98</v>
-      </c>
-      <c r="C33" t="s">
-        <v>99</v>
-      </c>
-      <c r="D33" t="s">
-        <v>100</v>
       </c>
       <c r="F33" t="s">
         <v>15</v>
@@ -1360,13 +1411,13 @@
         <v>50033</v>
       </c>
       <c r="B34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" t="s">
         <v>101</v>
-      </c>
-      <c r="C34" t="s">
-        <v>102</v>
-      </c>
-      <c r="D34" t="s">
-        <v>103</v>
       </c>
       <c r="F34" t="s">
         <v>15</v>
@@ -1377,13 +1428,13 @@
         <v>50034</v>
       </c>
       <c r="B35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" t="s">
         <v>104</v>
-      </c>
-      <c r="C35" t="s">
-        <v>105</v>
-      </c>
-      <c r="D35" t="s">
-        <v>106</v>
       </c>
       <c r="F35" t="s">
         <v>15</v>
@@ -1394,13 +1445,13 @@
         <v>50035</v>
       </c>
       <c r="B36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" t="s">
         <v>107</v>
-      </c>
-      <c r="C36" t="s">
-        <v>108</v>
-      </c>
-      <c r="D36" t="s">
-        <v>109</v>
       </c>
       <c r="F36" t="s">
         <v>15</v>
@@ -1411,13 +1462,13 @@
         <v>50036</v>
       </c>
       <c r="B37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" t="s">
         <v>110</v>
-      </c>
-      <c r="C37" t="s">
-        <v>111</v>
-      </c>
-      <c r="D37" t="s">
-        <v>112</v>
       </c>
       <c r="F37" t="s">
         <v>15</v>
@@ -1428,16 +1479,16 @@
         <v>50037</v>
       </c>
       <c r="B38" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" t="s">
         <v>113</v>
       </c>
-      <c r="C38" t="s">
+      <c r="F38" t="s">
         <v>114</v>
-      </c>
-      <c r="D38" t="s">
-        <v>115</v>
-      </c>
-      <c r="F38" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1445,16 +1496,16 @@
         <v>50038</v>
       </c>
       <c r="B39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" t="s">
         <v>117</v>
       </c>
-      <c r="C39" t="s">
+      <c r="F39" t="s">
         <v>118</v>
-      </c>
-      <c r="D39" t="s">
-        <v>119</v>
-      </c>
-      <c r="F39" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1462,16 +1513,16 @@
         <v>50039</v>
       </c>
       <c r="B40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" t="s">
         <v>121</v>
       </c>
-      <c r="C40" t="s">
+      <c r="F40" t="s">
         <v>122</v>
-      </c>
-      <c r="D40" t="s">
-        <v>123</v>
-      </c>
-      <c r="F40" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1479,16 +1530,16 @@
         <v>50040</v>
       </c>
       <c r="B41" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C41" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="D41" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F41" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1496,16 +1547,16 @@
         <v>50041</v>
       </c>
       <c r="B42" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C42" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D42" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F42" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1513,16 +1564,16 @@
         <v>50042</v>
       </c>
       <c r="B43" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C43" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="D43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F43" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1530,16 +1581,16 @@
         <v>50043</v>
       </c>
       <c r="B44" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C44" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D44" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F44" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1547,16 +1598,16 @@
         <v>50044</v>
       </c>
       <c r="B45" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C45" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D45" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F45" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1564,50 +1615,155 @@
         <v>50045</v>
       </c>
       <c r="B46" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C46" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D46" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F46" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>50046</v>
       </c>
+      <c r="B47" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" t="s">
+        <v>141</v>
+      </c>
       <c r="F47" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>50047</v>
       </c>
+      <c r="B48" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" t="s">
+        <v>145</v>
+      </c>
       <c r="F48" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>50048</v>
       </c>
+      <c r="B49" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" t="s">
+        <v>150</v>
+      </c>
+      <c r="D49" t="s">
+        <v>148</v>
+      </c>
       <c r="F49" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>50049</v>
       </c>
+      <c r="B50" t="s">
+        <v>152</v>
+      </c>
+      <c r="C50" t="s">
+        <v>153</v>
+      </c>
+      <c r="D50" t="s">
+        <v>154</v>
+      </c>
+      <c r="F50" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50050</v>
+      </c>
+      <c r="F51" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50051</v>
+      </c>
+      <c r="F52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>50052</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>50053</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>50054</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>50055</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>50056</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>50057</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>50058</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>50059</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>50060</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>50061</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>50062</v>
       </c>
     </row>
   </sheetData>

--- a/excel/buff.xlsx
+++ b/excel/buff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4059B40E-4EA4-4E8A-8465-06031974DBE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812B2272-8AE5-45BB-8D53-23782F5051B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="162">
   <si>
     <t>number</t>
   </si>
@@ -508,6 +508,34 @@
   </si>
   <si>
     <t>gift_yingqigong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_yang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_yin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗结束时移除,如果获得阴,2者会融合成一点真气值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗结束时移除,如果获得阳,2者会融合成一点真气值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴阳相生</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -835,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1699,6 +1727,15 @@
       <c r="A51">
         <v>50050</v>
       </c>
+      <c r="B51" t="s">
+        <v>155</v>
+      </c>
+      <c r="C51" t="s">
+        <v>159</v>
+      </c>
+      <c r="D51" t="s">
+        <v>156</v>
+      </c>
       <c r="F51" t="s">
         <v>122</v>
       </c>
@@ -1707,6 +1744,15 @@
       <c r="A52">
         <v>50051</v>
       </c>
+      <c r="B52" t="s">
+        <v>157</v>
+      </c>
+      <c r="C52" t="s">
+        <v>160</v>
+      </c>
+      <c r="D52" t="s">
+        <v>158</v>
+      </c>
       <c r="F52" t="s">
         <v>118</v>
       </c>
@@ -1714,6 +1760,9 @@
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>50052</v>
+      </c>
+      <c r="B53" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">

--- a/excel/buff.xlsx
+++ b/excel/buff.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812B2272-8AE5-45BB-8D53-23782F5051B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,8 +23,46 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Windows 用户</author>
+  </authors>
+  <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Windows 用户:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1.正面
+2.负面
+3.普通</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="170">
   <si>
     <t>number</t>
   </si>
@@ -536,14 +573,46 @@
   </si>
   <si>
     <t>阴阳相生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截脉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时.减少获取的真气值&lt;#x&gt;点,回合结束时移除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_jiemai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明心静气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_mingxinjingqi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不会被添加负面buff,每抵消一次,失去一层明心静气。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -557,6 +626,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -860,23 +944,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" customWidth="1"/>
-    <col min="3" max="3" width="66.77734375" customWidth="1"/>
-    <col min="4" max="4" width="36" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="66.75" customWidth="1"/>
+    <col min="4" max="5" width="36" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -890,13 +974,16 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>165</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -910,13 +997,16 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>50001</v>
       </c>
@@ -929,11 +1019,14 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>50002</v>
       </c>
@@ -946,11 +1039,14 @@
       <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>50003</v>
       </c>
@@ -963,11 +1059,14 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>50004</v>
       </c>
@@ -980,11 +1079,14 @@
       <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>50005</v>
       </c>
@@ -997,11 +1099,14 @@
       <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>50006</v>
       </c>
@@ -1014,11 +1119,14 @@
       <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>50007</v>
       </c>
@@ -1031,11 +1139,14 @@
       <c r="D9" t="s">
         <v>30</v>
       </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>50008</v>
       </c>
@@ -1048,11 +1159,14 @@
       <c r="D10" t="s">
         <v>33</v>
       </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>50009</v>
       </c>
@@ -1065,11 +1179,14 @@
       <c r="D11" t="s">
         <v>36</v>
       </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>50010</v>
       </c>
@@ -1082,11 +1199,14 @@
       <c r="D12" t="s">
         <v>39</v>
       </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>50011</v>
       </c>
@@ -1099,11 +1219,14 @@
       <c r="D13" t="s">
         <v>42</v>
       </c>
-      <c r="F13" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>50012</v>
       </c>
@@ -1116,11 +1239,14 @@
       <c r="D14" t="s">
         <v>45</v>
       </c>
-      <c r="F14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>50013</v>
       </c>
@@ -1133,11 +1259,14 @@
       <c r="D15" t="s">
         <v>48</v>
       </c>
-      <c r="F15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>50014</v>
       </c>
@@ -1147,11 +1276,14 @@
       <c r="C16" t="s">
         <v>50</v>
       </c>
-      <c r="F16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>50015</v>
       </c>
@@ -1164,11 +1296,14 @@
       <c r="D17" t="s">
         <v>53</v>
       </c>
-      <c r="F17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>50016</v>
       </c>
@@ -1181,11 +1316,14 @@
       <c r="D18" t="s">
         <v>56</v>
       </c>
-      <c r="F18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>50017</v>
       </c>
@@ -1198,11 +1336,14 @@
       <c r="D19" t="s">
         <v>59</v>
       </c>
-      <c r="F19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>50018</v>
       </c>
@@ -1215,11 +1356,14 @@
       <c r="D20" t="s">
         <v>62</v>
       </c>
-      <c r="F20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>50019</v>
       </c>
@@ -1232,11 +1376,14 @@
       <c r="D21" t="s">
         <v>65</v>
       </c>
-      <c r="F21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>50020</v>
       </c>
@@ -1246,11 +1393,14 @@
       <c r="C22" t="s">
         <v>67</v>
       </c>
-      <c r="F22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>50021</v>
       </c>
@@ -1260,11 +1410,14 @@
       <c r="C23" t="s">
         <v>69</v>
       </c>
-      <c r="F23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>50022</v>
       </c>
@@ -1277,11 +1430,14 @@
       <c r="D24" t="s">
         <v>72</v>
       </c>
-      <c r="F24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>50023</v>
       </c>
@@ -1294,11 +1450,14 @@
       <c r="D25" t="s">
         <v>75</v>
       </c>
-      <c r="F25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>50024</v>
       </c>
@@ -1311,11 +1470,14 @@
       <c r="D26" t="s">
         <v>78</v>
       </c>
-      <c r="F26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>50025</v>
       </c>
@@ -1328,11 +1490,14 @@
       <c r="D27" t="s">
         <v>81</v>
       </c>
-      <c r="F27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>50026</v>
       </c>
@@ -1345,11 +1510,14 @@
       <c r="D28" t="s">
         <v>84</v>
       </c>
-      <c r="F28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>50027</v>
       </c>
@@ -1362,11 +1530,14 @@
       <c r="D29" t="s">
         <v>87</v>
       </c>
-      <c r="F29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>50029</v>
       </c>
@@ -1379,11 +1550,14 @@
       <c r="D30" t="s">
         <v>90</v>
       </c>
-      <c r="F30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>50030</v>
       </c>
@@ -1396,11 +1570,14 @@
       <c r="D31" t="s">
         <v>93</v>
       </c>
-      <c r="F31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>50031</v>
       </c>
@@ -1413,11 +1590,14 @@
       <c r="D32" t="s">
         <v>96</v>
       </c>
-      <c r="F32" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>50032</v>
       </c>
@@ -1430,11 +1610,14 @@
       <c r="D33" t="s">
         <v>98</v>
       </c>
-      <c r="F33" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>50033</v>
       </c>
@@ -1447,11 +1630,14 @@
       <c r="D34" t="s">
         <v>101</v>
       </c>
-      <c r="F34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>50034</v>
       </c>
@@ -1464,11 +1650,14 @@
       <c r="D35" t="s">
         <v>104</v>
       </c>
-      <c r="F35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>50035</v>
       </c>
@@ -1481,11 +1670,14 @@
       <c r="D36" t="s">
         <v>107</v>
       </c>
-      <c r="F36" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>50036</v>
       </c>
@@ -1498,11 +1690,14 @@
       <c r="D37" t="s">
         <v>110</v>
       </c>
-      <c r="F37" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>50037</v>
       </c>
@@ -1515,11 +1710,14 @@
       <c r="D38" t="s">
         <v>113</v>
       </c>
-      <c r="F38" t="s">
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>50038</v>
       </c>
@@ -1532,11 +1730,14 @@
       <c r="D39" t="s">
         <v>117</v>
       </c>
-      <c r="F39" t="s">
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>50039</v>
       </c>
@@ -1549,11 +1750,14 @@
       <c r="D40" t="s">
         <v>121</v>
       </c>
-      <c r="F40" t="s">
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>50040</v>
       </c>
@@ -1566,11 +1770,14 @@
       <c r="D41" t="s">
         <v>124</v>
       </c>
-      <c r="F41" t="s">
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>50041</v>
       </c>
@@ -1583,11 +1790,14 @@
       <c r="D42" t="s">
         <v>127</v>
       </c>
-      <c r="F42" t="s">
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>50042</v>
       </c>
@@ -1600,11 +1810,14 @@
       <c r="D43" t="s">
         <v>129</v>
       </c>
-      <c r="F43" t="s">
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>50043</v>
       </c>
@@ -1617,11 +1830,14 @@
       <c r="D44" t="s">
         <v>132</v>
       </c>
-      <c r="F44" t="s">
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>50044</v>
       </c>
@@ -1634,11 +1850,14 @@
       <c r="D45" t="s">
         <v>135</v>
       </c>
-      <c r="F45" t="s">
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>50045</v>
       </c>
@@ -1651,11 +1870,14 @@
       <c r="D46" t="s">
         <v>138</v>
       </c>
-      <c r="F46" t="s">
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>50046</v>
       </c>
@@ -1668,11 +1890,14 @@
       <c r="D47" t="s">
         <v>141</v>
       </c>
-      <c r="F47" t="s">
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>50047</v>
       </c>
@@ -1685,11 +1910,14 @@
       <c r="D48" t="s">
         <v>145</v>
       </c>
-      <c r="F48" t="s">
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>50048</v>
       </c>
@@ -1702,11 +1930,14 @@
       <c r="D49" t="s">
         <v>148</v>
       </c>
-      <c r="F49" t="s">
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>50049</v>
       </c>
@@ -1719,11 +1950,14 @@
       <c r="D50" t="s">
         <v>154</v>
       </c>
-      <c r="F50" t="s">
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50050</v>
       </c>
@@ -1736,11 +1970,14 @@
       <c r="D51" t="s">
         <v>156</v>
       </c>
-      <c r="F51" t="s">
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50051</v>
       </c>
@@ -1753,64 +1990,145 @@
       <c r="D52" t="s">
         <v>158</v>
       </c>
-      <c r="F52" t="s">
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>50052</v>
       </c>
       <c r="B53" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>50053</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>162</v>
+      </c>
+      <c r="C54" t="s">
+        <v>163</v>
+      </c>
+      <c r="D54" t="s">
+        <v>164</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>50054</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>167</v>
+      </c>
+      <c r="C55" t="s">
+        <v>169</v>
+      </c>
+      <c r="D55" t="s">
+        <v>168</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>50055</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>50056</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>50057</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>50058</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>50059</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>50060</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>50061</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>50062</v>
       </c>
@@ -1819,5 +2137,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/excel/buff.xlsx
+++ b/excel/buff.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFF17BA-6CF4-48EA-918C-CFCFC66D178A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -611,7 +612,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -944,23 +945,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="66.75" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
+    <col min="3" max="3" width="66.77734375" customWidth="1"/>
     <col min="4" max="5" width="36" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -983,7 +984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1006,7 +1007,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>50001</v>
       </c>
@@ -1020,13 +1021,13 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>50002</v>
       </c>
@@ -1040,13 +1041,13 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>50003</v>
       </c>
@@ -1060,13 +1061,13 @@
         <v>18</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>50004</v>
       </c>
@@ -1086,7 +1087,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>50005</v>
       </c>
@@ -1106,7 +1107,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>50006</v>
       </c>
@@ -1126,7 +1127,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>50007</v>
       </c>
@@ -1146,7 +1147,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>50008</v>
       </c>
@@ -1166,7 +1167,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>50009</v>
       </c>
@@ -1180,13 +1181,13 @@
         <v>36</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>50010</v>
       </c>
@@ -1200,13 +1201,13 @@
         <v>39</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>50011</v>
       </c>
@@ -1220,13 +1221,13 @@
         <v>42</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>50012</v>
       </c>
@@ -1246,7 +1247,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>50013</v>
       </c>
@@ -1266,7 +1267,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>50014</v>
       </c>
@@ -1283,7 +1284,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>50015</v>
       </c>
@@ -1303,7 +1304,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>50016</v>
       </c>
@@ -1323,7 +1324,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>50017</v>
       </c>
@@ -1343,7 +1344,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>50018</v>
       </c>
@@ -1357,13 +1358,13 @@
         <v>62</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>50019</v>
       </c>
@@ -1383,7 +1384,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>50020</v>
       </c>
@@ -1400,7 +1401,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>50021</v>
       </c>
@@ -1417,7 +1418,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>50022</v>
       </c>
@@ -1437,7 +1438,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>50023</v>
       </c>
@@ -1457,7 +1458,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>50024</v>
       </c>
@@ -1471,13 +1472,13 @@
         <v>78</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>50025</v>
       </c>
@@ -1497,7 +1498,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>50026</v>
       </c>
@@ -1511,13 +1512,13 @@
         <v>84</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>50027</v>
       </c>
@@ -1537,7 +1538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>50029</v>
       </c>
@@ -1551,13 +1552,13 @@
         <v>90</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>50030</v>
       </c>
@@ -1577,7 +1578,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>50031</v>
       </c>
@@ -1591,13 +1592,13 @@
         <v>96</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>50032</v>
       </c>
@@ -1617,7 +1618,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>50033</v>
       </c>
@@ -1631,13 +1632,13 @@
         <v>101</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>50034</v>
       </c>
@@ -1651,13 +1652,13 @@
         <v>104</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>50035</v>
       </c>
@@ -1677,7 +1678,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>50036</v>
       </c>
@@ -1697,7 +1698,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>50037</v>
       </c>
@@ -1717,7 +1718,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>50038</v>
       </c>
@@ -1737,7 +1738,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>50039</v>
       </c>
@@ -1757,7 +1758,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>50040</v>
       </c>
@@ -1771,13 +1772,13 @@
         <v>124</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>50041</v>
       </c>
@@ -1791,13 +1792,13 @@
         <v>127</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>50042</v>
       </c>
@@ -1817,7 +1818,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>50043</v>
       </c>
@@ -1837,7 +1838,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>50044</v>
       </c>
@@ -1857,7 +1858,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>50045</v>
       </c>
@@ -1877,7 +1878,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>50046</v>
       </c>
@@ -1891,13 +1892,13 @@
         <v>141</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>50047</v>
       </c>
@@ -1917,7 +1918,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>50048</v>
       </c>
@@ -1937,7 +1938,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>50049</v>
       </c>
@@ -1957,7 +1958,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50050</v>
       </c>
@@ -1977,7 +1978,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50051</v>
       </c>
@@ -1997,7 +1998,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>50052</v>
       </c>
@@ -2011,7 +2012,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>50053</v>
       </c>
@@ -2025,13 +2026,13 @@
         <v>164</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G54" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>50054</v>
       </c>
@@ -2051,7 +2052,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>50055</v>
       </c>
@@ -2062,7 +2063,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>50056</v>
       </c>
@@ -2073,7 +2074,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>50057</v>
       </c>
@@ -2084,7 +2085,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>50058</v>
       </c>
@@ -2095,7 +2096,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>50059</v>
       </c>
@@ -2106,7 +2107,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>50060</v>
       </c>
@@ -2117,7 +2118,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>50061</v>
       </c>
@@ -2128,7 +2129,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>50062</v>
       </c>

--- a/excel/buff.xlsx
+++ b/excel/buff.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFF17BA-6CF4-48EA-918C-CFCFC66D178A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="172">
   <si>
     <t>number</t>
   </si>
@@ -606,13 +605,21 @@
   </si>
   <si>
     <t>不会被添加负面buff,每抵消一次,失去一层明心静气。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beni</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -945,23 +952,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" customWidth="1"/>
-    <col min="3" max="3" width="66.77734375" customWidth="1"/>
-    <col min="4" max="5" width="36" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="66.75" customWidth="1"/>
+    <col min="4" max="6" width="36" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -978,13 +985,16 @@
         <v>165</v>
       </c>
       <c r="F1" t="s">
-        <v>1</v>
+        <v>170</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1001,13 +1011,16 @@
         <v>166</v>
       </c>
       <c r="F2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>50001</v>
       </c>
@@ -1023,11 +1036,14 @@
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>50002</v>
       </c>
@@ -1043,11 +1059,14 @@
       <c r="E4">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>50003</v>
       </c>
@@ -1063,11 +1082,14 @@
       <c r="E5">
         <v>2</v>
       </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>50004</v>
       </c>
@@ -1083,11 +1105,14 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>50005</v>
       </c>
@@ -1103,11 +1128,14 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>50006</v>
       </c>
@@ -1123,11 +1151,14 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>50007</v>
       </c>
@@ -1143,11 +1174,14 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>50008</v>
       </c>
@@ -1163,11 +1197,14 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>50009</v>
       </c>
@@ -1183,11 +1220,14 @@
       <c r="E11">
         <v>2</v>
       </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>50010</v>
       </c>
@@ -1203,11 +1243,14 @@
       <c r="E12">
         <v>2</v>
       </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>8</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>50011</v>
       </c>
@@ -1223,11 +1266,14 @@
       <c r="E13">
         <v>2</v>
       </c>
-      <c r="G13" t="s">
+      <c r="F13">
+        <v>8</v>
+      </c>
+      <c r="H13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>50012</v>
       </c>
@@ -1243,11 +1289,14 @@
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="G14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>8</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>50013</v>
       </c>
@@ -1263,11 +1312,14 @@
       <c r="E15">
         <v>1</v>
       </c>
-      <c r="G15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>8</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>50014</v>
       </c>
@@ -1280,11 +1332,14 @@
       <c r="E16">
         <v>1</v>
       </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>8</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>50015</v>
       </c>
@@ -1300,11 +1355,14 @@
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="G17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>8</v>
+      </c>
+      <c r="H17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>50016</v>
       </c>
@@ -1320,11 +1378,14 @@
       <c r="E18">
         <v>1</v>
       </c>
-      <c r="G18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>8</v>
+      </c>
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>50017</v>
       </c>
@@ -1340,11 +1401,14 @@
       <c r="E19">
         <v>1</v>
       </c>
-      <c r="G19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>8</v>
+      </c>
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>50018</v>
       </c>
@@ -1360,11 +1424,14 @@
       <c r="E20">
         <v>2</v>
       </c>
-      <c r="G20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>8</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>50019</v>
       </c>
@@ -1380,11 +1447,14 @@
       <c r="E21">
         <v>1</v>
       </c>
-      <c r="G21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>8</v>
+      </c>
+      <c r="H21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>50020</v>
       </c>
@@ -1397,11 +1467,14 @@
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="G22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>8</v>
+      </c>
+      <c r="H22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>50021</v>
       </c>
@@ -1414,11 +1487,14 @@
       <c r="E23">
         <v>1</v>
       </c>
-      <c r="G23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>8</v>
+      </c>
+      <c r="H23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>50022</v>
       </c>
@@ -1434,11 +1510,14 @@
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="G24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>8</v>
+      </c>
+      <c r="H24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>50023</v>
       </c>
@@ -1454,11 +1533,14 @@
       <c r="E25">
         <v>1</v>
       </c>
-      <c r="G25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>8</v>
+      </c>
+      <c r="H25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>50024</v>
       </c>
@@ -1474,11 +1556,14 @@
       <c r="E26">
         <v>2</v>
       </c>
-      <c r="G26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>8</v>
+      </c>
+      <c r="H26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>50025</v>
       </c>
@@ -1494,11 +1579,14 @@
       <c r="E27">
         <v>1</v>
       </c>
-      <c r="G27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>8</v>
+      </c>
+      <c r="H27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>50026</v>
       </c>
@@ -1514,11 +1602,14 @@
       <c r="E28">
         <v>2</v>
       </c>
-      <c r="G28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>8</v>
+      </c>
+      <c r="H28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>50027</v>
       </c>
@@ -1534,11 +1625,14 @@
       <c r="E29">
         <v>1</v>
       </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>8</v>
+      </c>
+      <c r="H29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>50029</v>
       </c>
@@ -1554,11 +1648,14 @@
       <c r="E30">
         <v>2</v>
       </c>
-      <c r="G30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>8</v>
+      </c>
+      <c r="H30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>50030</v>
       </c>
@@ -1574,11 +1671,14 @@
       <c r="E31">
         <v>1</v>
       </c>
-      <c r="G31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>8</v>
+      </c>
+      <c r="H31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>50031</v>
       </c>
@@ -1594,11 +1694,14 @@
       <c r="E32">
         <v>2</v>
       </c>
-      <c r="G32" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>8</v>
+      </c>
+      <c r="H32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>50032</v>
       </c>
@@ -1614,11 +1717,14 @@
       <c r="E33">
         <v>1</v>
       </c>
-      <c r="G33" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>8</v>
+      </c>
+      <c r="H33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>50033</v>
       </c>
@@ -1634,11 +1740,14 @@
       <c r="E34">
         <v>2</v>
       </c>
-      <c r="G34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>8</v>
+      </c>
+      <c r="H34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>50034</v>
       </c>
@@ -1654,11 +1763,14 @@
       <c r="E35">
         <v>2</v>
       </c>
-      <c r="G35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>8</v>
+      </c>
+      <c r="H35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>50035</v>
       </c>
@@ -1674,11 +1786,14 @@
       <c r="E36">
         <v>1</v>
       </c>
-      <c r="G36" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>8</v>
+      </c>
+      <c r="H36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>50036</v>
       </c>
@@ -1694,11 +1809,14 @@
       <c r="E37">
         <v>1</v>
       </c>
-      <c r="G37" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>8</v>
+      </c>
+      <c r="H37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>50037</v>
       </c>
@@ -1714,11 +1832,14 @@
       <c r="E38">
         <v>1</v>
       </c>
-      <c r="G38" t="s">
+      <c r="F38">
+        <v>8</v>
+      </c>
+      <c r="H38" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>50038</v>
       </c>
@@ -1734,11 +1855,14 @@
       <c r="E39">
         <v>1</v>
       </c>
-      <c r="G39" t="s">
+      <c r="F39">
+        <v>8</v>
+      </c>
+      <c r="H39" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>50039</v>
       </c>
@@ -1754,11 +1878,14 @@
       <c r="E40">
         <v>1</v>
       </c>
-      <c r="G40" t="s">
+      <c r="F40">
+        <v>8</v>
+      </c>
+      <c r="H40" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>50040</v>
       </c>
@@ -1774,11 +1901,14 @@
       <c r="E41">
         <v>2</v>
       </c>
-      <c r="G41" t="s">
+      <c r="F41">
+        <v>8</v>
+      </c>
+      <c r="H41" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>50041</v>
       </c>
@@ -1794,11 +1924,14 @@
       <c r="E42">
         <v>2</v>
       </c>
-      <c r="G42" t="s">
+      <c r="F42">
+        <v>8</v>
+      </c>
+      <c r="H42" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>50042</v>
       </c>
@@ -1814,11 +1947,14 @@
       <c r="E43">
         <v>1</v>
       </c>
-      <c r="G43" t="s">
+      <c r="F43">
+        <v>8</v>
+      </c>
+      <c r="H43" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>50043</v>
       </c>
@@ -1834,11 +1970,14 @@
       <c r="E44">
         <v>1</v>
       </c>
-      <c r="G44" t="s">
+      <c r="F44">
+        <v>8</v>
+      </c>
+      <c r="H44" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>50044</v>
       </c>
@@ -1854,11 +1993,14 @@
       <c r="E45">
         <v>1</v>
       </c>
-      <c r="G45" t="s">
+      <c r="F45">
+        <v>8</v>
+      </c>
+      <c r="H45" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>50045</v>
       </c>
@@ -1874,11 +2016,14 @@
       <c r="E46">
         <v>1</v>
       </c>
-      <c r="G46" t="s">
+      <c r="F46">
+        <v>8</v>
+      </c>
+      <c r="H46" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>50046</v>
       </c>
@@ -1894,11 +2039,14 @@
       <c r="E47">
         <v>2</v>
       </c>
-      <c r="G47" t="s">
+      <c r="F47">
+        <v>8</v>
+      </c>
+      <c r="H47" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>50047</v>
       </c>
@@ -1914,11 +2062,14 @@
       <c r="E48">
         <v>1</v>
       </c>
-      <c r="G48" t="s">
+      <c r="F48">
+        <v>8</v>
+      </c>
+      <c r="H48" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>50048</v>
       </c>
@@ -1934,11 +2085,14 @@
       <c r="E49">
         <v>1</v>
       </c>
-      <c r="G49" t="s">
+      <c r="F49">
+        <v>8</v>
+      </c>
+      <c r="H49" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>50049</v>
       </c>
@@ -1954,11 +2108,14 @@
       <c r="E50">
         <v>1</v>
       </c>
-      <c r="G50" t="s">
+      <c r="F50">
+        <v>8</v>
+      </c>
+      <c r="H50" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50050</v>
       </c>
@@ -1974,11 +2131,14 @@
       <c r="E51">
         <v>1</v>
       </c>
-      <c r="G51" t="s">
+      <c r="F51">
+        <v>8</v>
+      </c>
+      <c r="H51" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50051</v>
       </c>
@@ -1994,11 +2154,14 @@
       <c r="E52">
         <v>1</v>
       </c>
-      <c r="G52" t="s">
+      <c r="F52">
+        <v>8</v>
+      </c>
+      <c r="H52" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>50052</v>
       </c>
@@ -2008,11 +2171,14 @@
       <c r="E53">
         <v>1</v>
       </c>
-      <c r="G53" t="s">
+      <c r="F53">
+        <v>8</v>
+      </c>
+      <c r="H53" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>50053</v>
       </c>
@@ -2028,11 +2194,14 @@
       <c r="E54">
         <v>2</v>
       </c>
-      <c r="G54" t="s">
+      <c r="F54">
+        <v>8</v>
+      </c>
+      <c r="H54" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>50054</v>
       </c>
@@ -2048,88 +2217,112 @@
       <c r="E55">
         <v>1</v>
       </c>
-      <c r="G55" t="s">
+      <c r="F55">
+        <v>8</v>
+      </c>
+      <c r="H55" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>50055</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
-      <c r="G56" t="s">
+      <c r="F56">
+        <v>8</v>
+      </c>
+      <c r="H56" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>50056</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
-      <c r="G57" t="s">
+      <c r="F57">
+        <v>8</v>
+      </c>
+      <c r="H57" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>50057</v>
       </c>
       <c r="E58">
         <v>1</v>
       </c>
-      <c r="G58" t="s">
+      <c r="F58">
+        <v>8</v>
+      </c>
+      <c r="H58" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>50058</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
-      <c r="G59" t="s">
+      <c r="F59">
+        <v>8</v>
+      </c>
+      <c r="H59" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>50059</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
-      <c r="G60" t="s">
+      <c r="F60">
+        <v>8</v>
+      </c>
+      <c r="H60" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>50060</v>
       </c>
       <c r="E61">
         <v>1</v>
       </c>
-      <c r="G61" t="s">
+      <c r="F61">
+        <v>8</v>
+      </c>
+      <c r="H61" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>50061</v>
       </c>
       <c r="E62">
         <v>1</v>
       </c>
-      <c r="G62" t="s">
+      <c r="F62">
+        <v>8</v>
+      </c>
+      <c r="H62" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>50062</v>
       </c>

--- a/excel/buff.xlsx
+++ b/excel/buff.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="178">
   <si>
     <t>number</t>
   </si>
@@ -478,141 +478,166 @@
     <t>断玉</t>
   </si>
   <si>
+    <t>buff_duanyu</t>
+  </si>
+  <si>
+    <t>僵直</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法使用剑法牌。回合结束时移除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_jiangzhi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法被击退,眩晕,僵直。回合开始时移除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以牙还牙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始时，自身获得3层反震</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_yiyahuanya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凌波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_lingbo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到的伤害增加25%,每次作为卡牌目标时减少一层。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避提升100%,每次作为卡牌目标时减少一层,回合开始时移除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拳掌卡牌使用距离增加减少1,持续&lt;#x&gt;回合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬气功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始时获得30点护盾。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_yingqigong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_yang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_yin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗结束时移除,如果获得阴,2者会融合成一点真气值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗结束时移除,如果获得阳,2者会融合成一点真气值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴阳相生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截脉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时.减少获取的真气值&lt;#x&gt;点,回合结束时移除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_jiemai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明心静气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_mingxinjingqi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不会被添加负面buff,每抵消一次,失去一层明心静气。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beni</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒江映月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每打出5张剑法牌,必定暴击。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_hanjiangyingyue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>攻击必定暴击,每使用一张卡牌,失去一层。</t>
-  </si>
-  <si>
-    <t>buff_duanyu</t>
-  </si>
-  <si>
-    <t>僵直</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法使用剑法牌。回合结束时移除。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_jiangzhi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法被击退,眩晕,僵直。回合开始时移除。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以牙还牙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗开始时，自身获得3层反震</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_yiyahuanya</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轻身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凌波</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_lingbo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受到的伤害增加25%,每次作为卡牌目标时减少一层。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪避提升100%,每次作为卡牌目标时减少一层,回合开始时移除。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拳掌卡牌使用距离增加减少1,持续&lt;#x&gt;回合。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>硬气功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗开始时获得30点护盾。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_yingqigong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_yang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_yin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗结束时移除,如果获得阴,2者会融合成一点真气值。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗结束时移除,如果获得阳,2者会融合成一点真气值。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阴阳相生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>截脉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合开始时.减少获取的真气值&lt;#x&gt;点,回合结束时移除。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_jiemai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>明心静气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_mingxinjingqi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不会被添加负面buff,每抵消一次,失去一层明心静气。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>beni</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑法牌必定暴击,每使用一张剑法牌,失去一层。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_nujian</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -955,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -982,10 +1007,10 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -1008,10 +1033,10 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
@@ -1281,7 +1306,7 @@
         <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D14" t="s">
         <v>45</v>
@@ -1706,7 +1731,7 @@
         <v>50032</v>
       </c>
       <c r="B33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C33" t="s">
         <v>97</v>
@@ -1893,7 +1918,7 @@
         <v>123</v>
       </c>
       <c r="C41" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D41" t="s">
         <v>124</v>
@@ -1939,7 +1964,7 @@
         <v>128</v>
       </c>
       <c r="C43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D43" t="s">
         <v>129</v>
@@ -2008,10 +2033,10 @@
         <v>136</v>
       </c>
       <c r="C46" t="s">
+        <v>175</v>
+      </c>
+      <c r="D46" t="s">
         <v>137</v>
-      </c>
-      <c r="D46" t="s">
-        <v>138</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -2028,13 +2053,13 @@
         <v>50046</v>
       </c>
       <c r="B47" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" t="s">
         <v>139</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>140</v>
-      </c>
-      <c r="D47" t="s">
-        <v>141</v>
       </c>
       <c r="E47">
         <v>2</v>
@@ -2051,13 +2076,13 @@
         <v>50047</v>
       </c>
       <c r="B48" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" t="s">
         <v>143</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>144</v>
-      </c>
-      <c r="D48" t="s">
-        <v>145</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -2074,13 +2099,13 @@
         <v>50048</v>
       </c>
       <c r="B49" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" t="s">
+        <v>149</v>
+      </c>
+      <c r="D49" t="s">
         <v>147</v>
-      </c>
-      <c r="C49" t="s">
-        <v>150</v>
-      </c>
-      <c r="D49" t="s">
-        <v>148</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -2097,13 +2122,13 @@
         <v>50049</v>
       </c>
       <c r="B50" t="s">
+        <v>151</v>
+      </c>
+      <c r="C50" t="s">
         <v>152</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>153</v>
-      </c>
-      <c r="D50" t="s">
-        <v>154</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -2120,13 +2145,13 @@
         <v>50050</v>
       </c>
       <c r="B51" t="s">
+        <v>154</v>
+      </c>
+      <c r="C51" t="s">
+        <v>158</v>
+      </c>
+      <c r="D51" t="s">
         <v>155</v>
-      </c>
-      <c r="C51" t="s">
-        <v>159</v>
-      </c>
-      <c r="D51" t="s">
-        <v>156</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -2143,13 +2168,13 @@
         <v>50051</v>
       </c>
       <c r="B52" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" t="s">
+        <v>159</v>
+      </c>
+      <c r="D52" t="s">
         <v>157</v>
-      </c>
-      <c r="C52" t="s">
-        <v>160</v>
-      </c>
-      <c r="D52" t="s">
-        <v>158</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -2166,7 +2191,7 @@
         <v>50052</v>
       </c>
       <c r="B53" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2183,13 +2208,13 @@
         <v>50053</v>
       </c>
       <c r="B54" t="s">
+        <v>161</v>
+      </c>
+      <c r="C54" t="s">
         <v>162</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>163</v>
-      </c>
-      <c r="D54" t="s">
-        <v>164</v>
       </c>
       <c r="E54">
         <v>2</v>
@@ -2206,13 +2231,13 @@
         <v>50054</v>
       </c>
       <c r="B55" t="s">
+        <v>166</v>
+      </c>
+      <c r="C55" t="s">
+        <v>168</v>
+      </c>
+      <c r="D55" t="s">
         <v>167</v>
-      </c>
-      <c r="C55" t="s">
-        <v>169</v>
-      </c>
-      <c r="D55" t="s">
-        <v>168</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -2228,6 +2253,15 @@
       <c r="A56">
         <v>50055</v>
       </c>
+      <c r="B56" t="s">
+        <v>171</v>
+      </c>
+      <c r="C56" t="s">
+        <v>172</v>
+      </c>
+      <c r="D56" t="s">
+        <v>173</v>
+      </c>
       <c r="E56">
         <v>1</v>
       </c>
@@ -2241,6 +2275,15 @@
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>50056</v>
+      </c>
+      <c r="B57" t="s">
+        <v>174</v>
+      </c>
+      <c r="C57" t="s">
+        <v>176</v>
+      </c>
+      <c r="D57" t="s">
+        <v>177</v>
       </c>
       <c r="E57">
         <v>1</v>

--- a/excel/buff.xlsx
+++ b/excel/buff.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40E5CFA-53D8-4901-AD33-55EDC15184FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -593,18 +594,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>明心静气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>buff_mingxinjingqi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不会被添加负面buff,每抵消一次,失去一层明心静气。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -617,10 +610,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每打出5张剑法牌,必定暴击。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gift_hanjiangyingyue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -638,13 +627,25 @@
   </si>
   <si>
     <t>buff_nujian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每打出5张剑法牌,下一张剑法牌必定暴击。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明镜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不会被添加负面buff,每抵消一次,失去一层明静。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -977,23 +978,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="66.75" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
+    <col min="3" max="3" width="66.77734375" customWidth="1"/>
     <col min="4" max="6" width="36" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1010,7 +1011,7 @@
         <v>164</v>
       </c>
       <c r="F1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -1019,7 +1020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1036,7 +1037,7 @@
         <v>165</v>
       </c>
       <c r="F2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
@@ -1045,7 +1046,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>50001</v>
       </c>
@@ -1068,7 +1069,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>50002</v>
       </c>
@@ -1091,7 +1092,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>50003</v>
       </c>
@@ -1114,7 +1115,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>50004</v>
       </c>
@@ -1137,7 +1138,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>50005</v>
       </c>
@@ -1160,7 +1161,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>50006</v>
       </c>
@@ -1183,7 +1184,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>50007</v>
       </c>
@@ -1206,7 +1207,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>50008</v>
       </c>
@@ -1229,7 +1230,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>50009</v>
       </c>
@@ -1252,7 +1253,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>50010</v>
       </c>
@@ -1275,7 +1276,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>50011</v>
       </c>
@@ -1298,7 +1299,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>50012</v>
       </c>
@@ -1321,7 +1322,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>50013</v>
       </c>
@@ -1344,7 +1345,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>50014</v>
       </c>
@@ -1364,7 +1365,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>50015</v>
       </c>
@@ -1387,7 +1388,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>50016</v>
       </c>
@@ -1410,7 +1411,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>50017</v>
       </c>
@@ -1433,7 +1434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>50018</v>
       </c>
@@ -1456,7 +1457,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>50019</v>
       </c>
@@ -1479,7 +1480,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>50020</v>
       </c>
@@ -1499,7 +1500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>50021</v>
       </c>
@@ -1519,7 +1520,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>50022</v>
       </c>
@@ -1542,7 +1543,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>50023</v>
       </c>
@@ -1565,7 +1566,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>50024</v>
       </c>
@@ -1588,7 +1589,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>50025</v>
       </c>
@@ -1611,7 +1612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>50026</v>
       </c>
@@ -1634,7 +1635,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>50027</v>
       </c>
@@ -1657,7 +1658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>50029</v>
       </c>
@@ -1680,7 +1681,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>50030</v>
       </c>
@@ -1703,7 +1704,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>50031</v>
       </c>
@@ -1726,7 +1727,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>50032</v>
       </c>
@@ -1749,7 +1750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>50033</v>
       </c>
@@ -1772,7 +1773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>50034</v>
       </c>
@@ -1795,7 +1796,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>50035</v>
       </c>
@@ -1818,7 +1819,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>50036</v>
       </c>
@@ -1841,7 +1842,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>50037</v>
       </c>
@@ -1864,7 +1865,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>50038</v>
       </c>
@@ -1887,7 +1888,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>50039</v>
       </c>
@@ -1910,7 +1911,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>50040</v>
       </c>
@@ -1933,7 +1934,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>50041</v>
       </c>
@@ -1956,7 +1957,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>50042</v>
       </c>
@@ -1979,7 +1980,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>50043</v>
       </c>
@@ -2002,7 +2003,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>50044</v>
       </c>
@@ -2025,7 +2026,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>50045</v>
       </c>
@@ -2033,7 +2034,7 @@
         <v>136</v>
       </c>
       <c r="C46" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D46" t="s">
         <v>137</v>
@@ -2048,7 +2049,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>50046</v>
       </c>
@@ -2071,7 +2072,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>50047</v>
       </c>
@@ -2094,7 +2095,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>50048</v>
       </c>
@@ -2117,7 +2118,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>50049</v>
       </c>
@@ -2140,7 +2141,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50050</v>
       </c>
@@ -2163,7 +2164,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50051</v>
       </c>
@@ -2186,7 +2187,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>50052</v>
       </c>
@@ -2203,7 +2204,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>50053</v>
       </c>
@@ -2226,18 +2227,18 @@
         <v>122</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>50054</v>
       </c>
       <c r="B55" t="s">
+        <v>176</v>
+      </c>
+      <c r="C55" t="s">
+        <v>177</v>
+      </c>
+      <c r="D55" t="s">
         <v>166</v>
-      </c>
-      <c r="C55" t="s">
-        <v>168</v>
-      </c>
-      <c r="D55" t="s">
-        <v>167</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -2249,18 +2250,18 @@
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>50055</v>
       </c>
       <c r="B56" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C56" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D56" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -2272,18 +2273,18 @@
         <v>122</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>50056</v>
       </c>
       <c r="B57" t="s">
+        <v>171</v>
+      </c>
+      <c r="C57" t="s">
+        <v>173</v>
+      </c>
+      <c r="D57" t="s">
         <v>174</v>
-      </c>
-      <c r="C57" t="s">
-        <v>176</v>
-      </c>
-      <c r="D57" t="s">
-        <v>177</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -2295,7 +2296,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>50057</v>
       </c>
@@ -2309,7 +2310,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>50058</v>
       </c>
@@ -2323,7 +2324,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>50059</v>
       </c>
@@ -2337,7 +2338,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>50060</v>
       </c>
@@ -2351,7 +2352,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>50061</v>
       </c>
@@ -2365,7 +2366,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>50062</v>
       </c>

--- a/excel/buff.xlsx
+++ b/excel/buff.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40E5CFA-53D8-4901-AD33-55EDC15184FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="181">
   <si>
     <t>number</t>
   </si>
@@ -395,257 +394,270 @@
     <t>反震</t>
   </si>
   <si>
+    <t>buff_fanzhen</t>
+  </si>
+  <si>
+    <t>移星换斗</t>
+  </si>
+  <si>
+    <t>将以自己为目标的卡牌复制放入自己的抽牌堆中</t>
+  </si>
+  <si>
+    <t>buff_yixinghuandou</t>
+  </si>
+  <si>
+    <t>CF0708</t>
+  </si>
+  <si>
+    <t>无酒不欢</t>
+  </si>
+  <si>
+    <t>战斗开始时,自身获得3层酒</t>
+  </si>
+  <si>
+    <t>gift_wujiubuhuan</t>
+  </si>
+  <si>
+    <t>CF0709</t>
+  </si>
+  <si>
+    <t>柔劲</t>
+  </si>
+  <si>
+    <t>受到的伤害减免25%,回合开始时减少一层。</t>
+  </si>
+  <si>
+    <t>buff_roujin</t>
+  </si>
+  <si>
+    <t>CF0710</t>
+  </si>
+  <si>
+    <t>破绽</t>
+  </si>
+  <si>
+    <t>buff_pozhan</t>
+  </si>
+  <si>
+    <t>致盲</t>
+  </si>
+  <si>
+    <t>卡牌使用距离减少&lt;#x&gt;,回合结束时移除。</t>
+  </si>
+  <si>
+    <t>buff_zhimang</t>
+  </si>
+  <si>
+    <t>通臂</t>
+  </si>
+  <si>
+    <t>buff_tongbi</t>
+  </si>
+  <si>
+    <t>先发制人</t>
+  </si>
+  <si>
+    <t>战斗开始获得3次步进。</t>
+  </si>
+  <si>
+    <t>gift_xianfazhiren</t>
+  </si>
+  <si>
+    <t>必中</t>
+  </si>
+  <si>
+    <t>攻击不会被闪避,每使用一张卡牌,失去一层。</t>
+  </si>
+  <si>
+    <t>buff_bizhong</t>
+  </si>
+  <si>
+    <t>断玉</t>
+  </si>
+  <si>
+    <t>buff_duanyu</t>
+  </si>
+  <si>
+    <t>僵直</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法使用剑法牌。回合结束时移除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_jiangzhi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法被击退,眩晕,僵直。回合开始时移除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以牙还牙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始时，自身获得3层反震</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_yiyahuanya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凌波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_lingbo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到的伤害增加25%,每次作为卡牌目标时减少一层。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避提升100%,每次作为卡牌目标时减少一层,回合开始时移除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拳掌卡牌使用距离增加减少1,持续&lt;#x&gt;回合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬气功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始时获得30点护盾。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_yingqigong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_yang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_yin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗结束时移除,如果获得阴,2者会融合成一点真气值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗结束时移除,如果获得阳,2者会融合成一点真气值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴阳相生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截脉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时.减少获取的真气值&lt;#x&gt;点,回合结束时移除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_jiemai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_mingxinjingqi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beni</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒江映月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_hanjiangyingyue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击必定暴击,每使用一张卡牌,失去一层。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑法牌必定暴击,每使用一张剑法牌,失去一层。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_nujian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每打出5张剑法牌,下一张剑法牌必定暴击。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明镜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不会被添加负面buff,每抵消一次,失去一层明静。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人莫予毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>对卡牌伤害的使用者造成&lt;#x&gt;点伤害</t>
-  </si>
-  <si>
-    <t>buff_fanzhen</t>
-  </si>
-  <si>
-    <t>移星换斗</t>
-  </si>
-  <si>
-    <t>将以自己为目标的卡牌复制放入自己的抽牌堆中</t>
-  </si>
-  <si>
-    <t>buff_yixinghuandou</t>
-  </si>
-  <si>
-    <t>CF0708</t>
-  </si>
-  <si>
-    <t>无酒不欢</t>
-  </si>
-  <si>
-    <t>战斗开始时,自身获得3层酒</t>
-  </si>
-  <si>
-    <t>gift_wujiubuhuan</t>
-  </si>
-  <si>
-    <t>CF0709</t>
-  </si>
-  <si>
-    <t>柔劲</t>
-  </si>
-  <si>
-    <t>受到的伤害减免25%,回合开始时减少一层。</t>
-  </si>
-  <si>
-    <t>buff_roujin</t>
-  </si>
-  <si>
-    <t>CF0710</t>
-  </si>
-  <si>
-    <t>破绽</t>
-  </si>
-  <si>
-    <t>buff_pozhan</t>
-  </si>
-  <si>
-    <t>致盲</t>
-  </si>
-  <si>
-    <t>卡牌使用距离减少&lt;#x&gt;,回合结束时移除。</t>
-  </si>
-  <si>
-    <t>buff_zhimang</t>
-  </si>
-  <si>
-    <t>通臂</t>
-  </si>
-  <si>
-    <t>buff_tongbi</t>
-  </si>
-  <si>
-    <t>先发制人</t>
-  </si>
-  <si>
-    <t>战斗开始获得3次步进。</t>
-  </si>
-  <si>
-    <t>gift_xianfazhiren</t>
-  </si>
-  <si>
-    <t>必中</t>
-  </si>
-  <si>
-    <t>攻击不会被闪避,每使用一张卡牌,失去一层。</t>
-  </si>
-  <si>
-    <t>buff_bizhong</t>
-  </si>
-  <si>
-    <t>断玉</t>
-  </si>
-  <si>
-    <t>buff_duanyu</t>
-  </si>
-  <si>
-    <t>僵直</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法使用剑法牌。回合结束时移除。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_jiangzhi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法被击退,眩晕,僵直。回合开始时移除。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以牙还牙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗开始时，自身获得3层反震</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_yiyahuanya</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轻身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凌波</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_lingbo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受到的伤害增加25%,每次作为卡牌目标时减少一层。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪避提升100%,每次作为卡牌目标时减少一层,回合开始时移除。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拳掌卡牌使用距离增加减少1,持续&lt;#x&gt;回合。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>硬气功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗开始时获得30点护盾。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_yingqigong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_yang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_yin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗结束时移除,如果获得阴,2者会融合成一点真气值。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗结束时移除,如果获得阳,2者会融合成一点真气值。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阴阳相生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>截脉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合开始时.减少获取的真气值&lt;#x&gt;点,回合结束时移除。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_jiemai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_mingxinjingqi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>beni</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寒江映月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_hanjiangyingyue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怒剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击必定暴击,每使用一张卡牌,失去一层。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑法牌必定暴击,每使用一张剑法牌,失去一层。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_nujian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每打出5张剑法牌,下一张剑法牌必定暴击。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>明镜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不会被添加负面buff,每抵消一次,失去一层明静。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对卡牌伤害的使用者施加&lt;#x&gt;层毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_renmoyudu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -978,23 +990,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" customWidth="1"/>
-    <col min="3" max="3" width="66.77734375" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="66.75" customWidth="1"/>
     <col min="4" max="6" width="36" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1008,10 +1020,10 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -1020,7 +1032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1034,10 +1046,10 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
@@ -1046,7 +1058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>50001</v>
       </c>
@@ -1069,7 +1081,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>50002</v>
       </c>
@@ -1092,7 +1104,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>50003</v>
       </c>
@@ -1115,7 +1127,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>50004</v>
       </c>
@@ -1138,7 +1150,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>50005</v>
       </c>
@@ -1161,7 +1173,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>50006</v>
       </c>
@@ -1184,7 +1196,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>50007</v>
       </c>
@@ -1207,7 +1219,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>50008</v>
       </c>
@@ -1230,7 +1242,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>50009</v>
       </c>
@@ -1253,7 +1265,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>50010</v>
       </c>
@@ -1276,7 +1288,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>50011</v>
       </c>
@@ -1299,7 +1311,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>50012</v>
       </c>
@@ -1307,7 +1319,7 @@
         <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D14" t="s">
         <v>45</v>
@@ -1322,7 +1334,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>50013</v>
       </c>
@@ -1345,7 +1357,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>50014</v>
       </c>
@@ -1365,7 +1377,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>50015</v>
       </c>
@@ -1388,7 +1400,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>50016</v>
       </c>
@@ -1411,7 +1423,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>50017</v>
       </c>
@@ -1434,7 +1446,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>50018</v>
       </c>
@@ -1457,7 +1469,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>50019</v>
       </c>
@@ -1480,7 +1492,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>50020</v>
       </c>
@@ -1500,7 +1512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>50021</v>
       </c>
@@ -1520,7 +1532,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>50022</v>
       </c>
@@ -1543,7 +1555,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>50023</v>
       </c>
@@ -1566,7 +1578,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>50024</v>
       </c>
@@ -1589,7 +1601,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>50025</v>
       </c>
@@ -1612,7 +1624,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>50026</v>
       </c>
@@ -1635,7 +1647,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>50027</v>
       </c>
@@ -1658,7 +1670,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>50029</v>
       </c>
@@ -1681,7 +1693,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>50030</v>
       </c>
@@ -1704,7 +1716,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>50031</v>
       </c>
@@ -1727,12 +1739,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>50032</v>
       </c>
       <c r="B33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C33" t="s">
         <v>97</v>
@@ -1750,7 +1762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>50033</v>
       </c>
@@ -1773,7 +1785,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>50034</v>
       </c>
@@ -1796,7 +1808,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>50035</v>
       </c>
@@ -1819,7 +1831,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>50036</v>
       </c>
@@ -1827,11 +1839,11 @@
         <v>108</v>
       </c>
       <c r="C37" t="s">
+        <v>178</v>
+      </c>
+      <c r="D37" t="s">
         <v>109</v>
       </c>
-      <c r="D37" t="s">
-        <v>110</v>
-      </c>
       <c r="E37">
         <v>1</v>
       </c>
@@ -1842,87 +1854,87 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>50037</v>
       </c>
       <c r="B38" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" t="s">
         <v>111</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>112</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>8</v>
+      </c>
+      <c r="H38" t="s">
         <v>113</v>
       </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>8</v>
-      </c>
-      <c r="H38" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>50038</v>
       </c>
       <c r="B39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" t="s">
         <v>115</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>116</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>8</v>
+      </c>
+      <c r="H39" t="s">
         <v>117</v>
       </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>8</v>
-      </c>
-      <c r="H39" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>50039</v>
       </c>
       <c r="B40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" t="s">
         <v>119</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>120</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>8</v>
+      </c>
+      <c r="H40" t="s">
         <v>121</v>
       </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>8</v>
-      </c>
-      <c r="H40" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>50040</v>
       </c>
       <c r="B41" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" t="s">
+        <v>147</v>
+      </c>
+      <c r="D41" t="s">
         <v>123</v>
-      </c>
-      <c r="C41" t="s">
-        <v>148</v>
-      </c>
-      <c r="D41" t="s">
-        <v>124</v>
       </c>
       <c r="E41">
         <v>2</v>
@@ -1931,21 +1943,21 @@
         <v>8</v>
       </c>
       <c r="H41" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>50041</v>
       </c>
       <c r="B42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" t="s">
         <v>125</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>126</v>
-      </c>
-      <c r="D42" t="s">
-        <v>127</v>
       </c>
       <c r="E42">
         <v>2</v>
@@ -1954,22 +1966,22 @@
         <v>8</v>
       </c>
       <c r="H42" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>50042</v>
       </c>
       <c r="B43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" t="s">
+        <v>149</v>
+      </c>
+      <c r="D43" t="s">
         <v>128</v>
       </c>
-      <c r="C43" t="s">
-        <v>150</v>
-      </c>
-      <c r="D43" t="s">
-        <v>129</v>
-      </c>
       <c r="E43">
         <v>1</v>
       </c>
@@ -1977,22 +1989,22 @@
         <v>8</v>
       </c>
       <c r="H43" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>50043</v>
       </c>
       <c r="B44" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" t="s">
         <v>130</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>131</v>
       </c>
-      <c r="D44" t="s">
-        <v>132</v>
-      </c>
       <c r="E44">
         <v>1</v>
       </c>
@@ -2000,22 +2012,22 @@
         <v>8</v>
       </c>
       <c r="H44" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>50044</v>
       </c>
       <c r="B45" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" t="s">
         <v>133</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>134</v>
       </c>
-      <c r="D45" t="s">
-        <v>135</v>
-      </c>
       <c r="E45">
         <v>1</v>
       </c>
@@ -2023,22 +2035,22 @@
         <v>8</v>
       </c>
       <c r="H45" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>50045</v>
       </c>
       <c r="B46" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" t="s">
+        <v>171</v>
+      </c>
+      <c r="D46" t="s">
         <v>136</v>
       </c>
-      <c r="C46" t="s">
-        <v>172</v>
-      </c>
-      <c r="D46" t="s">
-        <v>137</v>
-      </c>
       <c r="E46">
         <v>1</v>
       </c>
@@ -2046,21 +2058,21 @@
         <v>8</v>
       </c>
       <c r="H46" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>50046</v>
       </c>
       <c r="B47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" t="s">
         <v>138</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>139</v>
-      </c>
-      <c r="D47" t="s">
-        <v>140</v>
       </c>
       <c r="E47">
         <v>2</v>
@@ -2069,22 +2081,22 @@
         <v>8</v>
       </c>
       <c r="H47" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>50047</v>
       </c>
       <c r="B48" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" t="s">
         <v>142</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>143</v>
       </c>
-      <c r="D48" t="s">
-        <v>144</v>
-      </c>
       <c r="E48">
         <v>1</v>
       </c>
@@ -2092,22 +2104,22 @@
         <v>8</v>
       </c>
       <c r="H48" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>50048</v>
       </c>
       <c r="B49" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" t="s">
         <v>146</v>
       </c>
-      <c r="C49" t="s">
-        <v>149</v>
-      </c>
-      <c r="D49" t="s">
-        <v>147</v>
-      </c>
       <c r="E49">
         <v>1</v>
       </c>
@@ -2115,22 +2127,22 @@
         <v>8</v>
       </c>
       <c r="H49" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>50049</v>
       </c>
       <c r="B50" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50" t="s">
         <v>151</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>152</v>
       </c>
-      <c r="D50" t="s">
-        <v>153</v>
-      </c>
       <c r="E50">
         <v>1</v>
       </c>
@@ -2138,22 +2150,22 @@
         <v>8</v>
       </c>
       <c r="H50" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50050</v>
       </c>
       <c r="B51" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" t="s">
+        <v>157</v>
+      </c>
+      <c r="D51" t="s">
         <v>154</v>
       </c>
-      <c r="C51" t="s">
-        <v>158</v>
-      </c>
-      <c r="D51" t="s">
-        <v>155</v>
-      </c>
       <c r="E51">
         <v>1</v>
       </c>
@@ -2161,22 +2173,22 @@
         <v>8</v>
       </c>
       <c r="H51" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50051</v>
       </c>
       <c r="B52" t="s">
+        <v>155</v>
+      </c>
+      <c r="C52" t="s">
+        <v>158</v>
+      </c>
+      <c r="D52" t="s">
         <v>156</v>
       </c>
-      <c r="C52" t="s">
-        <v>159</v>
-      </c>
-      <c r="D52" t="s">
-        <v>157</v>
-      </c>
       <c r="E52">
         <v>1</v>
       </c>
@@ -2184,15 +2196,15 @@
         <v>8</v>
       </c>
       <c r="H52" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>50052</v>
       </c>
       <c r="B53" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2201,21 +2213,21 @@
         <v>8</v>
       </c>
       <c r="H53" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>50053</v>
       </c>
       <c r="B54" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" t="s">
         <v>161</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>162</v>
-      </c>
-      <c r="D54" t="s">
-        <v>163</v>
       </c>
       <c r="E54">
         <v>2</v>
@@ -2224,21 +2236,21 @@
         <v>8</v>
       </c>
       <c r="H54" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>50054</v>
       </c>
       <c r="B55" t="s">
+        <v>175</v>
+      </c>
+      <c r="C55" t="s">
         <v>176</v>
       </c>
-      <c r="C55" t="s">
-        <v>177</v>
-      </c>
       <c r="D55" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -2247,22 +2259,22 @@
         <v>8</v>
       </c>
       <c r="H55" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>50055</v>
       </c>
       <c r="B56" t="s">
+        <v>168</v>
+      </c>
+      <c r="C56" t="s">
+        <v>174</v>
+      </c>
+      <c r="D56" t="s">
         <v>169</v>
       </c>
-      <c r="C56" t="s">
-        <v>175</v>
-      </c>
-      <c r="D56" t="s">
-        <v>170</v>
-      </c>
       <c r="E56">
         <v>1</v>
       </c>
@@ -2270,22 +2282,22 @@
         <v>8</v>
       </c>
       <c r="H56" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>50056</v>
       </c>
       <c r="B57" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C57" t="s">
+        <v>172</v>
+      </c>
+      <c r="D57" t="s">
         <v>173</v>
       </c>
-      <c r="D57" t="s">
-        <v>174</v>
-      </c>
       <c r="E57">
         <v>1</v>
       </c>
@@ -2293,13 +2305,22 @@
         <v>8</v>
       </c>
       <c r="H57" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>50057</v>
       </c>
+      <c r="B58" t="s">
+        <v>177</v>
+      </c>
+      <c r="C58" t="s">
+        <v>179</v>
+      </c>
+      <c r="D58" t="s">
+        <v>180</v>
+      </c>
       <c r="E58">
         <v>1</v>
       </c>
@@ -2307,10 +2328,10 @@
         <v>8</v>
       </c>
       <c r="H58" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>50058</v>
       </c>
@@ -2321,10 +2342,10 @@
         <v>8</v>
       </c>
       <c r="H59" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>50059</v>
       </c>
@@ -2335,10 +2356,10 @@
         <v>8</v>
       </c>
       <c r="H60" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>50060</v>
       </c>
@@ -2349,10 +2370,10 @@
         <v>8</v>
       </c>
       <c r="H61" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>50061</v>
       </c>
@@ -2363,10 +2384,10 @@
         <v>8</v>
       </c>
       <c r="H62" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>50062</v>
       </c>

--- a/excel/buff.xlsx
+++ b/excel/buff.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="190">
   <si>
     <t>number</t>
   </si>
@@ -132,9 +132,6 @@
     <t>buff_huichun</t>
   </si>
   <si>
-    <t>护体真气</t>
-  </si>
-  <si>
     <t>回合结束给与自己&lt;#x&gt;层护盾,并减少一层。</t>
   </si>
   <si>
@@ -364,293 +361,334 @@
     <t>buff_speed_ts</t>
   </si>
   <si>
+    <t>每一层会降低10点侠客轻功</t>
+  </si>
+  <si>
+    <t>buff_speed_xj</t>
+  </si>
+  <si>
+    <t>脱臼</t>
+  </si>
+  <si>
+    <t>每打出一张拳法/剑法卡牌,对侠客造成&lt;#x&gt;点伤害。</t>
+  </si>
+  <si>
+    <t>buff_tuojiu</t>
+  </si>
+  <si>
+    <t>体用双休</t>
+  </si>
+  <si>
+    <t>本回合中下&lt;#x&gt;张内功牌会释放2次。</t>
+  </si>
+  <si>
+    <t>buff_double_nei</t>
+  </si>
+  <si>
+    <t>反震</t>
+  </si>
+  <si>
+    <t>buff_fanzhen</t>
+  </si>
+  <si>
+    <t>移星换斗</t>
+  </si>
+  <si>
+    <t>将以自己为目标的卡牌复制放入自己的抽牌堆中</t>
+  </si>
+  <si>
+    <t>buff_yixinghuandou</t>
+  </si>
+  <si>
+    <t>CF0708</t>
+  </si>
+  <si>
+    <t>无酒不欢</t>
+  </si>
+  <si>
+    <t>战斗开始时,自身获得3层酒</t>
+  </si>
+  <si>
+    <t>gift_wujiubuhuan</t>
+  </si>
+  <si>
+    <t>CF0709</t>
+  </si>
+  <si>
+    <t>柔劲</t>
+  </si>
+  <si>
+    <t>受到的伤害减免25%,回合开始时减少一层。</t>
+  </si>
+  <si>
+    <t>buff_roujin</t>
+  </si>
+  <si>
+    <t>CF0710</t>
+  </si>
+  <si>
+    <t>破绽</t>
+  </si>
+  <si>
+    <t>buff_pozhan</t>
+  </si>
+  <si>
+    <t>致盲</t>
+  </si>
+  <si>
+    <t>卡牌使用距离减少&lt;#x&gt;,回合结束时移除。</t>
+  </si>
+  <si>
+    <t>buff_zhimang</t>
+  </si>
+  <si>
+    <t>通臂</t>
+  </si>
+  <si>
+    <t>buff_tongbi</t>
+  </si>
+  <si>
+    <t>先发制人</t>
+  </si>
+  <si>
+    <t>战斗开始获得3次步进。</t>
+  </si>
+  <si>
+    <t>gift_xianfazhiren</t>
+  </si>
+  <si>
+    <t>必中</t>
+  </si>
+  <si>
+    <t>攻击不会被闪避,每使用一张卡牌,失去一层。</t>
+  </si>
+  <si>
+    <t>buff_bizhong</t>
+  </si>
+  <si>
+    <t>断玉</t>
+  </si>
+  <si>
+    <t>buff_duanyu</t>
+  </si>
+  <si>
+    <t>僵直</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法使用剑法牌。回合结束时移除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_jiangzhi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法被击退,眩晕,僵直。回合开始时移除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以牙还牙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始时，自身获得3层反震</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_yiyahuanya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凌波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_lingbo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到的伤害增加25%,每次作为卡牌目标时减少一层。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避提升100%,每次作为卡牌目标时减少一层,回合开始时移除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬气功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始时获得30点护盾。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_yingqigong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_yang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_yin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗结束时移除,如果获得阴,2者会融合成一点真气值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗结束时移除,如果获得阳,2者会融合成一点真气值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴阳相生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截脉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时.减少获取的真气值&lt;#x&gt;点,回合结束时移除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_jiemai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_mingxinjingqi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beni</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒江映月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_hanjiangyingyue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击必定暴击,每使用一张卡牌,失去一层。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑法牌必定暴击,每使用一张剑法牌,失去一层。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_nujian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每打出5张剑法牌,下一张剑法牌必定暴击。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明镜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不会被添加负面buff,每抵消一次,失去一层明静。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人莫予毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对卡牌伤害的使用者造成&lt;#x&gt;点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对卡牌伤害的使用者施加&lt;#x&gt;层毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_renmoyudu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你抽牌获得的手牌的真气消耗混乱直到回合结束,回合结束时,减少一层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真气紊乱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走火入魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始时,获得一层真气紊乱。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_zouhuorumo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_zhenqiwenluan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>缓慢</t>
-  </si>
-  <si>
-    <t>每一层会降低10点侠客轻功</t>
-  </si>
-  <si>
-    <t>buff_speed_xj</t>
-  </si>
-  <si>
-    <t>脱臼</t>
-  </si>
-  <si>
-    <t>每打出一张拳法/剑法卡牌,对侠客造成&lt;#x&gt;点伤害。</t>
-  </si>
-  <si>
-    <t>buff_tuojiu</t>
-  </si>
-  <si>
-    <t>体用双休</t>
-  </si>
-  <si>
-    <t>本回合中下&lt;#x&gt;张内功牌会释放2次。</t>
-  </si>
-  <si>
-    <t>buff_double_nei</t>
-  </si>
-  <si>
-    <t>反震</t>
-  </si>
-  <si>
-    <t>buff_fanzhen</t>
-  </si>
-  <si>
-    <t>移星换斗</t>
-  </si>
-  <si>
-    <t>将以自己为目标的卡牌复制放入自己的抽牌堆中</t>
-  </si>
-  <si>
-    <t>buff_yixinghuandou</t>
-  </si>
-  <si>
-    <t>CF0708</t>
-  </si>
-  <si>
-    <t>无酒不欢</t>
-  </si>
-  <si>
-    <t>战斗开始时,自身获得3层酒</t>
-  </si>
-  <si>
-    <t>gift_wujiubuhuan</t>
-  </si>
-  <si>
-    <t>CF0709</t>
-  </si>
-  <si>
-    <t>柔劲</t>
-  </si>
-  <si>
-    <t>受到的伤害减免25%,回合开始时减少一层。</t>
-  </si>
-  <si>
-    <t>buff_roujin</t>
-  </si>
-  <si>
-    <t>CF0710</t>
-  </si>
-  <si>
-    <t>破绽</t>
-  </si>
-  <si>
-    <t>buff_pozhan</t>
-  </si>
-  <si>
-    <t>致盲</t>
-  </si>
-  <si>
-    <t>卡牌使用距离减少&lt;#x&gt;,回合结束时移除。</t>
-  </si>
-  <si>
-    <t>buff_zhimang</t>
-  </si>
-  <si>
-    <t>通臂</t>
-  </si>
-  <si>
-    <t>buff_tongbi</t>
-  </si>
-  <si>
-    <t>先发制人</t>
-  </si>
-  <si>
-    <t>战斗开始获得3次步进。</t>
-  </si>
-  <si>
-    <t>gift_xianfazhiren</t>
-  </si>
-  <si>
-    <t>必中</t>
-  </si>
-  <si>
-    <t>攻击不会被闪避,每使用一张卡牌,失去一层。</t>
-  </si>
-  <si>
-    <t>buff_bizhong</t>
-  </si>
-  <si>
-    <t>断玉</t>
-  </si>
-  <si>
-    <t>buff_duanyu</t>
-  </si>
-  <si>
-    <t>僵直</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法使用剑法牌。回合结束时移除。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_jiangzhi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法被击退,眩晕,僵直。回合开始时移除。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以牙还牙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗开始时，自身获得3层反震</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_yiyahuanya</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轻身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凌波</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_lingbo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受到的伤害增加25%,每次作为卡牌目标时减少一层。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪避提升100%,每次作为卡牌目标时减少一层,回合开始时移除。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拳掌卡牌使用距离增加减少1,持续&lt;#x&gt;回合。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>硬气功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗开始时获得30点护盾。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_yingqigong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_yang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_yin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗结束时移除,如果获得阴,2者会融合成一点真气值。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗结束时移除,如果获得阳,2者会融合成一点真气值。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阴阳相生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>截脉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合开始时.减少获取的真气值&lt;#x&gt;点,回合结束时移除。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_jiemai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_mingxinjingqi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>beni</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寒江映月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_hanjiangyingyue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怒剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击必定暴击,每使用一张卡牌,失去一层。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑法牌必定暴击,每使用一张剑法牌,失去一层。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_nujian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每打出5张剑法牌,下一张剑法牌必定暴击。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>明镜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不会被添加负面buff,每抵消一次,失去一层明静。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人莫予毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对卡牌伤害的使用者造成&lt;#x&gt;点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对卡牌伤害的使用者施加&lt;#x&gt;层毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_renmoyudu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断筋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_duanjin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护体真罡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拳掌卡牌使用距离增加1,持续&lt;#x&gt;回合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌造成的伤害减少25%,每使用一张卡牌减少一层</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -993,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1020,10 +1058,10 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" t="s">
         <v>163</v>
-      </c>
-      <c r="F1" t="s">
-        <v>166</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -1046,10 +1084,10 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" t="s">
         <v>164</v>
-      </c>
-      <c r="F2" t="s">
-        <v>167</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
@@ -1155,13 +1193,13 @@
         <v>50005</v>
       </c>
       <c r="B7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1178,13 +1216,13 @@
         <v>50006</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1201,13 +1239,13 @@
         <v>50007</v>
       </c>
       <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1224,13 +1262,13 @@
         <v>50008</v>
       </c>
       <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
         <v>31</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1247,13 +1285,13 @@
         <v>50009</v>
       </c>
       <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
         <v>34</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>35</v>
-      </c>
-      <c r="D11" t="s">
-        <v>36</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1270,13 +1308,13 @@
         <v>50010</v>
       </c>
       <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
         <v>37</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>38</v>
-      </c>
-      <c r="D12" t="s">
-        <v>39</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1293,13 +1331,13 @@
         <v>50011</v>
       </c>
       <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
         <v>40</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>41</v>
-      </c>
-      <c r="D13" t="s">
-        <v>42</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1308,7 +1346,7 @@
         <v>8</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1316,13 +1354,13 @@
         <v>50012</v>
       </c>
       <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" t="s">
         <v>44</v>
-      </c>
-      <c r="C14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D14" t="s">
-        <v>45</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1339,13 +1377,13 @@
         <v>50013</v>
       </c>
       <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
         <v>46</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>47</v>
-      </c>
-      <c r="D15" t="s">
-        <v>48</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1362,10 +1400,10 @@
         <v>50014</v>
       </c>
       <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
         <v>49</v>
-      </c>
-      <c r="C16" t="s">
-        <v>50</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1382,13 +1420,13 @@
         <v>50015</v>
       </c>
       <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
         <v>51</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>52</v>
-      </c>
-      <c r="D17" t="s">
-        <v>53</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1405,13 +1443,13 @@
         <v>50016</v>
       </c>
       <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
         <v>54</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>55</v>
-      </c>
-      <c r="D18" t="s">
-        <v>56</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1428,13 +1466,13 @@
         <v>50017</v>
       </c>
       <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
         <v>57</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>58</v>
-      </c>
-      <c r="D19" t="s">
-        <v>59</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1451,13 +1489,13 @@
         <v>50018</v>
       </c>
       <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
         <v>60</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>61</v>
-      </c>
-      <c r="D20" t="s">
-        <v>62</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1474,13 +1512,13 @@
         <v>50019</v>
       </c>
       <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
         <v>63</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>64</v>
-      </c>
-      <c r="D21" t="s">
-        <v>65</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1497,10 +1535,10 @@
         <v>50020</v>
       </c>
       <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
         <v>66</v>
-      </c>
-      <c r="C22" t="s">
-        <v>67</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1517,10 +1555,10 @@
         <v>50021</v>
       </c>
       <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
         <v>68</v>
-      </c>
-      <c r="C23" t="s">
-        <v>69</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1537,13 +1575,13 @@
         <v>50022</v>
       </c>
       <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" t="s">
         <v>70</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>71</v>
-      </c>
-      <c r="D24" t="s">
-        <v>72</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1560,13 +1598,13 @@
         <v>50023</v>
       </c>
       <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
         <v>73</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>74</v>
-      </c>
-      <c r="D25" t="s">
-        <v>75</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1583,13 +1621,13 @@
         <v>50024</v>
       </c>
       <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
         <v>76</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>77</v>
-      </c>
-      <c r="D26" t="s">
-        <v>78</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -1606,13 +1644,13 @@
         <v>50025</v>
       </c>
       <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
         <v>79</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>80</v>
-      </c>
-      <c r="D27" t="s">
-        <v>81</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1629,13 +1667,13 @@
         <v>50026</v>
       </c>
       <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
         <v>82</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>83</v>
-      </c>
-      <c r="D28" t="s">
-        <v>84</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -1652,13 +1690,13 @@
         <v>50027</v>
       </c>
       <c r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" t="s">
         <v>85</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>86</v>
-      </c>
-      <c r="D29" t="s">
-        <v>87</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1675,13 +1713,13 @@
         <v>50029</v>
       </c>
       <c r="B30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" t="s">
         <v>88</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>89</v>
-      </c>
-      <c r="D30" t="s">
-        <v>90</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -1698,13 +1736,13 @@
         <v>50030</v>
       </c>
       <c r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" t="s">
         <v>91</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>92</v>
-      </c>
-      <c r="D31" t="s">
-        <v>93</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1721,13 +1759,13 @@
         <v>50031</v>
       </c>
       <c r="B32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" t="s">
         <v>94</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>95</v>
-      </c>
-      <c r="D32" t="s">
-        <v>96</v>
       </c>
       <c r="E32">
         <v>2</v>
@@ -1744,13 +1782,13 @@
         <v>50032</v>
       </c>
       <c r="B33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" t="s">
         <v>97</v>
-      </c>
-      <c r="D33" t="s">
-        <v>98</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1767,13 +1805,13 @@
         <v>50033</v>
       </c>
       <c r="B34" t="s">
+        <v>184</v>
+      </c>
+      <c r="C34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" t="s">
         <v>99</v>
-      </c>
-      <c r="C34" t="s">
-        <v>100</v>
-      </c>
-      <c r="D34" t="s">
-        <v>101</v>
       </c>
       <c r="E34">
         <v>2</v>
@@ -1790,13 +1828,13 @@
         <v>50034</v>
       </c>
       <c r="B35" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" t="s">
         <v>102</v>
-      </c>
-      <c r="C35" t="s">
-        <v>103</v>
-      </c>
-      <c r="D35" t="s">
-        <v>104</v>
       </c>
       <c r="E35">
         <v>2</v>
@@ -1813,13 +1851,13 @@
         <v>50035</v>
       </c>
       <c r="B36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" t="s">
         <v>105</v>
-      </c>
-      <c r="C36" t="s">
-        <v>106</v>
-      </c>
-      <c r="D36" t="s">
-        <v>107</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -1836,13 +1874,13 @@
         <v>50036</v>
       </c>
       <c r="B37" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C37" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D37" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -1859,22 +1897,22 @@
         <v>50037</v>
       </c>
       <c r="B38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" t="s">
         <v>110</v>
       </c>
-      <c r="C38" t="s">
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>8</v>
+      </c>
+      <c r="H38" t="s">
         <v>111</v>
-      </c>
-      <c r="D38" t="s">
-        <v>112</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>8</v>
-      </c>
-      <c r="H38" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -1882,22 +1920,22 @@
         <v>50038</v>
       </c>
       <c r="B39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" t="s">
         <v>114</v>
       </c>
-      <c r="C39" t="s">
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>8</v>
+      </c>
+      <c r="H39" t="s">
         <v>115</v>
-      </c>
-      <c r="D39" t="s">
-        <v>116</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>8</v>
-      </c>
-      <c r="H39" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -1905,22 +1943,22 @@
         <v>50039</v>
       </c>
       <c r="B40" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" t="s">
         <v>118</v>
       </c>
-      <c r="C40" t="s">
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>8</v>
+      </c>
+      <c r="H40" t="s">
         <v>119</v>
-      </c>
-      <c r="D40" t="s">
-        <v>120</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>8</v>
-      </c>
-      <c r="H40" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -1928,13 +1966,13 @@
         <v>50040</v>
       </c>
       <c r="B41" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C41" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D41" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E41">
         <v>2</v>
@@ -1943,7 +1981,7 @@
         <v>8</v>
       </c>
       <c r="H41" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -1951,13 +1989,13 @@
         <v>50041</v>
       </c>
       <c r="B42" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" t="s">
         <v>124</v>
-      </c>
-      <c r="C42" t="s">
-        <v>125</v>
-      </c>
-      <c r="D42" t="s">
-        <v>126</v>
       </c>
       <c r="E42">
         <v>2</v>
@@ -1966,7 +2004,7 @@
         <v>8</v>
       </c>
       <c r="H42" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -1974,13 +2012,13 @@
         <v>50042</v>
       </c>
       <c r="B43" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C43" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
       <c r="D43" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -1989,7 +2027,7 @@
         <v>8</v>
       </c>
       <c r="H43" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -1997,14 +2035,14 @@
         <v>50043</v>
       </c>
       <c r="B44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" t="s">
+        <v>128</v>
+      </c>
+      <c r="D44" t="s">
         <v>129</v>
       </c>
-      <c r="C44" t="s">
-        <v>130</v>
-      </c>
-      <c r="D44" t="s">
-        <v>131</v>
-      </c>
       <c r="E44">
         <v>1</v>
       </c>
@@ -2012,7 +2050,7 @@
         <v>8</v>
       </c>
       <c r="H44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -2020,14 +2058,14 @@
         <v>50044</v>
       </c>
       <c r="B45" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" t="s">
         <v>132</v>
       </c>
-      <c r="C45" t="s">
-        <v>133</v>
-      </c>
-      <c r="D45" t="s">
-        <v>134</v>
-      </c>
       <c r="E45">
         <v>1</v>
       </c>
@@ -2035,7 +2073,7 @@
         <v>8</v>
       </c>
       <c r="H45" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -2043,13 +2081,13 @@
         <v>50045</v>
       </c>
       <c r="B46" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C46" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D46" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -2058,7 +2096,7 @@
         <v>8</v>
       </c>
       <c r="H46" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -2066,13 +2104,13 @@
         <v>50046</v>
       </c>
       <c r="B47" t="s">
+        <v>135</v>
+      </c>
+      <c r="C47" t="s">
+        <v>136</v>
+      </c>
+      <c r="D47" t="s">
         <v>137</v>
-      </c>
-      <c r="C47" t="s">
-        <v>138</v>
-      </c>
-      <c r="D47" t="s">
-        <v>139</v>
       </c>
       <c r="E47">
         <v>2</v>
@@ -2081,7 +2119,7 @@
         <v>8</v>
       </c>
       <c r="H47" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -2089,14 +2127,14 @@
         <v>50047</v>
       </c>
       <c r="B48" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" t="s">
+        <v>140</v>
+      </c>
+      <c r="D48" t="s">
         <v>141</v>
       </c>
-      <c r="C48" t="s">
-        <v>142</v>
-      </c>
-      <c r="D48" t="s">
-        <v>143</v>
-      </c>
       <c r="E48">
         <v>1</v>
       </c>
@@ -2104,7 +2142,7 @@
         <v>8</v>
       </c>
       <c r="H48" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -2112,13 +2150,13 @@
         <v>50048</v>
       </c>
       <c r="B49" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C49" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D49" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -2127,7 +2165,7 @@
         <v>8</v>
       </c>
       <c r="H49" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -2135,13 +2173,13 @@
         <v>50049</v>
       </c>
       <c r="B50" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C50" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D50" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -2150,7 +2188,7 @@
         <v>8</v>
       </c>
       <c r="H50" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -2158,13 +2196,13 @@
         <v>50050</v>
       </c>
       <c r="B51" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C51" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D51" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -2173,7 +2211,7 @@
         <v>8</v>
       </c>
       <c r="H51" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -2181,13 +2219,13 @@
         <v>50051</v>
       </c>
       <c r="B52" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" t="s">
         <v>155</v>
       </c>
-      <c r="C52" t="s">
-        <v>158</v>
-      </c>
       <c r="D52" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -2196,7 +2234,7 @@
         <v>8</v>
       </c>
       <c r="H52" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -2204,7 +2242,7 @@
         <v>50052</v>
       </c>
       <c r="B53" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2213,7 +2251,7 @@
         <v>8</v>
       </c>
       <c r="H53" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -2221,13 +2259,13 @@
         <v>50053</v>
       </c>
       <c r="B54" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C54" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D54" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E54">
         <v>2</v>
@@ -2236,7 +2274,7 @@
         <v>8</v>
       </c>
       <c r="H54" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -2244,13 +2282,13 @@
         <v>50054</v>
       </c>
       <c r="B55" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C55" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D55" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -2259,7 +2297,7 @@
         <v>8</v>
       </c>
       <c r="H55" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -2267,13 +2305,13 @@
         <v>50055</v>
       </c>
       <c r="B56" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C56" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D56" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -2282,7 +2320,7 @@
         <v>8</v>
       </c>
       <c r="H56" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -2290,14 +2328,14 @@
         <v>50056</v>
       </c>
       <c r="B57" t="s">
+        <v>167</v>
+      </c>
+      <c r="C57" t="s">
+        <v>169</v>
+      </c>
+      <c r="D57" t="s">
         <v>170</v>
       </c>
-      <c r="C57" t="s">
-        <v>172</v>
-      </c>
-      <c r="D57" t="s">
-        <v>173</v>
-      </c>
       <c r="E57">
         <v>1</v>
       </c>
@@ -2305,7 +2343,7 @@
         <v>8</v>
       </c>
       <c r="H57" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -2313,14 +2351,14 @@
         <v>50057</v>
       </c>
       <c r="B58" t="s">
+        <v>174</v>
+      </c>
+      <c r="C58" t="s">
+        <v>176</v>
+      </c>
+      <c r="D58" t="s">
         <v>177</v>
       </c>
-      <c r="C58" t="s">
-        <v>179</v>
-      </c>
-      <c r="D58" t="s">
-        <v>180</v>
-      </c>
       <c r="E58">
         <v>1</v>
       </c>
@@ -2328,13 +2366,22 @@
         <v>8</v>
       </c>
       <c r="H58" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>50058</v>
       </c>
+      <c r="B59" t="s">
+        <v>179</v>
+      </c>
+      <c r="C59" t="s">
+        <v>178</v>
+      </c>
+      <c r="D59" t="s">
+        <v>183</v>
+      </c>
       <c r="E59">
         <v>1</v>
       </c>
@@ -2342,13 +2389,22 @@
         <v>8</v>
       </c>
       <c r="H59" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>50059</v>
       </c>
+      <c r="B60" t="s">
+        <v>180</v>
+      </c>
+      <c r="C60" t="s">
+        <v>181</v>
+      </c>
+      <c r="D60" t="s">
+        <v>182</v>
+      </c>
       <c r="E60">
         <v>1</v>
       </c>
@@ -2356,13 +2412,22 @@
         <v>8</v>
       </c>
       <c r="H60" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>50060</v>
       </c>
+      <c r="B61" t="s">
+        <v>185</v>
+      </c>
+      <c r="C61" t="s">
+        <v>189</v>
+      </c>
+      <c r="D61" t="s">
+        <v>186</v>
+      </c>
       <c r="E61">
         <v>1</v>
       </c>
@@ -2370,7 +2435,7 @@
         <v>8</v>
       </c>
       <c r="H61" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -2384,7 +2449,7 @@
         <v>8</v>
       </c>
       <c r="H62" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">

--- a/excel/buff.xlsx
+++ b/excel/buff.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A6C360-6BA4-49C8-A7D4-A563EAECC764}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -695,7 +696,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1028,23 +1029,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="66.75" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
+    <col min="3" max="3" width="66.77734375" customWidth="1"/>
     <col min="4" max="6" width="36" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1070,7 +1071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1096,7 +1097,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>50001</v>
       </c>
@@ -1119,7 +1120,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>50002</v>
       </c>
@@ -1142,7 +1143,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>50003</v>
       </c>
@@ -1165,7 +1166,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>50004</v>
       </c>
@@ -1188,7 +1189,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>50005</v>
       </c>
@@ -1211,7 +1212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>50006</v>
       </c>
@@ -1234,7 +1235,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>50007</v>
       </c>
@@ -1257,7 +1258,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>50008</v>
       </c>
@@ -1280,7 +1281,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>50009</v>
       </c>
@@ -1303,7 +1304,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>50010</v>
       </c>
@@ -1326,7 +1327,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>50011</v>
       </c>
@@ -1349,7 +1350,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>50012</v>
       </c>
@@ -1372,7 +1373,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>50013</v>
       </c>
@@ -1395,7 +1396,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>50014</v>
       </c>
@@ -1415,7 +1416,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>50015</v>
       </c>
@@ -1438,7 +1439,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>50016</v>
       </c>
@@ -1461,7 +1462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>50017</v>
       </c>
@@ -1484,7 +1485,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>50018</v>
       </c>
@@ -1507,7 +1508,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>50019</v>
       </c>
@@ -1530,7 +1531,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>50020</v>
       </c>
@@ -1550,7 +1551,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>50021</v>
       </c>
@@ -1570,7 +1571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>50022</v>
       </c>
@@ -1593,7 +1594,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>50023</v>
       </c>
@@ -1616,7 +1617,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>50024</v>
       </c>
@@ -1639,7 +1640,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>50025</v>
       </c>
@@ -1662,7 +1663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>50026</v>
       </c>
@@ -1685,7 +1686,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>50027</v>
       </c>
@@ -1708,7 +1709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>50029</v>
       </c>
@@ -1731,7 +1732,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>50030</v>
       </c>
@@ -1754,7 +1755,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>50031</v>
       </c>
@@ -1777,7 +1778,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>50032</v>
       </c>
@@ -1800,7 +1801,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>50033</v>
       </c>
@@ -1823,7 +1824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>50034</v>
       </c>
@@ -1846,7 +1847,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>50035</v>
       </c>
@@ -1869,7 +1870,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>50036</v>
       </c>
@@ -1892,7 +1893,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>50037</v>
       </c>
@@ -1915,7 +1916,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>50038</v>
       </c>
@@ -1938,7 +1939,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>50039</v>
       </c>
@@ -1961,7 +1962,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>50040</v>
       </c>
@@ -1984,7 +1985,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>50041</v>
       </c>
@@ -2007,7 +2008,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>50042</v>
       </c>
@@ -2030,7 +2031,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>50043</v>
       </c>
@@ -2053,7 +2054,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>50044</v>
       </c>
@@ -2076,7 +2077,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>50045</v>
       </c>
@@ -2099,7 +2100,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>50046</v>
       </c>
@@ -2122,7 +2123,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>50047</v>
       </c>
@@ -2145,7 +2146,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>50048</v>
       </c>
@@ -2168,7 +2169,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>50049</v>
       </c>
@@ -2191,7 +2192,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50050</v>
       </c>
@@ -2214,7 +2215,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50051</v>
       </c>
@@ -2237,7 +2238,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>50052</v>
       </c>
@@ -2254,7 +2255,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>50053</v>
       </c>
@@ -2277,7 +2278,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>50054</v>
       </c>
@@ -2300,7 +2301,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>50055</v>
       </c>
@@ -2323,7 +2324,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>50056</v>
       </c>
@@ -2346,7 +2347,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>50057</v>
       </c>
@@ -2369,7 +2370,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>50058</v>
       </c>
@@ -2392,7 +2393,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>50059</v>
       </c>
@@ -2415,7 +2416,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>50060</v>
       </c>
@@ -2438,7 +2439,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>50061</v>
       </c>
@@ -2452,7 +2453,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>50062</v>
       </c>

--- a/excel/buff.xlsx
+++ b/excel/buff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A6C360-6BA4-49C8-A7D4-A563EAECC764}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC8AD0F-20EA-4CBB-961F-BDCD9F539894}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="200">
   <si>
     <t>number</t>
   </si>
@@ -649,18 +649,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>真气紊乱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>走火入魔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>战斗开始时,获得一层真气紊乱。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gift_zouhuorumo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -690,6 +682,54 @@
   </si>
   <si>
     <t>卡牌造成的伤害减少25%,每使用一张卡牌减少一层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乱气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始时,获得一层乱气。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓄力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_xvli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一张拳掌卡牌获得额外&lt;#x&gt;点攻击,并且在打出后移除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓄势待发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束时你的&lt;蓄力&gt;翻倍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_xvshidaifa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+F63+A+A55:H63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厚积薄发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当你蓄力时,额外获得3层蓄力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_houjibofa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1030,10 +1070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1194,7 +1234,7 @@
         <v>50005</v>
       </c>
       <c r="B7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -1806,7 +1846,7 @@
         <v>50033</v>
       </c>
       <c r="B34" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C34" t="s">
         <v>98</v>
@@ -2016,7 +2056,7 @@
         <v>125</v>
       </c>
       <c r="C43" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D43" t="s">
         <v>126</v>
@@ -2279,8 +2319,8 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>50054</v>
+      <c r="A55" t="s">
+        <v>196</v>
       </c>
       <c r="B55" t="s">
         <v>172</v>
@@ -2375,13 +2415,13 @@
         <v>50058</v>
       </c>
       <c r="B59" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="C59" t="s">
         <v>178</v>
       </c>
       <c r="D59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -2398,13 +2438,13 @@
         <v>50059</v>
       </c>
       <c r="B60" t="s">
+        <v>179</v>
+      </c>
+      <c r="C60" t="s">
+        <v>189</v>
+      </c>
+      <c r="D60" t="s">
         <v>180</v>
-      </c>
-      <c r="C60" t="s">
-        <v>181</v>
-      </c>
-      <c r="D60" t="s">
-        <v>182</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -2421,13 +2461,13 @@
         <v>50060</v>
       </c>
       <c r="B61" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C61" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D61" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -2443,6 +2483,15 @@
       <c r="A62">
         <v>50061</v>
       </c>
+      <c r="B62" t="s">
+        <v>190</v>
+      </c>
+      <c r="C62" t="s">
+        <v>192</v>
+      </c>
+      <c r="D62" t="s">
+        <v>191</v>
+      </c>
       <c r="E62">
         <v>1</v>
       </c>
@@ -2456,6 +2505,103 @@
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>50062</v>
+      </c>
+      <c r="B63" t="s">
+        <v>193</v>
+      </c>
+      <c r="C63" t="s">
+        <v>194</v>
+      </c>
+      <c r="D63" t="s">
+        <v>195</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>8</v>
+      </c>
+      <c r="H63" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>50063</v>
+      </c>
+      <c r="B64" t="s">
+        <v>197</v>
+      </c>
+      <c r="C64" t="s">
+        <v>198</v>
+      </c>
+      <c r="D64" t="s">
+        <v>199</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>8</v>
+      </c>
+      <c r="H64" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>50064</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>8</v>
+      </c>
+      <c r="H65" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>50065</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>8</v>
+      </c>
+      <c r="H66" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>50066</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>8</v>
+      </c>
+      <c r="H67" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>50067</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>8</v>
+      </c>
+      <c r="H68" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/excel/buff.xlsx
+++ b/excel/buff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC8AD0F-20EA-4CBB-961F-BDCD9F539894}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75F1804-A4F7-40DA-8129-C7699BEDB06C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="218">
   <si>
     <t>number</t>
   </si>
@@ -717,10 +717,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5+F63+A+A55:H63</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>厚积薄发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -731,6 +727,66 @@
   <si>
     <t>buff_houjibofa</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_du</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_dianxue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_xuanyun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_hutizhengang</t>
+  </si>
+  <si>
+    <t>buff_hubo</t>
+  </si>
+  <si>
+    <t>buff_gushou</t>
+  </si>
+  <si>
+    <t>buff_jianqizongheng</t>
+  </si>
+  <si>
+    <t>buff_wujijianyi</t>
+  </si>
+  <si>
+    <t>buff_jianqisiyi</t>
+  </si>
+  <si>
+    <t>quanfa_ts</t>
+  </si>
+  <si>
+    <t>quanfa_xj</t>
+  </si>
+  <si>
+    <t>jianfa_ts</t>
+  </si>
+  <si>
+    <t>jianfa_xj</t>
+  </si>
+  <si>
+    <t>neigong_ts</t>
+  </si>
+  <si>
+    <t>neigong_xj</t>
+  </si>
+  <si>
+    <t>anqi_ts</t>
+  </si>
+  <si>
+    <t>anqi_xj</t>
+  </si>
+  <si>
+    <t>qingshen</t>
+  </si>
+  <si>
+    <t>huanman</t>
   </si>
 </sst>
 </file>
@@ -1072,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1082,6 +1138,7 @@
     <col min="2" max="2" width="25.44140625" customWidth="1"/>
     <col min="3" max="3" width="66.77734375" customWidth="1"/>
     <col min="4" max="6" width="36" customWidth="1"/>
+    <col min="7" max="7" width="18.21875" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1156,6 +1213,9 @@
       <c r="F3">
         <v>8</v>
       </c>
+      <c r="G3" t="s">
+        <v>200</v>
+      </c>
       <c r="H3" t="s">
         <v>11</v>
       </c>
@@ -1179,6 +1239,9 @@
       <c r="F4">
         <v>8</v>
       </c>
+      <c r="G4" t="s">
+        <v>201</v>
+      </c>
       <c r="H4" t="s">
         <v>15</v>
       </c>
@@ -1202,6 +1265,9 @@
       <c r="F5">
         <v>8</v>
       </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
       <c r="H5" t="s">
         <v>15</v>
       </c>
@@ -1225,6 +1291,9 @@
       <c r="F6">
         <v>8</v>
       </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
       <c r="H6" t="s">
         <v>15</v>
       </c>
@@ -1248,6 +1317,9 @@
       <c r="F7">
         <v>8</v>
       </c>
+      <c r="G7" t="s">
+        <v>202</v>
+      </c>
       <c r="H7" t="s">
         <v>15</v>
       </c>
@@ -1271,6 +1343,9 @@
       <c r="F8">
         <v>8</v>
       </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
       <c r="H8" t="s">
         <v>15</v>
       </c>
@@ -1294,6 +1369,9 @@
       <c r="F9">
         <v>8</v>
       </c>
+      <c r="G9" t="s">
+        <v>203</v>
+      </c>
       <c r="H9" t="s">
         <v>15</v>
       </c>
@@ -1317,6 +1395,9 @@
       <c r="F10">
         <v>8</v>
       </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
       <c r="H10" t="s">
         <v>15</v>
       </c>
@@ -1340,6 +1421,9 @@
       <c r="F11">
         <v>8</v>
       </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
       <c r="H11" t="s">
         <v>15</v>
       </c>
@@ -1363,6 +1447,9 @@
       <c r="F12">
         <v>8</v>
       </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
       <c r="H12" t="s">
         <v>15</v>
       </c>
@@ -1386,6 +1473,9 @@
       <c r="F13">
         <v>8</v>
       </c>
+      <c r="G13" t="s">
+        <v>199</v>
+      </c>
       <c r="H13" t="s">
         <v>42</v>
       </c>
@@ -1409,6 +1499,9 @@
       <c r="F14">
         <v>8</v>
       </c>
+      <c r="G14" t="s">
+        <v>204</v>
+      </c>
       <c r="H14" t="s">
         <v>15</v>
       </c>
@@ -1432,6 +1525,9 @@
       <c r="F15">
         <v>8</v>
       </c>
+      <c r="G15" t="s">
+        <v>47</v>
+      </c>
       <c r="H15" t="s">
         <v>15</v>
       </c>
@@ -1452,6 +1548,9 @@
       <c r="F16">
         <v>8</v>
       </c>
+      <c r="G16" t="s">
+        <v>205</v>
+      </c>
       <c r="H16" t="s">
         <v>15</v>
       </c>
@@ -1475,6 +1574,9 @@
       <c r="F17">
         <v>8</v>
       </c>
+      <c r="G17" t="s">
+        <v>52</v>
+      </c>
       <c r="H17" t="s">
         <v>15</v>
       </c>
@@ -1498,6 +1600,9 @@
       <c r="F18">
         <v>8</v>
       </c>
+      <c r="G18" t="s">
+        <v>55</v>
+      </c>
       <c r="H18" t="s">
         <v>15</v>
       </c>
@@ -1521,6 +1626,9 @@
       <c r="F19">
         <v>8</v>
       </c>
+      <c r="G19" t="s">
+        <v>58</v>
+      </c>
       <c r="H19" t="s">
         <v>15</v>
       </c>
@@ -1544,6 +1652,9 @@
       <c r="F20">
         <v>8</v>
       </c>
+      <c r="G20" t="s">
+        <v>61</v>
+      </c>
       <c r="H20" t="s">
         <v>15</v>
       </c>
@@ -1567,6 +1678,9 @@
       <c r="F21">
         <v>8</v>
       </c>
+      <c r="G21" t="s">
+        <v>64</v>
+      </c>
       <c r="H21" t="s">
         <v>15</v>
       </c>
@@ -1587,6 +1701,9 @@
       <c r="F22">
         <v>8</v>
       </c>
+      <c r="G22" t="s">
+        <v>206</v>
+      </c>
       <c r="H22" t="s">
         <v>15</v>
       </c>
@@ -1607,6 +1724,9 @@
       <c r="F23">
         <v>8</v>
       </c>
+      <c r="G23" t="s">
+        <v>207</v>
+      </c>
       <c r="H23" t="s">
         <v>15</v>
       </c>
@@ -1630,6 +1750,9 @@
       <c r="F24">
         <v>8</v>
       </c>
+      <c r="G24" t="s">
+        <v>71</v>
+      </c>
       <c r="H24" t="s">
         <v>15</v>
       </c>
@@ -1653,6 +1776,9 @@
       <c r="F25">
         <v>8</v>
       </c>
+      <c r="G25" t="s">
+        <v>208</v>
+      </c>
       <c r="H25" t="s">
         <v>15</v>
       </c>
@@ -1676,6 +1802,9 @@
       <c r="F26">
         <v>8</v>
       </c>
+      <c r="G26" t="s">
+        <v>209</v>
+      </c>
       <c r="H26" t="s">
         <v>15</v>
       </c>
@@ -1699,6 +1828,9 @@
       <c r="F27">
         <v>8</v>
       </c>
+      <c r="G27" t="s">
+        <v>210</v>
+      </c>
       <c r="H27" t="s">
         <v>15</v>
       </c>
@@ -1722,6 +1854,9 @@
       <c r="F28">
         <v>8</v>
       </c>
+      <c r="G28" t="s">
+        <v>211</v>
+      </c>
       <c r="H28" t="s">
         <v>15</v>
       </c>
@@ -1745,6 +1880,9 @@
       <c r="F29">
         <v>8</v>
       </c>
+      <c r="G29" t="s">
+        <v>212</v>
+      </c>
       <c r="H29" t="s">
         <v>15</v>
       </c>
@@ -1768,6 +1906,9 @@
       <c r="F30">
         <v>8</v>
       </c>
+      <c r="G30" t="s">
+        <v>213</v>
+      </c>
       <c r="H30" t="s">
         <v>15</v>
       </c>
@@ -1791,6 +1932,9 @@
       <c r="F31">
         <v>8</v>
       </c>
+      <c r="G31" t="s">
+        <v>214</v>
+      </c>
       <c r="H31" t="s">
         <v>15</v>
       </c>
@@ -1814,6 +1958,9 @@
       <c r="F32">
         <v>8</v>
       </c>
+      <c r="G32" t="s">
+        <v>215</v>
+      </c>
       <c r="H32" t="s">
         <v>15</v>
       </c>
@@ -1837,6 +1984,9 @@
       <c r="F33">
         <v>8</v>
       </c>
+      <c r="G33" t="s">
+        <v>216</v>
+      </c>
       <c r="H33" t="s">
         <v>15</v>
       </c>
@@ -1860,6 +2010,9 @@
       <c r="F34">
         <v>8</v>
       </c>
+      <c r="G34" t="s">
+        <v>217</v>
+      </c>
       <c r="H34" t="s">
         <v>15</v>
       </c>
@@ -1883,6 +2036,9 @@
       <c r="F35">
         <v>8</v>
       </c>
+      <c r="G35" t="s">
+        <v>199</v>
+      </c>
       <c r="H35" t="s">
         <v>15</v>
       </c>
@@ -1906,6 +2062,9 @@
       <c r="F36">
         <v>8</v>
       </c>
+      <c r="G36" t="s">
+        <v>199</v>
+      </c>
       <c r="H36" t="s">
         <v>15</v>
       </c>
@@ -1929,6 +2088,9 @@
       <c r="F37">
         <v>8</v>
       </c>
+      <c r="G37" t="s">
+        <v>199</v>
+      </c>
       <c r="H37" t="s">
         <v>15</v>
       </c>
@@ -1952,6 +2114,9 @@
       <c r="F38">
         <v>8</v>
       </c>
+      <c r="G38" t="s">
+        <v>199</v>
+      </c>
       <c r="H38" t="s">
         <v>111</v>
       </c>
@@ -1975,6 +2140,9 @@
       <c r="F39">
         <v>8</v>
       </c>
+      <c r="G39" t="s">
+        <v>199</v>
+      </c>
       <c r="H39" t="s">
         <v>115</v>
       </c>
@@ -1998,6 +2166,9 @@
       <c r="F40">
         <v>8</v>
       </c>
+      <c r="G40" t="s">
+        <v>199</v>
+      </c>
       <c r="H40" t="s">
         <v>119</v>
       </c>
@@ -2021,6 +2192,9 @@
       <c r="F41">
         <v>8</v>
       </c>
+      <c r="G41" t="s">
+        <v>199</v>
+      </c>
       <c r="H41" t="s">
         <v>119</v>
       </c>
@@ -2044,6 +2218,9 @@
       <c r="F42">
         <v>8</v>
       </c>
+      <c r="G42" t="s">
+        <v>199</v>
+      </c>
       <c r="H42" t="s">
         <v>115</v>
       </c>
@@ -2067,6 +2244,9 @@
       <c r="F43">
         <v>8</v>
       </c>
+      <c r="G43" t="s">
+        <v>199</v>
+      </c>
       <c r="H43" t="s">
         <v>119</v>
       </c>
@@ -2090,6 +2270,9 @@
       <c r="F44">
         <v>8</v>
       </c>
+      <c r="G44" t="s">
+        <v>199</v>
+      </c>
       <c r="H44" t="s">
         <v>119</v>
       </c>
@@ -2113,6 +2296,9 @@
       <c r="F45">
         <v>8</v>
       </c>
+      <c r="G45" t="s">
+        <v>199</v>
+      </c>
       <c r="H45" t="s">
         <v>115</v>
       </c>
@@ -2136,6 +2322,9 @@
       <c r="F46">
         <v>8</v>
       </c>
+      <c r="G46" t="s">
+        <v>199</v>
+      </c>
       <c r="H46" t="s">
         <v>119</v>
       </c>
@@ -2159,6 +2348,9 @@
       <c r="F47">
         <v>8</v>
       </c>
+      <c r="G47" t="s">
+        <v>199</v>
+      </c>
       <c r="H47" t="s">
         <v>119</v>
       </c>
@@ -2182,6 +2374,9 @@
       <c r="F48">
         <v>8</v>
       </c>
+      <c r="G48" t="s">
+        <v>199</v>
+      </c>
       <c r="H48" t="s">
         <v>115</v>
       </c>
@@ -2205,6 +2400,9 @@
       <c r="F49">
         <v>8</v>
       </c>
+      <c r="G49" t="s">
+        <v>199</v>
+      </c>
       <c r="H49" t="s">
         <v>119</v>
       </c>
@@ -2228,6 +2426,9 @@
       <c r="F50">
         <v>8</v>
       </c>
+      <c r="G50" t="s">
+        <v>199</v>
+      </c>
       <c r="H50" t="s">
         <v>119</v>
       </c>
@@ -2251,6 +2452,9 @@
       <c r="F51">
         <v>8</v>
       </c>
+      <c r="G51" t="s">
+        <v>199</v>
+      </c>
       <c r="H51" t="s">
         <v>119</v>
       </c>
@@ -2274,6 +2478,9 @@
       <c r="F52">
         <v>8</v>
       </c>
+      <c r="G52" t="s">
+        <v>199</v>
+      </c>
       <c r="H52" t="s">
         <v>115</v>
       </c>
@@ -2291,6 +2498,9 @@
       <c r="F53">
         <v>8</v>
       </c>
+      <c r="G53" t="s">
+        <v>199</v>
+      </c>
       <c r="H53" t="s">
         <v>115</v>
       </c>
@@ -2314,13 +2524,16 @@
       <c r="F54">
         <v>8</v>
       </c>
+      <c r="G54" t="s">
+        <v>199</v>
+      </c>
       <c r="H54" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>196</v>
+      <c r="A55">
+        <v>50054</v>
       </c>
       <c r="B55" t="s">
         <v>172</v>
@@ -2336,6 +2549,9 @@
       </c>
       <c r="F55">
         <v>8</v>
+      </c>
+      <c r="G55" t="s">
+        <v>199</v>
       </c>
       <c r="H55" t="s">
         <v>119</v>
@@ -2360,6 +2576,9 @@
       <c r="F56">
         <v>8</v>
       </c>
+      <c r="G56" t="s">
+        <v>199</v>
+      </c>
       <c r="H56" t="s">
         <v>119</v>
       </c>
@@ -2383,6 +2602,9 @@
       <c r="F57">
         <v>8</v>
       </c>
+      <c r="G57" t="s">
+        <v>199</v>
+      </c>
       <c r="H57" t="s">
         <v>115</v>
       </c>
@@ -2406,6 +2628,9 @@
       <c r="F58">
         <v>8</v>
       </c>
+      <c r="G58" t="s">
+        <v>199</v>
+      </c>
       <c r="H58" t="s">
         <v>115</v>
       </c>
@@ -2429,6 +2654,9 @@
       <c r="F59">
         <v>8</v>
       </c>
+      <c r="G59" t="s">
+        <v>199</v>
+      </c>
       <c r="H59" t="s">
         <v>119</v>
       </c>
@@ -2452,6 +2680,9 @@
       <c r="F60">
         <v>8</v>
       </c>
+      <c r="G60" t="s">
+        <v>199</v>
+      </c>
       <c r="H60" t="s">
         <v>119</v>
       </c>
@@ -2475,6 +2706,9 @@
       <c r="F61">
         <v>8</v>
       </c>
+      <c r="G61" t="s">
+        <v>199</v>
+      </c>
       <c r="H61" t="s">
         <v>119</v>
       </c>
@@ -2498,6 +2732,9 @@
       <c r="F62">
         <v>8</v>
       </c>
+      <c r="G62" t="s">
+        <v>199</v>
+      </c>
       <c r="H62" t="s">
         <v>115</v>
       </c>
@@ -2521,6 +2758,9 @@
       <c r="F63">
         <v>8</v>
       </c>
+      <c r="G63" t="s">
+        <v>199</v>
+      </c>
       <c r="H63" t="s">
         <v>119</v>
       </c>
@@ -2530,19 +2770,22 @@
         <v>50063</v>
       </c>
       <c r="B64" t="s">
+        <v>196</v>
+      </c>
+      <c r="C64" t="s">
         <v>197</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>198</v>
       </c>
-      <c r="D64" t="s">
-        <v>199</v>
-      </c>
       <c r="E64">
         <v>1</v>
       </c>
       <c r="F64">
         <v>8</v>
+      </c>
+      <c r="G64" t="s">
+        <v>199</v>
       </c>
       <c r="H64" t="s">
         <v>119</v>
@@ -2558,6 +2801,9 @@
       <c r="F65">
         <v>8</v>
       </c>
+      <c r="G65" t="s">
+        <v>199</v>
+      </c>
       <c r="H65" t="s">
         <v>119</v>
       </c>
@@ -2572,6 +2818,9 @@
       <c r="F66">
         <v>8</v>
       </c>
+      <c r="G66" t="s">
+        <v>199</v>
+      </c>
       <c r="H66" t="s">
         <v>115</v>
       </c>
@@ -2586,6 +2835,9 @@
       <c r="F67">
         <v>8</v>
       </c>
+      <c r="G67" t="s">
+        <v>199</v>
+      </c>
       <c r="H67" t="s">
         <v>119</v>
       </c>
@@ -2599,6 +2851,9 @@
       </c>
       <c r="F68">
         <v>8</v>
+      </c>
+      <c r="G68" t="s">
+        <v>199</v>
       </c>
       <c r="H68" t="s">
         <v>119</v>

--- a/excel/buff.xlsx
+++ b/excel/buff.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75F1804-A4F7-40DA-8129-C7699BEDB06C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="235">
   <si>
     <t>number</t>
   </si>
@@ -787,12 +786,79 @@
   </si>
   <si>
     <t>huanman</t>
+  </si>
+  <si>
+    <t>延绵不绝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有余不尽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_yanmianbujue</t>
+  </si>
+  <si>
+    <t>当打出拳掌牌是保留5成蓄力不释放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束时,获得等于本buff层数的蓄力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真气逆行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_zhenqinixing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焚脉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打出的下&lt;#x&gt;张牌,会燃烧,每使用一张牌减少一层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打出的下&lt;#x&gt;张牌,会被放置到抽牌堆顶端,每使用一张牌减少一层,回合结束时消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_fenmai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心莲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你每燃烧一张牌,对敌方血量最少的侠客造成&lt;#x&gt;x10点伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_xinlian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明灭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_mingmie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你每燃烧一张牌,自身获得&lt;#x&gt;x10点护盾。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1125,24 +1191,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" customWidth="1"/>
-    <col min="3" max="3" width="66.77734375" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="66.75" customWidth="1"/>
     <col min="4" max="6" width="36" customWidth="1"/>
-    <col min="7" max="7" width="18.21875" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1168,7 +1234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1194,7 +1260,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>50001</v>
       </c>
@@ -1220,7 +1286,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>50002</v>
       </c>
@@ -1246,7 +1312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>50003</v>
       </c>
@@ -1272,7 +1338,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>50004</v>
       </c>
@@ -1298,7 +1364,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>50005</v>
       </c>
@@ -1324,7 +1390,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>50006</v>
       </c>
@@ -1350,7 +1416,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>50007</v>
       </c>
@@ -1376,7 +1442,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>50008</v>
       </c>
@@ -1402,7 +1468,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>50009</v>
       </c>
@@ -1428,7 +1494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>50010</v>
       </c>
@@ -1454,7 +1520,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>50011</v>
       </c>
@@ -1480,7 +1546,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>50012</v>
       </c>
@@ -1506,7 +1572,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>50013</v>
       </c>
@@ -1532,7 +1598,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>50014</v>
       </c>
@@ -1555,7 +1621,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>50015</v>
       </c>
@@ -1581,7 +1647,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>50016</v>
       </c>
@@ -1607,7 +1673,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>50017</v>
       </c>
@@ -1633,7 +1699,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>50018</v>
       </c>
@@ -1659,7 +1725,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>50019</v>
       </c>
@@ -1685,7 +1751,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>50020</v>
       </c>
@@ -1708,7 +1774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>50021</v>
       </c>
@@ -1731,7 +1797,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>50022</v>
       </c>
@@ -1757,7 +1823,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>50023</v>
       </c>
@@ -1783,7 +1849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>50024</v>
       </c>
@@ -1809,7 +1875,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>50025</v>
       </c>
@@ -1835,7 +1901,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>50026</v>
       </c>
@@ -1861,7 +1927,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>50027</v>
       </c>
@@ -1887,7 +1953,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>50029</v>
       </c>
@@ -1913,7 +1979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>50030</v>
       </c>
@@ -1939,7 +2005,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>50031</v>
       </c>
@@ -1965,7 +2031,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>50032</v>
       </c>
@@ -1991,7 +2057,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>50033</v>
       </c>
@@ -2017,7 +2083,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>50034</v>
       </c>
@@ -2043,7 +2109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>50035</v>
       </c>
@@ -2069,7 +2135,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>50036</v>
       </c>
@@ -2095,7 +2161,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>50037</v>
       </c>
@@ -2121,7 +2187,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>50038</v>
       </c>
@@ -2147,7 +2213,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>50039</v>
       </c>
@@ -2173,7 +2239,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>50040</v>
       </c>
@@ -2199,7 +2265,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>50041</v>
       </c>
@@ -2225,7 +2291,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>50042</v>
       </c>
@@ -2251,7 +2317,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>50043</v>
       </c>
@@ -2277,7 +2343,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>50044</v>
       </c>
@@ -2303,7 +2369,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>50045</v>
       </c>
@@ -2329,7 +2395,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>50046</v>
       </c>
@@ -2355,7 +2421,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>50047</v>
       </c>
@@ -2381,7 +2447,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>50048</v>
       </c>
@@ -2407,7 +2473,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>50049</v>
       </c>
@@ -2433,7 +2499,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50050</v>
       </c>
@@ -2459,7 +2525,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50051</v>
       </c>
@@ -2485,7 +2551,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>50052</v>
       </c>
@@ -2505,7 +2571,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>50053</v>
       </c>
@@ -2531,7 +2597,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>50054</v>
       </c>
@@ -2557,7 +2623,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>50055</v>
       </c>
@@ -2583,7 +2649,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>50056</v>
       </c>
@@ -2609,7 +2675,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>50057</v>
       </c>
@@ -2635,7 +2701,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>50058</v>
       </c>
@@ -2661,7 +2727,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>50059</v>
       </c>
@@ -2687,7 +2753,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>50060</v>
       </c>
@@ -2713,7 +2779,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>50061</v>
       </c>
@@ -2739,7 +2805,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>50062</v>
       </c>
@@ -2765,7 +2831,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>50063</v>
       </c>
@@ -2791,10 +2857,19 @@
         <v>119</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>50064</v>
       </c>
+      <c r="B65" t="s">
+        <v>218</v>
+      </c>
+      <c r="C65" t="s">
+        <v>222</v>
+      </c>
+      <c r="D65" t="s">
+        <v>220</v>
+      </c>
       <c r="E65">
         <v>1</v>
       </c>
@@ -2808,10 +2883,16 @@
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>50065</v>
       </c>
+      <c r="B66" t="s">
+        <v>219</v>
+      </c>
+      <c r="C66" t="s">
+        <v>221</v>
+      </c>
       <c r="E66">
         <v>1</v>
       </c>
@@ -2825,10 +2906,19 @@
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>50066</v>
       </c>
+      <c r="B67" t="s">
+        <v>223</v>
+      </c>
+      <c r="C67" t="s">
+        <v>227</v>
+      </c>
+      <c r="D67" t="s">
+        <v>224</v>
+      </c>
       <c r="E67">
         <v>1</v>
       </c>
@@ -2842,10 +2932,19 @@
         <v>119</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>50067</v>
       </c>
+      <c r="B68" t="s">
+        <v>225</v>
+      </c>
+      <c r="C68" t="s">
+        <v>226</v>
+      </c>
+      <c r="D68" t="s">
+        <v>228</v>
+      </c>
       <c r="E68">
         <v>1</v>
       </c>
@@ -2857,6 +2956,194 @@
       </c>
       <c r="H68" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>50068</v>
+      </c>
+      <c r="B69" t="s">
+        <v>232</v>
+      </c>
+      <c r="C69" t="s">
+        <v>230</v>
+      </c>
+      <c r="D69" t="s">
+        <v>233</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>8</v>
+      </c>
+      <c r="G69" t="s">
+        <v>199</v>
+      </c>
+      <c r="H69" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>50069</v>
+      </c>
+      <c r="B70" t="s">
+        <v>229</v>
+      </c>
+      <c r="C70" t="s">
+        <v>234</v>
+      </c>
+      <c r="D70" t="s">
+        <v>231</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>8</v>
+      </c>
+      <c r="G70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H70" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>50070</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>8</v>
+      </c>
+      <c r="G71" t="s">
+        <v>199</v>
+      </c>
+      <c r="H71" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>50071</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>8</v>
+      </c>
+      <c r="G72" t="s">
+        <v>199</v>
+      </c>
+      <c r="H72" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>50072</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>8</v>
+      </c>
+      <c r="G73" t="s">
+        <v>199</v>
+      </c>
+      <c r="H73" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>50073</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>8</v>
+      </c>
+      <c r="G74" t="s">
+        <v>199</v>
+      </c>
+      <c r="H74" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>50074</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>8</v>
+      </c>
+      <c r="G75" t="s">
+        <v>199</v>
+      </c>
+      <c r="H75" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>50075</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>8</v>
+      </c>
+      <c r="G76" t="s">
+        <v>199</v>
+      </c>
+      <c r="H76" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>50076</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>8</v>
+      </c>
+      <c r="G77" t="s">
+        <v>199</v>
+      </c>
+      <c r="H77" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>50077</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>8</v>
+      </c>
+      <c r="G78" t="s">
+        <v>199</v>
+      </c>
+      <c r="H78" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/excel/buff.xlsx
+++ b/excel/buff.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091BD32A-F9B4-4305-BB8D-390F95C8DFBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -835,10 +836,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>你每燃烧一张牌,对敌方血量最少的侠客造成&lt;#x&gt;x10点伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>buff_xinlian</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -851,14 +848,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>你每燃烧一张牌,自身获得&lt;#x&gt;x10点护盾。</t>
+    <t>你每燃烧一张牌,对敌方血量最少的侠客造成&lt;#x&gt;x10点伤害,并且层数减少。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你每燃烧一张牌,自身获得&lt;#x&gt;x10点护盾,并且层数减少</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1191,24 +1192,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="66.75" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
+    <col min="3" max="3" width="66.77734375" customWidth="1"/>
     <col min="4" max="6" width="36" customWidth="1"/>
-    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="7" max="7" width="18.21875" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1234,7 +1235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1260,7 +1261,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>50001</v>
       </c>
@@ -1286,7 +1287,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>50002</v>
       </c>
@@ -1312,7 +1313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>50003</v>
       </c>
@@ -1338,7 +1339,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>50004</v>
       </c>
@@ -1364,7 +1365,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>50005</v>
       </c>
@@ -1390,7 +1391,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>50006</v>
       </c>
@@ -1416,7 +1417,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>50007</v>
       </c>
@@ -1442,7 +1443,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>50008</v>
       </c>
@@ -1468,7 +1469,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>50009</v>
       </c>
@@ -1494,7 +1495,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>50010</v>
       </c>
@@ -1520,7 +1521,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>50011</v>
       </c>
@@ -1546,7 +1547,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>50012</v>
       </c>
@@ -1572,7 +1573,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>50013</v>
       </c>
@@ -1598,7 +1599,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>50014</v>
       </c>
@@ -1621,7 +1622,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>50015</v>
       </c>
@@ -1647,7 +1648,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>50016</v>
       </c>
@@ -1673,7 +1674,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>50017</v>
       </c>
@@ -1699,7 +1700,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>50018</v>
       </c>
@@ -1725,7 +1726,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>50019</v>
       </c>
@@ -1751,7 +1752,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>50020</v>
       </c>
@@ -1774,7 +1775,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>50021</v>
       </c>
@@ -1797,7 +1798,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>50022</v>
       </c>
@@ -1823,7 +1824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>50023</v>
       </c>
@@ -1849,7 +1850,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>50024</v>
       </c>
@@ -1875,7 +1876,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>50025</v>
       </c>
@@ -1901,7 +1902,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>50026</v>
       </c>
@@ -1927,7 +1928,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>50027</v>
       </c>
@@ -1953,7 +1954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>50029</v>
       </c>
@@ -1979,7 +1980,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>50030</v>
       </c>
@@ -2005,7 +2006,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>50031</v>
       </c>
@@ -2031,7 +2032,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>50032</v>
       </c>
@@ -2057,7 +2058,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>50033</v>
       </c>
@@ -2083,7 +2084,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>50034</v>
       </c>
@@ -2109,7 +2110,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>50035</v>
       </c>
@@ -2135,7 +2136,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>50036</v>
       </c>
@@ -2161,7 +2162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>50037</v>
       </c>
@@ -2187,7 +2188,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>50038</v>
       </c>
@@ -2213,7 +2214,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>50039</v>
       </c>
@@ -2239,7 +2240,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>50040</v>
       </c>
@@ -2265,7 +2266,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>50041</v>
       </c>
@@ -2291,7 +2292,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>50042</v>
       </c>
@@ -2317,7 +2318,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>50043</v>
       </c>
@@ -2343,7 +2344,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>50044</v>
       </c>
@@ -2369,7 +2370,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>50045</v>
       </c>
@@ -2395,7 +2396,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>50046</v>
       </c>
@@ -2421,7 +2422,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>50047</v>
       </c>
@@ -2447,7 +2448,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>50048</v>
       </c>
@@ -2473,7 +2474,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>50049</v>
       </c>
@@ -2499,7 +2500,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50050</v>
       </c>
@@ -2525,7 +2526,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50051</v>
       </c>
@@ -2551,7 +2552,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>50052</v>
       </c>
@@ -2571,7 +2572,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>50053</v>
       </c>
@@ -2597,7 +2598,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>50054</v>
       </c>
@@ -2623,7 +2624,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>50055</v>
       </c>
@@ -2649,7 +2650,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>50056</v>
       </c>
@@ -2675,7 +2676,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>50057</v>
       </c>
@@ -2701,7 +2702,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>50058</v>
       </c>
@@ -2727,7 +2728,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>50059</v>
       </c>
@@ -2753,7 +2754,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>50060</v>
       </c>
@@ -2779,7 +2780,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>50061</v>
       </c>
@@ -2805,7 +2806,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>50062</v>
       </c>
@@ -2831,7 +2832,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>50063</v>
       </c>
@@ -2857,7 +2858,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>50064</v>
       </c>
@@ -2883,7 +2884,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>50065</v>
       </c>
@@ -2906,7 +2907,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>50066</v>
       </c>
@@ -2932,7 +2933,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>50067</v>
       </c>
@@ -2958,18 +2959,18 @@
         <v>119</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>50068</v>
       </c>
       <c r="B69" t="s">
+        <v>231</v>
+      </c>
+      <c r="C69" t="s">
+        <v>233</v>
+      </c>
+      <c r="D69" t="s">
         <v>232</v>
-      </c>
-      <c r="C69" t="s">
-        <v>230</v>
-      </c>
-      <c r="D69" t="s">
-        <v>233</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -2984,7 +2985,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>50069</v>
       </c>
@@ -2995,7 +2996,7 @@
         <v>234</v>
       </c>
       <c r="D70" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -3010,7 +3011,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>50070</v>
       </c>
@@ -3027,7 +3028,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>50071</v>
       </c>
@@ -3044,7 +3045,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>50072</v>
       </c>
@@ -3061,7 +3062,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>50073</v>
       </c>
@@ -3078,7 +3079,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>50074</v>
       </c>
@@ -3095,7 +3096,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>50075</v>
       </c>
@@ -3112,7 +3113,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>50076</v>
       </c>
@@ -3129,7 +3130,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>50077</v>
       </c>

--- a/excel/buff.xlsx
+++ b/excel/buff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091BD32A-F9B4-4305-BB8D-390F95C8DFBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDC0FD7-9AEF-43B5-9B00-C1DD24B95D33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1195,8 +1195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/excel/buff.xlsx
+++ b/excel/buff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDC0FD7-9AEF-43B5-9B00-C1DD24B95D33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC98656-0F1D-4E52-A0E6-1549460CB8A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="244">
   <si>
     <t>number</t>
   </si>
@@ -854,6 +854,37 @@
   <si>
     <t>你每燃烧一张牌,自身获得&lt;#x&gt;x10点护盾,并且层数减少</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磐石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时护盾不会消失,回合结束时层数减少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_panshi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiyongshuangxiu</t>
+  </si>
+  <si>
+    <t>tuojiu</t>
+  </si>
+  <si>
+    <t>fanzhen</t>
+  </si>
+  <si>
+    <t>yixinghuandou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wujiubuhuan</t>
+  </si>
+  <si>
+    <t>roujin</t>
   </si>
 </sst>
 </file>
@@ -1195,8 +1226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1204,7 +1235,9 @@
     <col min="1" max="1" width="10.77734375" customWidth="1"/>
     <col min="2" max="2" width="25.44140625" customWidth="1"/>
     <col min="3" max="3" width="66.77734375" customWidth="1"/>
-    <col min="4" max="6" width="36" customWidth="1"/>
+    <col min="4" max="4" width="36" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
     <col min="7" max="7" width="18.21875" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
@@ -2104,7 +2137,7 @@
         <v>8</v>
       </c>
       <c r="G35" t="s">
-        <v>199</v>
+        <v>239</v>
       </c>
       <c r="H35" t="s">
         <v>15</v>
@@ -2130,7 +2163,7 @@
         <v>8</v>
       </c>
       <c r="G36" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="H36" t="s">
         <v>15</v>
@@ -2156,7 +2189,7 @@
         <v>8</v>
       </c>
       <c r="G37" t="s">
-        <v>199</v>
+        <v>240</v>
       </c>
       <c r="H37" t="s">
         <v>15</v>
@@ -2182,7 +2215,7 @@
         <v>8</v>
       </c>
       <c r="G38" t="s">
-        <v>199</v>
+        <v>241</v>
       </c>
       <c r="H38" t="s">
         <v>111</v>
@@ -2208,7 +2241,7 @@
         <v>8</v>
       </c>
       <c r="G39" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="H39" t="s">
         <v>115</v>
@@ -2234,7 +2267,7 @@
         <v>8</v>
       </c>
       <c r="G40" t="s">
-        <v>199</v>
+        <v>243</v>
       </c>
       <c r="H40" t="s">
         <v>119</v>
@@ -3014,6 +3047,15 @@
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>50070</v>
+      </c>
+      <c r="B71" t="s">
+        <v>235</v>
+      </c>
+      <c r="C71" t="s">
+        <v>236</v>
+      </c>
+      <c r="D71" t="s">
+        <v>237</v>
       </c>
       <c r="E71">
         <v>1</v>

--- a/excel/buff.xlsx
+++ b/excel/buff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC98656-0F1D-4E52-A0E6-1549460CB8A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABFB8FE-63D7-47A6-948C-8D0148019DE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="275">
   <si>
     <t>number</t>
   </si>
@@ -808,10 +808,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>真气逆行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>buff_zhenqinixing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -885,6 +881,107 @@
   </si>
   <si>
     <t>roujin</t>
+  </si>
+  <si>
+    <t>pozhan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhimang</t>
+  </si>
+  <si>
+    <t>tongbi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xianfa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bizhong</t>
+  </si>
+  <si>
+    <t>duanyu</t>
+  </si>
+  <si>
+    <t>jiangzhi</t>
+  </si>
+  <si>
+    <t>yiyahuanya</t>
+  </si>
+  <si>
+    <t>lingbo</t>
+  </si>
+  <si>
+    <t>yingqigong</t>
+  </si>
+  <si>
+    <t>yang</t>
+  </si>
+  <si>
+    <t>yin</t>
+  </si>
+  <si>
+    <t>yinyang</t>
+  </si>
+  <si>
+    <t>jiemai</t>
+  </si>
+  <si>
+    <t>mingjing</t>
+  </si>
+  <si>
+    <t>hanjiangyingyue</t>
+  </si>
+  <si>
+    <t>nujian</t>
+  </si>
+  <si>
+    <t>renmoyudu</t>
+  </si>
+  <si>
+    <t>luanqi</t>
+  </si>
+  <si>
+    <t>zouhuorumo</t>
+  </si>
+  <si>
+    <t>duanjin</t>
+  </si>
+  <si>
+    <t>xvli</t>
+  </si>
+  <si>
+    <t>xvshidaifa</t>
+  </si>
+  <si>
+    <t>houjibofa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yanmianbujue</t>
+  </si>
+  <si>
+    <t>youyubujin</t>
+  </si>
+  <si>
+    <t>逆折</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nizhe</t>
+  </si>
+  <si>
+    <t>fenmai</t>
+  </si>
+  <si>
+    <t>mingmie</t>
+  </si>
+  <si>
+    <t>xinlian</t>
+  </si>
+  <si>
+    <t>panshi</t>
   </si>
 </sst>
 </file>
@@ -1226,8 +1323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2137,7 +2234,7 @@
         <v>8</v>
       </c>
       <c r="G35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H35" t="s">
         <v>15</v>
@@ -2163,7 +2260,7 @@
         <v>8</v>
       </c>
       <c r="G36" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H36" t="s">
         <v>15</v>
@@ -2189,7 +2286,7 @@
         <v>8</v>
       </c>
       <c r="G37" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H37" t="s">
         <v>15</v>
@@ -2215,7 +2312,7 @@
         <v>8</v>
       </c>
       <c r="G38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H38" t="s">
         <v>111</v>
@@ -2241,7 +2338,7 @@
         <v>8</v>
       </c>
       <c r="G39" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H39" t="s">
         <v>115</v>
@@ -2267,7 +2364,7 @@
         <v>8</v>
       </c>
       <c r="G40" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H40" t="s">
         <v>119</v>
@@ -2293,7 +2390,7 @@
         <v>8</v>
       </c>
       <c r="G41" t="s">
-        <v>199</v>
+        <v>243</v>
       </c>
       <c r="H41" t="s">
         <v>119</v>
@@ -2319,7 +2416,7 @@
         <v>8</v>
       </c>
       <c r="G42" t="s">
-        <v>199</v>
+        <v>244</v>
       </c>
       <c r="H42" t="s">
         <v>115</v>
@@ -2345,7 +2442,7 @@
         <v>8</v>
       </c>
       <c r="G43" t="s">
-        <v>199</v>
+        <v>245</v>
       </c>
       <c r="H43" t="s">
         <v>119</v>
@@ -2371,7 +2468,7 @@
         <v>8</v>
       </c>
       <c r="G44" t="s">
-        <v>199</v>
+        <v>246</v>
       </c>
       <c r="H44" t="s">
         <v>119</v>
@@ -2397,7 +2494,7 @@
         <v>8</v>
       </c>
       <c r="G45" t="s">
-        <v>199</v>
+        <v>247</v>
       </c>
       <c r="H45" t="s">
         <v>115</v>
@@ -2423,7 +2520,7 @@
         <v>8</v>
       </c>
       <c r="G46" t="s">
-        <v>199</v>
+        <v>248</v>
       </c>
       <c r="H46" t="s">
         <v>119</v>
@@ -2449,7 +2546,7 @@
         <v>8</v>
       </c>
       <c r="G47" t="s">
-        <v>199</v>
+        <v>249</v>
       </c>
       <c r="H47" t="s">
         <v>119</v>
@@ -2475,7 +2572,7 @@
         <v>8</v>
       </c>
       <c r="G48" t="s">
-        <v>199</v>
+        <v>250</v>
       </c>
       <c r="H48" t="s">
         <v>115</v>
@@ -2501,7 +2598,7 @@
         <v>8</v>
       </c>
       <c r="G49" t="s">
-        <v>199</v>
+        <v>251</v>
       </c>
       <c r="H49" t="s">
         <v>119</v>
@@ -2527,7 +2624,7 @@
         <v>8</v>
       </c>
       <c r="G50" t="s">
-        <v>199</v>
+        <v>252</v>
       </c>
       <c r="H50" t="s">
         <v>119</v>
@@ -2553,7 +2650,7 @@
         <v>8</v>
       </c>
       <c r="G51" t="s">
-        <v>199</v>
+        <v>253</v>
       </c>
       <c r="H51" t="s">
         <v>119</v>
@@ -2579,7 +2676,7 @@
         <v>8</v>
       </c>
       <c r="G52" t="s">
-        <v>199</v>
+        <v>254</v>
       </c>
       <c r="H52" t="s">
         <v>115</v>
@@ -2599,7 +2696,7 @@
         <v>8</v>
       </c>
       <c r="G53" t="s">
-        <v>199</v>
+        <v>255</v>
       </c>
       <c r="H53" t="s">
         <v>115</v>
@@ -2625,7 +2722,7 @@
         <v>8</v>
       </c>
       <c r="G54" t="s">
-        <v>199</v>
+        <v>256</v>
       </c>
       <c r="H54" t="s">
         <v>119</v>
@@ -2651,7 +2748,7 @@
         <v>8</v>
       </c>
       <c r="G55" t="s">
-        <v>199</v>
+        <v>257</v>
       </c>
       <c r="H55" t="s">
         <v>119</v>
@@ -2677,7 +2774,7 @@
         <v>8</v>
       </c>
       <c r="G56" t="s">
-        <v>199</v>
+        <v>258</v>
       </c>
       <c r="H56" t="s">
         <v>119</v>
@@ -2703,7 +2800,7 @@
         <v>8</v>
       </c>
       <c r="G57" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="H57" t="s">
         <v>115</v>
@@ -2729,7 +2826,7 @@
         <v>8</v>
       </c>
       <c r="G58" t="s">
-        <v>199</v>
+        <v>260</v>
       </c>
       <c r="H58" t="s">
         <v>115</v>
@@ -2755,7 +2852,7 @@
         <v>8</v>
       </c>
       <c r="G59" t="s">
-        <v>199</v>
+        <v>261</v>
       </c>
       <c r="H59" t="s">
         <v>119</v>
@@ -2781,7 +2878,7 @@
         <v>8</v>
       </c>
       <c r="G60" t="s">
-        <v>199</v>
+        <v>262</v>
       </c>
       <c r="H60" t="s">
         <v>119</v>
@@ -2807,7 +2904,7 @@
         <v>8</v>
       </c>
       <c r="G61" t="s">
-        <v>199</v>
+        <v>263</v>
       </c>
       <c r="H61" t="s">
         <v>119</v>
@@ -2833,7 +2930,7 @@
         <v>8</v>
       </c>
       <c r="G62" t="s">
-        <v>199</v>
+        <v>264</v>
       </c>
       <c r="H62" t="s">
         <v>115</v>
@@ -2859,7 +2956,7 @@
         <v>8</v>
       </c>
       <c r="G63" t="s">
-        <v>199</v>
+        <v>265</v>
       </c>
       <c r="H63" t="s">
         <v>119</v>
@@ -2885,7 +2982,7 @@
         <v>8</v>
       </c>
       <c r="G64" t="s">
-        <v>199</v>
+        <v>266</v>
       </c>
       <c r="H64" t="s">
         <v>119</v>
@@ -2911,7 +3008,7 @@
         <v>8</v>
       </c>
       <c r="G65" t="s">
-        <v>199</v>
+        <v>267</v>
       </c>
       <c r="H65" t="s">
         <v>119</v>
@@ -2934,7 +3031,7 @@
         <v>8</v>
       </c>
       <c r="G66" t="s">
-        <v>199</v>
+        <v>268</v>
       </c>
       <c r="H66" t="s">
         <v>115</v>
@@ -2945,14 +3042,14 @@
         <v>50066</v>
       </c>
       <c r="B67" t="s">
+        <v>269</v>
+      </c>
+      <c r="C67" t="s">
+        <v>226</v>
+      </c>
+      <c r="D67" t="s">
         <v>223</v>
       </c>
-      <c r="C67" t="s">
-        <v>227</v>
-      </c>
-      <c r="D67" t="s">
-        <v>224</v>
-      </c>
       <c r="E67">
         <v>1</v>
       </c>
@@ -2960,7 +3057,7 @@
         <v>8</v>
       </c>
       <c r="G67" t="s">
-        <v>199</v>
+        <v>270</v>
       </c>
       <c r="H67" t="s">
         <v>119</v>
@@ -2971,13 +3068,13 @@
         <v>50067</v>
       </c>
       <c r="B68" t="s">
+        <v>224</v>
+      </c>
+      <c r="C68" t="s">
         <v>225</v>
       </c>
-      <c r="C68" t="s">
-        <v>226</v>
-      </c>
       <c r="D68" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -2986,7 +3083,7 @@
         <v>8</v>
       </c>
       <c r="G68" t="s">
-        <v>199</v>
+        <v>271</v>
       </c>
       <c r="H68" t="s">
         <v>119</v>
@@ -2997,14 +3094,14 @@
         <v>50068</v>
       </c>
       <c r="B69" t="s">
+        <v>230</v>
+      </c>
+      <c r="C69" t="s">
+        <v>232</v>
+      </c>
+      <c r="D69" t="s">
         <v>231</v>
       </c>
-      <c r="C69" t="s">
-        <v>233</v>
-      </c>
-      <c r="D69" t="s">
-        <v>232</v>
-      </c>
       <c r="E69">
         <v>1</v>
       </c>
@@ -3012,7 +3109,7 @@
         <v>8</v>
       </c>
       <c r="G69" t="s">
-        <v>199</v>
+        <v>272</v>
       </c>
       <c r="H69" t="s">
         <v>115</v>
@@ -3023,14 +3120,14 @@
         <v>50069</v>
       </c>
       <c r="B70" t="s">
+        <v>228</v>
+      </c>
+      <c r="C70" t="s">
+        <v>233</v>
+      </c>
+      <c r="D70" t="s">
         <v>229</v>
       </c>
-      <c r="C70" t="s">
-        <v>234</v>
-      </c>
-      <c r="D70" t="s">
-        <v>230</v>
-      </c>
       <c r="E70">
         <v>1</v>
       </c>
@@ -3038,7 +3135,7 @@
         <v>8</v>
       </c>
       <c r="G70" t="s">
-        <v>199</v>
+        <v>273</v>
       </c>
       <c r="H70" t="s">
         <v>119</v>
@@ -3049,14 +3146,14 @@
         <v>50070</v>
       </c>
       <c r="B71" t="s">
+        <v>234</v>
+      </c>
+      <c r="C71" t="s">
         <v>235</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>236</v>
       </c>
-      <c r="D71" t="s">
-        <v>237</v>
-      </c>
       <c r="E71">
         <v>1</v>
       </c>
@@ -3064,7 +3161,7 @@
         <v>8</v>
       </c>
       <c r="G71" t="s">
-        <v>199</v>
+        <v>274</v>
       </c>
       <c r="H71" t="s">
         <v>119</v>

--- a/excel/buff.xlsx
+++ b/excel/buff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABFB8FE-63D7-47A6-948C-8D0148019DE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A700378B-714A-4F91-A04B-1E97BC6B8014}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="279">
   <si>
     <t>number</t>
   </si>
@@ -982,6 +982,21 @@
   </si>
   <si>
     <t>panshi</t>
+  </si>
+  <si>
+    <t>脱力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成的伤害减少&lt;#x&gt;,回合结束时消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_tuoli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tuoli</t>
   </si>
 </sst>
 </file>
@@ -1324,7 +1339,7 @@
   <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3171,6 +3186,15 @@
       <c r="A72">
         <v>50071</v>
       </c>
+      <c r="B72" t="s">
+        <v>275</v>
+      </c>
+      <c r="C72" t="s">
+        <v>276</v>
+      </c>
+      <c r="D72" t="s">
+        <v>277</v>
+      </c>
       <c r="E72">
         <v>1</v>
       </c>
@@ -3178,7 +3202,7 @@
         <v>8</v>
       </c>
       <c r="G72" t="s">
-        <v>199</v>
+        <v>278</v>
       </c>
       <c r="H72" t="s">
         <v>115</v>

--- a/excel/buff.xlsx
+++ b/excel/buff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A700378B-714A-4F91-A04B-1E97BC6B8014}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE1C250-3581-47DE-826E-A8ACDDE64194}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="291">
   <si>
     <t>number</t>
   </si>
@@ -416,587 +416,638 @@
     <t>CF0709</t>
   </si>
   <si>
+    <t>受到的伤害减免25%,回合开始时减少一层。</t>
+  </si>
+  <si>
+    <t>CF0710</t>
+  </si>
+  <si>
+    <t>破绽</t>
+  </si>
+  <si>
+    <t>buff_pozhan</t>
+  </si>
+  <si>
+    <t>致盲</t>
+  </si>
+  <si>
+    <t>卡牌使用距离减少&lt;#x&gt;,回合结束时移除。</t>
+  </si>
+  <si>
+    <t>buff_zhimang</t>
+  </si>
+  <si>
+    <t>通臂</t>
+  </si>
+  <si>
+    <t>buff_tongbi</t>
+  </si>
+  <si>
+    <t>先发制人</t>
+  </si>
+  <si>
+    <t>战斗开始获得3次步进。</t>
+  </si>
+  <si>
+    <t>gift_xianfazhiren</t>
+  </si>
+  <si>
+    <t>必中</t>
+  </si>
+  <si>
+    <t>攻击不会被闪避,每使用一张卡牌,失去一层。</t>
+  </si>
+  <si>
+    <t>buff_bizhong</t>
+  </si>
+  <si>
+    <t>断玉</t>
+  </si>
+  <si>
+    <t>buff_duanyu</t>
+  </si>
+  <si>
+    <t>僵直</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法使用剑法牌。回合结束时移除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_jiangzhi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法被击退,眩晕,僵直。回合开始时移除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以牙还牙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始时，自身获得3层反震</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_yiyahuanya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凌波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_lingbo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到的伤害增加25%,每次作为卡牌目标时减少一层。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避提升100%,每次作为卡牌目标时减少一层,回合开始时移除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬气功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始时获得30点护盾。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_yingqigong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_yang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_yin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗结束时移除,如果获得阴,2者会融合成一点真气值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗结束时移除,如果获得阳,2者会融合成一点真气值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴阳相生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截脉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时.减少获取的真气值&lt;#x&gt;点,回合结束时移除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_jiemai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_mingxinjingqi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beni</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒江映月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_hanjiangyingyue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击必定暴击,每使用一张卡牌,失去一层。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑法牌必定暴击,每使用一张剑法牌,失去一层。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_nujian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每打出5张剑法牌,下一张剑法牌必定暴击。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明镜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不会被添加负面buff,每抵消一次,失去一层明静。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人莫予毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对卡牌伤害的使用者造成&lt;#x&gt;点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对卡牌伤害的使用者施加&lt;#x&gt;层毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_renmoyudu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你抽牌获得的手牌的真气消耗混乱直到回合结束,回合结束时,减少一层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走火入魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_zouhuorumo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_zhenqiwenluan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断筋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_duanjin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护体真罡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拳掌卡牌使用距离增加1,持续&lt;#x&gt;回合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌造成的伤害减少25%,每使用一张卡牌减少一层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乱气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始时,获得一层乱气。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓄力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_xvli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一张拳掌卡牌获得额外&lt;#x&gt;点攻击,并且在打出后移除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓄势待发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束时你的&lt;蓄力&gt;翻倍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_xvshidaifa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厚积薄发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当你蓄力时,额外获得3层蓄力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_houjibofa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_du</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_dianxue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_xuanyun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_hutizhengang</t>
+  </si>
+  <si>
+    <t>buff_hubo</t>
+  </si>
+  <si>
+    <t>buff_gushou</t>
+  </si>
+  <si>
+    <t>buff_jianqizongheng</t>
+  </si>
+  <si>
+    <t>buff_wujijianyi</t>
+  </si>
+  <si>
+    <t>buff_jianqisiyi</t>
+  </si>
+  <si>
+    <t>quanfa_ts</t>
+  </si>
+  <si>
+    <t>quanfa_xj</t>
+  </si>
+  <si>
+    <t>jianfa_ts</t>
+  </si>
+  <si>
+    <t>jianfa_xj</t>
+  </si>
+  <si>
+    <t>neigong_ts</t>
+  </si>
+  <si>
+    <t>neigong_xj</t>
+  </si>
+  <si>
+    <t>anqi_ts</t>
+  </si>
+  <si>
+    <t>anqi_xj</t>
+  </si>
+  <si>
+    <t>qingshen</t>
+  </si>
+  <si>
+    <t>huanman</t>
+  </si>
+  <si>
+    <t>延绵不绝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有余不尽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_yanmianbujue</t>
+  </si>
+  <si>
+    <t>当打出拳掌牌是保留5成蓄力不释放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束时,获得等于本buff层数的蓄力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_zhenqinixing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焚脉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打出的下&lt;#x&gt;张牌,会燃烧,每使用一张牌减少一层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打出的下&lt;#x&gt;张牌,会被放置到抽牌堆顶端,每使用一张牌减少一层,回合结束时消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_fenmai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心莲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_xinlian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明灭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_mingmie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你每燃烧一张牌,对敌方血量最少的侠客造成&lt;#x&gt;x10点伤害,并且层数减少。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你每燃烧一张牌,自身获得&lt;#x&gt;x10点护盾,并且层数减少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磐石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时护盾不会消失,回合结束时层数减少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_panshi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiyongshuangxiu</t>
+  </si>
+  <si>
+    <t>tuojiu</t>
+  </si>
+  <si>
+    <t>fanzhen</t>
+  </si>
+  <si>
+    <t>yixinghuandou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wujiubuhuan</t>
+  </si>
+  <si>
+    <t>pozhan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhimang</t>
+  </si>
+  <si>
+    <t>tongbi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xianfa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bizhong</t>
+  </si>
+  <si>
+    <t>duanyu</t>
+  </si>
+  <si>
+    <t>jiangzhi</t>
+  </si>
+  <si>
+    <t>yiyahuanya</t>
+  </si>
+  <si>
+    <t>lingbo</t>
+  </si>
+  <si>
+    <t>yingqigong</t>
+  </si>
+  <si>
+    <t>yang</t>
+  </si>
+  <si>
+    <t>yin</t>
+  </si>
+  <si>
+    <t>yinyang</t>
+  </si>
+  <si>
+    <t>jiemai</t>
+  </si>
+  <si>
+    <t>mingjing</t>
+  </si>
+  <si>
+    <t>hanjiangyingyue</t>
+  </si>
+  <si>
+    <t>nujian</t>
+  </si>
+  <si>
+    <t>renmoyudu</t>
+  </si>
+  <si>
+    <t>luanqi</t>
+  </si>
+  <si>
+    <t>zouhuorumo</t>
+  </si>
+  <si>
+    <t>duanjin</t>
+  </si>
+  <si>
+    <t>xvli</t>
+  </si>
+  <si>
+    <t>xvshidaifa</t>
+  </si>
+  <si>
+    <t>houjibofa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yanmianbujue</t>
+  </si>
+  <si>
+    <t>youyubujin</t>
+  </si>
+  <si>
+    <t>逆折</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nizhe</t>
+  </si>
+  <si>
+    <t>fenmai</t>
+  </si>
+  <si>
+    <t>mingmie</t>
+  </si>
+  <si>
+    <t>xinlian</t>
+  </si>
+  <si>
+    <t>panshi</t>
+  </si>
+  <si>
+    <t>脱力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成的伤害减少&lt;#x&gt;,回合结束时消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_tuoli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tuoli</t>
+  </si>
+  <si>
+    <t>归元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下回合时获得真气值,并且移除此buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_guiyuan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guiyuan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_suijin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suijin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抵御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_diyu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diyu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>柔劲</t>
-  </si>
-  <si>
-    <t>受到的伤害减免25%,回合开始时减少一层。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>buff_roujin</t>
-  </si>
-  <si>
-    <t>CF0710</t>
-  </si>
-  <si>
-    <t>破绽</t>
-  </si>
-  <si>
-    <t>buff_pozhan</t>
-  </si>
-  <si>
-    <t>致盲</t>
-  </si>
-  <si>
-    <t>卡牌使用距离减少&lt;#x&gt;,回合结束时移除。</t>
-  </si>
-  <si>
-    <t>buff_zhimang</t>
-  </si>
-  <si>
-    <t>通臂</t>
-  </si>
-  <si>
-    <t>buff_tongbi</t>
-  </si>
-  <si>
-    <t>先发制人</t>
-  </si>
-  <si>
-    <t>战斗开始获得3次步进。</t>
-  </si>
-  <si>
-    <t>gift_xianfazhiren</t>
-  </si>
-  <si>
-    <t>必中</t>
-  </si>
-  <si>
-    <t>攻击不会被闪避,每使用一张卡牌,失去一层。</t>
-  </si>
-  <si>
-    <t>buff_bizhong</t>
-  </si>
-  <si>
-    <t>断玉</t>
-  </si>
-  <si>
-    <t>buff_duanyu</t>
-  </si>
-  <si>
-    <t>僵直</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法使用剑法牌。回合结束时移除。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_jiangzhi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法被击退,眩晕,僵直。回合开始时移除。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以牙还牙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗开始时，自身获得3层反震</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_yiyahuanya</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轻身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凌波</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_lingbo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受到的伤害增加25%,每次作为卡牌目标时减少一层。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪避提升100%,每次作为卡牌目标时减少一层,回合开始时移除。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>硬气功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗开始时获得30点护盾。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_yingqigong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_yang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_yin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗结束时移除,如果获得阴,2者会融合成一点真气值。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗结束时移除,如果获得阳,2者会融合成一点真气值。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阴阳相生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>截脉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合开始时.减少获取的真气值&lt;#x&gt;点,回合结束时移除。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_jiemai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_mingxinjingqi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>beni</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寒江映月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_hanjiangyingyue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怒剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击必定暴击,每使用一张卡牌,失去一层。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑法牌必定暴击,每使用一张剑法牌,失去一层。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_nujian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每打出5张剑法牌,下一张剑法牌必定暴击。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>明镜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不会被添加负面buff,每抵消一次,失去一层明静。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人莫予毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对卡牌伤害的使用者造成&lt;#x&gt;点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对卡牌伤害的使用者施加&lt;#x&gt;层毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_renmoyudu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你抽牌获得的手牌的真气消耗混乱直到回合结束,回合结束时,减少一层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>走火入魔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_zouhuorumo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_zhenqiwenluan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缓慢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>断筋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_duanjin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护体真罡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拳掌卡牌使用距离增加1,持续&lt;#x&gt;回合。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌造成的伤害减少25%,每使用一张卡牌减少一层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乱气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗开始时,获得一层乱气。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓄力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_xvli</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一张拳掌卡牌获得额外&lt;#x&gt;点攻击,并且在打出后移除。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓄势待发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合结束时你的&lt;蓄力&gt;翻倍。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_xvshidaifa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厚积薄发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每当你蓄力时,额外获得3层蓄力。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_houjibofa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_du</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_dianxue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_xuanyun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_hutizhengang</t>
-  </si>
-  <si>
-    <t>buff_hubo</t>
-  </si>
-  <si>
-    <t>buff_gushou</t>
-  </si>
-  <si>
-    <t>buff_jianqizongheng</t>
-  </si>
-  <si>
-    <t>buff_wujijianyi</t>
-  </si>
-  <si>
-    <t>buff_jianqisiyi</t>
-  </si>
-  <si>
-    <t>quanfa_ts</t>
-  </si>
-  <si>
-    <t>quanfa_xj</t>
-  </si>
-  <si>
-    <t>jianfa_ts</t>
-  </si>
-  <si>
-    <t>jianfa_xj</t>
-  </si>
-  <si>
-    <t>neigong_ts</t>
-  </si>
-  <si>
-    <t>neigong_xj</t>
-  </si>
-  <si>
-    <t>anqi_ts</t>
-  </si>
-  <si>
-    <t>anqi_xj</t>
-  </si>
-  <si>
-    <t>qingshen</t>
-  </si>
-  <si>
-    <t>huanman</t>
-  </si>
-  <si>
-    <t>延绵不绝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有余不尽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_yanmianbujue</t>
-  </si>
-  <si>
-    <t>当打出拳掌牌是保留5成蓄力不释放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合结束时,获得等于本buff层数的蓄力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_zhenqinixing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>焚脉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打出的下&lt;#x&gt;张牌,会燃烧,每使用一张牌减少一层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打出的下&lt;#x&gt;张牌,会被放置到抽牌堆顶端,每使用一张牌减少一层,回合结束时消失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_fenmai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>心莲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_xinlian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>明灭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_mingmie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你每燃烧一张牌,对敌方血量最少的侠客造成&lt;#x&gt;x10点伤害,并且层数减少。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你每燃烧一张牌,自身获得&lt;#x&gt;x10点护盾,并且层数减少</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>磐石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合开始时护盾不会消失,回合结束时层数减少</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_panshi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiyongshuangxiu</t>
-  </si>
-  <si>
-    <t>tuojiu</t>
-  </si>
-  <si>
-    <t>fanzhen</t>
-  </si>
-  <si>
-    <t>yixinghuandou</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wujiubuhuan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>roujin</t>
-  </si>
-  <si>
-    <t>pozhan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhimang</t>
-  </si>
-  <si>
-    <t>tongbi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xianfa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bizhong</t>
-  </si>
-  <si>
-    <t>duanyu</t>
-  </si>
-  <si>
-    <t>jiangzhi</t>
-  </si>
-  <si>
-    <t>yiyahuanya</t>
-  </si>
-  <si>
-    <t>lingbo</t>
-  </si>
-  <si>
-    <t>yingqigong</t>
-  </si>
-  <si>
-    <t>yang</t>
-  </si>
-  <si>
-    <t>yin</t>
-  </si>
-  <si>
-    <t>yinyang</t>
-  </si>
-  <si>
-    <t>jiemai</t>
-  </si>
-  <si>
-    <t>mingjing</t>
-  </si>
-  <si>
-    <t>hanjiangyingyue</t>
-  </si>
-  <si>
-    <t>nujian</t>
-  </si>
-  <si>
-    <t>renmoyudu</t>
-  </si>
-  <si>
-    <t>luanqi</t>
-  </si>
-  <si>
-    <t>zouhuorumo</t>
-  </si>
-  <si>
-    <t>duanjin</t>
-  </si>
-  <si>
-    <t>xvli</t>
-  </si>
-  <si>
-    <t>xvshidaifa</t>
-  </si>
-  <si>
-    <t>houjibofa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yanmianbujue</t>
-  </si>
-  <si>
-    <t>youyubujin</t>
-  </si>
-  <si>
-    <t>逆折</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nizhe</t>
-  </si>
-  <si>
-    <t>fenmai</t>
-  </si>
-  <si>
-    <t>mingmie</t>
-  </si>
-  <si>
-    <t>xinlian</t>
-  </si>
-  <si>
-    <t>panshi</t>
-  </si>
-  <si>
-    <t>脱力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成的伤害减少&lt;#x&gt;,回合结束时消失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_tuoli</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tuoli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当受伤的时候,获得于等同于伤害50%的护盾，减少一层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌暴击的系数提升1点（3倍伤害）,每使用一张卡牌,失去一层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1338,8 +1389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1368,10 +1419,10 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -1394,10 +1445,10 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
@@ -1426,7 +1477,7 @@
         <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H3" t="s">
         <v>11</v>
@@ -1452,7 +1503,7 @@
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -1515,7 +1566,7 @@
         <v>50005</v>
       </c>
       <c r="B7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -1530,7 +1581,7 @@
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
@@ -1582,7 +1633,7 @@
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
@@ -1686,7 +1737,7 @@
         <v>8</v>
       </c>
       <c r="G13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H13" t="s">
         <v>42</v>
@@ -1700,7 +1751,7 @@
         <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D14" t="s">
         <v>44</v>
@@ -1712,7 +1763,7 @@
         <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H14" t="s">
         <v>15</v>
@@ -1761,7 +1812,7 @@
         <v>8</v>
       </c>
       <c r="G16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
@@ -1914,7 +1965,7 @@
         <v>8</v>
       </c>
       <c r="G22" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H22" t="s">
         <v>15</v>
@@ -1937,7 +1988,7 @@
         <v>8</v>
       </c>
       <c r="G23" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H23" t="s">
         <v>15</v>
@@ -1989,7 +2040,7 @@
         <v>8</v>
       </c>
       <c r="G25" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H25" t="s">
         <v>15</v>
@@ -2015,7 +2066,7 @@
         <v>8</v>
       </c>
       <c r="G26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H26" t="s">
         <v>15</v>
@@ -2041,7 +2092,7 @@
         <v>8</v>
       </c>
       <c r="G27" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H27" t="s">
         <v>15</v>
@@ -2067,7 +2118,7 @@
         <v>8</v>
       </c>
       <c r="G28" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H28" t="s">
         <v>15</v>
@@ -2093,7 +2144,7 @@
         <v>8</v>
       </c>
       <c r="G29" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H29" t="s">
         <v>15</v>
@@ -2119,7 +2170,7 @@
         <v>8</v>
       </c>
       <c r="G30" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H30" t="s">
         <v>15</v>
@@ -2145,7 +2196,7 @@
         <v>8</v>
       </c>
       <c r="G31" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H31" t="s">
         <v>15</v>
@@ -2171,7 +2222,7 @@
         <v>8</v>
       </c>
       <c r="G32" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H32" t="s">
         <v>15</v>
@@ -2182,7 +2233,7 @@
         <v>50032</v>
       </c>
       <c r="B33" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C33" t="s">
         <v>96</v>
@@ -2197,7 +2248,7 @@
         <v>8</v>
       </c>
       <c r="G33" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H33" t="s">
         <v>15</v>
@@ -2208,7 +2259,7 @@
         <v>50033</v>
       </c>
       <c r="B34" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C34" t="s">
         <v>98</v>
@@ -2223,7 +2274,7 @@
         <v>8</v>
       </c>
       <c r="G34" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H34" t="s">
         <v>15</v>
@@ -2249,7 +2300,7 @@
         <v>8</v>
       </c>
       <c r="G35" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H35" t="s">
         <v>15</v>
@@ -2275,7 +2326,7 @@
         <v>8</v>
       </c>
       <c r="G36" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H36" t="s">
         <v>15</v>
@@ -2289,7 +2340,7 @@
         <v>106</v>
       </c>
       <c r="C37" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D37" t="s">
         <v>107</v>
@@ -2301,7 +2352,7 @@
         <v>8</v>
       </c>
       <c r="G37" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H37" t="s">
         <v>15</v>
@@ -2327,7 +2378,7 @@
         <v>8</v>
       </c>
       <c r="G38" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H38" t="s">
         <v>111</v>
@@ -2353,7 +2404,7 @@
         <v>8</v>
       </c>
       <c r="G39" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H39" t="s">
         <v>115</v>
@@ -2364,25 +2415,25 @@
         <v>50039</v>
       </c>
       <c r="B40" t="s">
+        <v>283</v>
+      </c>
+      <c r="C40" t="s">
         <v>116</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
+        <v>284</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>8</v>
+      </c>
+      <c r="G40" t="s">
+        <v>285</v>
+      </c>
+      <c r="H40" t="s">
         <v>117</v>
-      </c>
-      <c r="D40" t="s">
-        <v>118</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>8</v>
-      </c>
-      <c r="G40" t="s">
-        <v>242</v>
-      </c>
-      <c r="H40" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2390,13 +2441,13 @@
         <v>50040</v>
       </c>
       <c r="B41" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C41" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D41" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E41">
         <v>2</v>
@@ -2405,10 +2456,10 @@
         <v>8</v>
       </c>
       <c r="G41" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H41" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -2416,13 +2467,13 @@
         <v>50041</v>
       </c>
       <c r="B42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" t="s">
         <v>122</v>
-      </c>
-      <c r="C42" t="s">
-        <v>123</v>
-      </c>
-      <c r="D42" t="s">
-        <v>124</v>
       </c>
       <c r="E42">
         <v>2</v>
@@ -2431,7 +2482,7 @@
         <v>8</v>
       </c>
       <c r="G42" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H42" t="s">
         <v>115</v>
@@ -2442,13 +2493,13 @@
         <v>50042</v>
       </c>
       <c r="B43" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C43" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D43" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2457,10 +2508,10 @@
         <v>8</v>
       </c>
       <c r="G43" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H43" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2468,14 +2519,14 @@
         <v>50043</v>
       </c>
       <c r="B44" t="s">
+        <v>125</v>
+      </c>
+      <c r="C44" t="s">
+        <v>126</v>
+      </c>
+      <c r="D44" t="s">
         <v>127</v>
       </c>
-      <c r="C44" t="s">
-        <v>128</v>
-      </c>
-      <c r="D44" t="s">
-        <v>129</v>
-      </c>
       <c r="E44">
         <v>1</v>
       </c>
@@ -2483,10 +2534,10 @@
         <v>8</v>
       </c>
       <c r="G44" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H44" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -2494,14 +2545,14 @@
         <v>50044</v>
       </c>
       <c r="B45" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45" t="s">
         <v>130</v>
       </c>
-      <c r="C45" t="s">
-        <v>131</v>
-      </c>
-      <c r="D45" t="s">
-        <v>132</v>
-      </c>
       <c r="E45">
         <v>1</v>
       </c>
@@ -2509,7 +2560,7 @@
         <v>8</v>
       </c>
       <c r="G45" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H45" t="s">
         <v>115</v>
@@ -2520,13 +2571,13 @@
         <v>50045</v>
       </c>
       <c r="B46" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C46" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D46" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -2535,10 +2586,10 @@
         <v>8</v>
       </c>
       <c r="G46" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H46" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2546,13 +2597,13 @@
         <v>50046</v>
       </c>
       <c r="B47" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" t="s">
+        <v>134</v>
+      </c>
+      <c r="D47" t="s">
         <v>135</v>
-      </c>
-      <c r="C47" t="s">
-        <v>136</v>
-      </c>
-      <c r="D47" t="s">
-        <v>137</v>
       </c>
       <c r="E47">
         <v>2</v>
@@ -2561,10 +2612,10 @@
         <v>8</v>
       </c>
       <c r="G47" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H47" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2572,14 +2623,14 @@
         <v>50047</v>
       </c>
       <c r="B48" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48" t="s">
         <v>139</v>
       </c>
-      <c r="C48" t="s">
-        <v>140</v>
-      </c>
-      <c r="D48" t="s">
-        <v>141</v>
-      </c>
       <c r="E48">
         <v>1</v>
       </c>
@@ -2587,7 +2638,7 @@
         <v>8</v>
       </c>
       <c r="G48" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H48" t="s">
         <v>115</v>
@@ -2598,13 +2649,13 @@
         <v>50048</v>
       </c>
       <c r="B49" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C49" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D49" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -2613,10 +2664,10 @@
         <v>8</v>
       </c>
       <c r="G49" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H49" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2624,14 +2675,14 @@
         <v>50049</v>
       </c>
       <c r="B50" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" t="s">
+        <v>146</v>
+      </c>
+      <c r="D50" t="s">
         <v>147</v>
       </c>
-      <c r="C50" t="s">
-        <v>148</v>
-      </c>
-      <c r="D50" t="s">
-        <v>149</v>
-      </c>
       <c r="E50">
         <v>1</v>
       </c>
@@ -2639,10 +2690,10 @@
         <v>8</v>
       </c>
       <c r="G50" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H50" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2650,13 +2701,13 @@
         <v>50050</v>
       </c>
       <c r="B51" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C51" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D51" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -2665,10 +2716,10 @@
         <v>8</v>
       </c>
       <c r="G51" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H51" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2676,13 +2727,13 @@
         <v>50051</v>
       </c>
       <c r="B52" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C52" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D52" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -2691,7 +2742,7 @@
         <v>8</v>
       </c>
       <c r="G52" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H52" t="s">
         <v>115</v>
@@ -2702,7 +2753,7 @@
         <v>50052</v>
       </c>
       <c r="B53" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2711,7 +2762,7 @@
         <v>8</v>
       </c>
       <c r="G53" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H53" t="s">
         <v>115</v>
@@ -2722,13 +2773,13 @@
         <v>50053</v>
       </c>
       <c r="B54" t="s">
+        <v>155</v>
+      </c>
+      <c r="C54" t="s">
+        <v>156</v>
+      </c>
+      <c r="D54" t="s">
         <v>157</v>
-      </c>
-      <c r="C54" t="s">
-        <v>158</v>
-      </c>
-      <c r="D54" t="s">
-        <v>159</v>
       </c>
       <c r="E54">
         <v>2</v>
@@ -2737,10 +2788,10 @@
         <v>8</v>
       </c>
       <c r="G54" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H54" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2748,13 +2799,13 @@
         <v>50054</v>
       </c>
       <c r="B55" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C55" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D55" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -2763,10 +2814,10 @@
         <v>8</v>
       </c>
       <c r="G55" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H55" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2774,13 +2825,13 @@
         <v>50055</v>
       </c>
       <c r="B56" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C56" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D56" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -2789,10 +2840,10 @@
         <v>8</v>
       </c>
       <c r="G56" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H56" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2800,13 +2851,13 @@
         <v>50056</v>
       </c>
       <c r="B57" t="s">
+        <v>165</v>
+      </c>
+      <c r="C57" t="s">
         <v>167</v>
       </c>
-      <c r="C57" t="s">
-        <v>169</v>
-      </c>
       <c r="D57" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -2815,7 +2866,7 @@
         <v>8</v>
       </c>
       <c r="G57" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H57" t="s">
         <v>115</v>
@@ -2826,13 +2877,13 @@
         <v>50057</v>
       </c>
       <c r="B58" t="s">
+        <v>172</v>
+      </c>
+      <c r="C58" t="s">
         <v>174</v>
       </c>
-      <c r="C58" t="s">
-        <v>176</v>
-      </c>
       <c r="D58" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -2841,7 +2892,7 @@
         <v>8</v>
       </c>
       <c r="G58" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H58" t="s">
         <v>115</v>
@@ -2852,13 +2903,13 @@
         <v>50058</v>
       </c>
       <c r="B59" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C59" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D59" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -2867,10 +2918,10 @@
         <v>8</v>
       </c>
       <c r="G59" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H59" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2878,13 +2929,13 @@
         <v>50059</v>
       </c>
       <c r="B60" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C60" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D60" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -2893,10 +2944,10 @@
         <v>8</v>
       </c>
       <c r="G60" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H60" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2904,13 +2955,13 @@
         <v>50060</v>
       </c>
       <c r="B61" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C61" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D61" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -2919,10 +2970,10 @@
         <v>8</v>
       </c>
       <c r="G61" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H61" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -2930,13 +2981,13 @@
         <v>50061</v>
       </c>
       <c r="B62" t="s">
+        <v>188</v>
+      </c>
+      <c r="C62" t="s">
         <v>190</v>
       </c>
-      <c r="C62" t="s">
-        <v>192</v>
-      </c>
       <c r="D62" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -2945,7 +2996,7 @@
         <v>8</v>
       </c>
       <c r="G62" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H62" t="s">
         <v>115</v>
@@ -2956,14 +3007,14 @@
         <v>50062</v>
       </c>
       <c r="B63" t="s">
+        <v>191</v>
+      </c>
+      <c r="C63" t="s">
+        <v>192</v>
+      </c>
+      <c r="D63" t="s">
         <v>193</v>
       </c>
-      <c r="C63" t="s">
-        <v>194</v>
-      </c>
-      <c r="D63" t="s">
-        <v>195</v>
-      </c>
       <c r="E63">
         <v>1</v>
       </c>
@@ -2971,10 +3022,10 @@
         <v>8</v>
       </c>
       <c r="G63" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H63" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -2982,14 +3033,14 @@
         <v>50063</v>
       </c>
       <c r="B64" t="s">
+        <v>194</v>
+      </c>
+      <c r="C64" t="s">
+        <v>195</v>
+      </c>
+      <c r="D64" t="s">
         <v>196</v>
       </c>
-      <c r="C64" t="s">
-        <v>197</v>
-      </c>
-      <c r="D64" t="s">
-        <v>198</v>
-      </c>
       <c r="E64">
         <v>1</v>
       </c>
@@ -2997,10 +3048,10 @@
         <v>8</v>
       </c>
       <c r="G64" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H64" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -3008,14 +3059,14 @@
         <v>50064</v>
       </c>
       <c r="B65" t="s">
+        <v>216</v>
+      </c>
+      <c r="C65" t="s">
+        <v>220</v>
+      </c>
+      <c r="D65" t="s">
         <v>218</v>
       </c>
-      <c r="C65" t="s">
-        <v>222</v>
-      </c>
-      <c r="D65" t="s">
-        <v>220</v>
-      </c>
       <c r="E65">
         <v>1</v>
       </c>
@@ -3023,10 +3074,10 @@
         <v>8</v>
       </c>
       <c r="G65" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H65" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -3034,11 +3085,11 @@
         <v>50065</v>
       </c>
       <c r="B66" t="s">
+        <v>217</v>
+      </c>
+      <c r="C66" t="s">
         <v>219</v>
       </c>
-      <c r="C66" t="s">
-        <v>221</v>
-      </c>
       <c r="E66">
         <v>1</v>
       </c>
@@ -3046,7 +3097,7 @@
         <v>8</v>
       </c>
       <c r="G66" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H66" t="s">
         <v>115</v>
@@ -3057,13 +3108,13 @@
         <v>50066</v>
       </c>
       <c r="B67" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C67" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D67" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -3072,10 +3123,10 @@
         <v>8</v>
       </c>
       <c r="G67" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H67" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -3083,14 +3134,14 @@
         <v>50067</v>
       </c>
       <c r="B68" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C68" t="s">
+        <v>223</v>
+      </c>
+      <c r="D68" t="s">
         <v>225</v>
       </c>
-      <c r="D68" t="s">
-        <v>227</v>
-      </c>
       <c r="E68">
         <v>1</v>
       </c>
@@ -3098,10 +3149,10 @@
         <v>8</v>
       </c>
       <c r="G68" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H68" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -3109,13 +3160,13 @@
         <v>50068</v>
       </c>
       <c r="B69" t="s">
+        <v>228</v>
+      </c>
+      <c r="C69" t="s">
         <v>230</v>
       </c>
-      <c r="C69" t="s">
-        <v>232</v>
-      </c>
       <c r="D69" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -3124,7 +3175,7 @@
         <v>8</v>
       </c>
       <c r="G69" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H69" t="s">
         <v>115</v>
@@ -3135,13 +3186,13 @@
         <v>50069</v>
       </c>
       <c r="B70" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C70" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D70" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -3150,10 +3201,10 @@
         <v>8</v>
       </c>
       <c r="G70" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H70" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -3161,14 +3212,14 @@
         <v>50070</v>
       </c>
       <c r="B71" t="s">
+        <v>232</v>
+      </c>
+      <c r="C71" t="s">
+        <v>233</v>
+      </c>
+      <c r="D71" t="s">
         <v>234</v>
       </c>
-      <c r="C71" t="s">
-        <v>235</v>
-      </c>
-      <c r="D71" t="s">
-        <v>236</v>
-      </c>
       <c r="E71">
         <v>1</v>
       </c>
@@ -3176,10 +3227,10 @@
         <v>8</v>
       </c>
       <c r="G71" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H71" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -3187,22 +3238,22 @@
         <v>50071</v>
       </c>
       <c r="B72" t="s">
+        <v>272</v>
+      </c>
+      <c r="C72" t="s">
+        <v>273</v>
+      </c>
+      <c r="D72" t="s">
+        <v>274</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>8</v>
+      </c>
+      <c r="G72" t="s">
         <v>275</v>
-      </c>
-      <c r="C72" t="s">
-        <v>276</v>
-      </c>
-      <c r="D72" t="s">
-        <v>277</v>
-      </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
-      <c r="F72">
-        <v>8</v>
-      </c>
-      <c r="G72" t="s">
-        <v>278</v>
       </c>
       <c r="H72" t="s">
         <v>115</v>
@@ -3212,6 +3263,15 @@
       <c r="A73">
         <v>50072</v>
       </c>
+      <c r="B73" t="s">
+        <v>276</v>
+      </c>
+      <c r="C73" t="s">
+        <v>277</v>
+      </c>
+      <c r="D73" t="s">
+        <v>278</v>
+      </c>
       <c r="E73">
         <v>1</v>
       </c>
@@ -3219,16 +3279,25 @@
         <v>8</v>
       </c>
       <c r="G73" t="s">
-        <v>199</v>
+        <v>279</v>
       </c>
       <c r="H73" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>50073</v>
       </c>
+      <c r="B74" t="s">
+        <v>280</v>
+      </c>
+      <c r="C74" t="s">
+        <v>290</v>
+      </c>
+      <c r="D74" t="s">
+        <v>281</v>
+      </c>
       <c r="E74">
         <v>1</v>
       </c>
@@ -3236,16 +3305,25 @@
         <v>8</v>
       </c>
       <c r="G74" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
       <c r="H74" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>50074</v>
       </c>
+      <c r="B75" t="s">
+        <v>286</v>
+      </c>
+      <c r="C75" t="s">
+        <v>289</v>
+      </c>
+      <c r="D75" t="s">
+        <v>287</v>
+      </c>
       <c r="E75">
         <v>1</v>
       </c>
@@ -3253,7 +3331,7 @@
         <v>8</v>
       </c>
       <c r="G75" t="s">
-        <v>199</v>
+        <v>288</v>
       </c>
       <c r="H75" t="s">
         <v>115</v>
@@ -3270,10 +3348,10 @@
         <v>8</v>
       </c>
       <c r="G76" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H76" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -3287,10 +3365,10 @@
         <v>8</v>
       </c>
       <c r="G77" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H77" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -3304,7 +3382,7 @@
         <v>8</v>
       </c>
       <c r="G78" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H78" t="s">
         <v>115</v>

--- a/excel/buff.xlsx
+++ b/excel/buff.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE1C250-3581-47DE-826E-A8ACDDE64194}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1053,7 +1052,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1386,26 +1385,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" customWidth="1"/>
-    <col min="3" max="3" width="66.77734375" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="66.75" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" customWidth="1"/>
-    <col min="7" max="7" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="9.375" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1431,7 +1430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1457,7 +1456,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>50001</v>
       </c>
@@ -1483,7 +1482,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>50002</v>
       </c>
@@ -1509,7 +1508,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>50003</v>
       </c>
@@ -1535,7 +1534,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>50004</v>
       </c>
@@ -1561,7 +1560,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>50005</v>
       </c>
@@ -1587,7 +1586,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>50006</v>
       </c>
@@ -1613,7 +1612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>50007</v>
       </c>
@@ -1639,7 +1638,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>50008</v>
       </c>
@@ -1665,7 +1664,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>50009</v>
       </c>
@@ -1691,7 +1690,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>50010</v>
       </c>
@@ -1717,7 +1716,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>50011</v>
       </c>
@@ -1743,7 +1742,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>50012</v>
       </c>
@@ -1769,7 +1768,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>50013</v>
       </c>
@@ -1795,7 +1794,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>50014</v>
       </c>
@@ -1818,7 +1817,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>50015</v>
       </c>
@@ -1844,7 +1843,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>50016</v>
       </c>
@@ -1870,7 +1869,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>50017</v>
       </c>
@@ -1896,7 +1895,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>50018</v>
       </c>
@@ -1922,7 +1921,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>50019</v>
       </c>
@@ -1948,7 +1947,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>50020</v>
       </c>
@@ -1971,7 +1970,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>50021</v>
       </c>
@@ -1994,7 +1993,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>50022</v>
       </c>
@@ -2020,7 +2019,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>50023</v>
       </c>
@@ -2046,7 +2045,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>50024</v>
       </c>
@@ -2072,7 +2071,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>50025</v>
       </c>
@@ -2098,7 +2097,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>50026</v>
       </c>
@@ -2124,7 +2123,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>50027</v>
       </c>
@@ -2150,7 +2149,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>50029</v>
       </c>
@@ -2176,7 +2175,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>50030</v>
       </c>
@@ -2202,7 +2201,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>50031</v>
       </c>
@@ -2228,7 +2227,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>50032</v>
       </c>
@@ -2254,7 +2253,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>50033</v>
       </c>
@@ -2280,7 +2279,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>50034</v>
       </c>
@@ -2306,7 +2305,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>50035</v>
       </c>
@@ -2332,7 +2331,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>50036</v>
       </c>
@@ -2358,7 +2357,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>50037</v>
       </c>
@@ -2384,7 +2383,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>50038</v>
       </c>
@@ -2410,7 +2409,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>50039</v>
       </c>
@@ -2436,7 +2435,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>50040</v>
       </c>
@@ -2462,7 +2461,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>50041</v>
       </c>
@@ -2488,7 +2487,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>50042</v>
       </c>
@@ -2514,7 +2513,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>50043</v>
       </c>
@@ -2540,7 +2539,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>50044</v>
       </c>
@@ -2566,7 +2565,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>50045</v>
       </c>
@@ -2592,7 +2591,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>50046</v>
       </c>
@@ -2618,7 +2617,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>50047</v>
       </c>
@@ -2644,7 +2643,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>50048</v>
       </c>
@@ -2670,7 +2669,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>50049</v>
       </c>
@@ -2696,7 +2695,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50050</v>
       </c>
@@ -2722,7 +2721,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50051</v>
       </c>
@@ -2748,7 +2747,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>50052</v>
       </c>
@@ -2768,7 +2767,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>50053</v>
       </c>
@@ -2794,7 +2793,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>50054</v>
       </c>
@@ -2820,7 +2819,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>50055</v>
       </c>
@@ -2846,7 +2845,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>50056</v>
       </c>
@@ -2872,7 +2871,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>50057</v>
       </c>
@@ -2898,7 +2897,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>50058</v>
       </c>
@@ -2924,7 +2923,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>50059</v>
       </c>
@@ -2950,7 +2949,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>50060</v>
       </c>
@@ -2976,7 +2975,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>50061</v>
       </c>
@@ -3002,7 +3001,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>50062</v>
       </c>
@@ -3028,7 +3027,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>50063</v>
       </c>
@@ -3054,7 +3053,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>50064</v>
       </c>
@@ -3080,7 +3079,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>50065</v>
       </c>
@@ -3103,7 +3102,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>50066</v>
       </c>
@@ -3129,7 +3128,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>50067</v>
       </c>
@@ -3155,7 +3154,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>50068</v>
       </c>
@@ -3181,7 +3180,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>50069</v>
       </c>
@@ -3207,7 +3206,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>50070</v>
       </c>
@@ -3233,7 +3232,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>50071</v>
       </c>
@@ -3259,7 +3258,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>50072</v>
       </c>
@@ -3285,7 +3284,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>50073</v>
       </c>
@@ -3311,7 +3310,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>50074</v>
       </c>
@@ -3337,7 +3336,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>50075</v>
       </c>
@@ -3354,7 +3353,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>50076</v>
       </c>
@@ -3371,7 +3370,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>50077</v>
       </c>

--- a/excel/buff.xlsx
+++ b/excel/buff.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1388,8 +1388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/excel/buff.xlsx
+++ b/excel/buff.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\LakeHeroPro\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F57E4E3-F3A7-4261-8388-5462935C4C72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="297">
   <si>
     <t>number</t>
   </si>
@@ -130,9 +129,6 @@
     <t>buff_huichun</t>
   </si>
   <si>
-    <t>回合结束给与自己&lt;#x&gt;层护盾,并减少一层。</t>
-  </si>
-  <si>
     <t>buff_jingang</t>
   </si>
   <si>
@@ -157,9 +153,6 @@
     <t>酒</t>
   </si>
   <si>
-    <t>概率暴击</t>
-  </si>
-  <si>
     <t>buff_jiu</t>
   </si>
   <si>
@@ -242,9 +235,6 @@
     <t>醉</t>
   </si>
   <si>
-    <t>概率丢失</t>
-  </si>
-  <si>
     <t>buff_zui</t>
   </si>
   <si>
@@ -513,10 +503,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>战斗开始时获得30点护盾。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gift_yingqigong</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -537,14 +523,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>战斗结束时移除,如果获得阴,2者会融合成一点真气值。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗结束时移除,如果获得阳,2者会融合成一点真气值。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>阴阳相生</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -633,10 +611,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>你抽牌获得的手牌的真气消耗混乱直到回合结束,回合结束时,减少一层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>走火入魔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -689,10 +663,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下一张拳掌卡牌获得额外&lt;#x&gt;点攻击,并且在打出后移除。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>蓄势待发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -836,18 +806,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>你每燃烧一张牌,自身获得&lt;#x&gt;x10点护盾,并且层数减少</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>磐石</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>回合开始时护盾不会消失,回合结束时层数减少</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>buff_panshi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -988,10 +950,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下回合时获得真气值,并且移除此buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>buff_guiyuan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1036,10 +994,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每当受伤的时候,获得于等同于伤害50%的护盾，减少一层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>卡牌暴击的系数提升1点（3倍伤害）,每使用一张卡牌,失去一层</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1053,12 +1007,76 @@
   </si>
   <si>
     <t>1ac7c8</t>
+  </si>
+  <si>
+    <t>层数x10概率丢失攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>层数x10概率暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3079b5</t>
+  </si>
+  <si>
+    <t>下一张拳掌卡牌获得额外&lt;#x&gt;点攻击,在打出后移除自身所有&lt;color=#b5a430&gt;蓄力&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b5a430</t>
+  </si>
+  <si>
+    <t>b5a430</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9630b5</t>
+  </si>
+  <si>
+    <t>30b541</t>
+  </si>
+  <si>
+    <t>你抽牌获得的手牌的&lt;color=#3079b5&gt;真气&lt;/c&gt;消耗混乱直到回合结束,回合结束时,减少一层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下回合时获得&lt;color=#3079b5&gt;真气&lt;/c&gt;值,并且移除此buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束给与自己&lt;#x&gt;层&lt;color=#b5a430&gt;护盾&lt;/c&gt;,并减少一层。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始时获得30点&lt;color=#b5a430&gt;护盾&lt;/c&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你每燃烧一张牌,自身获得&lt;#x&gt;x10点&lt;color=#b5a430&gt;护盾&lt;/c&gt;,并且层数减少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时&lt;color=#b5a430&gt;护盾&lt;/c&gt;不会消失,回合结束时层数减少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当受伤的时候,获得于等同于伤害50%的&lt;color=#b5a430&gt;护盾&lt;/c&gt;，减少一层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果获得&lt;color=#9630b5&gt;阴&lt;/c&gt;,2者会融合成一点&lt;color=#3079b5&gt;真气值&lt;/c&gt;,战斗结束时移除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果获得&lt;color=#b5a430&gt;阳&lt;/c&gt;,2者会融合成一点&lt;color=#3079b5&gt;真气值&lt;/c&gt;,战斗结束时移除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1391,26 +1409,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" customWidth="1"/>
-    <col min="3" max="3" width="66.77734375" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="66.75" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" customWidth="1"/>
-    <col min="7" max="7" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="9.375" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1424,10 +1442,10 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -1436,7 +1454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1450,10 +1468,10 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
@@ -1462,7 +1480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>50001</v>
       </c>
@@ -1482,13 +1500,13 @@
         <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="H3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>50002</v>
       </c>
@@ -1508,13 +1526,13 @@
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>50003</v>
       </c>
@@ -1540,7 +1558,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>50004</v>
       </c>
@@ -1563,22 +1581,22 @@
         <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>50005</v>
       </c>
       <c r="B7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C7" t="s">
+        <v>290</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
@@ -1586,25 +1604,25 @@
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>50006</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
         <v>1</v>
       </c>
@@ -1612,25 +1630,25 @@
         <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>50007</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>27</v>
       </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
       <c r="E9">
         <v>1</v>
       </c>
@@ -1638,25 +1656,25 @@
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>50008</v>
       </c>
       <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>281</v>
+      </c>
+      <c r="D10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
       <c r="E10">
         <v>1</v>
       </c>
@@ -1664,24 +1682,24 @@
         <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>50009</v>
       </c>
       <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
         <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1690,24 +1708,24 @@
         <v>8</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>50010</v>
       </c>
       <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
         <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" t="s">
-        <v>37</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1716,24 +1734,24 @@
         <v>8</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>50011</v>
       </c>
       <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
         <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>40</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1742,24 +1760,24 @@
         <v>8</v>
       </c>
       <c r="G13" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="H13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>50012</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1768,25 +1786,25 @@
         <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>50013</v>
       </c>
       <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
         <v>44</v>
       </c>
-      <c r="C15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" t="s">
-        <v>46</v>
-      </c>
       <c r="E15">
         <v>1</v>
       </c>
@@ -1794,21 +1812,21 @@
         <v>8</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>50014</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1817,25 +1835,25 @@
         <v>8</v>
       </c>
       <c r="G16" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>50015</v>
       </c>
       <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
         <v>49</v>
       </c>
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" t="s">
-        <v>51</v>
-      </c>
       <c r="E17">
         <v>1</v>
       </c>
@@ -1843,25 +1861,25 @@
         <v>8</v>
       </c>
       <c r="G17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>50016</v>
       </c>
       <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
         <v>52</v>
       </c>
-      <c r="C18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" t="s">
-        <v>54</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
@@ -1869,24 +1887,24 @@
         <v>8</v>
       </c>
       <c r="G18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>50017</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1895,24 +1913,24 @@
         <v>8</v>
       </c>
       <c r="G19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>50018</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>280</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1921,24 +1939,24 @@
         <v>8</v>
       </c>
       <c r="G20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>50019</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1947,21 +1965,21 @@
         <v>8</v>
       </c>
       <c r="G21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>50020</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1970,21 +1988,21 @@
         <v>8</v>
       </c>
       <c r="G22" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>50021</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1993,24 +2011,24 @@
         <v>8</v>
       </c>
       <c r="G23" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="H23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>50022</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2019,24 +2037,24 @@
         <v>8</v>
       </c>
       <c r="G24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H24" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>50023</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2045,24 +2063,24 @@
         <v>8</v>
       </c>
       <c r="G25" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="H25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>50024</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -2071,24 +2089,24 @@
         <v>8</v>
       </c>
       <c r="G26" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="H26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>50025</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2097,24 +2115,24 @@
         <v>8</v>
       </c>
       <c r="G27" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="H27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>50026</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -2123,24 +2141,24 @@
         <v>8</v>
       </c>
       <c r="G28" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="H28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>50027</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2149,24 +2167,24 @@
         <v>8</v>
       </c>
       <c r="G29" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="H29" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>50029</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D30" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -2175,24 +2193,24 @@
         <v>8</v>
       </c>
       <c r="G30" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="H30" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>50030</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D31" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2201,24 +2219,24 @@
         <v>8</v>
       </c>
       <c r="G31" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H31" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>50031</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E32">
         <v>2</v>
@@ -2227,24 +2245,24 @@
         <v>8</v>
       </c>
       <c r="G32" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="H32" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>50032</v>
       </c>
       <c r="B33" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C33" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D33" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2253,24 +2271,24 @@
         <v>8</v>
       </c>
       <c r="G33" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>50033</v>
       </c>
       <c r="B34" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C34" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D34" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E34">
         <v>2</v>
@@ -2279,24 +2297,24 @@
         <v>8</v>
       </c>
       <c r="G34" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="H34" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>50034</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C35" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D35" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E35">
         <v>2</v>
@@ -2305,24 +2323,24 @@
         <v>8</v>
       </c>
       <c r="G35" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="H35" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>50035</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C36" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D36" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2331,24 +2349,24 @@
         <v>8</v>
       </c>
       <c r="G36" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="H36" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>50036</v>
       </c>
       <c r="B37" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C37" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2357,76 +2375,76 @@
         <v>8</v>
       </c>
       <c r="G37" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="H37" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>50037</v>
       </c>
       <c r="B38" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" t="s">
+        <v>105</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>8</v>
+      </c>
+      <c r="G38" t="s">
+        <v>226</v>
+      </c>
+      <c r="H38" t="s">
         <v>106</v>
       </c>
-      <c r="C38" t="s">
-        <v>107</v>
-      </c>
-      <c r="D38" t="s">
-        <v>108</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>8</v>
-      </c>
-      <c r="G38" t="s">
-        <v>236</v>
-      </c>
-      <c r="H38" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>50038</v>
       </c>
       <c r="B39" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" t="s">
+        <v>109</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>8</v>
+      </c>
+      <c r="G39" t="s">
+        <v>227</v>
+      </c>
+      <c r="H39" t="s">
         <v>110</v>
       </c>
-      <c r="C39" t="s">
-        <v>111</v>
-      </c>
-      <c r="D39" t="s">
-        <v>112</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>8</v>
-      </c>
-      <c r="G39" t="s">
-        <v>237</v>
-      </c>
-      <c r="H39" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>50039</v>
       </c>
       <c r="B40" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="C40" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D40" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2435,24 +2453,24 @@
         <v>8</v>
       </c>
       <c r="G40" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="H40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>50040</v>
       </c>
       <c r="B41" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C41" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D41" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E41">
         <v>2</v>
@@ -2461,24 +2479,24 @@
         <v>8</v>
       </c>
       <c r="G41" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="H41" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>50041</v>
       </c>
       <c r="B42" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C42" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D42" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E42">
         <v>2</v>
@@ -2487,24 +2505,24 @@
         <v>8</v>
       </c>
       <c r="G42" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="H42" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>50042</v>
       </c>
       <c r="B43" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C43" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D43" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2513,24 +2531,24 @@
         <v>8</v>
       </c>
       <c r="G43" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="H43" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>50043</v>
       </c>
       <c r="B44" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C44" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D44" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2539,24 +2557,24 @@
         <v>8</v>
       </c>
       <c r="G44" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="H44" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>50044</v>
       </c>
       <c r="B45" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C45" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D45" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2565,24 +2583,24 @@
         <v>8</v>
       </c>
       <c r="G45" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="H45" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>50045</v>
       </c>
       <c r="B46" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C46" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D46" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -2591,24 +2609,24 @@
         <v>8</v>
       </c>
       <c r="G46" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="H46" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>50046</v>
       </c>
       <c r="B47" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C47" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D47" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E47">
         <v>2</v>
@@ -2617,24 +2635,24 @@
         <v>8</v>
       </c>
       <c r="G47" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="H47" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>50047</v>
       </c>
       <c r="B48" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C48" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D48" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -2643,24 +2661,24 @@
         <v>8</v>
       </c>
       <c r="G48" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H48" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>50048</v>
       </c>
       <c r="B49" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" t="s">
         <v>139</v>
       </c>
-      <c r="C49" t="s">
-        <v>142</v>
-      </c>
       <c r="D49" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -2669,24 +2687,24 @@
         <v>8</v>
       </c>
       <c r="G49" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="H49" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>50049</v>
       </c>
       <c r="B50" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C50" t="s">
-        <v>144</v>
+        <v>291</v>
       </c>
       <c r="D50" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -2695,24 +2713,24 @@
         <v>8</v>
       </c>
       <c r="G50" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="H50" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50050</v>
       </c>
       <c r="B51" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C51" t="s">
-        <v>150</v>
+        <v>295</v>
       </c>
       <c r="D51" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -2721,24 +2739,24 @@
         <v>8</v>
       </c>
       <c r="G51" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="H51" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50051</v>
       </c>
       <c r="B52" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C52" t="s">
-        <v>151</v>
+        <v>296</v>
       </c>
       <c r="D52" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -2747,18 +2765,18 @@
         <v>8</v>
       </c>
       <c r="G52" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="H52" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>50052</v>
       </c>
       <c r="B53" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2767,24 +2785,24 @@
         <v>8</v>
       </c>
       <c r="G53" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="H53" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>50053</v>
       </c>
       <c r="B54" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C54" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D54" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E54">
         <v>2</v>
@@ -2793,24 +2811,24 @@
         <v>8</v>
       </c>
       <c r="G54" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="H54" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>50054</v>
       </c>
       <c r="B55" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C55" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D55" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -2819,24 +2837,24 @@
         <v>8</v>
       </c>
       <c r="G55" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="H55" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>50055</v>
       </c>
       <c r="B56" t="s">
+        <v>155</v>
+      </c>
+      <c r="C56" t="s">
         <v>161</v>
       </c>
-      <c r="C56" t="s">
-        <v>167</v>
-      </c>
       <c r="D56" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -2845,24 +2863,24 @@
         <v>8</v>
       </c>
       <c r="G56" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="H56" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>50056</v>
       </c>
       <c r="B57" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C57" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D57" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -2871,24 +2889,24 @@
         <v>8</v>
       </c>
       <c r="G57" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="H57" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>50057</v>
       </c>
       <c r="B58" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C58" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D58" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -2897,24 +2915,24 @@
         <v>8</v>
       </c>
       <c r="G58" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="H58" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>50058</v>
       </c>
       <c r="B59" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C59" t="s">
-        <v>174</v>
+        <v>288</v>
       </c>
       <c r="D59" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -2923,24 +2941,24 @@
         <v>8</v>
       </c>
       <c r="G59" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="H59" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>50059</v>
       </c>
       <c r="B60" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C60" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D60" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -2949,24 +2967,24 @@
         <v>8</v>
       </c>
       <c r="G60" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="H60" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>50060</v>
       </c>
       <c r="B61" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C61" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D61" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -2975,24 +2993,24 @@
         <v>8</v>
       </c>
       <c r="G61" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="H61" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>50061</v>
       </c>
       <c r="B62" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C62" t="s">
-        <v>188</v>
+        <v>283</v>
       </c>
       <c r="D62" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -3001,24 +3019,24 @@
         <v>8</v>
       </c>
       <c r="G62" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="H62" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>50062</v>
       </c>
       <c r="B63" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C63" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D63" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -3027,24 +3045,24 @@
         <v>8</v>
       </c>
       <c r="G63" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="H63" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>50063</v>
       </c>
       <c r="B64" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C64" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D64" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -3053,24 +3071,24 @@
         <v>8</v>
       </c>
       <c r="G64" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="H64" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>50064</v>
       </c>
       <c r="B65" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C65" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D65" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -3079,21 +3097,21 @@
         <v>8</v>
       </c>
       <c r="G65" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="H65" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>50065</v>
       </c>
       <c r="B66" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C66" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -3102,24 +3120,24 @@
         <v>8</v>
       </c>
       <c r="G66" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="H66" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>50066</v>
       </c>
       <c r="B67" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="C67" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D67" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -3128,24 +3146,24 @@
         <v>8</v>
       </c>
       <c r="G67" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="H67" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>50067</v>
       </c>
       <c r="B68" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C68" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D68" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -3154,24 +3172,24 @@
         <v>8</v>
       </c>
       <c r="G68" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="H68" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>50068</v>
       </c>
       <c r="B69" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C69" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D69" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -3180,24 +3198,24 @@
         <v>8</v>
       </c>
       <c r="G69" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="H69" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>50069</v>
       </c>
       <c r="B70" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C70" t="s">
-        <v>229</v>
+        <v>292</v>
       </c>
       <c r="D70" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -3206,24 +3224,24 @@
         <v>8</v>
       </c>
       <c r="G70" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="H70" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>50070</v>
       </c>
       <c r="B71" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C71" t="s">
-        <v>231</v>
+        <v>293</v>
       </c>
       <c r="D71" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -3232,24 +3250,24 @@
         <v>8</v>
       </c>
       <c r="G71" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="H71" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>50071</v>
       </c>
       <c r="B72" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C72" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="D72" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -3258,24 +3276,24 @@
         <v>8</v>
       </c>
       <c r="G72" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="H72" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>50072</v>
       </c>
       <c r="B73" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="C73" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="D73" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -3284,24 +3302,24 @@
         <v>8</v>
       </c>
       <c r="G73" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="H73" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>50073</v>
       </c>
       <c r="B74" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C74" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="D74" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -3310,24 +3328,24 @@
         <v>8</v>
       </c>
       <c r="G74" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="H74" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>50074</v>
       </c>
       <c r="B75" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="C75" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="D75" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -3336,13 +3354,13 @@
         <v>8</v>
       </c>
       <c r="G75" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="H75" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>50075</v>
       </c>
@@ -3353,13 +3371,13 @@
         <v>8</v>
       </c>
       <c r="G76" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="H76" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>50076</v>
       </c>
@@ -3370,13 +3388,13 @@
         <v>8</v>
       </c>
       <c r="G77" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="H77" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>50077</v>
       </c>
@@ -3387,10 +3405,10 @@
         <v>8</v>
       </c>
       <c r="G78" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="H78" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/excel/buff.xlsx
+++ b/excel/buff.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="300">
   <si>
     <t>number</t>
   </si>
@@ -91,19 +91,12 @@
     <t>点穴</t>
   </si>
   <si>
-    <t>人物无法行动,人物每次步进减少一层。</t>
-  </si>
-  <si>
     <t>buff_dianxue</t>
   </si>
   <si>
     <t>眩晕</t>
   </si>
   <si>
-    <t>无法使用拳法,剑法卡牌。回合结束时移除。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>buff_xuanyun</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,9 +107,6 @@
     <t>流血</t>
   </si>
   <si>
-    <t>每次步进造成&lt;#x&gt;伤害,回合开始时移除改buff。</t>
-  </si>
-  <si>
     <t>buff_liuxue</t>
   </si>
   <si>
@@ -144,9 +134,6 @@
     <t>互博</t>
   </si>
   <si>
-    <t>本回合中下&lt;#x&gt;张拳掌/剑法牌会释放2次。</t>
-  </si>
-  <si>
     <t>buff_double_quanjian</t>
   </si>
   <si>
@@ -196,9 +183,6 @@
     <t>剑气</t>
   </si>
   <si>
-    <t>每当你使用一张剑法牌,对随机敌方单位造成&lt;#x&gt;点伤害</t>
-  </si>
-  <si>
     <t>buff_jianqi</t>
   </si>
   <si>
@@ -211,9 +195,6 @@
     <t>逆气</t>
   </si>
   <si>
-    <t>每打出一张内功/心法卡牌,对侠客造成&lt;#x&gt;点伤害。</t>
-  </si>
-  <si>
     <t>buff_niqi</t>
   </si>
   <si>
@@ -268,808 +249,856 @@
     <t>buff_xixue</t>
   </si>
   <si>
+    <t>buff_quanzhang_ts</t>
+  </si>
+  <si>
+    <t>破拳</t>
+  </si>
+  <si>
+    <t>buff_quanzhang_xj</t>
+  </si>
+  <si>
+    <t>buff_jianfa_ts</t>
+  </si>
+  <si>
+    <t>破剑</t>
+  </si>
+  <si>
+    <t>buff_jianfa_xj</t>
+  </si>
+  <si>
+    <t>buff_neigong_ts</t>
+  </si>
+  <si>
+    <t>破气</t>
+  </si>
+  <si>
+    <t>buff_neigong_xj</t>
+  </si>
+  <si>
+    <t>暗器提升</t>
+  </si>
+  <si>
+    <t>buff_anqi_ts</t>
+  </si>
+  <si>
+    <t>暗器削弱</t>
+  </si>
+  <si>
+    <t>buff_anqi_xj</t>
+  </si>
+  <si>
+    <t>每一层会提供10点侠客轻功</t>
+  </si>
+  <si>
+    <t>buff_speed_ts</t>
+  </si>
+  <si>
+    <t>每一层会降低10点侠客轻功</t>
+  </si>
+  <si>
+    <t>buff_speed_xj</t>
+  </si>
+  <si>
+    <t>脱臼</t>
+  </si>
+  <si>
+    <t>buff_tuojiu</t>
+  </si>
+  <si>
+    <t>体用双休</t>
+  </si>
+  <si>
+    <t>buff_double_nei</t>
+  </si>
+  <si>
+    <t>反震</t>
+  </si>
+  <si>
+    <t>buff_fanzhen</t>
+  </si>
+  <si>
+    <t>移星换斗</t>
+  </si>
+  <si>
+    <t>将以自己为目标的卡牌复制放入自己的抽牌堆中</t>
+  </si>
+  <si>
+    <t>buff_yixinghuandou</t>
+  </si>
+  <si>
+    <t>CF0708</t>
+  </si>
+  <si>
+    <t>无酒不欢</t>
+  </si>
+  <si>
+    <t>战斗开始时,自身获得3层酒</t>
+  </si>
+  <si>
+    <t>gift_wujiubuhuan</t>
+  </si>
+  <si>
+    <t>CF0709</t>
+  </si>
+  <si>
+    <t>受到的伤害减免25%,回合开始时减少一层。</t>
+  </si>
+  <si>
+    <t>CF0710</t>
+  </si>
+  <si>
+    <t>破绽</t>
+  </si>
+  <si>
+    <t>buff_pozhan</t>
+  </si>
+  <si>
+    <t>致盲</t>
+  </si>
+  <si>
+    <t>卡牌使用距离减少&lt;#x&gt;,回合结束时移除。</t>
+  </si>
+  <si>
+    <t>buff_zhimang</t>
+  </si>
+  <si>
+    <t>通臂</t>
+  </si>
+  <si>
+    <t>buff_tongbi</t>
+  </si>
+  <si>
+    <t>先发制人</t>
+  </si>
+  <si>
+    <t>gift_xianfazhiren</t>
+  </si>
+  <si>
+    <t>必中</t>
+  </si>
+  <si>
+    <t>攻击不会被闪避,每使用一张卡牌,失去一层。</t>
+  </si>
+  <si>
+    <t>buff_bizhong</t>
+  </si>
+  <si>
+    <t>断玉</t>
+  </si>
+  <si>
+    <t>buff_duanyu</t>
+  </si>
+  <si>
+    <t>僵直</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_jiangzhi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法被击退,眩晕,僵直。回合开始时移除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以牙还牙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始时，自身获得3层反震</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_yiyahuanya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凌波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_lingbo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到的伤害增加25%,每次作为卡牌目标时减少一层。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避提升100%,每次作为卡牌目标时减少一层,回合开始时移除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬气功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_yingqigong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_yang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_yin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴阳相生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截脉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时.减少获取的真气值&lt;#x&gt;点,回合结束时移除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_jiemai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_mingxinjingqi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beni</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒江映月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_hanjiangyingyue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击必定暴击,每使用一张卡牌,失去一层。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_nujian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明镜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不会被添加负面buff,每抵消一次,失去一层明静。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人莫予毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对卡牌伤害的使用者造成&lt;#x&gt;点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对卡牌伤害的使用者施加&lt;#x&gt;层毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_renmoyudu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走火入魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_zouhuorumo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_zhenqiwenluan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断筋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_duanjin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护体真罡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌造成的伤害减少25%,每使用一张卡牌减少一层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乱气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始时,获得一层乱气。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓄力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_xvli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓄势待发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_xvshidaifa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厚积薄发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_houjibofa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_du</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_dianxue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_xuanyun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_hutizhengang</t>
+  </si>
+  <si>
+    <t>buff_hubo</t>
+  </si>
+  <si>
+    <t>buff_gushou</t>
+  </si>
+  <si>
+    <t>buff_jianqizongheng</t>
+  </si>
+  <si>
+    <t>buff_wujijianyi</t>
+  </si>
+  <si>
+    <t>buff_jianqisiyi</t>
+  </si>
+  <si>
+    <t>quanfa_ts</t>
+  </si>
+  <si>
+    <t>quanfa_xj</t>
+  </si>
+  <si>
+    <t>jianfa_ts</t>
+  </si>
+  <si>
+    <t>jianfa_xj</t>
+  </si>
+  <si>
+    <t>neigong_ts</t>
+  </si>
+  <si>
+    <t>neigong_xj</t>
+  </si>
+  <si>
+    <t>anqi_ts</t>
+  </si>
+  <si>
+    <t>anqi_xj</t>
+  </si>
+  <si>
+    <t>qingshen</t>
+  </si>
+  <si>
+    <t>huanman</t>
+  </si>
+  <si>
+    <t>延绵不绝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有余不尽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_yanmianbujue</t>
+  </si>
+  <si>
+    <t>buff_zhenqinixing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焚脉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打出的下&lt;#x&gt;张牌,会燃烧,每使用一张牌减少一层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打出的下&lt;#x&gt;张牌,会被放置到抽牌堆顶端,每使用一张牌减少一层,回合结束时消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_fenmai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心莲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_xinlian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明灭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_mingmie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磐石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_panshi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiyongshuangxiu</t>
+  </si>
+  <si>
+    <t>tuojiu</t>
+  </si>
+  <si>
+    <t>fanzhen</t>
+  </si>
+  <si>
+    <t>yixinghuandou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wujiubuhuan</t>
+  </si>
+  <si>
+    <t>pozhan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhimang</t>
+  </si>
+  <si>
+    <t>tongbi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xianfa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bizhong</t>
+  </si>
+  <si>
+    <t>duanyu</t>
+  </si>
+  <si>
+    <t>jiangzhi</t>
+  </si>
+  <si>
+    <t>yiyahuanya</t>
+  </si>
+  <si>
+    <t>lingbo</t>
+  </si>
+  <si>
+    <t>yingqigong</t>
+  </si>
+  <si>
+    <t>yang</t>
+  </si>
+  <si>
+    <t>yin</t>
+  </si>
+  <si>
+    <t>yinyang</t>
+  </si>
+  <si>
+    <t>jiemai</t>
+  </si>
+  <si>
+    <t>mingjing</t>
+  </si>
+  <si>
+    <t>hanjiangyingyue</t>
+  </si>
+  <si>
+    <t>nujian</t>
+  </si>
+  <si>
+    <t>renmoyudu</t>
+  </si>
+  <si>
+    <t>luanqi</t>
+  </si>
+  <si>
+    <t>zouhuorumo</t>
+  </si>
+  <si>
+    <t>duanjin</t>
+  </si>
+  <si>
+    <t>xvli</t>
+  </si>
+  <si>
+    <t>xvshidaifa</t>
+  </si>
+  <si>
+    <t>houjibofa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yanmianbujue</t>
+  </si>
+  <si>
+    <t>youyubujin</t>
+  </si>
+  <si>
+    <t>逆折</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nizhe</t>
+  </si>
+  <si>
+    <t>fenmai</t>
+  </si>
+  <si>
+    <t>mingmie</t>
+  </si>
+  <si>
+    <t>xinlian</t>
+  </si>
+  <si>
+    <t>panshi</t>
+  </si>
+  <si>
+    <t>脱力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成的伤害减少&lt;#x&gt;,回合结束时消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_tuoli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tuoli</t>
+  </si>
+  <si>
+    <t>归元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_guiyuan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guiyuan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_suijin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suijin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抵御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_diyu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diyu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柔劲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_roujin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roujin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌暴击的系数提升1点（3倍伤害）,每使用一张卡牌,失去一层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2E5AD7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在本局游戏中,本卡牌每使用一次,伤害增加&lt;color=#b53030&gt;&lt;#x&gt;&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1ac7c8</t>
+  </si>
+  <si>
+    <t>层数x10概率丢失攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>层数x10概率暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3079b5</t>
+  </si>
+  <si>
+    <t>b5a430</t>
+  </si>
+  <si>
+    <t>b5a430</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9630b5</t>
+  </si>
+  <si>
+    <t>30b541</t>
+  </si>
+  <si>
+    <t>你抽牌获得的手牌的&lt;color=#3079b5&gt;真气&lt;/c&gt;消耗混乱直到回合结束,回合结束时,减少一层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下回合时获得&lt;color=#3079b5&gt;真气&lt;/c&gt;值,并且移除此buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始时获得30点&lt;color=#b5a430&gt;护盾&lt;/c&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时&lt;color=#b5a430&gt;护盾&lt;/c&gt;不会消失,回合结束时层数减少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当受伤的时候,获得于等同于伤害50%的&lt;color=#b5a430&gt;护盾&lt;/c&gt;，减少一层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果获得&lt;color=#b5a430&gt;阳&lt;/c&gt;,2者会融合成一点&lt;color=#3079b5&gt;真气值&lt;/c&gt;,战斗结束时移除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果获得&lt;color=#9630b5&gt;阴&lt;/c&gt;,2者会融合成一点&lt;color=#3079b5&gt;真气值&lt;/c&gt;,战斗结束时移除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侠客在战斗开始获得3次&lt;color=#0E8AFD&gt;步进&lt;/c&gt;(战场&lt;color=#F6AD47&gt;时钟&lt;/c&gt;)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物无法行动,人物每次&lt;color=#0E8AFD&gt;步进&lt;/c&gt;(战场&lt;color=#F6AD47&gt;时钟&lt;/c&gt;)减少一层。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次&lt;color=#0E8AFD&gt;步进&lt;/c&gt;(战场&lt;color=#F6AD47&gt;时钟&lt;/c&gt;)造成&lt;#x&gt;伤害,回合开始时移除改buff。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束给与自己&lt;#x&gt;层&lt;color=#b5a430&gt;护盾&lt;/c&gt;,并减少一层。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一层会降低一点侠客&lt;color=#b5a430&gt;拳掌&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#b5a430&gt;拳掌&lt;/c&gt;卡牌使用距离增加1,持续&lt;#x&gt;回合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一层会提供一点侠客&lt;color=#b5a430&gt;剑法&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一层会降低一点侠客&lt;color=#b5a430&gt;剑法&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一层会提供一点侠客&lt;color=#b5a430&gt;拳掌&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每打出一张&lt;color=#b5a430&gt;拳掌&lt;/c&gt;/&lt;color=#b5a430&gt;剑法&lt;/c&gt;卡牌,对侠客造成&lt;#x&gt;点伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法使用&lt;color=#b5a430&gt;剑法牌&lt;/c&gt;。回合结束时移除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每打出5张&lt;color=#b5a430&gt;剑法牌&lt;/c&gt;,下一张&lt;color=#b5a430&gt;剑法牌&lt;/c&gt;必定暴击。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#b5a430&gt;剑法牌&lt;/c&gt;必定暴击,每使用一张&lt;color=#b5a430&gt;剑法牌&lt;/c&gt;,失去一层。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法使用&lt;color=#b5a430&gt;拳掌&lt;/c&gt;,&lt;color=#b5a430&gt;剑法&lt;/c&gt;卡牌。回合结束时移除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本回合中下&lt;#x&gt;张&lt;color=#b5a430&gt;拳掌&lt;/c&gt;/&lt;color=#b5a430&gt;剑法&lt;/c&gt;牌会释放2次。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当你使用一张&lt;color=#b5a430&gt;剑法牌&lt;/c&gt;,对随机敌方单位造成&lt;#x&gt;点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一层会提供一点侠客&lt;color=#3079b5&gt;内功&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一层会降低一点侠客&lt;color=#3079b5&gt;内功&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本回合中下&lt;#x&gt;张&lt;color=#3079b5&gt;内功牌&lt;/c&gt;会释放2次。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每打出一张&lt;color=#3079b5&gt;内功&lt;/c&gt;/心法卡牌,对侠客造成&lt;#x&gt;点伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>拳掌提升</t>
-  </si>
-  <si>
-    <t>每一层会提供一点侠客拳掌</t>
-  </si>
-  <si>
-    <t>buff_quanzhang_ts</t>
-  </si>
-  <si>
-    <t>破拳</t>
-  </si>
-  <si>
-    <t>每一层会降低一点侠客拳掌</t>
-  </si>
-  <si>
-    <t>buff_quanzhang_xj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>剑法提升</t>
-  </si>
-  <si>
-    <t>每一层会提供一点侠客剑法</t>
-  </si>
-  <si>
-    <t>buff_jianfa_ts</t>
-  </si>
-  <si>
-    <t>破剑</t>
-  </si>
-  <si>
-    <t>每一层会降低一点侠客剑法</t>
-  </si>
-  <si>
-    <t>buff_jianfa_xj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>内功提升</t>
-  </si>
-  <si>
-    <t>每一层会提供一点侠客内功</t>
-  </si>
-  <si>
-    <t>buff_neigong_ts</t>
-  </si>
-  <si>
-    <t>破气</t>
-  </si>
-  <si>
-    <t>每一层会降低一点侠客内功</t>
-  </si>
-  <si>
-    <t>buff_neigong_xj</t>
-  </si>
-  <si>
-    <t>暗器提升</t>
-  </si>
-  <si>
-    <t>每一层会提供一点侠客暗器</t>
-  </si>
-  <si>
-    <t>buff_anqi_ts</t>
-  </si>
-  <si>
-    <t>暗器削弱</t>
-  </si>
-  <si>
-    <t>每一层会降低一点侠客暗器</t>
-  </si>
-  <si>
-    <t>buff_anqi_xj</t>
-  </si>
-  <si>
-    <t>每一层会提供10点侠客轻功</t>
-  </si>
-  <si>
-    <t>buff_speed_ts</t>
-  </si>
-  <si>
-    <t>每一层会降低10点侠客轻功</t>
-  </si>
-  <si>
-    <t>buff_speed_xj</t>
-  </si>
-  <si>
-    <t>脱臼</t>
-  </si>
-  <si>
-    <t>每打出一张拳法/剑法卡牌,对侠客造成&lt;#x&gt;点伤害。</t>
-  </si>
-  <si>
-    <t>buff_tuojiu</t>
-  </si>
-  <si>
-    <t>体用双休</t>
-  </si>
-  <si>
-    <t>本回合中下&lt;#x&gt;张内功牌会释放2次。</t>
-  </si>
-  <si>
-    <t>buff_double_nei</t>
-  </si>
-  <si>
-    <t>反震</t>
-  </si>
-  <si>
-    <t>buff_fanzhen</t>
-  </si>
-  <si>
-    <t>移星换斗</t>
-  </si>
-  <si>
-    <t>将以自己为目标的卡牌复制放入自己的抽牌堆中</t>
-  </si>
-  <si>
-    <t>buff_yixinghuandou</t>
-  </si>
-  <si>
-    <t>CF0708</t>
-  </si>
-  <si>
-    <t>无酒不欢</t>
-  </si>
-  <si>
-    <t>战斗开始时,自身获得3层酒</t>
-  </si>
-  <si>
-    <t>gift_wujiubuhuan</t>
-  </si>
-  <si>
-    <t>CF0709</t>
-  </si>
-  <si>
-    <t>受到的伤害减免25%,回合开始时减少一层。</t>
-  </si>
-  <si>
-    <t>CF0710</t>
-  </si>
-  <si>
-    <t>破绽</t>
-  </si>
-  <si>
-    <t>buff_pozhan</t>
-  </si>
-  <si>
-    <t>致盲</t>
-  </si>
-  <si>
-    <t>卡牌使用距离减少&lt;#x&gt;,回合结束时移除。</t>
-  </si>
-  <si>
-    <t>buff_zhimang</t>
-  </si>
-  <si>
-    <t>通臂</t>
-  </si>
-  <si>
-    <t>buff_tongbi</t>
-  </si>
-  <si>
-    <t>先发制人</t>
-  </si>
-  <si>
-    <t>战斗开始获得3次步进。</t>
-  </si>
-  <si>
-    <t>gift_xianfazhiren</t>
-  </si>
-  <si>
-    <t>必中</t>
-  </si>
-  <si>
-    <t>攻击不会被闪避,每使用一张卡牌,失去一层。</t>
-  </si>
-  <si>
-    <t>buff_bizhong</t>
-  </si>
-  <si>
-    <t>断玉</t>
-  </si>
-  <si>
-    <t>buff_duanyu</t>
-  </si>
-  <si>
-    <t>僵直</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法使用剑法牌。回合结束时移除。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_jiangzhi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法被击退,眩晕,僵直。回合开始时移除。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以牙还牙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗开始时，自身获得3层反震</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_yiyahuanya</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轻身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凌波</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_lingbo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受到的伤害增加25%,每次作为卡牌目标时减少一层。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪避提升100%,每次作为卡牌目标时减少一层,回合开始时移除。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>硬气功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_yingqigong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_yang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_yin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阴阳相生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>截脉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合开始时.减少获取的真气值&lt;#x&gt;点,回合结束时移除。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_jiemai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_mingxinjingqi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>beni</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寒江映月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_hanjiangyingyue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怒剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击必定暴击,每使用一张卡牌,失去一层。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑法牌必定暴击,每使用一张剑法牌,失去一层。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_nujian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每打出5张剑法牌,下一张剑法牌必定暴击。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>明镜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不会被添加负面buff,每抵消一次,失去一层明静。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人莫予毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对卡牌伤害的使用者造成&lt;#x&gt;点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对卡牌伤害的使用者施加&lt;#x&gt;层毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_renmoyudu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>走火入魔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_zouhuorumo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_zhenqiwenluan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缓慢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>断筋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_duanjin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护体真罡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拳掌卡牌使用距离增加1,持续&lt;#x&gt;回合。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌造成的伤害减少25%,每使用一张卡牌减少一层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乱气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗开始时,获得一层乱气。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓄力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_xvli</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓄势待发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合结束时你的&lt;蓄力&gt;翻倍。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_xvshidaifa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厚积薄发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每当你蓄力时,额外获得3层蓄力。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_houjibofa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_du</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_dianxue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_xuanyun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_hutizhengang</t>
-  </si>
-  <si>
-    <t>buff_hubo</t>
-  </si>
-  <si>
-    <t>buff_gushou</t>
-  </si>
-  <si>
-    <t>buff_jianqizongheng</t>
-  </si>
-  <si>
-    <t>buff_wujijianyi</t>
-  </si>
-  <si>
-    <t>buff_jianqisiyi</t>
-  </si>
-  <si>
-    <t>quanfa_ts</t>
-  </si>
-  <si>
-    <t>quanfa_xj</t>
-  </si>
-  <si>
-    <t>jianfa_ts</t>
-  </si>
-  <si>
-    <t>jianfa_xj</t>
-  </si>
-  <si>
-    <t>neigong_ts</t>
-  </si>
-  <si>
-    <t>neigong_xj</t>
-  </si>
-  <si>
-    <t>anqi_ts</t>
-  </si>
-  <si>
-    <t>anqi_xj</t>
-  </si>
-  <si>
-    <t>qingshen</t>
-  </si>
-  <si>
-    <t>huanman</t>
-  </si>
-  <si>
-    <t>延绵不绝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有余不尽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_yanmianbujue</t>
-  </si>
-  <si>
-    <t>当打出拳掌牌是保留5成蓄力不释放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合结束时,获得等于本buff层数的蓄力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_zhenqinixing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>焚脉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打出的下&lt;#x&gt;张牌,会燃烧,每使用一张牌减少一层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打出的下&lt;#x&gt;张牌,会被放置到抽牌堆顶端,每使用一张牌减少一层,回合结束时消失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_fenmai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>心莲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_xinlian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>明灭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_mingmie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你每燃烧一张牌,对敌方血量最少的侠客造成&lt;#x&gt;x10点伤害,并且层数减少。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>磐石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_panshi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiyongshuangxiu</t>
-  </si>
-  <si>
-    <t>tuojiu</t>
-  </si>
-  <si>
-    <t>fanzhen</t>
-  </si>
-  <si>
-    <t>yixinghuandou</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wujiubuhuan</t>
-  </si>
-  <si>
-    <t>pozhan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhimang</t>
-  </si>
-  <si>
-    <t>tongbi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xianfa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bizhong</t>
-  </si>
-  <si>
-    <t>duanyu</t>
-  </si>
-  <si>
-    <t>jiangzhi</t>
-  </si>
-  <si>
-    <t>yiyahuanya</t>
-  </si>
-  <si>
-    <t>lingbo</t>
-  </si>
-  <si>
-    <t>yingqigong</t>
-  </si>
-  <si>
-    <t>yang</t>
-  </si>
-  <si>
-    <t>yin</t>
-  </si>
-  <si>
-    <t>yinyang</t>
-  </si>
-  <si>
-    <t>jiemai</t>
-  </si>
-  <si>
-    <t>mingjing</t>
-  </si>
-  <si>
-    <t>hanjiangyingyue</t>
-  </si>
-  <si>
-    <t>nujian</t>
-  </si>
-  <si>
-    <t>renmoyudu</t>
-  </si>
-  <si>
-    <t>luanqi</t>
-  </si>
-  <si>
-    <t>zouhuorumo</t>
-  </si>
-  <si>
-    <t>duanjin</t>
-  </si>
-  <si>
-    <t>xvli</t>
-  </si>
-  <si>
-    <t>xvshidaifa</t>
-  </si>
-  <si>
-    <t>houjibofa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yanmianbujue</t>
-  </si>
-  <si>
-    <t>youyubujin</t>
-  </si>
-  <si>
-    <t>逆折</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nizhe</t>
-  </si>
-  <si>
-    <t>fenmai</t>
-  </si>
-  <si>
-    <t>mingmie</t>
-  </si>
-  <si>
-    <t>xinlian</t>
-  </si>
-  <si>
-    <t>panshi</t>
-  </si>
-  <si>
-    <t>脱力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成的伤害减少&lt;#x&gt;,回合结束时消失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_tuoli</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tuoli</t>
-  </si>
-  <si>
-    <t>归元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_guiyuan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guiyuan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碎金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_suijin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>suijin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抵御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_diyu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>diyu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柔劲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_roujin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>roujin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌暴击的系数提升1点（3倍伤害）,每使用一张卡牌,失去一层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2E5AD7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在本局游戏中,本卡牌每使用一次,伤害增加&lt;color=#b53030&gt;&lt;#x&gt;&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1ac7c8</t>
-  </si>
-  <si>
-    <t>层数x10概率丢失攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>层数x10概率暴击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3079b5</t>
-  </si>
-  <si>
-    <t>下一张拳掌卡牌获得额外&lt;#x&gt;点攻击,在打出后移除自身所有&lt;color=#b5a430&gt;蓄力&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一层会降低一点侠客&lt;color=#9630b5&gt;暗器&lt;/c&gt;属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一层会提供一点侠客&lt;color=#9630b5&gt;暗器&lt;/c&gt;属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>b5a430</t>
-  </si>
-  <si>
-    <t>b5a430</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9630b5</t>
-  </si>
-  <si>
-    <t>30b541</t>
-  </si>
-  <si>
-    <t>你抽牌获得的手牌的&lt;color=#3079b5&gt;真气&lt;/c&gt;消耗混乱直到回合结束,回合结束时,减少一层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下回合时获得&lt;color=#3079b5&gt;真气&lt;/c&gt;值,并且移除此buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合结束给与自己&lt;#x&gt;层&lt;color=#b5a430&gt;护盾&lt;/c&gt;,并减少一层。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗开始时获得30点&lt;color=#b5a430&gt;护盾&lt;/c&gt;。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你每燃烧一张牌,自身获得&lt;#x&gt;x10点&lt;color=#b5a430&gt;护盾&lt;/c&gt;,并且层数减少</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合开始时&lt;color=#b5a430&gt;护盾&lt;/c&gt;不会消失,回合结束时层数减少</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每当受伤的时候,获得于等同于伤害50%的&lt;color=#b5a430&gt;护盾&lt;/c&gt;，减少一层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果获得&lt;color=#9630b5&gt;阴&lt;/c&gt;,2者会融合成一点&lt;color=#3079b5&gt;真气值&lt;/c&gt;,战斗结束时移除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果获得&lt;color=#b5a430&gt;阳&lt;/c&gt;,2者会融合成一点&lt;color=#3079b5&gt;真气值&lt;/c&gt;,战斗结束时移除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束时你的&lt;color=#b5a430&gt;蓄力&lt;/c&gt;翻倍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当你蓄力时,额外获得3层&lt;color=#b5a430&gt;蓄力&lt;/c&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束时,获得等于本buff层数的&lt;color=#b5a430&gt;蓄力&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2D2D2D</t>
+  </si>
+  <si>
+    <t>当打出&lt;color=#b5a430&gt;拳掌牌&lt;/c&gt;时保留5成&lt;color=#b5a430&gt;蓄力&lt;/c&gt;不释放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b53030</t>
+  </si>
+  <si>
+    <t>下一张&lt;color=#b5a430&gt;拳掌&lt;/c&gt;卡牌获得额外&lt;#x&gt;点攻击(限一次),在打出后移除自身所有&lt;color=#b5a430&gt;蓄力&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你每燃烧一张牌,对敌方血量最少的侠客造成&lt;#x&gt;x3点伤害,并且层数减少。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你每燃烧一张牌,自身获得&lt;#x&gt;x5点&lt;color=#b5a430&gt;护盾&lt;/c&gt;,并且层数减少</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1412,8 +1441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1442,10 +1471,10 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="F1" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -1468,10 +1497,10 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="F2" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
@@ -1488,10 +1517,10 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1500,10 +1529,10 @@
         <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="H3" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1511,13 +1540,13 @@
         <v>50002</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -1526,10 +1555,10 @@
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1537,13 +1566,13 @@
         <v>50003</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>267</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -1552,10 +1581,10 @@
         <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1563,13 +1592,13 @@
         <v>50004</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1578,10 +1607,10 @@
         <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1589,13 +1618,13 @@
         <v>50005</v>
       </c>
       <c r="B7" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="C7" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1604,10 +1633,10 @@
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1615,13 +1644,13 @@
         <v>50006</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1630,10 +1659,10 @@
         <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1641,13 +1670,13 @@
         <v>50007</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>279</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1656,10 +1685,10 @@
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1667,13 +1696,13 @@
         <v>50008</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1682,10 +1711,10 @@
         <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1693,13 +1722,13 @@
         <v>50009</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1708,10 +1737,10 @@
         <v>8</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H11" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1719,13 +1748,13 @@
         <v>50010</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1734,10 +1763,10 @@
         <v>8</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1745,13 +1774,13 @@
         <v>50011</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1760,10 +1789,10 @@
         <v>8</v>
       </c>
       <c r="G13" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="H13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1771,13 +1800,13 @@
         <v>50012</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1786,10 +1815,10 @@
         <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1797,13 +1826,13 @@
         <v>50013</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>280</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1812,10 +1841,10 @@
         <v>8</v>
       </c>
       <c r="G15" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H15" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1823,10 +1852,10 @@
         <v>50014</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1835,10 +1864,10 @@
         <v>8</v>
       </c>
       <c r="G16" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="H16" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1846,13 +1875,13 @@
         <v>50015</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>284</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1861,10 +1890,10 @@
         <v>8</v>
       </c>
       <c r="G17" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H17" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1872,13 +1901,13 @@
         <v>50016</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1887,10 +1916,10 @@
         <v>8</v>
       </c>
       <c r="G18" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1898,13 +1927,13 @@
         <v>50017</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1913,10 +1942,10 @@
         <v>8</v>
       </c>
       <c r="G19" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H19" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1924,13 +1953,13 @@
         <v>50018</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1939,10 +1968,10 @@
         <v>8</v>
       </c>
       <c r="G20" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1950,13 +1979,13 @@
         <v>50019</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1965,10 +1994,10 @@
         <v>8</v>
       </c>
       <c r="G21" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H21" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1976,10 +2005,10 @@
         <v>50020</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1988,10 +2017,10 @@
         <v>8</v>
       </c>
       <c r="G22" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="H22" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1999,10 +2028,10 @@
         <v>50021</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2011,10 +2040,10 @@
         <v>8</v>
       </c>
       <c r="G23" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -2022,13 +2051,13 @@
         <v>50022</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2037,10 +2066,10 @@
         <v>8</v>
       </c>
       <c r="G24" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -2048,13 +2077,13 @@
         <v>50023</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>285</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>273</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2063,10 +2092,10 @@
         <v>8</v>
       </c>
       <c r="G25" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -2074,13 +2103,13 @@
         <v>50024</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>269</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -2089,10 +2118,10 @@
         <v>8</v>
       </c>
       <c r="G26" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -2100,13 +2129,13 @@
         <v>50025</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>286</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>271</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2115,10 +2144,10 @@
         <v>8</v>
       </c>
       <c r="G27" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -2126,13 +2155,13 @@
         <v>50026</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>272</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -2141,10 +2170,10 @@
         <v>8</v>
       </c>
       <c r="G28" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -2152,13 +2181,13 @@
         <v>50027</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>287</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2167,10 +2196,10 @@
         <v>8</v>
       </c>
       <c r="G29" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -2178,13 +2207,13 @@
         <v>50029</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>282</v>
       </c>
       <c r="D30" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -2193,10 +2222,10 @@
         <v>8</v>
       </c>
       <c r="G30" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -2204,13 +2233,13 @@
         <v>50030</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
-        <v>86</v>
+        <v>289</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2219,10 +2248,10 @@
         <v>8</v>
       </c>
       <c r="G31" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -2230,13 +2259,13 @@
         <v>50031</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C32" t="s">
-        <v>89</v>
+        <v>288</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="E32">
         <v>2</v>
@@ -2245,10 +2274,10 @@
         <v>8</v>
       </c>
       <c r="G32" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -2256,13 +2285,13 @@
         <v>50032</v>
       </c>
       <c r="B33" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="C33" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D33" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2271,10 +2300,10 @@
         <v>8</v>
       </c>
       <c r="G33" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="H33" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -2282,13 +2311,13 @@
         <v>50033</v>
       </c>
       <c r="B34" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="C34" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D34" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E34">
         <v>2</v>
@@ -2297,10 +2326,10 @@
         <v>8</v>
       </c>
       <c r="G34" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -2308,13 +2337,13 @@
         <v>50034</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>96</v>
+        <v>274</v>
       </c>
       <c r="D35" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="E35">
         <v>2</v>
@@ -2323,10 +2352,10 @@
         <v>8</v>
       </c>
       <c r="G35" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -2334,13 +2363,13 @@
         <v>50035</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>99</v>
+        <v>283</v>
       </c>
       <c r="D36" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2349,10 +2378,10 @@
         <v>8</v>
       </c>
       <c r="G36" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -2360,13 +2389,13 @@
         <v>50036</v>
       </c>
       <c r="B37" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C37" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="D37" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2375,10 +2404,10 @@
         <v>8</v>
       </c>
       <c r="G37" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -2386,13 +2415,13 @@
         <v>50037</v>
       </c>
       <c r="B38" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="C38" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D38" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2401,10 +2430,10 @@
         <v>8</v>
       </c>
       <c r="G38" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="H38" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -2412,13 +2441,13 @@
         <v>50038</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D39" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2427,10 +2456,10 @@
         <v>8</v>
       </c>
       <c r="G39" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="H39" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -2438,13 +2467,13 @@
         <v>50039</v>
       </c>
       <c r="B40" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="C40" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D40" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2453,10 +2482,10 @@
         <v>8</v>
       </c>
       <c r="G40" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="H40" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -2464,13 +2493,13 @@
         <v>50040</v>
       </c>
       <c r="B41" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="C41" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="D41" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="E41">
         <v>2</v>
@@ -2479,10 +2508,10 @@
         <v>8</v>
       </c>
       <c r="G41" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="H41" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -2490,13 +2519,13 @@
         <v>50041</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C42" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="D42" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="E42">
         <v>2</v>
@@ -2505,10 +2534,10 @@
         <v>8</v>
       </c>
       <c r="G42" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="H42" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -2516,13 +2545,13 @@
         <v>50042</v>
       </c>
       <c r="B43" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="C43" t="s">
-        <v>175</v>
+        <v>270</v>
       </c>
       <c r="D43" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2531,10 +2560,10 @@
         <v>8</v>
       </c>
       <c r="G43" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="H43" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -2542,13 +2571,13 @@
         <v>50043</v>
       </c>
       <c r="B44" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="C44" t="s">
-        <v>121</v>
+        <v>265</v>
       </c>
       <c r="D44" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2557,10 +2586,10 @@
         <v>8</v>
       </c>
       <c r="G44" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="H44" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -2568,13 +2597,13 @@
         <v>50044</v>
       </c>
       <c r="B45" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C45" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="D45" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2583,10 +2612,10 @@
         <v>8</v>
       </c>
       <c r="G45" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="H45" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -2594,13 +2623,13 @@
         <v>50045</v>
       </c>
       <c r="B46" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C46" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="D46" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -2609,10 +2638,10 @@
         <v>8</v>
       </c>
       <c r="G46" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="H46" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -2620,13 +2649,13 @@
         <v>50046</v>
       </c>
       <c r="B47" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="C47" t="s">
-        <v>129</v>
+        <v>275</v>
       </c>
       <c r="D47" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E47">
         <v>2</v>
@@ -2635,10 +2664,10 @@
         <v>8</v>
       </c>
       <c r="G47" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="H47" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -2646,13 +2675,13 @@
         <v>50047</v>
       </c>
       <c r="B48" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="C48" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="D48" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -2661,10 +2690,10 @@
         <v>8</v>
       </c>
       <c r="G48" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="H48" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -2672,13 +2701,13 @@
         <v>50048</v>
       </c>
       <c r="B49" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="C49" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="D49" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -2687,10 +2716,10 @@
         <v>8</v>
       </c>
       <c r="G49" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="H49" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -2698,13 +2727,13 @@
         <v>50049</v>
       </c>
       <c r="B50" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="C50" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="D50" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -2713,10 +2742,10 @@
         <v>8</v>
       </c>
       <c r="G50" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="H50" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -2724,13 +2753,13 @@
         <v>50050</v>
       </c>
       <c r="B51" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="C51" t="s">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="D51" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -2739,10 +2768,10 @@
         <v>8</v>
       </c>
       <c r="G51" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="H51" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -2750,13 +2779,13 @@
         <v>50051</v>
       </c>
       <c r="B52" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="C52" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="D52" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -2765,10 +2794,10 @@
         <v>8</v>
       </c>
       <c r="G52" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="H52" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -2776,7 +2805,7 @@
         <v>50052</v>
       </c>
       <c r="B53" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2785,10 +2814,10 @@
         <v>8</v>
       </c>
       <c r="G53" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="H53" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -2796,13 +2825,13 @@
         <v>50053</v>
       </c>
       <c r="B54" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="C54" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="D54" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="E54">
         <v>2</v>
@@ -2811,10 +2840,10 @@
         <v>8</v>
       </c>
       <c r="G54" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="H54" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -2822,13 +2851,13 @@
         <v>50054</v>
       </c>
       <c r="B55" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="C55" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="D55" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -2837,10 +2866,10 @@
         <v>8</v>
       </c>
       <c r="G55" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="H55" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -2848,13 +2877,13 @@
         <v>50055</v>
       </c>
       <c r="B56" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="C56" t="s">
-        <v>161</v>
+        <v>276</v>
       </c>
       <c r="D56" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -2863,10 +2892,10 @@
         <v>8</v>
       </c>
       <c r="G56" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="H56" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -2874,13 +2903,13 @@
         <v>50056</v>
       </c>
       <c r="B57" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="C57" t="s">
-        <v>159</v>
+        <v>277</v>
       </c>
       <c r="D57" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -2889,10 +2918,10 @@
         <v>8</v>
       </c>
       <c r="G57" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="H57" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -2900,13 +2929,13 @@
         <v>50057</v>
       </c>
       <c r="B58" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="C58" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="D58" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -2915,10 +2944,10 @@
         <v>8</v>
       </c>
       <c r="G58" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="H58" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -2926,13 +2955,13 @@
         <v>50058</v>
       </c>
       <c r="B59" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="C59" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="D59" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -2941,10 +2970,10 @@
         <v>8</v>
       </c>
       <c r="G59" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="H59" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -2952,13 +2981,13 @@
         <v>50059</v>
       </c>
       <c r="B60" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="C60" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="D60" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -2967,10 +2996,10 @@
         <v>8</v>
       </c>
       <c r="G60" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="H60" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -2978,13 +3007,13 @@
         <v>50060</v>
       </c>
       <c r="B61" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C61" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="D61" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -2993,10 +3022,10 @@
         <v>8</v>
       </c>
       <c r="G61" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="H61" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -3004,13 +3033,13 @@
         <v>50061</v>
       </c>
       <c r="B62" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="C62" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="D62" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -3019,10 +3048,10 @@
         <v>8</v>
       </c>
       <c r="G62" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="H62" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -3030,13 +3059,13 @@
         <v>50062</v>
       </c>
       <c r="B63" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="C63" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="D63" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -3045,10 +3074,10 @@
         <v>8</v>
       </c>
       <c r="G63" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="H63" t="s">
-        <v>112</v>
+        <v>294</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -3056,13 +3085,13 @@
         <v>50063</v>
       </c>
       <c r="B64" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="C64" t="s">
-        <v>185</v>
+        <v>292</v>
       </c>
       <c r="D64" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -3071,10 +3100,10 @@
         <v>8</v>
       </c>
       <c r="G64" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="H64" t="s">
-        <v>112</v>
+        <v>294</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -3082,13 +3111,13 @@
         <v>50064</v>
       </c>
       <c r="B65" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="C65" t="s">
-        <v>210</v>
+        <v>293</v>
       </c>
       <c r="D65" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -3097,10 +3126,10 @@
         <v>8</v>
       </c>
       <c r="G65" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="H65" t="s">
-        <v>112</v>
+        <v>294</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -3108,10 +3137,10 @@
         <v>50065</v>
       </c>
       <c r="B66" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="C66" t="s">
-        <v>209</v>
+        <v>295</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -3120,10 +3149,10 @@
         <v>8</v>
       </c>
       <c r="G66" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="H66" t="s">
-        <v>110</v>
+        <v>296</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -3131,13 +3160,13 @@
         <v>50066</v>
       </c>
       <c r="B67" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="C67" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="D67" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -3146,10 +3175,10 @@
         <v>8</v>
       </c>
       <c r="G67" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="H67" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -3157,13 +3186,13 @@
         <v>50067</v>
       </c>
       <c r="B68" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="C68" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="D68" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -3172,10 +3201,10 @@
         <v>8</v>
       </c>
       <c r="G68" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="H68" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
@@ -3183,13 +3212,13 @@
         <v>50068</v>
       </c>
       <c r="B69" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="C69" t="s">
-        <v>220</v>
+        <v>298</v>
       </c>
       <c r="D69" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -3198,10 +3227,10 @@
         <v>8</v>
       </c>
       <c r="G69" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="H69" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
@@ -3209,13 +3238,13 @@
         <v>50069</v>
       </c>
       <c r="B70" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="C70" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="D70" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -3224,10 +3253,10 @@
         <v>8</v>
       </c>
       <c r="G70" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="H70" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
@@ -3235,13 +3264,13 @@
         <v>50070</v>
       </c>
       <c r="B71" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="C71" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="D71" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -3250,10 +3279,10 @@
         <v>8</v>
       </c>
       <c r="G71" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="H71" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
@@ -3261,13 +3290,13 @@
         <v>50071</v>
       </c>
       <c r="B72" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="C72" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="D72" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -3276,10 +3305,10 @@
         <v>8</v>
       </c>
       <c r="G72" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="H72" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
@@ -3287,13 +3316,13 @@
         <v>50072</v>
       </c>
       <c r="B73" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="C73" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="D73" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -3302,10 +3331,10 @@
         <v>8</v>
       </c>
       <c r="G73" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="H73" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -3313,13 +3342,13 @@
         <v>50073</v>
       </c>
       <c r="B74" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="C74" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="D74" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -3328,10 +3357,10 @@
         <v>8</v>
       </c>
       <c r="G74" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="H74" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
@@ -3339,13 +3368,13 @@
         <v>50074</v>
       </c>
       <c r="B75" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="C75" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="D75" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -3354,10 +3383,10 @@
         <v>8</v>
       </c>
       <c r="G75" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="H75" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
@@ -3371,10 +3400,10 @@
         <v>8</v>
       </c>
       <c r="G76" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="H76" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
@@ -3388,10 +3417,10 @@
         <v>8</v>
       </c>
       <c r="G77" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="H77" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
@@ -3405,10 +3434,10 @@
         <v>8</v>
       </c>
       <c r="G78" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="H78" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/excel/buff.xlsx
+++ b/excel/buff.xlsx
@@ -189,9 +189,6 @@
     <t>剑气纵横</t>
   </si>
   <si>
-    <t>你的所有剑气改为对所有地方单位造成伤害。</t>
-  </si>
-  <si>
     <t>逆气</t>
   </si>
   <si>
@@ -231,15 +228,9 @@
     <t>无极剑意</t>
   </si>
   <si>
-    <t>你的所有剑意改为对所有敌方单位造成伤害。</t>
-  </si>
-  <si>
     <t>剑气四溢</t>
   </si>
   <si>
-    <t>你的剑气额外触发一次伤害</t>
-  </si>
-  <si>
     <t>吸血</t>
   </si>
   <si>
@@ -494,10 +485,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>寒江映月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gift_hanjiangyingyue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -940,165 +927,181 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>战斗开始时获得30点&lt;color=#b5a430&gt;护盾&lt;/c&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当受伤的时候,获得于等同于伤害50%的&lt;color=#b5a430&gt;护盾&lt;/c&gt;，减少一层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果获得&lt;color=#b5a430&gt;阳&lt;/c&gt;,2者会融合成一点&lt;color=#3079b5&gt;真气值&lt;/c&gt;,战斗结束时移除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果获得&lt;color=#9630b5&gt;阴&lt;/c&gt;,2者会融合成一点&lt;color=#3079b5&gt;真气值&lt;/c&gt;,战斗结束时移除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侠客在战斗开始获得3次&lt;color=#0E8AFD&gt;步进&lt;/c&gt;(战场&lt;color=#F6AD47&gt;时钟&lt;/c&gt;)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物无法行动,人物每次&lt;color=#0E8AFD&gt;步进&lt;/c&gt;(战场&lt;color=#F6AD47&gt;时钟&lt;/c&gt;)减少一层。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次&lt;color=#0E8AFD&gt;步进&lt;/c&gt;(战场&lt;color=#F6AD47&gt;时钟&lt;/c&gt;)造成&lt;#x&gt;伤害,回合开始时移除改buff。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束给与自己&lt;#x&gt;层&lt;color=#b5a430&gt;护盾&lt;/c&gt;,并减少一层。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一层会降低一点侠客&lt;color=#b5a430&gt;拳掌&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#b5a430&gt;拳掌&lt;/c&gt;卡牌使用距离增加1,持续&lt;#x&gt;回合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一层会提供一点侠客&lt;color=#b5a430&gt;拳掌&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一层会提供一点侠客&lt;color=#3079b5&gt;内功&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一层会降低一点侠客&lt;color=#3079b5&gt;内功&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本回合中下&lt;#x&gt;张&lt;color=#3079b5&gt;内功牌&lt;/c&gt;会释放2次。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每打出一张&lt;color=#3079b5&gt;内功&lt;/c&gt;/心法卡牌,对侠客造成&lt;#x&gt;点伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拳掌提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑法提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内功提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一层会降低一点侠客&lt;color=#9630b5&gt;暗器&lt;/c&gt;属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一层会提供一点侠客&lt;color=#9630b5&gt;暗器&lt;/c&gt;属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b5a430</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束时你的&lt;color=#b5a430&gt;蓄力&lt;/c&gt;翻倍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当你蓄力时,额外获得3层&lt;color=#b5a430&gt;蓄力&lt;/c&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束时,获得等于本buff层数的&lt;color=#b5a430&gt;蓄力&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2D2D2D</t>
+  </si>
+  <si>
+    <t>当打出&lt;color=#b5a430&gt;拳掌牌&lt;/c&gt;时保留5成&lt;color=#b5a430&gt;蓄力&lt;/c&gt;不释放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b53030</t>
+  </si>
+  <si>
+    <t>下一张&lt;color=#b5a430&gt;拳掌&lt;/c&gt;卡牌获得额外&lt;#x&gt;点攻击(限一次),在打出后移除自身所有&lt;color=#b5a430&gt;蓄力&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你每燃烧一张牌,对敌方血量最少的侠客造成&lt;#x&gt;x3点伤害,并且层数减少。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你每燃烧一张牌,自身获得&lt;#x&gt;x5点&lt;color=#b5a430&gt;护盾&lt;/c&gt;,并且层数减少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时&lt;color=#b5a430&gt;护盾&lt;/c&gt;不会消失,回合结束时层数减少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>下回合时获得&lt;color=#3079b5&gt;真气&lt;/c&gt;值,并且移除此buff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>战斗开始时获得30点&lt;color=#b5a430&gt;护盾&lt;/c&gt;。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合开始时&lt;color=#b5a430&gt;护盾&lt;/c&gt;不会消失,回合结束时层数减少</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每当受伤的时候,获得于等同于伤害50%的&lt;color=#b5a430&gt;护盾&lt;/c&gt;，减少一层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果获得&lt;color=#b5a430&gt;阳&lt;/c&gt;,2者会融合成一点&lt;color=#3079b5&gt;真气值&lt;/c&gt;,战斗结束时移除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果获得&lt;color=#9630b5&gt;阴&lt;/c&gt;,2者会融合成一点&lt;color=#3079b5&gt;真气值&lt;/c&gt;,战斗结束时移除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>侠客在战斗开始获得3次&lt;color=#0E8AFD&gt;步进&lt;/c&gt;(战场&lt;color=#F6AD47&gt;时钟&lt;/c&gt;)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人物无法行动,人物每次&lt;color=#0E8AFD&gt;步进&lt;/c&gt;(战场&lt;color=#F6AD47&gt;时钟&lt;/c&gt;)减少一层。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次&lt;color=#0E8AFD&gt;步进&lt;/c&gt;(战场&lt;color=#F6AD47&gt;时钟&lt;/c&gt;)造成&lt;#x&gt;伤害,回合开始时移除改buff。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合结束给与自己&lt;#x&gt;层&lt;color=#b5a430&gt;护盾&lt;/c&gt;,并减少一层。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每一层会降低一点侠客&lt;color=#b5a430&gt;拳掌&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#b5a430&gt;拳掌&lt;/c&gt;卡牌使用距离增加1,持续&lt;#x&gt;回合。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每一层会提供一点侠客&lt;color=#b5a430&gt;剑法&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每一层会降低一点侠客&lt;color=#b5a430&gt;剑法&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每一层会提供一点侠客&lt;color=#b5a430&gt;拳掌&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每打出一张&lt;color=#b5a430&gt;拳掌&lt;/c&gt;/&lt;color=#b5a430&gt;剑法&lt;/c&gt;卡牌,对侠客造成&lt;#x&gt;点伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法使用&lt;color=#b5a430&gt;剑法牌&lt;/c&gt;。回合结束时移除。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每打出5张&lt;color=#b5a430&gt;剑法牌&lt;/c&gt;,下一张&lt;color=#b5a430&gt;剑法牌&lt;/c&gt;必定暴击。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#b5a430&gt;剑法牌&lt;/c&gt;必定暴击,每使用一张&lt;color=#b5a430&gt;剑法牌&lt;/c&gt;,失去一层。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法使用&lt;color=#b5a430&gt;拳掌&lt;/c&gt;,&lt;color=#b5a430&gt;剑法&lt;/c&gt;卡牌。回合结束时移除。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本回合中下&lt;#x&gt;张&lt;color=#b5a430&gt;拳掌&lt;/c&gt;/&lt;color=#b5a430&gt;剑法&lt;/c&gt;牌会释放2次。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每当你使用一张&lt;color=#b5a430&gt;剑法牌&lt;/c&gt;,对随机敌方单位造成&lt;#x&gt;点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每一层会提供一点侠客&lt;color=#3079b5&gt;内功&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每一层会降低一点侠客&lt;color=#3079b5&gt;内功&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本回合中下&lt;#x&gt;张&lt;color=#3079b5&gt;内功牌&lt;/c&gt;会释放2次。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每打出一张&lt;color=#3079b5&gt;内功&lt;/c&gt;/心法卡牌,对侠客造成&lt;#x&gt;点伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拳掌提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑法提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内功提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每一层会降低一点侠客&lt;color=#9630b5&gt;暗器&lt;/c&gt;属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每一层会提供一点侠客&lt;color=#9630b5&gt;暗器&lt;/c&gt;属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b5a430</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合结束时你的&lt;color=#b5a430&gt;蓄力&lt;/c&gt;翻倍。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每当你蓄力时,额外获得3层&lt;color=#b5a430&gt;蓄力&lt;/c&gt;。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合结束时,获得等于本buff层数的&lt;color=#b5a430&gt;蓄力&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2D2D2D</t>
-  </si>
-  <si>
-    <t>当打出&lt;color=#b5a430&gt;拳掌牌&lt;/c&gt;时保留5成&lt;color=#b5a430&gt;蓄力&lt;/c&gt;不释放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b53030</t>
-  </si>
-  <si>
-    <t>下一张&lt;color=#b5a430&gt;拳掌&lt;/c&gt;卡牌获得额外&lt;#x&gt;点攻击(限一次),在打出后移除自身所有&lt;color=#b5a430&gt;蓄力&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你每燃烧一张牌,对敌方血量最少的侠客造成&lt;#x&gt;x3点伤害,并且层数减少。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你每燃烧一张牌,自身获得&lt;#x&gt;x5点&lt;color=#b5a430&gt;护盾&lt;/c&gt;,并且层数减少</t>
+    <t>你的&lt;color=#3079b5&gt;剑气&lt;/c&gt;额外触发一次伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的所有&lt;color=#3079b5&gt;剑气&lt;/c&gt;改为对所有地方单位造成伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的所有&lt;color=#3079b5&gt;剑意&lt;/c&gt;改为对所有敌方单位造成伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每打出5张&lt;color=#b53030&gt;剑法牌&lt;/c&gt;,下一张&lt;color=#b5a430&gt;剑法牌&lt;/c&gt;必定暴击。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#b53030&gt;剑法牌&lt;/c&gt;必定暴击,每使用一张&lt;color=#b53030&gt;剑法牌&lt;/c&gt;,失去一层。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法使用&lt;color=#b5a430&gt;拳掌&lt;/c&gt;,&lt;color=#b53030&gt;剑法&lt;/c&gt;卡牌。回合结束时移除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本回合中下&lt;#x&gt;张&lt;color=#b5a430&gt;拳掌&lt;/c&gt;/&lt;color=#b53030&gt;剑法&lt;/c&gt;牌会释放2次。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当你使用一张&lt;color=#b53030&gt;剑法牌&lt;/c&gt;,对随机敌方单位造成&lt;#x&gt;点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一层会提供一点侠客&lt;color=#b53030&gt;剑法&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一层会降低一点侠客&lt;color=#b53030&gt;剑法&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每打出一张&lt;color=#b5a430&gt;拳掌&lt;/c&gt;/&lt;color=#b53030&gt;剑法&lt;/c&gt;卡牌,对侠客造成&lt;#x&gt;点伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法使用&lt;color=#b53030&gt;剑法牌&lt;/c&gt;。回合结束时移除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>映月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1441,8 +1444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1471,10 +1474,10 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" t="s">
         <v>129</v>
-      </c>
-      <c r="F1" t="s">
-        <v>132</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -1497,10 +1500,10 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" t="s">
         <v>130</v>
-      </c>
-      <c r="F2" t="s">
-        <v>133</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
@@ -1517,7 +1520,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -1529,10 +1532,10 @@
         <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1543,7 +1546,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -1555,10 +1558,10 @@
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1569,7 +1572,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1610,7 +1613,7 @@
         <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1618,10 +1621,10 @@
         <v>50005</v>
       </c>
       <c r="B7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -1633,7 +1636,7 @@
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
@@ -1662,7 +1665,7 @@
         <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1673,7 +1676,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
@@ -1685,7 +1688,7 @@
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
@@ -1699,7 +1702,7 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -1740,7 +1743,7 @@
         <v>28</v>
       </c>
       <c r="H11" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1789,7 +1792,7 @@
         <v>8</v>
       </c>
       <c r="G13" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H13" t="s">
         <v>35</v>
@@ -1803,7 +1806,7 @@
         <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D14" t="s">
         <v>37</v>
@@ -1815,10 +1818,10 @@
         <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H14" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1829,7 +1832,7 @@
         <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="D15" t="s">
         <v>39</v>
@@ -1844,7 +1847,7 @@
         <v>39</v>
       </c>
       <c r="H15" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1855,7 +1858,7 @@
         <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>288</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1864,10 +1867,10 @@
         <v>8</v>
       </c>
       <c r="G16" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H16" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1875,14 +1878,14 @@
         <v>50015</v>
       </c>
       <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>269</v>
+      </c>
+      <c r="D17" t="s">
         <v>42</v>
       </c>
-      <c r="C17" t="s">
-        <v>284</v>
-      </c>
-      <c r="D17" t="s">
-        <v>43</v>
-      </c>
       <c r="E17">
         <v>1</v>
       </c>
@@ -1890,10 +1893,10 @@
         <v>8</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H17" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1901,14 +1904,14 @@
         <v>50016</v>
       </c>
       <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
         <v>44</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>45</v>
       </c>
-      <c r="D18" t="s">
-        <v>46</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
@@ -1916,10 +1919,10 @@
         <v>8</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1927,25 +1930,25 @@
         <v>50017</v>
       </c>
       <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>245</v>
+      </c>
+      <c r="D19" t="s">
         <v>47</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>8</v>
+      </c>
+      <c r="G19" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" t="s">
         <v>249</v>
-      </c>
-      <c r="D19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>8</v>
-      </c>
-      <c r="G19" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1953,13 +1956,13 @@
         <v>50018</v>
       </c>
       <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
+        <v>247</v>
+      </c>
+      <c r="D20" t="s">
         <v>49</v>
-      </c>
-      <c r="C20" t="s">
-        <v>251</v>
-      </c>
-      <c r="D20" t="s">
-        <v>50</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1968,7 +1971,7 @@
         <v>8</v>
       </c>
       <c r="G20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H20" t="s">
         <v>12</v>
@@ -1979,14 +1982,14 @@
         <v>50019</v>
       </c>
       <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
         <v>51</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>52</v>
       </c>
-      <c r="D21" t="s">
-        <v>53</v>
-      </c>
       <c r="E21">
         <v>1</v>
       </c>
@@ -1994,10 +1997,10 @@
         <v>8</v>
       </c>
       <c r="G21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H21" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -2005,10 +2008,10 @@
         <v>50020</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>289</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2017,10 +2020,10 @@
         <v>8</v>
       </c>
       <c r="G22" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H22" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -2028,10 +2031,10 @@
         <v>50021</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>287</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2040,7 +2043,7 @@
         <v>8</v>
       </c>
       <c r="G23" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H23" t="s">
         <v>12</v>
@@ -2051,13 +2054,13 @@
         <v>50022</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2066,7 +2069,7 @@
         <v>8</v>
       </c>
       <c r="G24" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H24" t="s">
         <v>12</v>
@@ -2077,13 +2080,13 @@
         <v>50023</v>
       </c>
       <c r="B25" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="C25" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D25" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2092,10 +2095,10 @@
         <v>8</v>
       </c>
       <c r="G25" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H25" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -2103,13 +2106,13 @@
         <v>50024</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -2118,7 +2121,7 @@
         <v>8</v>
       </c>
       <c r="G26" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H26" t="s">
         <v>12</v>
@@ -2129,13 +2132,13 @@
         <v>50025</v>
       </c>
       <c r="B27" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="C27" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2144,10 +2147,10 @@
         <v>8</v>
       </c>
       <c r="G27" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H27" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -2155,13 +2158,13 @@
         <v>50026</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -2170,7 +2173,7 @@
         <v>8</v>
       </c>
       <c r="G28" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H28" t="s">
         <v>12</v>
@@ -2181,13 +2184,13 @@
         <v>50027</v>
       </c>
       <c r="B29" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="C29" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2196,10 +2199,10 @@
         <v>8</v>
       </c>
       <c r="G29" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H29" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -2207,13 +2210,13 @@
         <v>50029</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="D30" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -2222,7 +2225,7 @@
         <v>8</v>
       </c>
       <c r="G30" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H30" t="s">
         <v>12</v>
@@ -2233,13 +2236,13 @@
         <v>50030</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D31" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2248,10 +2251,10 @@
         <v>8</v>
       </c>
       <c r="G31" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H31" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -2259,13 +2262,13 @@
         <v>50031</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="D32" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E32">
         <v>2</v>
@@ -2274,10 +2277,10 @@
         <v>8</v>
       </c>
       <c r="G32" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H32" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -2285,13 +2288,13 @@
         <v>50032</v>
       </c>
       <c r="B33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D33" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2300,10 +2303,10 @@
         <v>8</v>
       </c>
       <c r="G33" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H33" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -2311,13 +2314,13 @@
         <v>50033</v>
       </c>
       <c r="B34" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D34" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E34">
         <v>2</v>
@@ -2326,10 +2329,10 @@
         <v>8</v>
       </c>
       <c r="G34" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H34" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -2337,13 +2340,13 @@
         <v>50034</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="D35" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E35">
         <v>2</v>
@@ -2352,7 +2355,7 @@
         <v>8</v>
       </c>
       <c r="G35" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H35" t="s">
         <v>12</v>
@@ -2363,13 +2366,13 @@
         <v>50035</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D36" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2378,7 +2381,7 @@
         <v>8</v>
       </c>
       <c r="G36" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H36" t="s">
         <v>12</v>
@@ -2389,13 +2392,13 @@
         <v>50036</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C37" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D37" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2404,10 +2407,10 @@
         <v>8</v>
       </c>
       <c r="G37" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H37" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -2415,25 +2418,25 @@
         <v>50037</v>
       </c>
       <c r="B38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>8</v>
+      </c>
+      <c r="G38" t="s">
+        <v>193</v>
+      </c>
+      <c r="H38" t="s">
         <v>84</v>
-      </c>
-      <c r="C38" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" t="s">
-        <v>86</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>8</v>
-      </c>
-      <c r="G38" t="s">
-        <v>197</v>
-      </c>
-      <c r="H38" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -2441,25 +2444,25 @@
         <v>50038</v>
       </c>
       <c r="B39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>8</v>
+      </c>
+      <c r="G39" t="s">
+        <v>194</v>
+      </c>
+      <c r="H39" t="s">
         <v>88</v>
-      </c>
-      <c r="C39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" t="s">
-        <v>90</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>8</v>
-      </c>
-      <c r="G39" t="s">
-        <v>198</v>
-      </c>
-      <c r="H39" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -2467,13 +2470,13 @@
         <v>50039</v>
       </c>
       <c r="B40" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C40" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D40" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2482,10 +2485,10 @@
         <v>8</v>
       </c>
       <c r="G40" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H40" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -2493,13 +2496,13 @@
         <v>50040</v>
       </c>
       <c r="B41" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C41" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D41" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E41">
         <v>2</v>
@@ -2508,10 +2511,10 @@
         <v>8</v>
       </c>
       <c r="G41" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H41" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -2519,13 +2522,13 @@
         <v>50041</v>
       </c>
       <c r="B42" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C42" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D42" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E42">
         <v>2</v>
@@ -2534,10 +2537,10 @@
         <v>8</v>
       </c>
       <c r="G42" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H42" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -2545,13 +2548,13 @@
         <v>50042</v>
       </c>
       <c r="B43" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C43" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D43" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2560,10 +2563,10 @@
         <v>8</v>
       </c>
       <c r="G43" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H43" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -2571,13 +2574,13 @@
         <v>50043</v>
       </c>
       <c r="B44" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C44" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D44" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2586,10 +2589,10 @@
         <v>8</v>
       </c>
       <c r="G44" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H44" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -2597,13 +2600,13 @@
         <v>50044</v>
       </c>
       <c r="B45" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C45" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D45" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2612,10 +2615,10 @@
         <v>8</v>
       </c>
       <c r="G45" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H45" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -2623,13 +2626,13 @@
         <v>50045</v>
       </c>
       <c r="B46" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C46" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D46" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -2638,10 +2641,10 @@
         <v>8</v>
       </c>
       <c r="G46" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H46" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -2649,13 +2652,13 @@
         <v>50046</v>
       </c>
       <c r="B47" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C47" t="s">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="D47" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E47">
         <v>2</v>
@@ -2664,10 +2667,10 @@
         <v>8</v>
       </c>
       <c r="G47" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H47" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -2675,13 +2678,13 @@
         <v>50047</v>
       </c>
       <c r="B48" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C48" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D48" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -2690,10 +2693,10 @@
         <v>8</v>
       </c>
       <c r="G48" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H48" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -2701,13 +2704,13 @@
         <v>50048</v>
       </c>
       <c r="B49" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" t="s">
         <v>115</v>
       </c>
-      <c r="C49" t="s">
-        <v>118</v>
-      </c>
       <c r="D49" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -2716,10 +2719,10 @@
         <v>8</v>
       </c>
       <c r="G49" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H49" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -2727,13 +2730,13 @@
         <v>50049</v>
       </c>
       <c r="B50" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C50" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D50" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -2742,10 +2745,10 @@
         <v>8</v>
       </c>
       <c r="G50" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H50" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -2753,13 +2756,13 @@
         <v>50050</v>
       </c>
       <c r="B51" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C51" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D51" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -2768,10 +2771,10 @@
         <v>8</v>
       </c>
       <c r="G51" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H51" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -2779,13 +2782,13 @@
         <v>50051</v>
       </c>
       <c r="B52" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C52" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D52" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -2794,10 +2797,10 @@
         <v>8</v>
       </c>
       <c r="G52" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H52" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -2805,7 +2808,7 @@
         <v>50052</v>
       </c>
       <c r="B53" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2814,10 +2817,10 @@
         <v>8</v>
       </c>
       <c r="G53" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H53" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -2825,13 +2828,13 @@
         <v>50053</v>
       </c>
       <c r="B54" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C54" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D54" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E54">
         <v>2</v>
@@ -2840,10 +2843,10 @@
         <v>8</v>
       </c>
       <c r="G54" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H54" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -2851,13 +2854,13 @@
         <v>50054</v>
       </c>
       <c r="B55" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C55" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D55" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -2866,10 +2869,10 @@
         <v>8</v>
       </c>
       <c r="G55" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H55" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -2877,13 +2880,13 @@
         <v>50055</v>
       </c>
       <c r="B56" t="s">
-        <v>134</v>
+        <v>299</v>
       </c>
       <c r="C56" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="D56" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -2892,10 +2895,10 @@
         <v>8</v>
       </c>
       <c r="G56" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H56" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -2903,13 +2906,13 @@
         <v>50056</v>
       </c>
       <c r="B57" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C57" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D57" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -2918,10 +2921,10 @@
         <v>8</v>
       </c>
       <c r="G57" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H57" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -2929,13 +2932,13 @@
         <v>50057</v>
       </c>
       <c r="B58" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C58" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D58" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -2944,10 +2947,10 @@
         <v>8</v>
       </c>
       <c r="G58" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H58" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -2955,13 +2958,13 @@
         <v>50058</v>
       </c>
       <c r="B59" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C59" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D59" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -2970,10 +2973,10 @@
         <v>8</v>
       </c>
       <c r="G59" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H59" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -2981,13 +2984,13 @@
         <v>50059</v>
       </c>
       <c r="B60" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C60" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D60" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -2996,10 +2999,10 @@
         <v>8</v>
       </c>
       <c r="G60" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H60" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -3007,13 +3010,13 @@
         <v>50060</v>
       </c>
       <c r="B61" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C61" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D61" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -3022,10 +3025,10 @@
         <v>8</v>
       </c>
       <c r="G61" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H61" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -3033,13 +3036,13 @@
         <v>50061</v>
       </c>
       <c r="B62" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C62" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="D62" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -3048,10 +3051,10 @@
         <v>8</v>
       </c>
       <c r="G62" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H62" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -3059,13 +3062,13 @@
         <v>50062</v>
       </c>
       <c r="B63" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C63" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D63" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -3074,10 +3077,10 @@
         <v>8</v>
       </c>
       <c r="G63" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H63" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -3085,13 +3088,13 @@
         <v>50063</v>
       </c>
       <c r="B64" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C64" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D64" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -3100,10 +3103,10 @@
         <v>8</v>
       </c>
       <c r="G64" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H64" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -3111,13 +3114,13 @@
         <v>50064</v>
       </c>
       <c r="B65" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C65" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="D65" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -3126,10 +3129,10 @@
         <v>8</v>
       </c>
       <c r="G65" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H65" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -3137,10 +3140,10 @@
         <v>50065</v>
       </c>
       <c r="B66" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C66" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -3149,10 +3152,10 @@
         <v>8</v>
       </c>
       <c r="G66" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H66" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -3160,13 +3163,13 @@
         <v>50066</v>
       </c>
       <c r="B67" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C67" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D67" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -3175,10 +3178,10 @@
         <v>8</v>
       </c>
       <c r="G67" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H67" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -3186,13 +3189,13 @@
         <v>50067</v>
       </c>
       <c r="B68" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C68" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D68" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -3201,10 +3204,10 @@
         <v>8</v>
       </c>
       <c r="G68" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H68" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
@@ -3212,13 +3215,13 @@
         <v>50068</v>
       </c>
       <c r="B69" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C69" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="D69" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -3227,10 +3230,10 @@
         <v>8</v>
       </c>
       <c r="G69" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H69" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
@@ -3238,13 +3241,13 @@
         <v>50069</v>
       </c>
       <c r="B70" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C70" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="D70" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -3253,10 +3256,10 @@
         <v>8</v>
       </c>
       <c r="G70" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H70" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
@@ -3264,13 +3267,13 @@
         <v>50070</v>
       </c>
       <c r="B71" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C71" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="D71" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -3279,10 +3282,10 @@
         <v>8</v>
       </c>
       <c r="G71" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H71" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
@@ -3290,13 +3293,13 @@
         <v>50071</v>
       </c>
       <c r="B72" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C72" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D72" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -3305,10 +3308,10 @@
         <v>8</v>
       </c>
       <c r="G72" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H72" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
@@ -3316,13 +3319,13 @@
         <v>50072</v>
       </c>
       <c r="B73" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C73" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="D73" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -3331,10 +3334,10 @@
         <v>8</v>
       </c>
       <c r="G73" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H73" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -3342,13 +3345,13 @@
         <v>50073</v>
       </c>
       <c r="B74" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C74" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D74" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -3357,10 +3360,10 @@
         <v>8</v>
       </c>
       <c r="G74" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H74" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
@@ -3368,13 +3371,13 @@
         <v>50074</v>
       </c>
       <c r="B75" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C75" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D75" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -3383,10 +3386,10 @@
         <v>8</v>
       </c>
       <c r="G75" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H75" t="s">
-        <v>91</v>
+        <v>249</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
@@ -3400,10 +3403,10 @@
         <v>8</v>
       </c>
       <c r="G76" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H76" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
@@ -3417,10 +3420,10 @@
         <v>8</v>
       </c>
       <c r="G77" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H77" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
@@ -3434,10 +3437,10 @@
         <v>8</v>
       </c>
       <c r="G78" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H78" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/excel/buff.xlsx
+++ b/excel/buff.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="323">
   <si>
     <t>number</t>
   </si>
@@ -170,938 +170,1031 @@
     <t>buff_du</t>
   </si>
   <si>
+    <t>固守</t>
+  </si>
+  <si>
+    <t>buff_gushou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑气</t>
+  </si>
+  <si>
+    <t>buff_jianqi</t>
+  </si>
+  <si>
+    <t>剑气纵横</t>
+  </si>
+  <si>
+    <t>逆气</t>
+  </si>
+  <si>
+    <t>buff_niqi</t>
+  </si>
+  <si>
+    <t>大浪千叠</t>
+  </si>
+  <si>
+    <t>使用大浪千叠伤害增加&lt;#x&gt;</t>
+  </si>
+  <si>
+    <t>buff_dalangqiandie</t>
+  </si>
+  <si>
+    <t>藏剑</t>
+  </si>
+  <si>
+    <t>buff_cangjian</t>
+  </si>
+  <si>
+    <t>醉</t>
+  </si>
+  <si>
+    <t>buff_zui</t>
+  </si>
+  <si>
+    <t>剑意</t>
+  </si>
+  <si>
+    <t>回合结束时,随机对一名敌方单位造成&lt;#x&gt;点伤害</t>
+  </si>
+  <si>
+    <t>buff_jianyi</t>
+  </si>
+  <si>
+    <t>无极剑意</t>
+  </si>
+  <si>
+    <t>剑气四溢</t>
+  </si>
+  <si>
+    <t>吸血</t>
+  </si>
+  <si>
+    <t>每一层数提供10%的吸血,会在回合结束得时候移除。</t>
+  </si>
+  <si>
+    <t>buff_xixue</t>
+  </si>
+  <si>
+    <t>buff_quanzhang_ts</t>
+  </si>
+  <si>
+    <t>破拳</t>
+  </si>
+  <si>
+    <t>buff_quanzhang_xj</t>
+  </si>
+  <si>
+    <t>buff_jianfa_ts</t>
+  </si>
+  <si>
+    <t>破剑</t>
+  </si>
+  <si>
+    <t>buff_jianfa_xj</t>
+  </si>
+  <si>
+    <t>buff_neigong_ts</t>
+  </si>
+  <si>
+    <t>破气</t>
+  </si>
+  <si>
+    <t>buff_neigong_xj</t>
+  </si>
+  <si>
+    <t>暗器提升</t>
+  </si>
+  <si>
+    <t>buff_anqi_ts</t>
+  </si>
+  <si>
+    <t>暗器削弱</t>
+  </si>
+  <si>
+    <t>buff_anqi_xj</t>
+  </si>
+  <si>
+    <t>每一层会提供10点侠客轻功</t>
+  </si>
+  <si>
+    <t>buff_speed_ts</t>
+  </si>
+  <si>
+    <t>每一层会降低10点侠客轻功</t>
+  </si>
+  <si>
+    <t>buff_speed_xj</t>
+  </si>
+  <si>
+    <t>脱臼</t>
+  </si>
+  <si>
+    <t>buff_tuojiu</t>
+  </si>
+  <si>
+    <t>体用双休</t>
+  </si>
+  <si>
+    <t>buff_double_nei</t>
+  </si>
+  <si>
+    <t>反震</t>
+  </si>
+  <si>
+    <t>buff_fanzhen</t>
+  </si>
+  <si>
+    <t>移星换斗</t>
+  </si>
+  <si>
+    <t>将以自己为目标的卡牌复制放入自己的抽牌堆中</t>
+  </si>
+  <si>
+    <t>buff_yixinghuandou</t>
+  </si>
+  <si>
+    <t>CF0708</t>
+  </si>
+  <si>
+    <t>无酒不欢</t>
+  </si>
+  <si>
+    <t>战斗开始时,自身获得3层酒</t>
+  </si>
+  <si>
+    <t>gift_wujiubuhuan</t>
+  </si>
+  <si>
+    <t>CF0709</t>
+  </si>
+  <si>
+    <t>受到的伤害减免25%,回合开始时减少一层。</t>
+  </si>
+  <si>
+    <t>CF0710</t>
+  </si>
+  <si>
+    <t>破绽</t>
+  </si>
+  <si>
+    <t>buff_pozhan</t>
+  </si>
+  <si>
+    <t>致盲</t>
+  </si>
+  <si>
+    <t>卡牌使用距离减少&lt;#x&gt;,回合结束时移除。</t>
+  </si>
+  <si>
+    <t>buff_zhimang</t>
+  </si>
+  <si>
+    <t>通臂</t>
+  </si>
+  <si>
+    <t>buff_tongbi</t>
+  </si>
+  <si>
+    <t>先发制人</t>
+  </si>
+  <si>
+    <t>gift_xianfazhiren</t>
+  </si>
+  <si>
+    <t>必中</t>
+  </si>
+  <si>
+    <t>攻击不会被闪避,每使用一张卡牌,失去一层。</t>
+  </si>
+  <si>
+    <t>buff_bizhong</t>
+  </si>
+  <si>
+    <t>断玉</t>
+  </si>
+  <si>
+    <t>buff_duanyu</t>
+  </si>
+  <si>
+    <t>僵直</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_jiangzhi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法被击退,眩晕,僵直。回合开始时移除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以牙还牙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始时，自身获得3层反震</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_yiyahuanya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凌波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_lingbo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到的伤害增加25%,每次作为卡牌目标时减少一层。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避提升100%,每次作为卡牌目标时减少一层,回合开始时移除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬气功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_yingqigong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_yang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_yin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴阳相生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截脉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时.减少获取的真气值&lt;#x&gt;点,回合结束时移除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_jiemai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_mingxinjingqi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beni</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_hanjiangyingyue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击必定暴击,每使用一张卡牌,失去一层。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_nujian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明镜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不会被添加负面buff,每抵消一次,失去一层明静。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人莫予毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对卡牌伤害的使用者造成&lt;#x&gt;点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对卡牌伤害的使用者施加&lt;#x&gt;层毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_renmoyudu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走火入魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_zouhuorumo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_zhenqiwenluan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断筋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_duanjin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护体真罡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌造成的伤害减少25%,每使用一张卡牌减少一层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乱气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始时,获得一层乱气。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓄力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_xvli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓄势待发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_xvshidaifa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厚积薄发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_houjibofa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_du</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_dianxue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_xuanyun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_hutizhengang</t>
+  </si>
+  <si>
+    <t>buff_hubo</t>
+  </si>
+  <si>
+    <t>buff_gushou</t>
+  </si>
+  <si>
+    <t>buff_jianqizongheng</t>
+  </si>
+  <si>
+    <t>buff_wujijianyi</t>
+  </si>
+  <si>
+    <t>buff_jianqisiyi</t>
+  </si>
+  <si>
+    <t>quanfa_ts</t>
+  </si>
+  <si>
+    <t>quanfa_xj</t>
+  </si>
+  <si>
+    <t>jianfa_ts</t>
+  </si>
+  <si>
+    <t>jianfa_xj</t>
+  </si>
+  <si>
+    <t>neigong_ts</t>
+  </si>
+  <si>
+    <t>neigong_xj</t>
+  </si>
+  <si>
+    <t>anqi_ts</t>
+  </si>
+  <si>
+    <t>anqi_xj</t>
+  </si>
+  <si>
+    <t>qingshen</t>
+  </si>
+  <si>
+    <t>huanman</t>
+  </si>
+  <si>
+    <t>延绵不绝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有余不尽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_yanmianbujue</t>
+  </si>
+  <si>
+    <t>buff_zhenqinixing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焚脉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打出的下&lt;#x&gt;张牌,会燃烧,每使用一张牌减少一层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打出的下&lt;#x&gt;张牌,会被放置到抽牌堆顶端,每使用一张牌减少一层,回合结束时消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_fenmai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心莲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_xinlian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明灭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_mingmie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磐石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_panshi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiyongshuangxiu</t>
+  </si>
+  <si>
+    <t>tuojiu</t>
+  </si>
+  <si>
+    <t>fanzhen</t>
+  </si>
+  <si>
+    <t>yixinghuandou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wujiubuhuan</t>
+  </si>
+  <si>
+    <t>pozhan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhimang</t>
+  </si>
+  <si>
+    <t>tongbi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xianfa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bizhong</t>
+  </si>
+  <si>
+    <t>duanyu</t>
+  </si>
+  <si>
+    <t>jiangzhi</t>
+  </si>
+  <si>
+    <t>yiyahuanya</t>
+  </si>
+  <si>
+    <t>lingbo</t>
+  </si>
+  <si>
+    <t>yingqigong</t>
+  </si>
+  <si>
+    <t>yang</t>
+  </si>
+  <si>
+    <t>yin</t>
+  </si>
+  <si>
+    <t>yinyang</t>
+  </si>
+  <si>
+    <t>jiemai</t>
+  </si>
+  <si>
+    <t>mingjing</t>
+  </si>
+  <si>
+    <t>hanjiangyingyue</t>
+  </si>
+  <si>
+    <t>nujian</t>
+  </si>
+  <si>
+    <t>renmoyudu</t>
+  </si>
+  <si>
+    <t>luanqi</t>
+  </si>
+  <si>
+    <t>zouhuorumo</t>
+  </si>
+  <si>
+    <t>duanjin</t>
+  </si>
+  <si>
+    <t>xvli</t>
+  </si>
+  <si>
+    <t>xvshidaifa</t>
+  </si>
+  <si>
+    <t>houjibofa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yanmianbujue</t>
+  </si>
+  <si>
+    <t>youyubujin</t>
+  </si>
+  <si>
+    <t>逆折</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nizhe</t>
+  </si>
+  <si>
+    <t>fenmai</t>
+  </si>
+  <si>
+    <t>mingmie</t>
+  </si>
+  <si>
+    <t>xinlian</t>
+  </si>
+  <si>
+    <t>panshi</t>
+  </si>
+  <si>
+    <t>脱力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成的伤害减少&lt;#x&gt;,回合结束时消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_tuoli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tuoli</t>
+  </si>
+  <si>
+    <t>归元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_guiyuan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guiyuan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_suijin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suijin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抵御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_diyu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diyu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柔劲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_roujin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roujin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌暴击的系数提升1点（3倍伤害）,每使用一张卡牌,失去一层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2E5AD7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在本局游戏中,本卡牌每使用一次,伤害增加&lt;color=#b53030&gt;&lt;#x&gt;&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1ac7c8</t>
+  </si>
+  <si>
+    <t>层数x10概率丢失攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>层数x10概率暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3079b5</t>
+  </si>
+  <si>
+    <t>b5a430</t>
+  </si>
+  <si>
+    <t>b5a430</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9630b5</t>
+  </si>
+  <si>
+    <t>30b541</t>
+  </si>
+  <si>
+    <t>你抽牌获得的手牌的&lt;color=#3079b5&gt;真气&lt;/c&gt;消耗混乱直到回合结束,回合结束时,减少一层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始时获得30点&lt;color=#b5a430&gt;护盾&lt;/c&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当受伤的时候,获得于等同于伤害50%的&lt;color=#b5a430&gt;护盾&lt;/c&gt;，减少一层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果获得&lt;color=#b5a430&gt;阳&lt;/c&gt;,2者会融合成一点&lt;color=#3079b5&gt;真气值&lt;/c&gt;,战斗结束时移除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果获得&lt;color=#9630b5&gt;阴&lt;/c&gt;,2者会融合成一点&lt;color=#3079b5&gt;真气值&lt;/c&gt;,战斗结束时移除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侠客在战斗开始获得3次&lt;color=#0E8AFD&gt;步进&lt;/c&gt;(战场&lt;color=#F6AD47&gt;时钟&lt;/c&gt;)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物无法行动,人物每次&lt;color=#0E8AFD&gt;步进&lt;/c&gt;(战场&lt;color=#F6AD47&gt;时钟&lt;/c&gt;)减少一层。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次&lt;color=#0E8AFD&gt;步进&lt;/c&gt;(战场&lt;color=#F6AD47&gt;时钟&lt;/c&gt;)造成&lt;#x&gt;伤害,回合开始时移除改buff。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束给与自己&lt;#x&gt;层&lt;color=#b5a430&gt;护盾&lt;/c&gt;,并减少一层。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一层会降低一点侠客&lt;color=#b5a430&gt;拳掌&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#b5a430&gt;拳掌&lt;/c&gt;卡牌使用距离增加1,持续&lt;#x&gt;回合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一层会提供一点侠客&lt;color=#b5a430&gt;拳掌&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一层会提供一点侠客&lt;color=#3079b5&gt;内功&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一层会降低一点侠客&lt;color=#3079b5&gt;内功&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本回合中下&lt;#x&gt;张&lt;color=#3079b5&gt;内功牌&lt;/c&gt;会释放2次。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每打出一张&lt;color=#3079b5&gt;内功&lt;/c&gt;/心法卡牌,对侠客造成&lt;#x&gt;点伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拳掌提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑法提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内功提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一层会降低一点侠客&lt;color=#9630b5&gt;暗器&lt;/c&gt;属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一层会提供一点侠客&lt;color=#9630b5&gt;暗器&lt;/c&gt;属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b5a430</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束时你的&lt;color=#b5a430&gt;蓄力&lt;/c&gt;翻倍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当你蓄力时,额外获得3层&lt;color=#b5a430&gt;蓄力&lt;/c&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束时,获得等于本buff层数的&lt;color=#b5a430&gt;蓄力&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2D2D2D</t>
+  </si>
+  <si>
+    <t>当打出&lt;color=#b5a430&gt;拳掌牌&lt;/c&gt;时保留5成&lt;color=#b5a430&gt;蓄力&lt;/c&gt;不释放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b53030</t>
+  </si>
+  <si>
+    <t>下一张&lt;color=#b5a430&gt;拳掌&lt;/c&gt;卡牌获得额外&lt;#x&gt;点攻击(限一次),在打出后移除自身所有&lt;color=#b5a430&gt;蓄力&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你每燃烧一张牌,对敌方血量最少的侠客造成&lt;#x&gt;x3点伤害,并且层数减少。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你每燃烧一张牌,自身获得&lt;#x&gt;x5点&lt;color=#b5a430&gt;护盾&lt;/c&gt;,并且层数减少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时&lt;color=#b5a430&gt;护盾&lt;/c&gt;不会消失,回合结束时层数减少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下回合时获得&lt;color=#3079b5&gt;真气&lt;/c&gt;值,并且移除此buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的&lt;color=#3079b5&gt;剑气&lt;/c&gt;额外触发一次伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的所有&lt;color=#3079b5&gt;剑气&lt;/c&gt;改为对所有地方单位造成伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的所有&lt;color=#3079b5&gt;剑意&lt;/c&gt;改为对所有敌方单位造成伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每打出5张&lt;color=#b53030&gt;剑法牌&lt;/c&gt;,下一张&lt;color=#b5a430&gt;剑法牌&lt;/c&gt;必定暴击。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#b53030&gt;剑法牌&lt;/c&gt;必定暴击,每使用一张&lt;color=#b53030&gt;剑法牌&lt;/c&gt;,失去一层。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本回合中下&lt;#x&gt;张&lt;color=#b5a430&gt;拳掌&lt;/c&gt;/&lt;color=#b53030&gt;剑法&lt;/c&gt;牌会释放2次。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当你使用一张&lt;color=#b53030&gt;剑法牌&lt;/c&gt;,对随机敌方单位造成&lt;#x&gt;点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一层会提供一点侠客&lt;color=#b53030&gt;剑法&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一层会降低一点侠客&lt;color=#b53030&gt;剑法&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每打出一张&lt;color=#b5a430&gt;拳掌&lt;/c&gt;/&lt;color=#b53030&gt;剑法&lt;/c&gt;卡牌,对侠客造成&lt;#x&gt;点伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>映月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在回合开始时,获得&lt;#x&gt;张快斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_wujijianyi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_yingjian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法使用&lt;color=#b53030&gt;剑法牌&lt;/c&gt;。回合结束时移除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法使用&lt;color=#b5a430&gt;拳掌&lt;/c&gt;,&lt;color=#b53030&gt;剑法&lt;/c&gt;卡牌。回合结束时移除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b53030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_huaying</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当对敌人造成伤害时,施加&lt;#x&gt;层&lt;color=#b53030&gt;流血&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒仙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>86C115</t>
-  </si>
-  <si>
-    <t>固守</t>
-  </si>
-  <si>
-    <t>buff_gushou</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑气</t>
-  </si>
-  <si>
-    <t>buff_jianqi</t>
-  </si>
-  <si>
-    <t>剑气纵横</t>
-  </si>
-  <si>
-    <t>逆气</t>
-  </si>
-  <si>
-    <t>buff_niqi</t>
-  </si>
-  <si>
-    <t>大浪千叠</t>
-  </si>
-  <si>
-    <t>使用大浪千叠伤害增加&lt;#x&gt;</t>
-  </si>
-  <si>
-    <t>buff_dalangqiandie</t>
-  </si>
-  <si>
-    <t>藏剑</t>
-  </si>
-  <si>
-    <t>buff_cangjian</t>
-  </si>
-  <si>
-    <t>醉</t>
-  </si>
-  <si>
-    <t>buff_zui</t>
-  </si>
-  <si>
-    <t>剑意</t>
-  </si>
-  <si>
-    <t>回合结束时,随机对一名敌方单位造成&lt;#x&gt;点伤害</t>
-  </si>
-  <si>
-    <t>buff_jianyi</t>
-  </si>
-  <si>
-    <t>无极剑意</t>
-  </si>
-  <si>
-    <t>剑气四溢</t>
-  </si>
-  <si>
-    <t>吸血</t>
-  </si>
-  <si>
-    <t>每一层数提供10%的吸血,会在回合结束得时候移除。</t>
-  </si>
-  <si>
-    <t>buff_xixue</t>
-  </si>
-  <si>
-    <t>buff_quanzhang_ts</t>
-  </si>
-  <si>
-    <t>破拳</t>
-  </si>
-  <si>
-    <t>buff_quanzhang_xj</t>
-  </si>
-  <si>
-    <t>buff_jianfa_ts</t>
-  </si>
-  <si>
-    <t>破剑</t>
-  </si>
-  <si>
-    <t>buff_jianfa_xj</t>
-  </si>
-  <si>
-    <t>buff_neigong_ts</t>
-  </si>
-  <si>
-    <t>破气</t>
-  </si>
-  <si>
-    <t>buff_neigong_xj</t>
-  </si>
-  <si>
-    <t>暗器提升</t>
-  </si>
-  <si>
-    <t>buff_anqi_ts</t>
-  </si>
-  <si>
-    <t>暗器削弱</t>
-  </si>
-  <si>
-    <t>buff_anqi_xj</t>
-  </si>
-  <si>
-    <t>每一层会提供10点侠客轻功</t>
-  </si>
-  <si>
-    <t>buff_speed_ts</t>
-  </si>
-  <si>
-    <t>每一层会降低10点侠客轻功</t>
-  </si>
-  <si>
-    <t>buff_speed_xj</t>
-  </si>
-  <si>
-    <t>脱臼</t>
-  </si>
-  <si>
-    <t>buff_tuojiu</t>
-  </si>
-  <si>
-    <t>体用双休</t>
-  </si>
-  <si>
-    <t>buff_double_nei</t>
-  </si>
-  <si>
-    <t>反震</t>
-  </si>
-  <si>
-    <t>buff_fanzhen</t>
-  </si>
-  <si>
-    <t>移星换斗</t>
-  </si>
-  <si>
-    <t>将以自己为目标的卡牌复制放入自己的抽牌堆中</t>
-  </si>
-  <si>
-    <t>buff_yixinghuandou</t>
-  </si>
-  <si>
-    <t>CF0708</t>
-  </si>
-  <si>
-    <t>无酒不欢</t>
-  </si>
-  <si>
-    <t>战斗开始时,自身获得3层酒</t>
-  </si>
-  <si>
-    <t>gift_wujiubuhuan</t>
-  </si>
-  <si>
-    <t>CF0709</t>
-  </si>
-  <si>
-    <t>受到的伤害减免25%,回合开始时减少一层。</t>
-  </si>
-  <si>
-    <t>CF0710</t>
-  </si>
-  <si>
-    <t>破绽</t>
-  </si>
-  <si>
-    <t>buff_pozhan</t>
-  </si>
-  <si>
-    <t>致盲</t>
-  </si>
-  <si>
-    <t>卡牌使用距离减少&lt;#x&gt;,回合结束时移除。</t>
-  </si>
-  <si>
-    <t>buff_zhimang</t>
-  </si>
-  <si>
-    <t>通臂</t>
-  </si>
-  <si>
-    <t>buff_tongbi</t>
-  </si>
-  <si>
-    <t>先发制人</t>
-  </si>
-  <si>
-    <t>gift_xianfazhiren</t>
-  </si>
-  <si>
-    <t>必中</t>
-  </si>
-  <si>
-    <t>攻击不会被闪避,每使用一张卡牌,失去一层。</t>
-  </si>
-  <si>
-    <t>buff_bizhong</t>
-  </si>
-  <si>
-    <t>断玉</t>
-  </si>
-  <si>
-    <t>buff_duanyu</t>
-  </si>
-  <si>
-    <t>僵直</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_jiangzhi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法被击退,眩晕,僵直。回合开始时移除。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以牙还牙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗开始时，自身获得3层反震</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_yiyahuanya</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轻身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凌波</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_lingbo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受到的伤害增加25%,每次作为卡牌目标时减少一层。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪避提升100%,每次作为卡牌目标时减少一层,回合开始时移除。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>硬气功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_yingqigong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_yang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_yin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阴阳相生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>截脉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合开始时.减少获取的真气值&lt;#x&gt;点,回合结束时移除。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_jiemai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_mingxinjingqi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>beni</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_hanjiangyingyue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怒剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击必定暴击,每使用一张卡牌,失去一层。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_nujian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>明镜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不会被添加负面buff,每抵消一次,失去一层明静。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人莫予毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对卡牌伤害的使用者造成&lt;#x&gt;点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对卡牌伤害的使用者施加&lt;#x&gt;层毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_renmoyudu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>走火入魔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_zouhuorumo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_zhenqiwenluan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缓慢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>断筋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_duanjin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护体真罡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌造成的伤害减少25%,每使用一张卡牌减少一层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乱气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗开始时,获得一层乱气。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓄力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_xvli</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓄势待发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_xvshidaifa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厚积薄发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_houjibofa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_du</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_dianxue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_xuanyun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_hutizhengang</t>
-  </si>
-  <si>
-    <t>buff_hubo</t>
-  </si>
-  <si>
-    <t>buff_gushou</t>
-  </si>
-  <si>
-    <t>buff_jianqizongheng</t>
-  </si>
-  <si>
-    <t>buff_wujijianyi</t>
-  </si>
-  <si>
-    <t>buff_jianqisiyi</t>
-  </si>
-  <si>
-    <t>quanfa_ts</t>
-  </si>
-  <si>
-    <t>quanfa_xj</t>
-  </si>
-  <si>
-    <t>jianfa_ts</t>
-  </si>
-  <si>
-    <t>jianfa_xj</t>
-  </si>
-  <si>
-    <t>neigong_ts</t>
-  </si>
-  <si>
-    <t>neigong_xj</t>
-  </si>
-  <si>
-    <t>anqi_ts</t>
-  </si>
-  <si>
-    <t>anqi_xj</t>
-  </si>
-  <si>
-    <t>qingshen</t>
-  </si>
-  <si>
-    <t>huanman</t>
-  </si>
-  <si>
-    <t>延绵不绝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有余不尽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_yanmianbujue</t>
-  </si>
-  <si>
-    <t>buff_zhenqinixing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>焚脉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打出的下&lt;#x&gt;张牌,会燃烧,每使用一张牌减少一层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打出的下&lt;#x&gt;张牌,会被放置到抽牌堆顶端,每使用一张牌减少一层,回合结束时消失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_fenmai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>心莲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_xinlian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>明灭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_mingmie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>磐石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_panshi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiyongshuangxiu</t>
-  </si>
-  <si>
-    <t>tuojiu</t>
-  </si>
-  <si>
-    <t>fanzhen</t>
-  </si>
-  <si>
-    <t>yixinghuandou</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wujiubuhuan</t>
-  </si>
-  <si>
-    <t>pozhan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhimang</t>
-  </si>
-  <si>
-    <t>tongbi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xianfa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bizhong</t>
-  </si>
-  <si>
-    <t>duanyu</t>
-  </si>
-  <si>
-    <t>jiangzhi</t>
-  </si>
-  <si>
-    <t>yiyahuanya</t>
-  </si>
-  <si>
-    <t>lingbo</t>
-  </si>
-  <si>
-    <t>yingqigong</t>
-  </si>
-  <si>
-    <t>yang</t>
-  </si>
-  <si>
-    <t>yin</t>
-  </si>
-  <si>
-    <t>yinyang</t>
-  </si>
-  <si>
-    <t>jiemai</t>
-  </si>
-  <si>
-    <t>mingjing</t>
-  </si>
-  <si>
-    <t>hanjiangyingyue</t>
-  </si>
-  <si>
-    <t>nujian</t>
-  </si>
-  <si>
-    <t>renmoyudu</t>
-  </si>
-  <si>
-    <t>luanqi</t>
-  </si>
-  <si>
-    <t>zouhuorumo</t>
-  </si>
-  <si>
-    <t>duanjin</t>
-  </si>
-  <si>
-    <t>xvli</t>
-  </si>
-  <si>
-    <t>xvshidaifa</t>
-  </si>
-  <si>
-    <t>houjibofa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yanmianbujue</t>
-  </si>
-  <si>
-    <t>youyubujin</t>
-  </si>
-  <si>
-    <t>逆折</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nizhe</t>
-  </si>
-  <si>
-    <t>fenmai</t>
-  </si>
-  <si>
-    <t>mingmie</t>
-  </si>
-  <si>
-    <t>xinlian</t>
-  </si>
-  <si>
-    <t>panshi</t>
-  </si>
-  <si>
-    <t>脱力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成的伤害减少&lt;#x&gt;,回合结束时消失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_tuoli</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tuoli</t>
-  </si>
-  <si>
-    <t>归元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_guiyuan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guiyuan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碎金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_suijin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>suijin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抵御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_diyu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>diyu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柔劲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_roujin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>roujin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌暴击的系数提升1点（3倍伤害）,每使用一张卡牌,失去一层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2E5AD7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在本局游戏中,本卡牌每使用一次,伤害增加&lt;color=#b53030&gt;&lt;#x&gt;&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_duxian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当对敌人造成伤害时,施加&lt;#x&gt;层&lt;color=#86C115&gt;毒&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>647D33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焚心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF0707</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当对敌人造成伤害时,施加&lt;#x&gt;层&lt;color=#CF0707&gt;燃烧&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_fenxin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰魄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1ac7c8</t>
-  </si>
-  <si>
-    <t>层数x10概率丢失攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>层数x10概率暴击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3079b5</t>
-  </si>
-  <si>
-    <t>b5a430</t>
-  </si>
-  <si>
-    <t>b5a430</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9630b5</t>
-  </si>
-  <si>
-    <t>30b541</t>
-  </si>
-  <si>
-    <t>你抽牌获得的手牌的&lt;color=#3079b5&gt;真气&lt;/c&gt;消耗混乱直到回合结束,回合结束时,减少一层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗开始时获得30点&lt;color=#b5a430&gt;护盾&lt;/c&gt;。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每当受伤的时候,获得于等同于伤害50%的&lt;color=#b5a430&gt;护盾&lt;/c&gt;，减少一层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果获得&lt;color=#b5a430&gt;阳&lt;/c&gt;,2者会融合成一点&lt;color=#3079b5&gt;真气值&lt;/c&gt;,战斗结束时移除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果获得&lt;color=#9630b5&gt;阴&lt;/c&gt;,2者会融合成一点&lt;color=#3079b5&gt;真气值&lt;/c&gt;,战斗结束时移除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>侠客在战斗开始获得3次&lt;color=#0E8AFD&gt;步进&lt;/c&gt;(战场&lt;color=#F6AD47&gt;时钟&lt;/c&gt;)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人物无法行动,人物每次&lt;color=#0E8AFD&gt;步进&lt;/c&gt;(战场&lt;color=#F6AD47&gt;时钟&lt;/c&gt;)减少一层。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次&lt;color=#0E8AFD&gt;步进&lt;/c&gt;(战场&lt;color=#F6AD47&gt;时钟&lt;/c&gt;)造成&lt;#x&gt;伤害,回合开始时移除改buff。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合结束给与自己&lt;#x&gt;层&lt;color=#b5a430&gt;护盾&lt;/c&gt;,并减少一层。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每一层会降低一点侠客&lt;color=#b5a430&gt;拳掌&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#b5a430&gt;拳掌&lt;/c&gt;卡牌使用距离增加1,持续&lt;#x&gt;回合。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每一层会提供一点侠客&lt;color=#b5a430&gt;拳掌&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每一层会提供一点侠客&lt;color=#3079b5&gt;内功&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每一层会降低一点侠客&lt;color=#3079b5&gt;内功&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本回合中下&lt;#x&gt;张&lt;color=#3079b5&gt;内功牌&lt;/c&gt;会释放2次。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每打出一张&lt;color=#3079b5&gt;内功&lt;/c&gt;/心法卡牌,对侠客造成&lt;#x&gt;点伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拳掌提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑法提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内功提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每一层会降低一点侠客&lt;color=#9630b5&gt;暗器&lt;/c&gt;属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每一层会提供一点侠客&lt;color=#9630b5&gt;暗器&lt;/c&gt;属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b5a430</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合结束时你的&lt;color=#b5a430&gt;蓄力&lt;/c&gt;翻倍。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每当你蓄力时,额外获得3层&lt;color=#b5a430&gt;蓄力&lt;/c&gt;。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合结束时,获得等于本buff层数的&lt;color=#b5a430&gt;蓄力&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2D2D2D</t>
-  </si>
-  <si>
-    <t>当打出&lt;color=#b5a430&gt;拳掌牌&lt;/c&gt;时保留5成&lt;color=#b5a430&gt;蓄力&lt;/c&gt;不释放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b53030</t>
-  </si>
-  <si>
-    <t>下一张&lt;color=#b5a430&gt;拳掌&lt;/c&gt;卡牌获得额外&lt;#x&gt;点攻击(限一次),在打出后移除自身所有&lt;color=#b5a430&gt;蓄力&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你每燃烧一张牌,对敌方血量最少的侠客造成&lt;#x&gt;x3点伤害,并且层数减少。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你每燃烧一张牌,自身获得&lt;#x&gt;x5点&lt;color=#b5a430&gt;护盾&lt;/c&gt;,并且层数减少</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合开始时&lt;color=#b5a430&gt;护盾&lt;/c&gt;不会消失,回合结束时层数减少</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下回合时获得&lt;color=#3079b5&gt;真气&lt;/c&gt;值,并且移除此buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的&lt;color=#3079b5&gt;剑气&lt;/c&gt;额外触发一次伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的所有&lt;color=#3079b5&gt;剑气&lt;/c&gt;改为对所有地方单位造成伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的所有&lt;color=#3079b5&gt;剑意&lt;/c&gt;改为对所有敌方单位造成伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每打出5张&lt;color=#b53030&gt;剑法牌&lt;/c&gt;,下一张&lt;color=#b5a430&gt;剑法牌&lt;/c&gt;必定暴击。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#b53030&gt;剑法牌&lt;/c&gt;必定暴击,每使用一张&lt;color=#b53030&gt;剑法牌&lt;/c&gt;,失去一层。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法使用&lt;color=#b5a430&gt;拳掌&lt;/c&gt;,&lt;color=#b53030&gt;剑法&lt;/c&gt;卡牌。回合结束时移除。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本回合中下&lt;#x&gt;张&lt;color=#b5a430&gt;拳掌&lt;/c&gt;/&lt;color=#b53030&gt;剑法&lt;/c&gt;牌会释放2次。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每当你使用一张&lt;color=#b53030&gt;剑法牌&lt;/c&gt;,对随机敌方单位造成&lt;#x&gt;点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每一层会提供一点侠客&lt;color=#b53030&gt;剑法&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每一层会降低一点侠客&lt;color=#b53030&gt;剑法&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每打出一张&lt;color=#b5a430&gt;拳掌&lt;/c&gt;/&lt;color=#b53030&gt;剑法&lt;/c&gt;卡牌,对侠客造成&lt;#x&gt;点伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法使用&lt;color=#b53030&gt;剑法牌&lt;/c&gt;。回合结束时移除。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>映月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_bingpo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当对敌人造成伤害时,施加&lt;#x&gt;层&lt;color=#1ac7c8&gt;寒冷&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两仪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_liangyi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当你打出一张心法牌,随机获得一点&lt;color=#9630b5&gt;阴&lt;/c&gt;/&lt;color=#b5a430&gt;阳&lt;/c&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1442,10 +1535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1474,10 +1567,10 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -1500,10 +1593,10 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
@@ -1520,7 +1613,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -1532,10 +1625,10 @@
         <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1546,7 +1639,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -1558,10 +1651,10 @@
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1572,7 +1665,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1587,7 +1680,7 @@
         <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1613,7 +1706,7 @@
         <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1621,10 +1714,10 @@
         <v>50005</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -1636,7 +1729,7 @@
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
@@ -1665,7 +1758,7 @@
         <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1676,7 +1769,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
@@ -1688,7 +1781,7 @@
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
@@ -1702,7 +1795,7 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -1743,7 +1836,7 @@
         <v>28</v>
       </c>
       <c r="H11" t="s">
-        <v>246</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1792,10 +1885,10 @@
         <v>8</v>
       </c>
       <c r="G13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H13" t="s">
-        <v>35</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1803,14 +1896,14 @@
         <v>50012</v>
       </c>
       <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" t="s">
         <v>36</v>
       </c>
-      <c r="C14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" t="s">
-        <v>37</v>
-      </c>
       <c r="E14">
         <v>1</v>
       </c>
@@ -1818,10 +1911,10 @@
         <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1829,14 +1922,14 @@
         <v>50013</v>
       </c>
       <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>292</v>
+      </c>
+      <c r="D15" t="s">
         <v>38</v>
       </c>
-      <c r="C15" t="s">
-        <v>294</v>
-      </c>
-      <c r="D15" t="s">
-        <v>39</v>
-      </c>
       <c r="E15">
         <v>1</v>
       </c>
@@ -1844,10 +1937,10 @@
         <v>8</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1855,10 +1948,10 @@
         <v>50014</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1867,10 +1960,10 @@
         <v>8</v>
       </c>
       <c r="G16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1878,14 +1971,14 @@
         <v>50015</v>
       </c>
       <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>268</v>
+      </c>
+      <c r="D17" t="s">
         <v>41</v>
       </c>
-      <c r="C17" t="s">
-        <v>269</v>
-      </c>
-      <c r="D17" t="s">
-        <v>42</v>
-      </c>
       <c r="E17">
         <v>1</v>
       </c>
@@ -1893,10 +1986,10 @@
         <v>8</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1904,14 +1997,14 @@
         <v>50016</v>
       </c>
       <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
         <v>43</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>44</v>
       </c>
-      <c r="D18" t="s">
-        <v>45</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
@@ -1919,10 +2012,10 @@
         <v>8</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1930,14 +2023,14 @@
         <v>50017</v>
       </c>
       <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>244</v>
+      </c>
+      <c r="D19" t="s">
         <v>46</v>
       </c>
-      <c r="C19" t="s">
-        <v>245</v>
-      </c>
-      <c r="D19" t="s">
-        <v>47</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
@@ -1945,10 +2038,10 @@
         <v>8</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1956,13 +2049,13 @@
         <v>50018</v>
       </c>
       <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>246</v>
+      </c>
+      <c r="D20" t="s">
         <v>48</v>
-      </c>
-      <c r="C20" t="s">
-        <v>247</v>
-      </c>
-      <c r="D20" t="s">
-        <v>49</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1971,7 +2064,7 @@
         <v>8</v>
       </c>
       <c r="G20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H20" t="s">
         <v>12</v>
@@ -1982,14 +2075,14 @@
         <v>50019</v>
       </c>
       <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
         <v>50</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>51</v>
       </c>
-      <c r="D21" t="s">
-        <v>52</v>
-      </c>
       <c r="E21">
         <v>1</v>
       </c>
@@ -1997,10 +2090,10 @@
         <v>8</v>
       </c>
       <c r="G21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -2008,10 +2101,10 @@
         <v>50020</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2020,10 +2113,10 @@
         <v>8</v>
       </c>
       <c r="G22" t="s">
-        <v>164</v>
+        <v>298</v>
       </c>
       <c r="H22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -2031,10 +2124,10 @@
         <v>50021</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2043,7 +2136,7 @@
         <v>8</v>
       </c>
       <c r="G23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H23" t="s">
         <v>12</v>
@@ -2054,14 +2147,14 @@
         <v>50022</v>
       </c>
       <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
         <v>55</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>56</v>
       </c>
-      <c r="D24" t="s">
-        <v>57</v>
-      </c>
       <c r="E24">
         <v>1</v>
       </c>
@@ -2069,7 +2162,7 @@
         <v>8</v>
       </c>
       <c r="G24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H24" t="s">
         <v>12</v>
@@ -2080,13 +2173,13 @@
         <v>50023</v>
       </c>
       <c r="B25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2095,10 +2188,10 @@
         <v>8</v>
       </c>
       <c r="G25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -2106,13 +2199,13 @@
         <v>50024</v>
       </c>
       <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
+        <v>262</v>
+      </c>
+      <c r="D26" t="s">
         <v>59</v>
-      </c>
-      <c r="C26" t="s">
-        <v>263</v>
-      </c>
-      <c r="D26" t="s">
-        <v>60</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -2121,7 +2214,7 @@
         <v>8</v>
       </c>
       <c r="G26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H26" t="s">
         <v>12</v>
@@ -2132,13 +2225,13 @@
         <v>50025</v>
       </c>
       <c r="B27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C27" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2147,10 +2240,10 @@
         <v>8</v>
       </c>
       <c r="G27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H27" t="s">
-        <v>250</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -2158,13 +2251,13 @@
         <v>50026</v>
       </c>
       <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" t="s">
+        <v>294</v>
+      </c>
+      <c r="D28" t="s">
         <v>62</v>
-      </c>
-      <c r="C28" t="s">
-        <v>296</v>
-      </c>
-      <c r="D28" t="s">
-        <v>63</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -2173,7 +2266,7 @@
         <v>8</v>
       </c>
       <c r="G28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H28" t="s">
         <v>12</v>
@@ -2184,13 +2277,13 @@
         <v>50027</v>
       </c>
       <c r="B29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2199,10 +2292,10 @@
         <v>8</v>
       </c>
       <c r="G29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -2210,13 +2303,13 @@
         <v>50029</v>
       </c>
       <c r="B30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" t="s">
+        <v>266</v>
+      </c>
+      <c r="D30" t="s">
         <v>65</v>
-      </c>
-      <c r="C30" t="s">
-        <v>267</v>
-      </c>
-      <c r="D30" t="s">
-        <v>66</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -2225,7 +2318,7 @@
         <v>8</v>
       </c>
       <c r="G30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H30" t="s">
         <v>12</v>
@@ -2236,14 +2329,14 @@
         <v>50030</v>
       </c>
       <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" t="s">
+        <v>273</v>
+      </c>
+      <c r="D31" t="s">
         <v>67</v>
       </c>
-      <c r="C31" t="s">
-        <v>274</v>
-      </c>
-      <c r="D31" t="s">
-        <v>68</v>
-      </c>
       <c r="E31">
         <v>1</v>
       </c>
@@ -2251,10 +2344,10 @@
         <v>8</v>
       </c>
       <c r="G31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H31" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -2262,13 +2355,13 @@
         <v>50031</v>
       </c>
       <c r="B32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" t="s">
+        <v>272</v>
+      </c>
+      <c r="D32" t="s">
         <v>69</v>
-      </c>
-      <c r="C32" t="s">
-        <v>273</v>
-      </c>
-      <c r="D32" t="s">
-        <v>70</v>
       </c>
       <c r="E32">
         <v>2</v>
@@ -2277,10 +2370,10 @@
         <v>8</v>
       </c>
       <c r="G32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -2288,14 +2381,14 @@
         <v>50032</v>
       </c>
       <c r="B33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" t="s">
         <v>71</v>
       </c>
-      <c r="D33" t="s">
-        <v>72</v>
-      </c>
       <c r="E33">
         <v>1</v>
       </c>
@@ -2303,10 +2396,10 @@
         <v>8</v>
       </c>
       <c r="G33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H33" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -2314,13 +2407,13 @@
         <v>50033</v>
       </c>
       <c r="B34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" t="s">
         <v>73</v>
-      </c>
-      <c r="D34" t="s">
-        <v>74</v>
       </c>
       <c r="E34">
         <v>2</v>
@@ -2329,10 +2422,10 @@
         <v>8</v>
       </c>
       <c r="G34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -2340,13 +2433,13 @@
         <v>50034</v>
       </c>
       <c r="B35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" t="s">
+        <v>295</v>
+      </c>
+      <c r="D35" t="s">
         <v>75</v>
-      </c>
-      <c r="C35" t="s">
-        <v>297</v>
-      </c>
-      <c r="D35" t="s">
-        <v>76</v>
       </c>
       <c r="E35">
         <v>2</v>
@@ -2355,7 +2448,7 @@
         <v>8</v>
       </c>
       <c r="G35" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H35" t="s">
         <v>12</v>
@@ -2366,14 +2459,14 @@
         <v>50035</v>
       </c>
       <c r="B36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" t="s">
+        <v>267</v>
+      </c>
+      <c r="D36" t="s">
         <v>77</v>
       </c>
-      <c r="C36" t="s">
-        <v>268</v>
-      </c>
-      <c r="D36" t="s">
-        <v>78</v>
-      </c>
       <c r="E36">
         <v>1</v>
       </c>
@@ -2381,7 +2474,7 @@
         <v>8</v>
       </c>
       <c r="G36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H36" t="s">
         <v>12</v>
@@ -2392,14 +2485,14 @@
         <v>50036</v>
       </c>
       <c r="B37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" t="s">
+        <v>137</v>
+      </c>
+      <c r="D37" t="s">
         <v>79</v>
       </c>
-      <c r="C37" t="s">
-        <v>138</v>
-      </c>
-      <c r="D37" t="s">
-        <v>80</v>
-      </c>
       <c r="E37">
         <v>1</v>
       </c>
@@ -2407,10 +2500,10 @@
         <v>8</v>
       </c>
       <c r="G37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H37" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -2418,25 +2511,25 @@
         <v>50037</v>
       </c>
       <c r="B38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" t="s">
         <v>81</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>82</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>8</v>
+      </c>
+      <c r="G38" t="s">
+        <v>192</v>
+      </c>
+      <c r="H38" t="s">
         <v>83</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>8</v>
-      </c>
-      <c r="G38" t="s">
-        <v>193</v>
-      </c>
-      <c r="H38" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -2444,25 +2537,25 @@
         <v>50038</v>
       </c>
       <c r="B39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" t="s">
         <v>85</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>86</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>8</v>
+      </c>
+      <c r="G39" t="s">
+        <v>193</v>
+      </c>
+      <c r="H39" t="s">
         <v>87</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>8</v>
-      </c>
-      <c r="G39" t="s">
-        <v>194</v>
-      </c>
-      <c r="H39" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -2470,25 +2563,25 @@
         <v>50039</v>
       </c>
       <c r="B40" t="s">
+        <v>236</v>
+      </c>
+      <c r="C40" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" t="s">
         <v>237</v>
       </c>
-      <c r="C40" t="s">
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>8</v>
+      </c>
+      <c r="G40" t="s">
+        <v>238</v>
+      </c>
+      <c r="H40" t="s">
         <v>89</v>
-      </c>
-      <c r="D40" t="s">
-        <v>238</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>8</v>
-      </c>
-      <c r="G40" t="s">
-        <v>239</v>
-      </c>
-      <c r="H40" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -2496,13 +2589,13 @@
         <v>50040</v>
       </c>
       <c r="B41" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41" t="s">
         <v>91</v>
-      </c>
-      <c r="C41" t="s">
-        <v>114</v>
-      </c>
-      <c r="D41" t="s">
-        <v>92</v>
       </c>
       <c r="E41">
         <v>2</v>
@@ -2511,10 +2604,10 @@
         <v>8</v>
       </c>
       <c r="G41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -2522,13 +2615,13 @@
         <v>50041</v>
       </c>
       <c r="B42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" t="s">
         <v>93</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>94</v>
-      </c>
-      <c r="D42" t="s">
-        <v>95</v>
       </c>
       <c r="E42">
         <v>2</v>
@@ -2537,10 +2630,10 @@
         <v>8</v>
       </c>
       <c r="G42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -2548,14 +2641,14 @@
         <v>50042</v>
       </c>
       <c r="B43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" t="s">
+        <v>263</v>
+      </c>
+      <c r="D43" t="s">
         <v>96</v>
       </c>
-      <c r="C43" t="s">
-        <v>264</v>
-      </c>
-      <c r="D43" t="s">
-        <v>97</v>
-      </c>
       <c r="E43">
         <v>1</v>
       </c>
@@ -2563,10 +2656,10 @@
         <v>8</v>
       </c>
       <c r="G43" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -2574,14 +2667,14 @@
         <v>50043</v>
       </c>
       <c r="B44" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" t="s">
+        <v>258</v>
+      </c>
+      <c r="D44" t="s">
         <v>98</v>
       </c>
-      <c r="C44" t="s">
-        <v>259</v>
-      </c>
-      <c r="D44" t="s">
-        <v>99</v>
-      </c>
       <c r="E44">
         <v>1</v>
       </c>
@@ -2589,10 +2682,10 @@
         <v>8</v>
       </c>
       <c r="G44" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -2600,14 +2693,14 @@
         <v>50044</v>
       </c>
       <c r="B45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" t="s">
         <v>100</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>101</v>
       </c>
-      <c r="D45" t="s">
-        <v>102</v>
-      </c>
       <c r="E45">
         <v>1</v>
       </c>
@@ -2615,10 +2708,10 @@
         <v>8</v>
       </c>
       <c r="G45" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -2626,14 +2719,14 @@
         <v>50045</v>
       </c>
       <c r="B46" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" t="s">
+        <v>132</v>
+      </c>
+      <c r="D46" t="s">
         <v>103</v>
       </c>
-      <c r="C46" t="s">
-        <v>133</v>
-      </c>
-      <c r="D46" t="s">
-        <v>104</v>
-      </c>
       <c r="E46">
         <v>1</v>
       </c>
@@ -2641,10 +2734,10 @@
         <v>8</v>
       </c>
       <c r="G46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -2652,13 +2745,13 @@
         <v>50046</v>
       </c>
       <c r="B47" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" t="s">
+        <v>301</v>
+      </c>
+      <c r="D47" t="s">
         <v>105</v>
-      </c>
-      <c r="C47" t="s">
-        <v>298</v>
-      </c>
-      <c r="D47" t="s">
-        <v>106</v>
       </c>
       <c r="E47">
         <v>2</v>
@@ -2667,10 +2760,10 @@
         <v>8</v>
       </c>
       <c r="G47" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -2678,14 +2771,14 @@
         <v>50047</v>
       </c>
       <c r="B48" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" t="s">
         <v>108</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>109</v>
       </c>
-      <c r="D48" t="s">
-        <v>110</v>
-      </c>
       <c r="E48">
         <v>1</v>
       </c>
@@ -2693,10 +2786,10 @@
         <v>8</v>
       </c>
       <c r="G48" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -2704,14 +2797,14 @@
         <v>50048</v>
       </c>
       <c r="B49" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" t="s">
+        <v>114</v>
+      </c>
+      <c r="D49" t="s">
         <v>112</v>
       </c>
-      <c r="C49" t="s">
-        <v>115</v>
-      </c>
-      <c r="D49" t="s">
-        <v>113</v>
-      </c>
       <c r="E49">
         <v>1</v>
       </c>
@@ -2719,10 +2812,10 @@
         <v>8</v>
       </c>
       <c r="G49" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -2730,14 +2823,14 @@
         <v>50049</v>
       </c>
       <c r="B50" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" t="s">
+        <v>254</v>
+      </c>
+      <c r="D50" t="s">
         <v>116</v>
       </c>
-      <c r="C50" t="s">
-        <v>255</v>
-      </c>
-      <c r="D50" t="s">
-        <v>117</v>
-      </c>
       <c r="E50">
         <v>1</v>
       </c>
@@ -2745,10 +2838,10 @@
         <v>8</v>
       </c>
       <c r="G50" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -2756,14 +2849,14 @@
         <v>50050</v>
       </c>
       <c r="B51" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" t="s">
+        <v>257</v>
+      </c>
+      <c r="D51" t="s">
         <v>118</v>
       </c>
-      <c r="C51" t="s">
-        <v>258</v>
-      </c>
-      <c r="D51" t="s">
-        <v>119</v>
-      </c>
       <c r="E51">
         <v>1</v>
       </c>
@@ -2771,10 +2864,10 @@
         <v>8</v>
       </c>
       <c r="G51" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H51" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -2782,14 +2875,14 @@
         <v>50051</v>
       </c>
       <c r="B52" t="s">
+        <v>119</v>
+      </c>
+      <c r="C52" t="s">
+        <v>256</v>
+      </c>
+      <c r="D52" t="s">
         <v>120</v>
       </c>
-      <c r="C52" t="s">
-        <v>257</v>
-      </c>
-      <c r="D52" t="s">
-        <v>121</v>
-      </c>
       <c r="E52">
         <v>1</v>
       </c>
@@ -2797,10 +2890,10 @@
         <v>8</v>
       </c>
       <c r="G52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H52" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -2808,7 +2901,7 @@
         <v>50052</v>
       </c>
       <c r="B53" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2817,10 +2910,10 @@
         <v>8</v>
       </c>
       <c r="G53" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H53" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -2828,13 +2921,13 @@
         <v>50053</v>
       </c>
       <c r="B54" t="s">
+        <v>122</v>
+      </c>
+      <c r="C54" t="s">
         <v>123</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>124</v>
-      </c>
-      <c r="D54" t="s">
-        <v>125</v>
       </c>
       <c r="E54">
         <v>2</v>
@@ -2843,10 +2936,10 @@
         <v>8</v>
       </c>
       <c r="G54" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H54" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -2854,13 +2947,13 @@
         <v>50054</v>
       </c>
       <c r="B55" t="s">
+        <v>134</v>
+      </c>
+      <c r="C55" t="s">
         <v>135</v>
       </c>
-      <c r="C55" t="s">
-        <v>136</v>
-      </c>
       <c r="D55" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -2869,10 +2962,10 @@
         <v>8</v>
       </c>
       <c r="G55" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H55" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -2880,13 +2973,13 @@
         <v>50055</v>
       </c>
       <c r="B56" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C56" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D56" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -2895,10 +2988,10 @@
         <v>8</v>
       </c>
       <c r="G56" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -2906,13 +2999,13 @@
         <v>50056</v>
       </c>
       <c r="B57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C57" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -2921,10 +3014,10 @@
         <v>8</v>
       </c>
       <c r="G57" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H57" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -2932,14 +3025,14 @@
         <v>50057</v>
       </c>
       <c r="B58" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C58" t="s">
+        <v>138</v>
+      </c>
+      <c r="D58" t="s">
         <v>139</v>
       </c>
-      <c r="D58" t="s">
-        <v>140</v>
-      </c>
       <c r="E58">
         <v>1</v>
       </c>
@@ -2947,10 +3040,10 @@
         <v>8</v>
       </c>
       <c r="G58" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -2958,13 +3051,13 @@
         <v>50058</v>
       </c>
       <c r="B59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C59" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D59" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -2973,10 +3066,10 @@
         <v>8</v>
       </c>
       <c r="G59" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H59" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -2984,14 +3077,14 @@
         <v>50059</v>
       </c>
       <c r="B60" t="s">
+        <v>140</v>
+      </c>
+      <c r="C60" t="s">
+        <v>149</v>
+      </c>
+      <c r="D60" t="s">
         <v>141</v>
       </c>
-      <c r="C60" t="s">
-        <v>150</v>
-      </c>
-      <c r="D60" t="s">
-        <v>142</v>
-      </c>
       <c r="E60">
         <v>1</v>
       </c>
@@ -2999,10 +3092,10 @@
         <v>8</v>
       </c>
       <c r="G60" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H60" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -3010,14 +3103,14 @@
         <v>50060</v>
       </c>
       <c r="B61" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" t="s">
+        <v>147</v>
+      </c>
+      <c r="D61" t="s">
         <v>145</v>
       </c>
-      <c r="C61" t="s">
-        <v>148</v>
-      </c>
-      <c r="D61" t="s">
-        <v>146</v>
-      </c>
       <c r="E61">
         <v>1</v>
       </c>
@@ -3025,10 +3118,10 @@
         <v>8</v>
       </c>
       <c r="G61" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H61" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -3036,14 +3129,14 @@
         <v>50061</v>
       </c>
       <c r="B62" t="s">
+        <v>150</v>
+      </c>
+      <c r="C62" t="s">
+        <v>281</v>
+      </c>
+      <c r="D62" t="s">
         <v>151</v>
       </c>
-      <c r="C62" t="s">
-        <v>282</v>
-      </c>
-      <c r="D62" t="s">
-        <v>152</v>
-      </c>
       <c r="E62">
         <v>1</v>
       </c>
@@ -3051,10 +3144,10 @@
         <v>8</v>
       </c>
       <c r="G62" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H62" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -3062,14 +3155,14 @@
         <v>50062</v>
       </c>
       <c r="B63" t="s">
+        <v>152</v>
+      </c>
+      <c r="C63" t="s">
+        <v>275</v>
+      </c>
+      <c r="D63" t="s">
         <v>153</v>
       </c>
-      <c r="C63" t="s">
-        <v>276</v>
-      </c>
-      <c r="D63" t="s">
-        <v>154</v>
-      </c>
       <c r="E63">
         <v>1</v>
       </c>
@@ -3077,10 +3170,10 @@
         <v>8</v>
       </c>
       <c r="G63" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H63" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -3088,14 +3181,14 @@
         <v>50063</v>
       </c>
       <c r="B64" t="s">
+        <v>154</v>
+      </c>
+      <c r="C64" t="s">
+        <v>276</v>
+      </c>
+      <c r="D64" t="s">
         <v>155</v>
       </c>
-      <c r="C64" t="s">
-        <v>277</v>
-      </c>
-      <c r="D64" t="s">
-        <v>156</v>
-      </c>
       <c r="E64">
         <v>1</v>
       </c>
@@ -3103,10 +3196,10 @@
         <v>8</v>
       </c>
       <c r="G64" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H64" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -3114,25 +3207,25 @@
         <v>50064</v>
       </c>
       <c r="B65" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C65" t="s">
+        <v>277</v>
+      </c>
+      <c r="D65" t="s">
+        <v>177</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>8</v>
+      </c>
+      <c r="G65" t="s">
+        <v>218</v>
+      </c>
+      <c r="H65" t="s">
         <v>278</v>
-      </c>
-      <c r="D65" t="s">
-        <v>178</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="F65">
-        <v>8</v>
-      </c>
-      <c r="G65" t="s">
-        <v>219</v>
-      </c>
-      <c r="H65" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -3140,22 +3233,22 @@
         <v>50065</v>
       </c>
       <c r="B66" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C66" t="s">
+        <v>279</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>8</v>
+      </c>
+      <c r="G66" t="s">
+        <v>219</v>
+      </c>
+      <c r="H66" t="s">
         <v>280</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="F66">
-        <v>8</v>
-      </c>
-      <c r="G66" t="s">
-        <v>220</v>
-      </c>
-      <c r="H66" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -3163,25 +3256,25 @@
         <v>50066</v>
       </c>
       <c r="B67" t="s">
+        <v>220</v>
+      </c>
+      <c r="C67" t="s">
+        <v>181</v>
+      </c>
+      <c r="D67" t="s">
+        <v>178</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>8</v>
+      </c>
+      <c r="G67" t="s">
         <v>221</v>
       </c>
-      <c r="C67" t="s">
-        <v>182</v>
-      </c>
-      <c r="D67" t="s">
-        <v>179</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="F67">
-        <v>8</v>
-      </c>
-      <c r="G67" t="s">
-        <v>222</v>
-      </c>
       <c r="H67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -3189,13 +3282,13 @@
         <v>50067</v>
       </c>
       <c r="B68" t="s">
+        <v>179</v>
+      </c>
+      <c r="C68" t="s">
         <v>180</v>
       </c>
-      <c r="C68" t="s">
-        <v>181</v>
-      </c>
       <c r="D68" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -3204,10 +3297,10 @@
         <v>8</v>
       </c>
       <c r="G68" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H68" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
@@ -3215,14 +3308,14 @@
         <v>50068</v>
       </c>
       <c r="B69" t="s">
+        <v>185</v>
+      </c>
+      <c r="C69" t="s">
+        <v>282</v>
+      </c>
+      <c r="D69" t="s">
         <v>186</v>
       </c>
-      <c r="C69" t="s">
-        <v>283</v>
-      </c>
-      <c r="D69" t="s">
-        <v>187</v>
-      </c>
       <c r="E69">
         <v>1</v>
       </c>
@@ -3230,10 +3323,10 @@
         <v>8</v>
       </c>
       <c r="G69" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H69" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
@@ -3241,14 +3334,14 @@
         <v>50069</v>
       </c>
       <c r="B70" t="s">
+        <v>183</v>
+      </c>
+      <c r="C70" t="s">
+        <v>283</v>
+      </c>
+      <c r="D70" t="s">
         <v>184</v>
       </c>
-      <c r="C70" t="s">
-        <v>284</v>
-      </c>
-      <c r="D70" t="s">
-        <v>185</v>
-      </c>
       <c r="E70">
         <v>1</v>
       </c>
@@ -3256,10 +3349,10 @@
         <v>8</v>
       </c>
       <c r="G70" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H70" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
@@ -3267,14 +3360,14 @@
         <v>50070</v>
       </c>
       <c r="B71" t="s">
+        <v>187</v>
+      </c>
+      <c r="C71" t="s">
+        <v>284</v>
+      </c>
+      <c r="D71" t="s">
         <v>188</v>
       </c>
-      <c r="C71" t="s">
-        <v>285</v>
-      </c>
-      <c r="D71" t="s">
-        <v>189</v>
-      </c>
       <c r="E71">
         <v>1</v>
       </c>
@@ -3282,10 +3375,10 @@
         <v>8</v>
       </c>
       <c r="G71" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H71" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
@@ -3293,25 +3386,25 @@
         <v>50071</v>
       </c>
       <c r="B72" t="s">
+        <v>226</v>
+      </c>
+      <c r="C72" t="s">
         <v>227</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>228</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>8</v>
+      </c>
+      <c r="G72" t="s">
         <v>229</v>
       </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
-      <c r="F72">
-        <v>8</v>
-      </c>
-      <c r="G72" t="s">
-        <v>230</v>
-      </c>
       <c r="H72" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
@@ -3319,25 +3412,25 @@
         <v>50072</v>
       </c>
       <c r="B73" t="s">
+        <v>230</v>
+      </c>
+      <c r="C73" t="s">
+        <v>285</v>
+      </c>
+      <c r="D73" t="s">
         <v>231</v>
       </c>
-      <c r="C73" t="s">
-        <v>286</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>8</v>
+      </c>
+      <c r="G73" t="s">
         <v>232</v>
       </c>
-      <c r="E73">
-        <v>1</v>
-      </c>
-      <c r="F73">
-        <v>8</v>
-      </c>
-      <c r="G73" t="s">
-        <v>233</v>
-      </c>
       <c r="H73" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -3345,25 +3438,25 @@
         <v>50073</v>
       </c>
       <c r="B74" t="s">
+        <v>233</v>
+      </c>
+      <c r="C74" t="s">
+        <v>242</v>
+      </c>
+      <c r="D74" t="s">
         <v>234</v>
       </c>
-      <c r="C74" t="s">
-        <v>243</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>8</v>
+      </c>
+      <c r="G74" t="s">
         <v>235</v>
       </c>
-      <c r="E74">
-        <v>1</v>
-      </c>
-      <c r="F74">
-        <v>8</v>
-      </c>
-      <c r="G74" t="s">
-        <v>236</v>
-      </c>
       <c r="H74" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
@@ -3371,31 +3464,40 @@
         <v>50074</v>
       </c>
       <c r="B75" t="s">
+        <v>239</v>
+      </c>
+      <c r="C75" t="s">
+        <v>255</v>
+      </c>
+      <c r="D75" t="s">
         <v>240</v>
       </c>
-      <c r="C75" t="s">
-        <v>256</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>8</v>
+      </c>
+      <c r="G75" t="s">
         <v>241</v>
       </c>
-      <c r="E75">
-        <v>1</v>
-      </c>
-      <c r="F75">
-        <v>8</v>
-      </c>
-      <c r="G75" t="s">
-        <v>242</v>
-      </c>
       <c r="H75" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>50075</v>
       </c>
+      <c r="B76" t="s">
+        <v>299</v>
+      </c>
+      <c r="C76" t="s">
+        <v>297</v>
+      </c>
+      <c r="D76" t="s">
+        <v>300</v>
+      </c>
       <c r="E76">
         <v>1</v>
       </c>
@@ -3403,16 +3505,25 @@
         <v>8</v>
       </c>
       <c r="G76" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="H76" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>50076</v>
       </c>
+      <c r="B77" t="s">
+        <v>302</v>
+      </c>
+      <c r="C77" t="s">
+        <v>306</v>
+      </c>
+      <c r="D77" t="s">
+        <v>305</v>
+      </c>
       <c r="E77">
         <v>1</v>
       </c>
@@ -3420,16 +3531,25 @@
         <v>8</v>
       </c>
       <c r="G77" t="s">
-        <v>157</v>
+        <v>224</v>
       </c>
       <c r="H77" t="s">
-        <v>90</v>
+        <v>280</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>50077</v>
       </c>
+      <c r="B78" t="s">
+        <v>307</v>
+      </c>
+      <c r="C78" t="s">
+        <v>310</v>
+      </c>
+      <c r="D78" t="s">
+        <v>309</v>
+      </c>
       <c r="E78">
         <v>1</v>
       </c>
@@ -3437,10 +3557,88 @@
         <v>8</v>
       </c>
       <c r="G78" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H78" t="s">
-        <v>88</v>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>50078</v>
+      </c>
+      <c r="B79" t="s">
+        <v>312</v>
+      </c>
+      <c r="C79" t="s">
+        <v>314</v>
+      </c>
+      <c r="D79" t="s">
+        <v>315</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>8</v>
+      </c>
+      <c r="G79" t="s">
+        <v>31</v>
+      </c>
+      <c r="H79" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>50079</v>
+      </c>
+      <c r="B80" t="s">
+        <v>316</v>
+      </c>
+      <c r="C80" t="s">
+        <v>319</v>
+      </c>
+      <c r="D80" t="s">
+        <v>318</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>8</v>
+      </c>
+      <c r="G80" t="s">
+        <v>28</v>
+      </c>
+      <c r="H80" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>50080</v>
+      </c>
+      <c r="B81" t="s">
+        <v>320</v>
+      </c>
+      <c r="C81" t="s">
+        <v>322</v>
+      </c>
+      <c r="D81" t="s">
+        <v>321</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>8</v>
+      </c>
+      <c r="G81" t="s">
+        <v>206</v>
+      </c>
+      <c r="H81" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/excel/buff.xlsx
+++ b/excel/buff.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="324">
   <si>
     <t>number</t>
   </si>
@@ -1070,131 +1070,135 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>每当你使用一张&lt;color=#b53030&gt;剑法牌&lt;/c&gt;,对随机敌方单位造成&lt;#x&gt;点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一层会提供一点侠客&lt;color=#b53030&gt;剑法&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一层会降低一点侠客&lt;color=#b53030&gt;剑法&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每打出一张&lt;color=#b5a430&gt;拳掌&lt;/c&gt;/&lt;color=#b53030&gt;剑法&lt;/c&gt;卡牌,对侠客造成&lt;#x&gt;点伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>映月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在回合开始时,获得&lt;#x&gt;张快斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_wujijianyi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_yingjian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法使用&lt;color=#b53030&gt;剑法牌&lt;/c&gt;。回合结束时移除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法使用&lt;color=#b5a430&gt;拳掌&lt;/c&gt;,&lt;color=#b53030&gt;剑法&lt;/c&gt;卡牌。回合结束时移除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b53030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_huaying</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当对敌人造成伤害时,施加&lt;#x&gt;层&lt;color=#b53030&gt;流血&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒仙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>86C115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_duxian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当对敌人造成伤害时,施加&lt;#x&gt;层&lt;color=#86C115&gt;毒&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>647D33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焚心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF0707</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当对敌人造成伤害时,施加&lt;#x&gt;层&lt;color=#CF0707&gt;燃烧&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_fenxin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰魄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1ac7c8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_bingpo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当对敌人造成伤害时,施加&lt;#x&gt;层&lt;color=#1ac7c8&gt;寒冷&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两仪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_liangyi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当你打出一张心法牌,随机获得一点&lt;color=#9630b5&gt;阴&lt;/c&gt;/&lt;color=#b5a430&gt;阳&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3079b5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>本回合中下&lt;#x&gt;张&lt;color=#b5a430&gt;拳掌&lt;/c&gt;/&lt;color=#b53030&gt;剑法&lt;/c&gt;牌会释放2次。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每当你使用一张&lt;color=#b53030&gt;剑法牌&lt;/c&gt;,对随机敌方单位造成&lt;#x&gt;点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每一层会提供一点侠客&lt;color=#b53030&gt;剑法&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每一层会降低一点侠客&lt;color=#b53030&gt;剑法&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每打出一张&lt;color=#b5a430&gt;拳掌&lt;/c&gt;/&lt;color=#b53030&gt;剑法&lt;/c&gt;卡牌,对侠客造成&lt;#x&gt;点伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>映月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在回合开始时,获得&lt;#x&gt;张快斩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_wujijianyi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_yingjian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法使用&lt;color=#b53030&gt;剑法牌&lt;/c&gt;。回合结束时移除。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花影</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法使用&lt;color=#b5a430&gt;拳掌&lt;/c&gt;,&lt;color=#b53030&gt;剑法&lt;/c&gt;卡牌。回合结束时移除。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b53030</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_huaying</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每当对敌人造成伤害时,施加&lt;#x&gt;层&lt;color=#b53030&gt;流血&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒仙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>86C115</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_duxian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每当对敌人造成伤害时,施加&lt;#x&gt;层&lt;color=#86C115&gt;毒&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>647D33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>焚心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CF0707</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每当对敌人造成伤害时,施加&lt;#x&gt;层&lt;color=#CF0707&gt;燃烧&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_fenxin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰魄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1ac7c8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_bingpo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每当对敌人造成伤害时,施加&lt;#x&gt;层&lt;color=#1ac7c8&gt;寒冷&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>两仪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_liangyi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每当你打出一张心法牌,随机获得一点&lt;color=#9630b5&gt;阴&lt;/c&gt;/&lt;color=#b5a430&gt;阳&lt;/c&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1538,7 +1542,7 @@
   <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1639,7 +1643,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -1680,7 +1684,7 @@
         <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1769,7 +1773,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
@@ -1836,7 +1840,7 @@
         <v>28</v>
       </c>
       <c r="H11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1888,7 +1892,7 @@
         <v>156</v>
       </c>
       <c r="H13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1925,7 +1929,7 @@
         <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D15" t="s">
         <v>38</v>
@@ -2093,7 +2097,7 @@
         <v>51</v>
       </c>
       <c r="H21" t="s">
-        <v>248</v>
+        <v>322</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -2113,7 +2117,7 @@
         <v>8</v>
       </c>
       <c r="G22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H22" t="s">
         <v>248</v>
@@ -2228,7 +2232,7 @@
         <v>270</v>
       </c>
       <c r="C27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D27" t="s">
         <v>60</v>
@@ -2243,7 +2247,7 @@
         <v>167</v>
       </c>
       <c r="H27" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -2254,7 +2258,7 @@
         <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D28" t="s">
         <v>62</v>
@@ -2436,7 +2440,7 @@
         <v>74</v>
       </c>
       <c r="C35" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D35" t="s">
         <v>75</v>
@@ -2748,7 +2752,7 @@
         <v>104</v>
       </c>
       <c r="C47" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D47" t="s">
         <v>105</v>
@@ -2973,7 +2977,7 @@
         <v>50055</v>
       </c>
       <c r="B56" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C56" t="s">
         <v>289</v>
@@ -3043,7 +3047,7 @@
         <v>211</v>
       </c>
       <c r="H58" t="s">
-        <v>87</v>
+        <v>307</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -3490,13 +3494,13 @@
         <v>50075</v>
       </c>
       <c r="B76" t="s">
+        <v>298</v>
+      </c>
+      <c r="C76" t="s">
+        <v>296</v>
+      </c>
+      <c r="D76" t="s">
         <v>299</v>
-      </c>
-      <c r="C76" t="s">
-        <v>297</v>
-      </c>
-      <c r="D76" t="s">
-        <v>300</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -3516,13 +3520,13 @@
         <v>50076</v>
       </c>
       <c r="B77" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C77" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D77" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -3542,13 +3546,13 @@
         <v>50077</v>
       </c>
       <c r="B78" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C78" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D78" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -3560,7 +3564,7 @@
         <v>156</v>
       </c>
       <c r="H78" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
@@ -3568,13 +3572,13 @@
         <v>50078</v>
       </c>
       <c r="B79" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C79" t="s">
+        <v>313</v>
+      </c>
+      <c r="D79" t="s">
         <v>314</v>
-      </c>
-      <c r="D79" t="s">
-        <v>315</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -3594,13 +3598,13 @@
         <v>50079</v>
       </c>
       <c r="B80" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C80" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D80" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -3620,13 +3624,13 @@
         <v>50080</v>
       </c>
       <c r="B81" t="s">
+        <v>319</v>
+      </c>
+      <c r="C81" t="s">
+        <v>321</v>
+      </c>
+      <c r="D81" t="s">
         <v>320</v>
-      </c>
-      <c r="C81" t="s">
-        <v>322</v>
-      </c>
-      <c r="D81" t="s">
-        <v>321</v>
       </c>
       <c r="E81">
         <v>1</v>

--- a/excel/buff.xlsx
+++ b/excel/buff.xlsx
@@ -1541,8 +1541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/excel/buff.xlsx
+++ b/excel/buff.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="330">
   <si>
     <t>number</t>
   </si>
@@ -960,10 +960,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=#b5a430&gt;拳掌&lt;/c&gt;卡牌使用距离增加1,持续&lt;#x&gt;回合。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>每一层会提供一点侠客&lt;color=#b5a430&gt;拳掌&lt;/c&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1126,79 +1122,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>毒仙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>86C115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_duxian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当对敌人造成伤害时,施加&lt;#x&gt;层&lt;color=#86C115&gt;毒&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>647D33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焚心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF0707</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当对敌人造成伤害时,施加&lt;#x&gt;层&lt;color=#CF0707&gt;燃烧&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_fenxin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰魄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1ac7c8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_bingpo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当对敌人造成伤害时,施加&lt;#x&gt;层&lt;color=#1ac7c8&gt;寒冷&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两仪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_liangyi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当你打出一张心法牌,随机获得一点&lt;color=#9630b5&gt;阴&lt;/c&gt;/&lt;color=#b5a430&gt;阳&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3079b5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本回合中下&lt;#x&gt;张&lt;color=#b5a430&gt;拳掌&lt;/c&gt;/&lt;color=#b53030&gt;剑法&lt;/c&gt;牌会释放2次。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大衍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在本次战斗中,本卡牌每使用一次,伤害增加&lt;color=#b53030&gt;&lt;#x&gt;&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_dayan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八卦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>每当对敌人造成伤害时,施加&lt;#x&gt;层&lt;color=#b53030&gt;流血&lt;/c&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>毒仙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>86C115</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_duxian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每当对敌人造成伤害时,施加&lt;#x&gt;层&lt;color=#86C115&gt;毒&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>647D33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>焚心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CF0707</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每当对敌人造成伤害时,施加&lt;#x&gt;层&lt;color=#CF0707&gt;燃烧&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_fenxin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰魄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1ac7c8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_bingpo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每当对敌人造成伤害时,施加&lt;#x&gt;层&lt;color=#1ac7c8&gt;寒冷&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>两仪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_liangyi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每当你打出一张心法牌,随机获得一点&lt;color=#9630b5&gt;阴&lt;/c&gt;/&lt;color=#b5a430&gt;阳&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3079b5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本回合中下&lt;#x&gt;张&lt;color=#b5a430&gt;拳掌&lt;/c&gt;/&lt;color=#b53030&gt;剑法&lt;/c&gt;牌会释放2次。</t>
+    <t>buff_bagua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本回合中,每当打出一张&lt;color=#b5a430&gt;拳掌&lt;/c&gt;卡牌,获得&lt;#x&gt;层&lt;color=#2d2d2d&gt;反震&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#b5a430&gt;拳掌&lt;/c&gt;卡牌使用距离增加1,持续&lt;#x&gt;回合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1539,10 +1563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80:C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1643,7 +1667,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -1658,7 +1682,7 @@
         <v>158</v>
       </c>
       <c r="H4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1684,7 +1708,7 @@
         <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1773,7 +1797,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
@@ -1840,7 +1864,7 @@
         <v>28</v>
       </c>
       <c r="H11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1892,7 +1916,7 @@
         <v>156</v>
       </c>
       <c r="H13" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1918,7 +1942,7 @@
         <v>161</v>
       </c>
       <c r="H14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1929,7 +1953,7 @@
         <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D15" t="s">
         <v>38</v>
@@ -1955,7 +1979,7 @@
         <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1978,7 +2002,7 @@
         <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D17" t="s">
         <v>41</v>
@@ -2097,7 +2121,7 @@
         <v>51</v>
       </c>
       <c r="H21" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -2108,7 +2132,7 @@
         <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2117,7 +2141,7 @@
         <v>8</v>
       </c>
       <c r="G22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H22" t="s">
         <v>248</v>
@@ -2131,7 +2155,7 @@
         <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2177,10 +2201,10 @@
         <v>50023</v>
       </c>
       <c r="B25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D25" t="s">
         <v>57</v>
@@ -2229,10 +2253,10 @@
         <v>50025</v>
       </c>
       <c r="B27" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D27" t="s">
         <v>60</v>
@@ -2247,7 +2271,7 @@
         <v>167</v>
       </c>
       <c r="H27" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -2258,7 +2282,7 @@
         <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D28" t="s">
         <v>62</v>
@@ -2281,10 +2305,10 @@
         <v>50027</v>
       </c>
       <c r="B29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C29" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D29" t="s">
         <v>63</v>
@@ -2310,7 +2334,7 @@
         <v>64</v>
       </c>
       <c r="C30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D30" t="s">
         <v>65</v>
@@ -2336,7 +2360,7 @@
         <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D31" t="s">
         <v>67</v>
@@ -2362,7 +2386,7 @@
         <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D32" t="s">
         <v>69</v>
@@ -2429,7 +2453,7 @@
         <v>174</v>
       </c>
       <c r="H34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -2440,7 +2464,7 @@
         <v>74</v>
       </c>
       <c r="C35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D35" t="s">
         <v>75</v>
@@ -2466,7 +2490,7 @@
         <v>76</v>
       </c>
       <c r="C36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D36" t="s">
         <v>77</v>
@@ -2507,7 +2531,7 @@
         <v>191</v>
       </c>
       <c r="H37" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -2648,7 +2672,7 @@
         <v>95</v>
       </c>
       <c r="C43" t="s">
-        <v>263</v>
+        <v>329</v>
       </c>
       <c r="D43" t="s">
         <v>96</v>
@@ -2752,7 +2776,7 @@
         <v>104</v>
       </c>
       <c r="C47" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D47" t="s">
         <v>105</v>
@@ -2977,10 +3001,10 @@
         <v>50055</v>
       </c>
       <c r="B56" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C56" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D56" t="s">
         <v>130</v>
@@ -3006,7 +3030,7 @@
         <v>131</v>
       </c>
       <c r="C57" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D57" t="s">
         <v>133</v>
@@ -3047,7 +3071,7 @@
         <v>211</v>
       </c>
       <c r="H58" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -3136,7 +3160,7 @@
         <v>150</v>
       </c>
       <c r="C62" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D62" t="s">
         <v>151</v>
@@ -3151,7 +3175,7 @@
         <v>215</v>
       </c>
       <c r="H62" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -3162,7 +3186,7 @@
         <v>152</v>
       </c>
       <c r="C63" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D63" t="s">
         <v>153</v>
@@ -3177,7 +3201,7 @@
         <v>216</v>
       </c>
       <c r="H63" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -3188,7 +3212,7 @@
         <v>154</v>
       </c>
       <c r="C64" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D64" t="s">
         <v>155</v>
@@ -3203,7 +3227,7 @@
         <v>217</v>
       </c>
       <c r="H64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -3214,7 +3238,7 @@
         <v>175</v>
       </c>
       <c r="C65" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D65" t="s">
         <v>177</v>
@@ -3229,7 +3253,7 @@
         <v>218</v>
       </c>
       <c r="H65" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -3240,7 +3264,7 @@
         <v>176</v>
       </c>
       <c r="C66" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -3252,7 +3276,7 @@
         <v>219</v>
       </c>
       <c r="H66" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -3315,7 +3339,7 @@
         <v>185</v>
       </c>
       <c r="C69" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D69" t="s">
         <v>186</v>
@@ -3341,7 +3365,7 @@
         <v>183</v>
       </c>
       <c r="C70" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D70" t="s">
         <v>184</v>
@@ -3367,7 +3391,7 @@
         <v>187</v>
       </c>
       <c r="C71" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D71" t="s">
         <v>188</v>
@@ -3399,7 +3423,7 @@
         <v>228</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F72">
         <v>8</v>
@@ -3419,7 +3443,7 @@
         <v>230</v>
       </c>
       <c r="C73" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D73" t="s">
         <v>231</v>
@@ -3494,13 +3518,13 @@
         <v>50075</v>
       </c>
       <c r="B76" t="s">
+        <v>297</v>
+      </c>
+      <c r="C76" t="s">
+        <v>295</v>
+      </c>
+      <c r="D76" t="s">
         <v>298</v>
-      </c>
-      <c r="C76" t="s">
-        <v>296</v>
-      </c>
-      <c r="D76" t="s">
-        <v>299</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -3520,13 +3544,13 @@
         <v>50076</v>
       </c>
       <c r="B77" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C77" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="D77" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -3538,7 +3562,7 @@
         <v>224</v>
       </c>
       <c r="H77" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
@@ -3546,13 +3570,13 @@
         <v>50077</v>
       </c>
       <c r="B78" t="s">
+        <v>304</v>
+      </c>
+      <c r="C78" t="s">
+        <v>307</v>
+      </c>
+      <c r="D78" t="s">
         <v>306</v>
-      </c>
-      <c r="C78" t="s">
-        <v>309</v>
-      </c>
-      <c r="D78" t="s">
-        <v>308</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -3564,7 +3588,7 @@
         <v>156</v>
       </c>
       <c r="H78" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
@@ -3572,13 +3596,13 @@
         <v>50078</v>
       </c>
       <c r="B79" t="s">
+        <v>309</v>
+      </c>
+      <c r="C79" t="s">
         <v>311</v>
       </c>
-      <c r="C79" t="s">
-        <v>313</v>
-      </c>
       <c r="D79" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -3598,13 +3622,13 @@
         <v>50079</v>
       </c>
       <c r="B80" t="s">
+        <v>313</v>
+      </c>
+      <c r="C80" t="s">
+        <v>316</v>
+      </c>
+      <c r="D80" t="s">
         <v>315</v>
-      </c>
-      <c r="C80" t="s">
-        <v>318</v>
-      </c>
-      <c r="D80" t="s">
-        <v>317</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -3624,13 +3648,13 @@
         <v>50080</v>
       </c>
       <c r="B81" t="s">
+        <v>317</v>
+      </c>
+      <c r="C81" t="s">
         <v>319</v>
       </c>
-      <c r="C81" t="s">
-        <v>321</v>
-      </c>
       <c r="D81" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -3642,6 +3666,58 @@
         <v>206</v>
       </c>
       <c r="H81" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>50081</v>
+      </c>
+      <c r="B82" t="s">
+        <v>322</v>
+      </c>
+      <c r="C82" t="s">
+        <v>323</v>
+      </c>
+      <c r="D82" t="s">
+        <v>324</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>8</v>
+      </c>
+      <c r="G82" t="s">
+        <v>219</v>
+      </c>
+      <c r="H82" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>50082</v>
+      </c>
+      <c r="B83" t="s">
+        <v>325</v>
+      </c>
+      <c r="C83" t="s">
+        <v>328</v>
+      </c>
+      <c r="D83" t="s">
+        <v>327</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>8</v>
+      </c>
+      <c r="G83" t="s">
+        <v>206</v>
+      </c>
+      <c r="H83" t="s">
         <v>89</v>
       </c>
     </row>

--- a/excel/buff.xlsx
+++ b/excel/buff.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B8F979-2F4C-4F9B-810E-DAC856B08F56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1229,7 +1230,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1562,26 +1563,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80:C80"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="66.75" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
+    <col min="3" max="3" width="66.77734375" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
-    <col min="5" max="5" width="10.625" customWidth="1"/>
-    <col min="6" max="6" width="9.375" customWidth="1"/>
-    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="18.21875" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1607,7 +1608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1633,7 +1634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>50001</v>
       </c>
@@ -1659,7 +1660,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>50002</v>
       </c>
@@ -1685,7 +1686,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>50003</v>
       </c>
@@ -1711,7 +1712,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>50004</v>
       </c>
@@ -1737,7 +1738,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>50005</v>
       </c>
@@ -1763,7 +1764,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>50006</v>
       </c>
@@ -1789,7 +1790,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>50007</v>
       </c>
@@ -1815,7 +1816,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>50008</v>
       </c>
@@ -1841,7 +1842,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>50009</v>
       </c>
@@ -1867,7 +1868,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>50010</v>
       </c>
@@ -1893,7 +1894,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>50011</v>
       </c>
@@ -1919,7 +1920,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>50012</v>
       </c>
@@ -1945,7 +1946,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>50013</v>
       </c>
@@ -1971,7 +1972,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>50014</v>
       </c>
@@ -1994,7 +1995,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>50015</v>
       </c>
@@ -2020,7 +2021,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>50016</v>
       </c>
@@ -2046,7 +2047,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>50017</v>
       </c>
@@ -2072,7 +2073,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>50018</v>
       </c>
@@ -2098,7 +2099,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>50019</v>
       </c>
@@ -2124,7 +2125,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>50020</v>
       </c>
@@ -2147,7 +2148,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>50021</v>
       </c>
@@ -2170,7 +2171,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>50022</v>
       </c>
@@ -2196,7 +2197,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>50023</v>
       </c>
@@ -2222,7 +2223,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>50024</v>
       </c>
@@ -2248,7 +2249,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>50025</v>
       </c>
@@ -2274,7 +2275,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>50026</v>
       </c>
@@ -2300,7 +2301,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>50027</v>
       </c>
@@ -2326,7 +2327,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>50029</v>
       </c>
@@ -2352,7 +2353,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>50030</v>
       </c>
@@ -2378,7 +2379,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>50031</v>
       </c>
@@ -2404,7 +2405,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>50032</v>
       </c>
@@ -2430,7 +2431,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>50033</v>
       </c>
@@ -2456,7 +2457,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>50034</v>
       </c>
@@ -2482,7 +2483,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>50035</v>
       </c>
@@ -2508,7 +2509,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>50036</v>
       </c>
@@ -2534,7 +2535,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>50037</v>
       </c>
@@ -2560,7 +2561,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>50038</v>
       </c>
@@ -2586,7 +2587,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>50039</v>
       </c>
@@ -2612,7 +2613,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>50040</v>
       </c>
@@ -2638,7 +2639,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>50041</v>
       </c>
@@ -2664,7 +2665,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>50042</v>
       </c>
@@ -2690,7 +2691,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>50043</v>
       </c>
@@ -2716,7 +2717,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>50044</v>
       </c>
@@ -2742,7 +2743,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>50045</v>
       </c>
@@ -2768,7 +2769,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>50046</v>
       </c>
@@ -2794,7 +2795,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>50047</v>
       </c>
@@ -2820,7 +2821,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>50048</v>
       </c>
@@ -2846,7 +2847,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>50049</v>
       </c>
@@ -2872,7 +2873,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50050</v>
       </c>
@@ -2898,7 +2899,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50051</v>
       </c>
@@ -2924,7 +2925,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>50052</v>
       </c>
@@ -2944,7 +2945,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>50053</v>
       </c>
@@ -2970,7 +2971,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>50054</v>
       </c>
@@ -2996,7 +2997,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>50055</v>
       </c>
@@ -3022,7 +3023,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>50056</v>
       </c>
@@ -3048,7 +3049,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>50057</v>
       </c>
@@ -3074,7 +3075,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>50058</v>
       </c>
@@ -3100,7 +3101,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>50059</v>
       </c>
@@ -3126,7 +3127,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>50060</v>
       </c>
@@ -3152,7 +3153,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>50061</v>
       </c>
@@ -3178,7 +3179,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>50062</v>
       </c>
@@ -3204,7 +3205,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>50063</v>
       </c>
@@ -3230,7 +3231,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>50064</v>
       </c>
@@ -3256,7 +3257,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>50065</v>
       </c>
@@ -3279,7 +3280,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>50066</v>
       </c>
@@ -3305,7 +3306,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>50067</v>
       </c>
@@ -3331,7 +3332,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>50068</v>
       </c>
@@ -3357,7 +3358,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>50069</v>
       </c>
@@ -3383,7 +3384,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>50070</v>
       </c>
@@ -3409,7 +3410,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>50071</v>
       </c>
@@ -3435,7 +3436,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>50072</v>
       </c>
@@ -3461,7 +3462,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>50073</v>
       </c>
@@ -3487,7 +3488,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>50074</v>
       </c>
@@ -3513,7 +3514,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>50075</v>
       </c>
@@ -3539,7 +3540,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>50076</v>
       </c>
@@ -3565,7 +3566,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>50077</v>
       </c>
@@ -3591,7 +3592,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>50078</v>
       </c>
@@ -3617,7 +3618,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>50079</v>
       </c>
@@ -3643,7 +3644,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>50080</v>
       </c>
@@ -3669,7 +3670,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>50081</v>
       </c>
@@ -3695,7 +3696,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>50082</v>
       </c>

--- a/excel/buff.xlsx
+++ b/excel/buff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B8F979-2F4C-4F9B-810E-DAC856B08F56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BD6FD8-8D61-4B37-A2E3-76BE28DC644F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1566,8 +1566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/excel/buff.xlsx
+++ b/excel/buff.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BD6FD8-8D61-4B37-A2E3-76BE28DC644F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5314A8EC-B16C-4FA4-96AD-65FE50B8D01A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="336">
   <si>
     <t>number</t>
   </si>
@@ -1224,6 +1224,30 @@
   </si>
   <si>
     <t>&lt;color=#b5a430&gt;拳掌&lt;/c&gt;卡牌使用距离增加1,持续&lt;#x&gt;回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大血量提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大血量下降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升侠客&lt;color=#b53030&gt;最大血量&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少侠客&lt;color=#b53030&gt;最大血量&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_hp_ts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_hp_xj</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1564,10 +1588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3722,6 +3746,58 @@
         <v>89</v>
       </c>
     </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>50083</v>
+      </c>
+      <c r="B84" t="s">
+        <v>330</v>
+      </c>
+      <c r="C84" t="s">
+        <v>332</v>
+      </c>
+      <c r="D84" t="s">
+        <v>334</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>8</v>
+      </c>
+      <c r="G84" t="s">
+        <v>167</v>
+      </c>
+      <c r="H84" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>50084</v>
+      </c>
+      <c r="B85" t="s">
+        <v>331</v>
+      </c>
+      <c r="C85" t="s">
+        <v>333</v>
+      </c>
+      <c r="D85" t="s">
+        <v>335</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+      <c r="F85">
+        <v>8</v>
+      </c>
+      <c r="G85" t="s">
+        <v>168</v>
+      </c>
+      <c r="H85" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
